--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="23820" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="23820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -2409,7 +2409,7 @@
     <t>soft drink</t>
   </si>
   <si>
-    <t>images/product/Cocktail/RT_milk_tea.png</t>
+    <t>images/product/Mocktail/RT_milk_tea.png</t>
   </si>
   <si>
     <t>Earl grey tea/Fresh milk/Lavender syrup/Cream</t>
@@ -2427,7 +2427,7 @@
     <t>白日梦</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Daydream.png</t>
+    <t>images/product/Mocktail/Daydream.png</t>
   </si>
   <si>
     <t>Earl grey tea/Pineapple juice/Lavender syrup/lemon juice</t>
@@ -2598,10 +2598,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2644,7 +2644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2665,10 +2665,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2680,59 +2702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2741,9 +2710,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2758,6 +2727,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2765,15 +2765,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2788,7 +2780,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2803,13 +2803,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2821,19 +2827,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2851,13 +2893,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2869,73 +2947,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2947,37 +2977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3082,6 +3082,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3103,6 +3112,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3120,44 +3153,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3182,135 +3182,135 @@
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3750,7 +3750,7 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -4535,8 +4535,8 @@
   <sheetPr/>
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="23820" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -2598,8 +2598,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2644,7 +2644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2665,10 +2665,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2680,36 +2696,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2718,32 +2704,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2765,7 +2750,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2778,19 +2779,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2803,6 +2803,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2810,24 +2816,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2845,13 +2833,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2863,85 +2929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2953,7 +2941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2971,19 +2959,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3082,8 +3082,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3092,7 +3092,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3115,23 +3115,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3151,27 +3162,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3179,138 +3179,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3750,8 +3750,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4535,8 +4535,8 @@
   <sheetPr/>
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="L166" sqref="L166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857">
   <si>
     <t>id</t>
   </si>
@@ -375,10 +375,10 @@
     <t>RMB</t>
   </si>
   <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>228/份</t>
+    <t>258</t>
+  </si>
+  <si>
+    <t>258/份</t>
   </si>
   <si>
     <t>food</t>
@@ -1096,9 +1096,6 @@
   </si>
   <si>
     <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
-  </si>
-  <si>
-    <t>258</t>
   </si>
   <si>
     <t>258/Bottle</t>
@@ -2599,9 +2596,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2650,6 +2647,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2657,11 +2670,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2673,16 +2685,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2691,6 +2702,67 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,81 +2777,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2787,7 +2784,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2809,13 +2806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2827,25 +2830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2863,7 +2854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2875,7 +2872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2887,7 +2884,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2899,13 +2926,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2917,37 +2944,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2959,31 +2974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3088,6 +3085,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3108,15 +3120,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3162,71 +3165,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3235,82 +3232,82 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3750,7 +3747,7 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4535,8 +4532,8 @@
   <sheetPr/>
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="L166" sqref="L166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6577,10 +6574,10 @@
         <v>118</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="H40" s="14" t="b">
         <v>0</v>
@@ -6608,13 +6605,13 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>354</v>
@@ -6623,10 +6620,10 @@
         <v>118</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="H41" s="14" t="b">
         <v>0</v>
@@ -6657,10 +6654,10 @@
         <v>97</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>354</v>
@@ -6669,10 +6666,10 @@
         <v>118</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G42" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>370</v>
       </c>
       <c r="H42" s="14" t="b">
         <v>0</v>
@@ -6703,10 +6700,10 @@
         <v>236</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>354</v>
@@ -6715,10 +6712,10 @@
         <v>118</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>374</v>
       </c>
       <c r="H43" s="14" t="b">
         <v>0</v>
@@ -6746,13 +6743,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>41</v>
@@ -6764,7 +6761,7 @@
         <v>860</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H44" s="14" t="b">
         <v>0</v>
@@ -6792,13 +6789,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>381</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>41</v>
@@ -6810,7 +6807,7 @@
         <v>960</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H45" s="14" t="b">
         <v>0</v>
@@ -6841,10 +6838,10 @@
         <v>355</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>384</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>41</v>
@@ -6856,7 +6853,7 @@
         <v>860</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H46" s="14" t="b">
         <v>0</v>
@@ -6884,13 +6881,13 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>387</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>41</v>
@@ -6902,7 +6899,7 @@
         <v>1080</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H47" s="14" t="b">
         <v>0</v>
@@ -6930,13 +6927,13 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>41</v>
@@ -6948,7 +6945,7 @@
         <v>1180</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H48" s="14" t="b">
         <v>0</v>
@@ -6979,10 +6976,10 @@
         <v>154</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>41</v>
@@ -6994,7 +6991,7 @@
         <v>1080</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H49" s="14" t="b">
         <v>0</v>
@@ -7022,13 +7019,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>41</v>
@@ -7040,7 +7037,7 @@
         <v>1100</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H50" s="14" t="b">
         <v>0</v>
@@ -7068,16 +7065,16 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>118</v>
@@ -7086,7 +7083,7 @@
         <v>1100</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H51" s="14" t="b">
         <v>0</v>
@@ -7114,13 +7111,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>406</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>41</v>
@@ -7132,7 +7129,7 @@
         <v>1100</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H52" s="14" t="b">
         <v>0</v>
@@ -7163,10 +7160,10 @@
         <v>202</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>407</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>408</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>41</v>
@@ -7178,7 +7175,7 @@
         <v>1180</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H53" s="14" t="b">
         <v>0</v>
@@ -7206,13 +7203,13 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>411</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>41</v>
@@ -7224,7 +7221,7 @@
         <v>880</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H54" s="14" t="b">
         <v>0</v>
@@ -7252,13 +7249,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>415</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>41</v>
@@ -7270,7 +7267,7 @@
         <v>1280</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H55" s="14" t="b">
         <v>0</v>
@@ -7301,13 +7298,13 @@
         <v>229</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="D56" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>118</v>
@@ -7316,7 +7313,7 @@
         <v>880</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H56" s="14" t="b">
         <v>0</v>
@@ -7347,10 +7344,10 @@
         <v>210</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>422</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>44</v>
@@ -7362,7 +7359,7 @@
         <v>1100</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H57" s="14" t="b">
         <v>0</v>
@@ -7390,13 +7387,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>426</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>44</v>
@@ -7408,7 +7405,7 @@
         <v>2650</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H58" s="14" t="b">
         <v>0</v>
@@ -7439,10 +7436,10 @@
         <v>170</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>429</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>44</v>
@@ -7454,7 +7451,7 @@
         <v>880</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H59" s="14" t="b">
         <v>0</v>
@@ -7482,13 +7479,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>433</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>44</v>
@@ -7500,7 +7497,7 @@
         <v>1050</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H60" s="14" t="b">
         <v>0</v>
@@ -7528,13 +7525,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>437</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>44</v>
@@ -7546,7 +7543,7 @@
         <v>880</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H61" s="14" t="b">
         <v>0</v>
@@ -7574,13 +7571,13 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>441</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>44</v>
@@ -7592,7 +7589,7 @@
         <v>1700</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H62" s="14" t="b">
         <v>0</v>
@@ -7620,13 +7617,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>47</v>
@@ -7638,7 +7635,7 @@
         <v>880</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H63" s="14" t="b">
         <v>0</v>
@@ -7666,13 +7663,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>47</v>
@@ -7684,7 +7681,7 @@
         <v>1400</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H64" s="14" t="b">
         <v>0</v>
@@ -7712,13 +7709,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="C65" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>452</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>47</v>
@@ -7730,7 +7727,7 @@
         <v>1800</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H65" s="14" t="b">
         <v>0</v>
@@ -7758,13 +7755,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B66" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="C66" s="10" t="s">
         <v>455</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>456</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>47</v>
@@ -7776,7 +7773,7 @@
         <v>1080</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H66" s="14" t="b">
         <v>0</v>
@@ -7804,13 +7801,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B67" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="C67" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>460</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>47</v>
@@ -7822,7 +7819,7 @@
         <v>1550</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H67" s="14" t="b">
         <v>0</v>
@@ -7850,13 +7847,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="C68" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>47</v>
@@ -7868,7 +7865,7 @@
         <v>2050</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H68" s="14" t="b">
         <v>0</v>
@@ -7899,10 +7896,10 @@
         <v>146</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>467</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>47</v>
@@ -7914,7 +7911,7 @@
         <v>2850</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H69" s="14" t="b">
         <v>0</v>
@@ -7942,13 +7939,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B70" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="C70" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>47</v>
@@ -7960,7 +7957,7 @@
         <v>900</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H70" s="14" t="b">
         <v>0</v>
@@ -7988,13 +7985,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B71" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="C71" s="10" t="s">
         <v>474</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>475</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>47</v>
@@ -8006,7 +8003,7 @@
         <v>1650</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H71" s="14" t="b">
         <v>0</v>
@@ -8034,13 +8031,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B72" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="C72" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>479</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>47</v>
@@ -8052,7 +8049,7 @@
         <v>2350</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H72" s="14" t="b">
         <v>0</v>
@@ -8080,13 +8077,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B73" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="C73" s="10" t="s">
         <v>482</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>483</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>47</v>
@@ -8098,7 +8095,7 @@
         <v>2180</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H73" s="14" t="b">
         <v>0</v>
@@ -8126,13 +8123,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B74" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="C74" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>487</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>47</v>
@@ -8144,7 +8141,7 @@
         <v>4980</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H74" s="14" t="b">
         <v>0</v>
@@ -8172,13 +8169,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="C75" s="10" t="s">
         <v>490</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>491</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>47</v>
@@ -8187,10 +8184,10 @@
         <v>118</v>
       </c>
       <c r="F75" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="H75" s="14" t="b">
         <v>0</v>
@@ -8218,13 +8215,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="C76" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>47</v>
@@ -8236,7 +8233,7 @@
         <v>2080</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H76" s="14" t="b">
         <v>0</v>
@@ -8264,13 +8261,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B77" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="C77" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>500</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>47</v>
@@ -8282,7 +8279,7 @@
         <v>4880</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H77" s="14" t="b">
         <v>0</v>
@@ -8310,13 +8307,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="C78" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>504</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>47</v>
@@ -8325,10 +8322,10 @@
         <v>118</v>
       </c>
       <c r="F78" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="H78" s="14" t="b">
         <v>0</v>
@@ -8356,13 +8353,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B79" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="C79" s="10" t="s">
         <v>506</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>507</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>47</v>
@@ -8374,7 +8371,7 @@
         <v>2180</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H79" s="14" t="b">
         <v>0</v>
@@ -8402,13 +8399,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B80" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="C80" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>511</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>47</v>
@@ -8417,10 +8414,10 @@
         <v>118</v>
       </c>
       <c r="F80" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="H80" s="14" t="b">
         <v>0</v>
@@ -8448,13 +8445,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B81" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="C81" s="10" t="s">
         <v>513</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>514</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>47</v>
@@ -8463,10 +8460,10 @@
         <v>118</v>
       </c>
       <c r="F81" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="G81" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="H81" s="14" t="b">
         <v>0</v>
@@ -8494,13 +8491,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B82" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="C82" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>47</v>
@@ -8512,7 +8509,7 @@
         <v>2080</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H82" s="14" t="b">
         <v>0</v>
@@ -8540,13 +8537,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B83" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="C83" s="10" t="s">
         <v>519</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>520</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>47</v>
@@ -8555,10 +8552,10 @@
         <v>118</v>
       </c>
       <c r="F83" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="H83" s="14" t="b">
         <v>0</v>
@@ -8586,16 +8583,16 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="D84" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>118</v>
@@ -8604,7 +8601,7 @@
         <v>1080</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H84" s="14" t="b">
         <v>0</v>
@@ -8632,13 +8629,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="C85" s="10" t="s">
         <v>527</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>528</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>50</v>
@@ -8650,7 +8647,7 @@
         <v>980</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H85" s="14" t="b">
         <v>0</v>
@@ -8678,13 +8675,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B86" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="C86" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>532</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>50</v>
@@ -8696,7 +8693,7 @@
         <v>1180</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H86" s="14" t="b">
         <v>0</v>
@@ -8724,13 +8721,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B87" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="C87" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>536</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>50</v>
@@ -8742,7 +8739,7 @@
         <v>1280</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H87" s="14" t="b">
         <v>0</v>
@@ -8770,13 +8767,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B88" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="C88" s="10" t="s">
         <v>539</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>540</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>50</v>
@@ -8788,7 +8785,7 @@
         <v>2400</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H88" s="14" t="b">
         <v>0</v>
@@ -8819,10 +8816,10 @@
         <v>257</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>543</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>50</v>
@@ -8834,7 +8831,7 @@
         <v>3880</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H89" s="14" t="b">
         <v>0</v>
@@ -8862,13 +8859,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B90" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="C90" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>547</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>50</v>
@@ -8880,7 +8877,7 @@
         <v>980</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H90" s="14" t="b">
         <v>0</v>
@@ -8908,13 +8905,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B91" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="C91" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>50</v>
@@ -8926,7 +8923,7 @@
         <v>1180</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H91" s="14" t="b">
         <v>0</v>
@@ -8954,13 +8951,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B92" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="C92" s="10" t="s">
         <v>552</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>553</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>50</v>
@@ -8972,7 +8969,7 @@
         <v>880</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H92" s="14" t="b">
         <v>0</v>
@@ -9000,13 +8997,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B93" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="C93" s="10" t="s">
         <v>556</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>557</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>50</v>
@@ -9018,7 +9015,7 @@
         <v>1480</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H93" s="14" t="b">
         <v>0</v>
@@ -9046,13 +9043,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B94" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="C94" s="10" t="s">
         <v>560</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>561</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>50</v>
@@ -9064,7 +9061,7 @@
         <v>3680</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H94" s="14" t="b">
         <v>0</v>
@@ -9092,13 +9089,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B95" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="C95" s="10" t="s">
         <v>564</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>565</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>50</v>
@@ -9110,7 +9107,7 @@
         <v>1180</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H95" s="14" t="b">
         <v>0</v>
@@ -9138,13 +9135,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B96" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="C96" s="10" t="s">
         <v>567</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>568</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>50</v>
@@ -9156,7 +9153,7 @@
         <v>2380</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H96" s="14" t="b">
         <v>0</v>
@@ -9184,13 +9181,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B97" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="C97" s="10" t="s">
         <v>571</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>572</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>53</v>
@@ -9202,7 +9199,7 @@
         <v>1380</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H97" s="14" t="b">
         <v>0</v>
@@ -9230,13 +9227,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B98" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="C98" s="10" t="s">
         <v>575</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>576</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>53</v>
@@ -9248,7 +9245,7 @@
         <v>1180</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H98" s="14" t="b">
         <v>0</v>
@@ -9276,13 +9273,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B99" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="C99" s="10" t="s">
         <v>578</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>579</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>53</v>
@@ -9294,7 +9291,7 @@
         <v>1680</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H99" s="14" t="b">
         <v>0</v>
@@ -9322,13 +9319,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B100" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="C100" s="10" t="s">
         <v>582</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>583</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>53</v>
@@ -9340,7 +9337,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H100" s="14" t="b">
         <v>0</v>
@@ -9368,13 +9365,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B101" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="B101" s="24" t="s">
+      <c r="C101" s="10" t="s">
         <v>585</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>586</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>53</v>
@@ -9386,7 +9383,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H101" s="14" t="b">
         <v>0</v>
@@ -9414,13 +9411,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="C102" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>589</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>53</v>
@@ -9432,7 +9429,7 @@
         <v>1280</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H102" s="14" t="b">
         <v>0</v>
@@ -9460,13 +9457,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>592</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>593</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>53</v>
@@ -9478,7 +9475,7 @@
         <v>1080</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H103" s="14" t="b">
         <v>0</v>
@@ -9506,13 +9503,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>595</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>596</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>53</v>
@@ -9524,7 +9521,7 @@
         <v>1880</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H104" s="14" t="b">
         <v>0</v>
@@ -9552,13 +9549,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>599</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>600</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>53</v>
@@ -9570,7 +9567,7 @@
         <v>2680</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H105" s="14" t="b">
         <v>0</v>
@@ -9598,13 +9595,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B106" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="C106" s="10" t="s">
         <v>603</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>604</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>53</v>
@@ -9616,7 +9613,7 @@
         <v>1380</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H106" s="14" t="b">
         <v>0</v>
@@ -9644,13 +9641,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B107" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="C107" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>608</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>53</v>
@@ -9662,7 +9659,7 @@
         <v>1480</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H107" s="14" t="b">
         <v>0</v>
@@ -9690,13 +9687,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B108" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="C108" s="10" t="s">
         <v>611</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>612</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>56</v>
@@ -9708,7 +9705,7 @@
         <v>1580</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H108" s="14" t="b">
         <v>0</v>
@@ -9736,13 +9733,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B109" s="24" t="s">
         <v>614</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="C109" s="10" t="s">
         <v>615</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>616</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>56</v>
@@ -9754,7 +9751,7 @@
         <v>880</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H109" s="14" t="b">
         <v>0</v>
@@ -9782,13 +9779,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="C110" s="10" t="s">
         <v>618</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>619</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>56</v>
@@ -9800,7 +9797,7 @@
         <v>1380</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H110" s="14" t="b">
         <v>0</v>
@@ -9828,13 +9825,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B111" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="B111" s="24" t="s">
+      <c r="C111" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>623</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>56</v>
@@ -9846,7 +9843,7 @@
         <v>1580</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H111" s="14" t="b">
         <v>0</v>
@@ -9874,13 +9871,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B112" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="C112" s="10" t="s">
         <v>626</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>627</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>56</v>
@@ -9892,7 +9889,7 @@
         <v>880</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H112" s="14" t="b">
         <v>0</v>
@@ -9920,13 +9917,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="C113" s="10" t="s">
         <v>629</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>630</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>56</v>
@@ -9938,7 +9935,7 @@
         <v>2380</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H113" s="14" t="b">
         <v>0</v>
@@ -9966,13 +9963,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="C114" s="10" t="s">
         <v>632</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>633</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>59</v>
@@ -9984,7 +9981,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H114" s="14" t="b">
         <v>0</v>
@@ -10012,13 +10009,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>635</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>636</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>59</v>
@@ -10030,7 +10027,7 @@
         <v>780</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H115" s="14" t="b">
         <v>0</v>
@@ -10058,13 +10055,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>639</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>640</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>59</v>
@@ -10076,7 +10073,7 @@
         <v>780</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H116" s="14" t="b">
         <v>0</v>
@@ -10104,13 +10101,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>642</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>643</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>59</v>
@@ -10122,7 +10119,7 @@
         <v>880</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H117" s="14" t="b">
         <v>0</v>
@@ -10150,13 +10147,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="C118" s="10" t="s">
         <v>645</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>646</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>59</v>
@@ -10168,7 +10165,7 @@
         <v>1280</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H118" s="14" t="b">
         <v>0</v>
@@ -10196,13 +10193,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>648</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>649</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>59</v>
@@ -10214,7 +10211,7 @@
         <v>1780</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H119" s="14" t="b">
         <v>0</v>
@@ -10242,13 +10239,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" s="10" t="s">
         <v>652</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>653</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>59</v>
@@ -10260,7 +10257,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H120" s="14" t="b">
         <v>0</v>
@@ -10288,13 +10285,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>655</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>656</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>59</v>
@@ -10306,7 +10303,7 @@
         <v>1280</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H121" s="14" t="b">
         <v>0</v>
@@ -10334,13 +10331,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" s="10" t="s">
         <v>658</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>659</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>59</v>
@@ -10352,7 +10349,7 @@
         <v>1780</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H122" s="14" t="b">
         <v>0</v>
@@ -10380,13 +10377,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>662</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>663</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>59</v>
@@ -10398,7 +10395,7 @@
         <v>2480</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H123" s="14" t="b">
         <v>0</v>
@@ -10426,13 +10423,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B124" s="24" t="s">
         <v>665</v>
       </c>
-      <c r="B124" s="24" t="s">
+      <c r="C124" s="10" t="s">
         <v>666</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>667</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>59</v>
@@ -10444,7 +10441,7 @@
         <v>1180</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H124" s="14" t="b">
         <v>0</v>
@@ -10472,13 +10469,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="B125" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="C125" s="10" t="s">
         <v>669</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>670</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>59</v>
@@ -10490,7 +10487,7 @@
         <v>980</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H125" s="14" t="b">
         <v>0</v>
@@ -10518,13 +10515,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B126" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="C126" s="10" t="s">
         <v>672</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>673</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>59</v>
@@ -10536,7 +10533,7 @@
         <v>1650</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H126" s="14" t="b">
         <v>0</v>
@@ -10564,13 +10561,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B127" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="C127" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>59</v>
@@ -10582,7 +10579,7 @@
         <v>1100</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H127" s="14" t="b">
         <v>0</v>
@@ -10610,13 +10607,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B128" s="24" t="s">
         <v>679</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="C128" s="10" t="s">
         <v>680</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>681</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>59</v>
@@ -10628,7 +10625,7 @@
         <v>980</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H128" s="14" t="b">
         <v>0</v>
@@ -10656,13 +10653,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B129" s="24" t="s">
         <v>682</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="C129" s="10" t="s">
         <v>683</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>684</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>59</v>
@@ -10674,7 +10671,7 @@
         <v>1080</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H129" s="14" t="b">
         <v>0</v>
@@ -10702,13 +10699,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B130" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="C130" s="10" t="s">
         <v>686</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>687</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>59</v>
@@ -10720,7 +10717,7 @@
         <v>1680</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H130" s="14" t="b">
         <v>0</v>
@@ -10748,13 +10745,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B131" s="24" t="s">
         <v>689</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="C131" s="10" t="s">
         <v>690</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>691</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>59</v>
@@ -10766,7 +10763,7 @@
         <v>980</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H131" s="14" t="b">
         <v>0</v>
@@ -10794,13 +10791,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B132" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="C132" s="10" t="s">
         <v>693</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>694</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>59</v>
@@ -10812,7 +10809,7 @@
         <v>1080</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H132" s="14" t="b">
         <v>0</v>
@@ -10840,13 +10837,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B133" s="24" t="s">
         <v>696</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="C133" s="10" t="s">
         <v>697</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>698</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>59</v>
@@ -10858,7 +10855,7 @@
         <v>1480</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H133" s="14" t="b">
         <v>0</v>
@@ -10886,13 +10883,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B134" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="C134" s="10" t="s">
         <v>701</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>702</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>59</v>
@@ -10904,7 +10901,7 @@
         <v>3480</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H134" s="14" t="b">
         <v>0</v>
@@ -10932,13 +10929,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B135" s="24" t="s">
         <v>704</v>
       </c>
-      <c r="B135" s="24" t="s">
+      <c r="C135" s="10" t="s">
         <v>705</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>706</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>59</v>
@@ -10950,7 +10947,7 @@
         <v>1280</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H135" s="14" t="b">
         <v>0</v>
@@ -10978,13 +10975,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B136" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="B136" s="24" t="s">
+      <c r="C136" s="10" t="s">
         <v>708</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>709</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>59</v>
@@ -10996,7 +10993,7 @@
         <v>1680</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H136" s="14" t="b">
         <v>0</v>
@@ -11024,13 +11021,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B137" s="24" t="s">
         <v>710</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="C137" s="10" t="s">
         <v>711</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>712</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>59</v>
@@ -11042,7 +11039,7 @@
         <v>2680</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H137" s="14" t="b">
         <v>0</v>
@@ -11070,13 +11067,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B138" s="24" t="s">
         <v>713</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="C138" s="10" t="s">
         <v>714</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>715</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>59</v>
@@ -11088,7 +11085,7 @@
         <v>3680</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H138" s="14" t="b">
         <v>0</v>
@@ -11116,13 +11113,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B139" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="C139" s="10" t="s">
         <v>718</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>719</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>59</v>
@@ -11134,7 +11131,7 @@
         <v>1080</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H139" s="14" t="b">
         <v>0</v>
@@ -11162,13 +11159,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B140" s="26" t="s">
         <v>720</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="C140" s="26" t="s">
         <v>721</v>
-      </c>
-      <c r="C140" s="26" t="s">
-        <v>722</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>62</v>
@@ -11177,10 +11174,10 @@
         <v>118</v>
       </c>
       <c r="F140" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G140" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H140" s="14" t="b">
         <v>0</v>
@@ -11208,13 +11205,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B141" s="27" t="s">
         <v>725</v>
       </c>
-      <c r="B141" s="27" t="s">
+      <c r="C141" s="25" t="s">
         <v>726</v>
-      </c>
-      <c r="C141" s="25" t="s">
-        <v>727</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>62</v>
@@ -11223,10 +11220,10 @@
         <v>118</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G141" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G141" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H141" s="14" t="b">
         <v>0</v>
@@ -11254,13 +11251,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B142" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="B142" s="25" t="s">
+      <c r="C142" s="28" t="s">
         <v>729</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>730</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>62</v>
@@ -11269,10 +11266,10 @@
         <v>118</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G142" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G142" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H142" s="14" t="b">
         <v>0</v>
@@ -11300,13 +11297,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B143" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="B143" s="25" t="s">
+      <c r="C143" s="25" t="s">
         <v>732</v>
-      </c>
-      <c r="C143" s="25" t="s">
-        <v>733</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>62</v>
@@ -11315,10 +11312,10 @@
         <v>118</v>
       </c>
       <c r="F143" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G143" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H143" s="14" t="b">
         <v>0</v>
@@ -11346,13 +11343,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B144" s="27" t="s">
         <v>734</v>
       </c>
-      <c r="B144" s="27" t="s">
+      <c r="C144" s="28" t="s">
         <v>735</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>736</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>62</v>
@@ -11361,10 +11358,10 @@
         <v>118</v>
       </c>
       <c r="F144" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G144" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H144" s="14" t="b">
         <v>0</v>
@@ -11392,13 +11389,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B145" s="24" t="s">
         <v>737</v>
       </c>
-      <c r="B145" s="24" t="s">
+      <c r="C145" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>65</v>
@@ -11410,7 +11407,7 @@
         <v>880</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H145" s="14" t="b">
         <v>0</v>
@@ -11438,13 +11435,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>65</v>
@@ -11456,7 +11453,7 @@
         <v>1280</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H146" s="14" t="b">
         <v>0</v>
@@ -11484,13 +11481,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B147" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="B147" s="24" t="s">
+      <c r="C147" s="10" t="s">
         <v>746</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>747</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>65</v>
@@ -11502,7 +11499,7 @@
         <v>2580</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H147" s="14" t="b">
         <v>0</v>
@@ -11530,13 +11527,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B148" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="C148" s="10" t="s">
         <v>750</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>751</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>65</v>
@@ -11548,7 +11545,7 @@
         <v>3680</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H148" s="14" t="b">
         <v>0</v>
@@ -11576,13 +11573,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B149" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="C149" s="10" t="s">
         <v>754</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>755</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>65</v>
@@ -11594,7 +11591,7 @@
         <v>3880</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H149" s="14" t="b">
         <v>0</v>
@@ -11622,13 +11619,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B150" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="B150" s="27" t="s">
+      <c r="C150" s="28" t="s">
         <v>758</v>
-      </c>
-      <c r="C150" s="28" t="s">
-        <v>759</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>68</v>
@@ -11637,10 +11634,10 @@
         <v>118</v>
       </c>
       <c r="F150" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G150" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H150" s="14" t="b">
         <v>0</v>
@@ -11668,13 +11665,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B151" s="25" t="s">
         <v>760</v>
       </c>
-      <c r="B151" s="25" t="s">
+      <c r="C151" s="28" t="s">
         <v>761</v>
-      </c>
-      <c r="C151" s="28" t="s">
-        <v>762</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>68</v>
@@ -11683,10 +11680,10 @@
         <v>118</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G151" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H151" s="14" t="b">
         <v>0</v>
@@ -11714,13 +11711,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B152" s="29" t="s">
         <v>763</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="C152" s="28" t="s">
         <v>764</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>765</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>68</v>
@@ -11729,10 +11726,10 @@
         <v>118</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G152" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H152" s="14" t="b">
         <v>0</v>
@@ -11760,13 +11757,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B153" s="29" t="s">
         <v>766</v>
       </c>
-      <c r="B153" s="29" t="s">
+      <c r="C153" s="28" t="s">
         <v>767</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>768</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>71</v>
@@ -11775,10 +11772,10 @@
         <v>118</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G153" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H153" s="14" t="b">
         <v>0</v>
@@ -11806,13 +11803,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B154" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="B154" s="25" t="s">
+      <c r="C154" s="28" t="s">
         <v>770</v>
-      </c>
-      <c r="C154" s="28" t="s">
-        <v>771</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>71</v>
@@ -11821,10 +11818,10 @@
         <v>118</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G154" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G154" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H154" s="14" t="b">
         <v>0</v>
@@ -11852,13 +11849,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B155" s="25" t="s">
         <v>772</v>
       </c>
-      <c r="B155" s="25" t="s">
+      <c r="C155" s="28" t="s">
         <v>773</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>774</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>71</v>
@@ -11867,10 +11864,10 @@
         <v>118</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G155" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H155" s="14" t="b">
         <v>0</v>
@@ -11898,13 +11895,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B156" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="B156" s="25" t="s">
+      <c r="C156" s="28" t="s">
         <v>776</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>777</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>71</v>
@@ -11913,10 +11910,10 @@
         <v>118</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G156" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H156" s="14" t="b">
         <v>0</v>
@@ -11944,13 +11941,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B157" s="25" t="s">
         <v>778</v>
       </c>
-      <c r="B157" s="25" t="s">
+      <c r="C157" s="28" t="s">
         <v>779</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>780</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>71</v>
@@ -11959,10 +11956,10 @@
         <v>118</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G157" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H157" s="14" t="b">
         <v>0</v>
@@ -11990,13 +11987,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B158" s="28" t="s">
         <v>781</v>
       </c>
-      <c r="B158" s="28" t="s">
+      <c r="C158" s="25" t="s">
         <v>782</v>
-      </c>
-      <c r="C158" s="25" t="s">
-        <v>783</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>74</v>
@@ -12005,10 +12002,10 @@
         <v>118</v>
       </c>
       <c r="F158" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G158" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H158" s="14" t="b">
         <v>0</v>
@@ -12039,10 +12036,10 @@
         <v>138</v>
       </c>
       <c r="B159" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="C159" s="25" t="s">
         <v>784</v>
-      </c>
-      <c r="C159" s="25" t="s">
-        <v>785</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>74</v>
@@ -12051,10 +12048,10 @@
         <v>118</v>
       </c>
       <c r="F159" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G159" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H159" s="14" t="b">
         <v>0</v>
@@ -12082,13 +12079,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B160" s="28" t="s">
         <v>786</v>
       </c>
-      <c r="B160" s="28" t="s">
+      <c r="C160" s="25" t="s">
         <v>787</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>788</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>74</v>
@@ -12097,10 +12094,10 @@
         <v>118</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G160" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G160" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H160" s="14" t="b">
         <v>0</v>
@@ -12128,13 +12125,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B161" s="28" t="s">
         <v>789</v>
       </c>
-      <c r="B161" s="28" t="s">
+      <c r="C161" s="25" t="s">
         <v>790</v>
-      </c>
-      <c r="C161" s="25" t="s">
-        <v>791</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>74</v>
@@ -12143,10 +12140,10 @@
         <v>118</v>
       </c>
       <c r="F161" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G161" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="H161" s="14" t="b">
         <v>0</v>
@@ -12174,13 +12171,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B162" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="B162" s="25" t="s">
+      <c r="C162" s="25" t="s">
         <v>793</v>
-      </c>
-      <c r="C162" s="25" t="s">
-        <v>794</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>80</v>
@@ -12192,28 +12189,28 @@
         <v>162</v>
       </c>
       <c r="G162" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="H162" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="H162" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="7" t="s">
+      <c r="K162" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="K162" s="7" t="s">
-        <v>797</v>
       </c>
       <c r="L162" s="7" t="s">
         <v>298</v>
       </c>
       <c r="M162" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="N162" s="22" t="s">
         <v>798</v>
-      </c>
-      <c r="N162" s="22" t="s">
-        <v>799</v>
       </c>
       <c r="O162" s="7" t="s">
         <v>126</v>
@@ -12228,13 +12225,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B163" s="25" t="s">
         <v>800</v>
       </c>
-      <c r="B163" s="25" t="s">
+      <c r="C163" s="25" t="s">
         <v>801</v>
-      </c>
-      <c r="C163" s="25" t="s">
-        <v>802</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>80</v>
@@ -12246,28 +12243,28 @@
         <v>162</v>
       </c>
       <c r="G163" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="H163" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="H163" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I163" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="7" t="s">
-        <v>796</v>
-      </c>
       <c r="K163" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L163" s="7" t="s">
         <v>298</v>
       </c>
       <c r="M163" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="N163" s="22" t="s">
         <v>804</v>
-      </c>
-      <c r="N163" s="22" t="s">
-        <v>805</v>
       </c>
       <c r="O163" s="7" t="s">
         <v>126</v>
@@ -12282,13 +12279,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B164" s="25" t="s">
         <v>806</v>
       </c>
-      <c r="B164" s="25" t="s">
+      <c r="C164" s="25" t="s">
         <v>807</v>
-      </c>
-      <c r="C164" s="25" t="s">
-        <v>808</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>84</v>
@@ -12300,7 +12297,7 @@
         <v>254</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H164" s="23" t="b">
         <v>0</v>
@@ -12309,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
@@ -12328,13 +12325,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B165" s="25" t="s">
         <v>810</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="C165" s="25" t="s">
         <v>811</v>
-      </c>
-      <c r="C165" s="25" t="s">
-        <v>812</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>84</v>
@@ -12346,7 +12343,7 @@
         <v>268</v>
       </c>
       <c r="G165" s="25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H165" s="23" t="b">
         <v>0</v>
@@ -12355,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
@@ -12374,13 +12371,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B166" s="25" t="s">
         <v>814</v>
       </c>
-      <c r="B166" s="25" t="s">
+      <c r="C166" s="25" t="s">
         <v>815</v>
-      </c>
-      <c r="C166" s="25" t="s">
-        <v>816</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>87</v>
@@ -12392,7 +12389,7 @@
         <v>268</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H166" s="14" t="b">
         <v>0</v>
@@ -12401,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
@@ -12420,13 +12417,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B167" s="25" t="s">
         <v>818</v>
       </c>
-      <c r="B167" s="25" t="s">
+      <c r="C167" s="25" t="s">
         <v>819</v>
-      </c>
-      <c r="C167" s="25" t="s">
-        <v>820</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>87</v>
@@ -12438,7 +12435,7 @@
         <v>317</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H167" s="14" t="b">
         <v>0</v>
@@ -12447,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
@@ -12466,13 +12463,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B168" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="B168" s="25" t="s">
+      <c r="C168" s="25" t="s">
         <v>823</v>
-      </c>
-      <c r="C168" s="25" t="s">
-        <v>824</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>87</v>
@@ -12484,7 +12481,7 @@
         <v>317</v>
       </c>
       <c r="G168" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H168" s="23" t="b">
         <v>0</v>
@@ -12493,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
@@ -12515,10 +12512,10 @@
         <v>130</v>
       </c>
       <c r="B169" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="C169" s="25" t="s">
         <v>826</v>
-      </c>
-      <c r="C169" s="25" t="s">
-        <v>827</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>87</v>
@@ -12530,7 +12527,7 @@
         <v>226</v>
       </c>
       <c r="G169" s="25" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H169" s="23" t="b">
         <v>0</v>
@@ -12539,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
@@ -12558,13 +12555,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B170" s="25" t="s">
         <v>829</v>
       </c>
-      <c r="B170" s="25" t="s">
+      <c r="C170" s="25" t="s">
         <v>830</v>
-      </c>
-      <c r="C170" s="25" t="s">
-        <v>831</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>90</v>
@@ -12576,7 +12573,7 @@
         <v>254</v>
       </c>
       <c r="G170" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H170" s="23" t="b">
         <v>0</v>
@@ -12585,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
@@ -12604,13 +12601,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B171" s="25" t="s">
         <v>832</v>
       </c>
-      <c r="B171" s="25" t="s">
+      <c r="C171" s="25" t="s">
         <v>833</v>
-      </c>
-      <c r="C171" s="25" t="s">
-        <v>834</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>90</v>
@@ -12622,7 +12619,7 @@
         <v>254</v>
       </c>
       <c r="G171" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H171" s="23" t="b">
         <v>0</v>
@@ -12631,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
@@ -12650,13 +12647,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B172" s="25" t="s">
         <v>835</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="C172" s="25" t="s">
         <v>836</v>
-      </c>
-      <c r="C172" s="25" t="s">
-        <v>837</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>90</v>
@@ -12668,7 +12665,7 @@
         <v>254</v>
       </c>
       <c r="G172" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H172" s="23" t="b">
         <v>0</v>
@@ -12677,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
@@ -12696,13 +12693,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B173" s="25" t="s">
         <v>838</v>
       </c>
-      <c r="B173" s="25" t="s">
+      <c r="C173" s="25" t="s">
         <v>839</v>
-      </c>
-      <c r="C173" s="25" t="s">
-        <v>840</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>90</v>
@@ -12714,7 +12711,7 @@
         <v>317</v>
       </c>
       <c r="G173" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H173" s="23" t="b">
         <v>0</v>
@@ -12723,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
@@ -12742,13 +12739,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B174" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="C174" s="25" t="s">
         <v>842</v>
-      </c>
-      <c r="C174" s="25" t="s">
-        <v>843</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>97</v>
@@ -12769,11 +12766,11 @@
         <v>0</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K174" s="7"/>
       <c r="L174" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M174" s="21"/>
       <c r="N174" s="22"/>
@@ -12790,13 +12787,13 @@
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B175" s="25" t="s">
         <v>846</v>
       </c>
-      <c r="B175" s="25" t="s">
+      <c r="C175" s="25" t="s">
         <v>847</v>
-      </c>
-      <c r="C175" s="25" t="s">
-        <v>848</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>97</v>
@@ -12817,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
@@ -12836,13 +12833,13 @@
     </row>
     <row r="176" customHeight="1" spans="1:18">
       <c r="A176" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B176" s="30" t="s">
         <v>849</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="C176" s="25" t="s">
         <v>850</v>
-      </c>
-      <c r="C176" s="25" t="s">
-        <v>851</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>97</v>
@@ -12863,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
@@ -12882,13 +12879,13 @@
     </row>
     <row r="177" customHeight="1" spans="1:18">
       <c r="A177" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B177" s="25" t="s">
         <v>852</v>
       </c>
-      <c r="B177" s="25" t="s">
+      <c r="C177" s="25" t="s">
         <v>853</v>
-      </c>
-      <c r="C177" s="25" t="s">
-        <v>854</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>97</v>
@@ -12909,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
@@ -12928,13 +12925,13 @@
     </row>
     <row r="178" customHeight="1" spans="1:18">
       <c r="A178" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B178" s="25" t="s">
         <v>855</v>
       </c>
-      <c r="B178" s="25" t="s">
+      <c r="C178" s="25" t="s">
         <v>856</v>
-      </c>
-      <c r="C178" s="25" t="s">
-        <v>857</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>97</v>
@@ -12955,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858">
   <si>
     <t>id</t>
   </si>
@@ -309,811 +309,814 @@
     <t>images/menu/menu_dessert.png</t>
   </si>
   <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>法式甜点</t>
+  </si>
+  <si>
+    <t>French dessert</t>
+  </si>
+  <si>
+    <t>aliasName</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>recommendStatus</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>enDescription</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>spiceIndex</t>
+  </si>
+  <si>
+    <t>alcoholIndex</t>
+  </si>
+  <si>
+    <t>withIce</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Pan fried Norwegian Salmon</t>
+  </si>
+  <si>
+    <t>香煎挪威三文鱼</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>258/份</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>images/product/food/香煎三文鱼.jpg</t>
+  </si>
+  <si>
+    <t>限量</t>
+  </si>
+  <si>
+    <t>Salmon steak/Mushroom/Bacon and asparagus roll/Colored pepper/Special dip sauce</t>
+  </si>
+  <si>
+    <t>三文鱼排/蘑菇/培根芦笋卷/彩椒/特制蘸酱</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>FALE</t>
+  </si>
+  <si>
+    <t>RT Filet mignon</t>
+  </si>
+  <si>
+    <t>RT招牌菲力牛排</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>168/份</t>
+  </si>
+  <si>
+    <t>images/product/food/牛排.jpg</t>
+  </si>
+  <si>
+    <t>230g+限量</t>
+  </si>
+  <si>
+    <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
+  </si>
+  <si>
+    <t>牛排/玉米/西兰花/手指萝卜/土豆角</t>
+  </si>
+  <si>
+    <t>Fried lamb chops</t>
+  </si>
+  <si>
+    <t>RT香煎羊排</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>158/份</t>
+  </si>
+  <si>
+    <t>images/product/food/羊排.png</t>
+  </si>
+  <si>
+    <t>3根+限量</t>
+  </si>
+  <si>
+    <t>Lamb ribs/Corn/broccoli/Finger radish/Potato fillet</t>
+  </si>
+  <si>
+    <t>羊肋骨/玉米/西兰花/手指萝卜/土豆角</t>
+  </si>
+  <si>
+    <t>Hot spicy chicken</t>
+  </si>
+  <si>
+    <t>RT当红辣子鸡</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>68/份</t>
+  </si>
+  <si>
+    <t>images/product/food/辣子鸡.jpg</t>
+  </si>
+  <si>
+    <t>Chicken leg meat / Special spices</t>
+  </si>
+  <si>
+    <t>鸡腿肉/特制香辛料</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Sichuan crispy golden tofu</t>
+  </si>
+  <si>
+    <t>川香脆皮黄金豆腐</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>48/份</t>
+  </si>
+  <si>
+    <t>images/product/food/豆腐.jpg</t>
+  </si>
+  <si>
+    <t>Tofu/Special soup</t>
+  </si>
+  <si>
+    <t>豆腐/特调汤汁</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Cream asparagus mushroom</t>
+  </si>
+  <si>
+    <t>奶油芦笋蘑菇</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>38/份</t>
+  </si>
+  <si>
+    <t>images/product/food/芦笋蘑菇.jpg</t>
+  </si>
+  <si>
+    <t>Asparagus/Mushroom/Cream</t>
+  </si>
+  <si>
+    <t>芦笋/蘑菇/奶油风味</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Liuxin cheese crispy pill</t>
+  </si>
+  <si>
+    <t>流心起司香酥丸</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>58/份</t>
+  </si>
+  <si>
+    <t>images/product/food/流心香酥丸.jpg</t>
+  </si>
+  <si>
+    <t>Egg yolk cheese/Crispy shell</t>
+  </si>
+  <si>
+    <t>流心蛋黄芝士/酥炸外壳</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Signature crispy braised pork</t>
+  </si>
+  <si>
+    <t>招牌香酥红烧肉</t>
+  </si>
+  <si>
+    <t>images/product/food/香酥红烧肉.jpg</t>
+  </si>
+  <si>
+    <t>Streaky pork/Seasonal vegetable salad</t>
+  </si>
+  <si>
+    <t>五花肉/时蔬沙拉</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Stir fried shrimps and okra with Tashi flavor</t>
+  </si>
+  <si>
+    <t>塔香风味虾仁秋葵小炒</t>
+  </si>
+  <si>
+    <t>images/product/food/虾仁秋葵.jpg</t>
+  </si>
+  <si>
+    <t>Shrimp/Okra/Nine story tower</t>
+  </si>
+  <si>
+    <t>虾仁/秋葵/九层塔</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Fried chicken leg with curry sauce</t>
+  </si>
+  <si>
+    <t>香煎鸡腿佐和风咖喱酱汁</t>
+  </si>
+  <si>
+    <t>images/product/food/香煎鸡腿.jpg</t>
+  </si>
+  <si>
+    <t>Chicken leg/Curry sauce/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>鸡腿肉/咖喱酱汁/时蔬</t>
+  </si>
+  <si>
+    <t>Beef fillet rice with black pepper</t>
+  </si>
+  <si>
+    <t>招牌黑椒牛脊肉饭</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>images/product/food/黑椒牛柳.jpg</t>
+  </si>
+  <si>
+    <t>限时优惠</t>
+  </si>
+  <si>
+    <t>Beef fillet /Red and yellow pepper/Black Pepper</t>
+  </si>
+  <si>
+    <t>牛脊肉/红黄彩椒/黑胡椒</t>
+  </si>
+  <si>
+    <t>Cream mushroom bacon hot spring egg pasta</t>
+  </si>
+  <si>
+    <t>奶油蘑菇培根温泉蛋意面</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>52/份</t>
+  </si>
+  <si>
+    <t>images/product/food/温泉蛋意面.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Vegetables</t>
+  </si>
+  <si>
+    <t>意面/火腿/搭配蔬菜</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Little angel spaghetti with cream and ham</t>
+  </si>
+  <si>
+    <t>小恶魔蕃茄海鲜意面</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>56/份</t>
+  </si>
+  <si>
+    <t>images/product/food/小恶魔.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
+  </si>
+  <si>
+    <t>意面/海虹/鱿鱼圈/虾仁</t>
+  </si>
+  <si>
+    <t>小天使奶油火腿意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小天使.jpg</t>
+  </si>
+  <si>
+    <t>可做不辣</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
+  </si>
+  <si>
+    <t>意面/火腿/培根/时蔬</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
+  </si>
+  <si>
+    <t>日式和风烟熏鸡腿肉咖喱饭</t>
+  </si>
+  <si>
+    <t>images/product/food/咖喱炖饭.jpg</t>
+  </si>
+  <si>
+    <t>Smoked chicken/Special curry sauce</t>
+  </si>
+  <si>
+    <t>烟熏鸡肉/特调咖喱酱汁</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Beef cheeseburger</t>
+  </si>
+  <si>
+    <t>牛肉芝士汉堡</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>55/份</t>
+  </si>
+  <si>
+    <t>Beef patty/Cheese slice/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>牛肉饼/芝士片/时蔬</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Caesar Salad smoked chicken breast</t>
+  </si>
+  <si>
+    <t>凯撒沙拉佐烟熏鸡胸肉</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>42/份</t>
+  </si>
+  <si>
+    <t>images/product/food/凯萨沙拉.jpg</t>
+  </si>
+  <si>
+    <t>Smoked chicken breast/Seasonal vegetable salad/Caesar sauce</t>
+  </si>
+  <si>
+    <t>烟熏鸡胸肉/时蔬沙拉/凯撒酱汁</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Yogurt fruit salad</t>
+  </si>
+  <si>
+    <t>酸奶水果沙拉</t>
+  </si>
+  <si>
+    <t>images/product/food/水果沙拉.jpg</t>
+  </si>
+  <si>
+    <t>Yoghurt/Nut/Blueberry/Orange/Kiwi/Strawberry/Pitaya/Sacred fruit/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>酸奶/坚果/蓝莓/橙子/猕猴桃/草莓/火龙果/圣女果/时蔬</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Macaroni in cone</t>
+  </si>
+  <si>
+    <t>蛋筒洋芋泥</t>
+  </si>
+  <si>
+    <t>28/份</t>
+  </si>
+  <si>
+    <t>images/product/food/洋芋泥.jpg</t>
+  </si>
+  <si>
+    <t>Slow boiled mashed potato/Flavor sauce</t>
+  </si>
+  <si>
+    <t>慢煮土豆泥/风味酱汁</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Sausage Platter</t>
+  </si>
+  <si>
+    <t>香肠拼盘</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>88/份</t>
+  </si>
+  <si>
+    <t>images/product/food/香肠拼盘.jpg</t>
+  </si>
+  <si>
+    <t>German sausage /Potato fillet/Seasonal vegetable salad</t>
+  </si>
+  <si>
+    <t>德式香肠/土豆角/时蔬沙拉</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Spare ribs with garlic</t>
+  </si>
+  <si>
+    <t>蒜香排骨</t>
+  </si>
+  <si>
+    <t>images/product/food/蒜香排骨.jpg</t>
+  </si>
+  <si>
+    <t>Pork ribs/Garlic/Special marinade</t>
+  </si>
+  <si>
+    <t>猪肋排/蒜/特制腌料</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Three flavors of sea salt and sweet potato</t>
+  </si>
+  <si>
+    <t>海盐粗薯三味</t>
+  </si>
+  <si>
+    <t>images/product/food/粗薯.jpg</t>
+  </si>
+  <si>
+    <t>Tapioca/Wasabi/Ketchup/Thousand island sauce</t>
+  </si>
+  <si>
+    <t>粗薯/黄芥末/番茄酱/千岛酱</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Crispy chicken</t>
+  </si>
+  <si>
+    <t>香酥麦克鸡块</t>
+  </si>
+  <si>
+    <t>images/product/food/麦克鸡块.jpg</t>
+  </si>
+  <si>
+    <t>Chicken / flour / tomato sauce</t>
+  </si>
+  <si>
+    <t>鸡肉/面粉/蕃茄酱</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Crispy fried cod balls</t>
+  </si>
+  <si>
+    <t>酥炸鳕鱼球</t>
+  </si>
+  <si>
+    <t>images/product/food/鳕鱼球.png</t>
+  </si>
+  <si>
+    <t>COD / flour / tomato sauce</t>
+  </si>
+  <si>
+    <t>鳕鱼/面粉/蕃茄酱</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Crispy fried chicken and rice flower</t>
+  </si>
+  <si>
+    <t>酥炸鸡米花</t>
+  </si>
+  <si>
+    <t>32/份</t>
+  </si>
+  <si>
+    <t>images/product/food/鸡米花.jpg</t>
+  </si>
+  <si>
+    <t>Chicken / flour / spices / ketchup</t>
+  </si>
+  <si>
+    <t>鸡肉/面粉/香料/蕃茄酱</t>
+  </si>
+  <si>
+    <t>Strawberry Mojito</t>
+  </si>
+  <si>
+    <t>草莓莫吉托</t>
+  </si>
+  <si>
+    <t>48/Glass</t>
+  </si>
+  <si>
+    <t>alcoholic drink</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Strawberry_mojito.png</t>
+  </si>
+  <si>
+    <t>Sweet+Sour</t>
+  </si>
+  <si>
+    <t>Bacardi Rum/Lime juice/Monin strawberry syr</t>
+  </si>
+  <si>
+    <t>红茶/鲜奶/薰衣草糖浆</t>
+  </si>
+  <si>
+    <t>Espresso martini</t>
+  </si>
+  <si>
+    <t>咖啡马提尼</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Espresso_martini.png</t>
+  </si>
+  <si>
+    <t>Sweet+Sour+Bitter</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
+  </si>
+  <si>
+    <t>Pinky Point</t>
+  </si>
+  <si>
+    <t>粉点</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Pinky_point.png</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
+  </si>
+  <si>
+    <t>Three Passions</t>
+  </si>
+  <si>
+    <t>激情</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Three_passions.png</t>
+  </si>
+  <si>
+    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
+  </si>
+  <si>
+    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Hightball</t>
+  </si>
+  <si>
+    <t>威士忌苏打</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Hightball.png</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Suntory kaku/Soda</t>
+  </si>
+  <si>
+    <t>三得利卡库/苏打水</t>
+  </si>
+  <si>
+    <t>Amon petit amour</t>
+  </si>
+  <si>
+    <t>心上人半干红葡萄酒</t>
+  </si>
+  <si>
+    <t>24+241</t>
+  </si>
+  <si>
+    <t>55/Glass</t>
+  </si>
+  <si>
+    <t>Sontti syrah cabernet vino d’Italia</t>
+  </si>
+  <si>
+    <t>十四行诗赤霞珠西拉干红葡萄酒</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>268/Bottle</t>
+  </si>
+  <si>
+    <t>The black Shiraz</t>
+  </si>
+  <si>
+    <t>伯顿酒庄铁牌西拉红葡萄酒</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>458/Bottle</t>
+  </si>
+  <si>
+    <t>1374 Chateau laulan ducos</t>
+  </si>
+  <si>
+    <t>1374乐朗公爵古堡干红葡萄酒</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>698/Bottle</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Camarero</t>
+  </si>
+  <si>
+    <t>企鹅侍者白葡萄酒</t>
+  </si>
+  <si>
+    <t>24+242</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Vereinigte hospitien riesling kabinett</t>
+  </si>
+  <si>
+    <t>赛琳娜雷司令典藏白葡萄酒</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Chateau lafn sauternes</t>
+  </si>
+  <si>
+    <t>拉枫酒庄贵腐甜白葡萄酒</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>588/Bottle</t>
+  </si>
+  <si>
+    <t>Canti di vigna</t>
+  </si>
+  <si>
+    <t>悦葡布拉凯多甜红起泡葡萄酒</t>
+  </si>
+  <si>
+    <t>24+243</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>45/Glass</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Truffle hunter leda</t>
+  </si>
+  <si>
+    <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
+  </si>
+  <si>
+    <t>258/Bottle</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Perrier-Jouet</t>
+  </si>
+  <si>
+    <t>巴黎之花香槟</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>1180/Bottle</t>
+  </si>
+  <si>
     <t>41</t>
-  </si>
-  <si>
-    <t>法式甜点</t>
-  </si>
-  <si>
-    <t>French dessert</t>
-  </si>
-  <si>
-    <t>aliasName</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>unitPrice</t>
-  </si>
-  <si>
-    <t>newStatus</t>
-  </si>
-  <si>
-    <t>recommendStatus</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>enDescription</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>spiceIndex</t>
-  </si>
-  <si>
-    <t>alcoholIndex</t>
-  </si>
-  <si>
-    <t>withIce</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Pan fried Norwegian Salmon</t>
-  </si>
-  <si>
-    <t>香煎挪威三文鱼</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>RMB</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>258/份</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>images/product/food/香煎三文鱼.jpg</t>
-  </si>
-  <si>
-    <t>限量</t>
-  </si>
-  <si>
-    <t>Salmon steak/Mushroom/Bacon and asparagus roll/Colored pepper/Special dip sauce</t>
-  </si>
-  <si>
-    <t>三文鱼排/蘑菇/培根芦笋卷/彩椒/特制蘸酱</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>FALE</t>
-  </si>
-  <si>
-    <t>RT Filet mignon</t>
-  </si>
-  <si>
-    <t>RT招牌菲力牛排</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>168/份</t>
-  </si>
-  <si>
-    <t>images/product/food/牛排.jpg</t>
-  </si>
-  <si>
-    <t>230g+限量</t>
-  </si>
-  <si>
-    <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
-  </si>
-  <si>
-    <t>牛排/玉米/西兰花/手指萝卜/土豆角</t>
-  </si>
-  <si>
-    <t>Fried lamb chops</t>
-  </si>
-  <si>
-    <t>RT香煎羊排</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>158/份</t>
-  </si>
-  <si>
-    <t>images/product/food/羊排.png</t>
-  </si>
-  <si>
-    <t>3根+限量</t>
-  </si>
-  <si>
-    <t>Lamb ribs/Corn/broccoli/Finger radish/Potato fillet</t>
-  </si>
-  <si>
-    <t>羊肋骨/玉米/西兰花/手指萝卜/土豆角</t>
-  </si>
-  <si>
-    <t>Hot spicy chicken</t>
-  </si>
-  <si>
-    <t>RT当红辣子鸡</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>68/份</t>
-  </si>
-  <si>
-    <t>images/product/food/辣子鸡.jpg</t>
-  </si>
-  <si>
-    <t>Chicken leg meat / Special spices</t>
-  </si>
-  <si>
-    <t>鸡腿肉/特制香辛料</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Sichuan crispy golden tofu</t>
-  </si>
-  <si>
-    <t>川香脆皮黄金豆腐</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>48/份</t>
-  </si>
-  <si>
-    <t>images/product/food/豆腐.jpg</t>
-  </si>
-  <si>
-    <t>Tofu/Special soup</t>
-  </si>
-  <si>
-    <t>豆腐/特调汤汁</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Cream asparagus mushroom</t>
-  </si>
-  <si>
-    <t>奶油芦笋蘑菇</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>38/份</t>
-  </si>
-  <si>
-    <t>images/product/food/芦笋蘑菇.jpg</t>
-  </si>
-  <si>
-    <t>Asparagus/Mushroom/Cream</t>
-  </si>
-  <si>
-    <t>芦笋/蘑菇/奶油风味</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Liuxin cheese crispy pill</t>
-  </si>
-  <si>
-    <t>流心起司香酥丸</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>58/份</t>
-  </si>
-  <si>
-    <t>images/product/food/流心香酥丸.jpg</t>
-  </si>
-  <si>
-    <t>Egg yolk cheese/Crispy shell</t>
-  </si>
-  <si>
-    <t>流心蛋黄芝士/酥炸外壳</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Signature crispy braised pork</t>
-  </si>
-  <si>
-    <t>招牌香酥红烧肉</t>
-  </si>
-  <si>
-    <t>images/product/food/香酥红烧肉.jpg</t>
-  </si>
-  <si>
-    <t>Streaky pork/Seasonal vegetable salad</t>
-  </si>
-  <si>
-    <t>五花肉/时蔬沙拉</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Stir fried shrimps and okra with Tashi flavor</t>
-  </si>
-  <si>
-    <t>塔香风味虾仁秋葵小炒</t>
-  </si>
-  <si>
-    <t>images/product/food/虾仁秋葵.jpg</t>
-  </si>
-  <si>
-    <t>Shrimp/Okra/Nine story tower</t>
-  </si>
-  <si>
-    <t>虾仁/秋葵/九层塔</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Fried chicken leg with curry sauce</t>
-  </si>
-  <si>
-    <t>香煎鸡腿佐和风咖喱酱汁</t>
-  </si>
-  <si>
-    <t>images/product/food/香煎鸡腿.jpg</t>
-  </si>
-  <si>
-    <t>Chicken leg/Curry sauce/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>鸡腿肉/咖喱酱汁/时蔬</t>
-  </si>
-  <si>
-    <t>Beef fillet rice with black pepper</t>
-  </si>
-  <si>
-    <t>招牌黑椒牛脊肉饭</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>images/product/food/黑椒牛柳.jpg</t>
-  </si>
-  <si>
-    <t>限时优惠</t>
-  </si>
-  <si>
-    <t>Beef fillet /Red and yellow pepper/Black Pepper</t>
-  </si>
-  <si>
-    <t>牛脊肉/红黄彩椒/黑胡椒</t>
-  </si>
-  <si>
-    <t>Cream mushroom bacon hot spring egg pasta</t>
-  </si>
-  <si>
-    <t>奶油蘑菇培根温泉蛋意面</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>52/份</t>
-  </si>
-  <si>
-    <t>images/product/food/温泉蛋意面.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Vegetables</t>
-  </si>
-  <si>
-    <t>意面/火腿/搭配蔬菜</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Little angel spaghetti with cream and ham</t>
-  </si>
-  <si>
-    <t>小恶魔蕃茄海鲜意面</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>56/份</t>
-  </si>
-  <si>
-    <t>images/product/food/小恶魔.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
-  </si>
-  <si>
-    <t>意面/海虹/鱿鱼圈/虾仁</t>
-  </si>
-  <si>
-    <t>小天使奶油火腿意面</t>
-  </si>
-  <si>
-    <t>images/product/food/小天使.jpg</t>
-  </si>
-  <si>
-    <t>可做不辣</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
-  </si>
-  <si>
-    <t>意面/火腿/培根/时蔬</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
-  </si>
-  <si>
-    <t>日式和风烟熏鸡腿肉咖喱饭</t>
-  </si>
-  <si>
-    <t>images/product/food/咖喱炖饭.jpg</t>
-  </si>
-  <si>
-    <t>Smoked chicken/Special curry sauce</t>
-  </si>
-  <si>
-    <t>烟熏鸡肉/特调咖喱酱汁</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Beef cheeseburger</t>
-  </si>
-  <si>
-    <t>牛肉芝士汉堡</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>55/份</t>
-  </si>
-  <si>
-    <t>Beef patty/Cheese slice/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>牛肉饼/芝士片/时蔬</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Caesar Salad smoked chicken breast</t>
-  </si>
-  <si>
-    <t>凯撒沙拉佐烟熏鸡胸肉</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>42/份</t>
-  </si>
-  <si>
-    <t>images/product/food/凯萨沙拉.jpg</t>
-  </si>
-  <si>
-    <t>Smoked chicken breast/Seasonal vegetable salad/Caesar sauce</t>
-  </si>
-  <si>
-    <t>烟熏鸡胸肉/时蔬沙拉/凯撒酱汁</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Yogurt fruit salad</t>
-  </si>
-  <si>
-    <t>酸奶水果沙拉</t>
-  </si>
-  <si>
-    <t>images/product/food/水果沙拉.jpg</t>
-  </si>
-  <si>
-    <t>Yoghurt/Nut/Blueberry/Orange/Kiwi/Strawberry/Pitaya/Sacred fruit/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>酸奶/坚果/蓝莓/橙子/猕猴桃/草莓/火龙果/圣女果/时蔬</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Macaroni in cone</t>
-  </si>
-  <si>
-    <t>蛋筒洋芋泥</t>
-  </si>
-  <si>
-    <t>28/份</t>
-  </si>
-  <si>
-    <t>images/product/food/洋芋泥.jpg</t>
-  </si>
-  <si>
-    <t>Slow boiled mashed potato/Flavor sauce</t>
-  </si>
-  <si>
-    <t>慢煮土豆泥/风味酱汁</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Sausage Platter</t>
-  </si>
-  <si>
-    <t>香肠拼盘</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>88/份</t>
-  </si>
-  <si>
-    <t>images/product/food/香肠拼盘.jpg</t>
-  </si>
-  <si>
-    <t>German sausage /Potato fillet/Seasonal vegetable salad</t>
-  </si>
-  <si>
-    <t>德式香肠/土豆角/时蔬沙拉</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Spare ribs with garlic</t>
-  </si>
-  <si>
-    <t>蒜香排骨</t>
-  </si>
-  <si>
-    <t>images/product/food/蒜香排骨.jpg</t>
-  </si>
-  <si>
-    <t>Pork ribs/Garlic/Special marinade</t>
-  </si>
-  <si>
-    <t>猪肋排/蒜/特制腌料</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Three flavors of sea salt and sweet potato</t>
-  </si>
-  <si>
-    <t>海盐粗薯三味</t>
-  </si>
-  <si>
-    <t>images/product/food/粗薯.jpg</t>
-  </si>
-  <si>
-    <t>Tapioca/Wasabi/Ketchup/Thousand island sauce</t>
-  </si>
-  <si>
-    <t>粗薯/黄芥末/番茄酱/千岛酱</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Crispy chicken</t>
-  </si>
-  <si>
-    <t>香酥麦克鸡块</t>
-  </si>
-  <si>
-    <t>images/product/food/麦克鸡块.jpg</t>
-  </si>
-  <si>
-    <t>Chicken / flour / tomato sauce</t>
-  </si>
-  <si>
-    <t>鸡肉/面粉/蕃茄酱</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Crispy fried cod balls</t>
-  </si>
-  <si>
-    <t>酥炸鳕鱼球</t>
-  </si>
-  <si>
-    <t>images/product/food/鳕鱼球.png</t>
-  </si>
-  <si>
-    <t>COD / flour / tomato sauce</t>
-  </si>
-  <si>
-    <t>鳕鱼/面粉/蕃茄酱</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Crispy fried chicken and rice flower</t>
-  </si>
-  <si>
-    <t>酥炸鸡米花</t>
-  </si>
-  <si>
-    <t>32/份</t>
-  </si>
-  <si>
-    <t>images/product/food/鸡米花.jpg</t>
-  </si>
-  <si>
-    <t>Chicken / flour / spices / ketchup</t>
-  </si>
-  <si>
-    <t>鸡肉/面粉/香料/蕃茄酱</t>
-  </si>
-  <si>
-    <t>Strawberry Mojito</t>
-  </si>
-  <si>
-    <t>草莓莫吉托</t>
-  </si>
-  <si>
-    <t>48/Glass</t>
-  </si>
-  <si>
-    <t>alcoholic drink</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Strawberry_mojito.png</t>
-  </si>
-  <si>
-    <t>Sweet+Sour</t>
-  </si>
-  <si>
-    <t>Bacardi Rum/Lime juice/Monin strawberry syr</t>
-  </si>
-  <si>
-    <t>红茶/鲜奶/薰衣草糖浆</t>
-  </si>
-  <si>
-    <t>Espresso martini</t>
-  </si>
-  <si>
-    <t>咖啡马提尼</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Espresso_martini.png</t>
-  </si>
-  <si>
-    <t>Sweet+Sour+Bitter</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
-  </si>
-  <si>
-    <t>Pinky Point</t>
-  </si>
-  <si>
-    <t>粉点</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Pinky_point.png</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
-  </si>
-  <si>
-    <t>Three Passions</t>
-  </si>
-  <si>
-    <t>激情</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Three_passions.png</t>
-  </si>
-  <si>
-    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
-  </si>
-  <si>
-    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Hightball</t>
-  </si>
-  <si>
-    <t>威士忌苏打</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Hightball.png</t>
-  </si>
-  <si>
-    <t>Pure</t>
-  </si>
-  <si>
-    <t>Suntory kaku/Soda</t>
-  </si>
-  <si>
-    <t>三得利卡库/苏打水</t>
-  </si>
-  <si>
-    <t>Amon petit amour</t>
-  </si>
-  <si>
-    <t>心上人半干红葡萄酒</t>
-  </si>
-  <si>
-    <t>24+241</t>
-  </si>
-  <si>
-    <t>55/Glass</t>
-  </si>
-  <si>
-    <t>Sontti syrah cabernet vino d’Italia</t>
-  </si>
-  <si>
-    <t>十四行诗赤霞珠西拉干红葡萄酒</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>268/Bottle</t>
-  </si>
-  <si>
-    <t>The black Shiraz</t>
-  </si>
-  <si>
-    <t>伯顿酒庄铁牌西拉红葡萄酒</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>458/Bottle</t>
-  </si>
-  <si>
-    <t>1374 Chateau laulan ducos</t>
-  </si>
-  <si>
-    <t>1374乐朗公爵古堡干红葡萄酒</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>698/Bottle</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Camarero</t>
-  </si>
-  <si>
-    <t>企鹅侍者白葡萄酒</t>
-  </si>
-  <si>
-    <t>24+242</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Vereinigte hospitien riesling kabinett</t>
-  </si>
-  <si>
-    <t>赛琳娜雷司令典藏白葡萄酒</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Chateau lafn sauternes</t>
-  </si>
-  <si>
-    <t>拉枫酒庄贵腐甜白葡萄酒</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>588/Bottle</t>
-  </si>
-  <si>
-    <t>Canti di vigna</t>
-  </si>
-  <si>
-    <t>悦葡布拉凯多甜红起泡葡萄酒</t>
-  </si>
-  <si>
-    <t>24+243</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>45/Glass</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Truffle hunter leda</t>
-  </si>
-  <si>
-    <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
-  </si>
-  <si>
-    <t>258/Bottle</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Perrier-Jouet</t>
-  </si>
-  <si>
-    <t>巴黎之花香槟</t>
-  </si>
-  <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>1180/Bottle</t>
   </si>
   <si>
     <t xml:space="preserve">Armand de brignac ace of spades gold brut </t>
@@ -3747,8 +3750,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4532,8 +4535,8 @@
   <sheetPr/>
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6651,13 +6654,13 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>366</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>354</v>
@@ -6666,10 +6669,10 @@
         <v>118</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H42" s="14" t="b">
         <v>0</v>
@@ -6700,10 +6703,10 @@
         <v>236</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>354</v>
@@ -6712,10 +6715,10 @@
         <v>118</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H43" s="14" t="b">
         <v>0</v>
@@ -6743,13 +6746,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>41</v>
@@ -6761,7 +6764,7 @@
         <v>860</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H44" s="14" t="b">
         <v>0</v>
@@ -6789,13 +6792,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>41</v>
@@ -6807,7 +6810,7 @@
         <v>960</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H45" s="14" t="b">
         <v>0</v>
@@ -6838,10 +6841,10 @@
         <v>355</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>41</v>
@@ -6853,7 +6856,7 @@
         <v>860</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H46" s="14" t="b">
         <v>0</v>
@@ -6881,13 +6884,13 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>41</v>
@@ -6899,7 +6902,7 @@
         <v>1080</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H47" s="14" t="b">
         <v>0</v>
@@ -6927,13 +6930,13 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>41</v>
@@ -6945,7 +6948,7 @@
         <v>1180</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H48" s="14" t="b">
         <v>0</v>
@@ -6976,10 +6979,10 @@
         <v>154</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>41</v>
@@ -6991,7 +6994,7 @@
         <v>1080</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H49" s="14" t="b">
         <v>0</v>
@@ -7019,13 +7022,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>41</v>
@@ -7037,7 +7040,7 @@
         <v>1100</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H50" s="14" t="b">
         <v>0</v>
@@ -7065,16 +7068,16 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>118</v>
@@ -7083,7 +7086,7 @@
         <v>1100</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H51" s="14" t="b">
         <v>0</v>
@@ -7111,13 +7114,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>41</v>
@@ -7129,7 +7132,7 @@
         <v>1100</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H52" s="14" t="b">
         <v>0</v>
@@ -7160,10 +7163,10 @@
         <v>202</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>41</v>
@@ -7203,13 +7206,13 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>41</v>
@@ -7221,7 +7224,7 @@
         <v>880</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H54" s="14" t="b">
         <v>0</v>
@@ -7249,13 +7252,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>41</v>
@@ -7267,7 +7270,7 @@
         <v>1280</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H55" s="14" t="b">
         <v>0</v>
@@ -7298,13 +7301,13 @@
         <v>229</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>118</v>
@@ -7313,7 +7316,7 @@
         <v>880</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H56" s="14" t="b">
         <v>0</v>
@@ -7344,10 +7347,10 @@
         <v>210</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>44</v>
@@ -7359,7 +7362,7 @@
         <v>1100</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H57" s="14" t="b">
         <v>0</v>
@@ -7387,13 +7390,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>44</v>
@@ -7405,7 +7408,7 @@
         <v>2650</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H58" s="14" t="b">
         <v>0</v>
@@ -7436,10 +7439,10 @@
         <v>170</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>44</v>
@@ -7451,7 +7454,7 @@
         <v>880</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H59" s="14" t="b">
         <v>0</v>
@@ -7479,13 +7482,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>44</v>
@@ -7497,7 +7500,7 @@
         <v>1050</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H60" s="14" t="b">
         <v>0</v>
@@ -7525,13 +7528,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>44</v>
@@ -7543,7 +7546,7 @@
         <v>880</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H61" s="14" t="b">
         <v>0</v>
@@ -7571,13 +7574,13 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>44</v>
@@ -7589,7 +7592,7 @@
         <v>1700</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H62" s="14" t="b">
         <v>0</v>
@@ -7617,13 +7620,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>47</v>
@@ -7635,7 +7638,7 @@
         <v>880</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H63" s="14" t="b">
         <v>0</v>
@@ -7663,13 +7666,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>47</v>
@@ -7681,7 +7684,7 @@
         <v>1400</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H64" s="14" t="b">
         <v>0</v>
@@ -7709,13 +7712,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>47</v>
@@ -7727,7 +7730,7 @@
         <v>1800</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H65" s="14" t="b">
         <v>0</v>
@@ -7755,13 +7758,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>47</v>
@@ -7773,7 +7776,7 @@
         <v>1080</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H66" s="14" t="b">
         <v>0</v>
@@ -7801,13 +7804,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>47</v>
@@ -7819,7 +7822,7 @@
         <v>1550</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H67" s="14" t="b">
         <v>0</v>
@@ -7847,13 +7850,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>47</v>
@@ -7865,7 +7868,7 @@
         <v>2050</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H68" s="14" t="b">
         <v>0</v>
@@ -7896,10 +7899,10 @@
         <v>146</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>47</v>
@@ -7911,7 +7914,7 @@
         <v>2850</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H69" s="14" t="b">
         <v>0</v>
@@ -7939,13 +7942,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>47</v>
@@ -7957,7 +7960,7 @@
         <v>900</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H70" s="14" t="b">
         <v>0</v>
@@ -7985,13 +7988,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>47</v>
@@ -8003,7 +8006,7 @@
         <v>1650</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H71" s="14" t="b">
         <v>0</v>
@@ -8031,13 +8034,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>47</v>
@@ -8049,7 +8052,7 @@
         <v>2350</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H72" s="14" t="b">
         <v>0</v>
@@ -8077,13 +8080,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>47</v>
@@ -8095,7 +8098,7 @@
         <v>2180</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H73" s="14" t="b">
         <v>0</v>
@@ -8123,13 +8126,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>47</v>
@@ -8141,7 +8144,7 @@
         <v>4980</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H74" s="14" t="b">
         <v>0</v>
@@ -8169,13 +8172,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>47</v>
@@ -8184,10 +8187,10 @@
         <v>118</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H75" s="14" t="b">
         <v>0</v>
@@ -8215,13 +8218,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>47</v>
@@ -8233,7 +8236,7 @@
         <v>2080</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H76" s="14" t="b">
         <v>0</v>
@@ -8261,13 +8264,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>47</v>
@@ -8279,7 +8282,7 @@
         <v>4880</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H77" s="14" t="b">
         <v>0</v>
@@ -8307,13 +8310,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>47</v>
@@ -8322,10 +8325,10 @@
         <v>118</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H78" s="14" t="b">
         <v>0</v>
@@ -8353,13 +8356,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>47</v>
@@ -8371,7 +8374,7 @@
         <v>2180</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H79" s="14" t="b">
         <v>0</v>
@@ -8399,13 +8402,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>47</v>
@@ -8414,10 +8417,10 @@
         <v>118</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H80" s="14" t="b">
         <v>0</v>
@@ -8445,13 +8448,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>47</v>
@@ -8460,10 +8463,10 @@
         <v>118</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H81" s="14" t="b">
         <v>0</v>
@@ -8491,13 +8494,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>47</v>
@@ -8509,7 +8512,7 @@
         <v>2080</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H82" s="14" t="b">
         <v>0</v>
@@ -8537,13 +8540,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>47</v>
@@ -8552,10 +8555,10 @@
         <v>118</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H83" s="14" t="b">
         <v>0</v>
@@ -8583,16 +8586,16 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>118</v>
@@ -8601,7 +8604,7 @@
         <v>1080</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H84" s="14" t="b">
         <v>0</v>
@@ -8629,13 +8632,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>50</v>
@@ -8647,7 +8650,7 @@
         <v>980</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H85" s="14" t="b">
         <v>0</v>
@@ -8675,13 +8678,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>50</v>
@@ -8693,7 +8696,7 @@
         <v>1180</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H86" s="14" t="b">
         <v>0</v>
@@ -8721,13 +8724,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>50</v>
@@ -8739,7 +8742,7 @@
         <v>1280</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H87" s="14" t="b">
         <v>0</v>
@@ -8767,13 +8770,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>50</v>
@@ -8785,7 +8788,7 @@
         <v>2400</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H88" s="14" t="b">
         <v>0</v>
@@ -8816,10 +8819,10 @@
         <v>257</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>50</v>
@@ -8831,7 +8834,7 @@
         <v>3880</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H89" s="14" t="b">
         <v>0</v>
@@ -8859,13 +8862,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>50</v>
@@ -8877,7 +8880,7 @@
         <v>980</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H90" s="14" t="b">
         <v>0</v>
@@ -8905,13 +8908,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>50</v>
@@ -8923,7 +8926,7 @@
         <v>1180</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H91" s="14" t="b">
         <v>0</v>
@@ -8951,13 +8954,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>50</v>
@@ -8969,7 +8972,7 @@
         <v>880</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H92" s="14" t="b">
         <v>0</v>
@@ -8997,13 +9000,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>50</v>
@@ -9015,7 +9018,7 @@
         <v>1480</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H93" s="14" t="b">
         <v>0</v>
@@ -9043,13 +9046,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>50</v>
@@ -9061,7 +9064,7 @@
         <v>3680</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H94" s="14" t="b">
         <v>0</v>
@@ -9089,13 +9092,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>50</v>
@@ -9107,7 +9110,7 @@
         <v>1180</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H95" s="14" t="b">
         <v>0</v>
@@ -9135,13 +9138,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>50</v>
@@ -9153,7 +9156,7 @@
         <v>2380</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H96" s="14" t="b">
         <v>0</v>
@@ -9181,13 +9184,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>53</v>
@@ -9199,7 +9202,7 @@
         <v>1380</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H97" s="14" t="b">
         <v>0</v>
@@ -9227,13 +9230,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>53</v>
@@ -9245,7 +9248,7 @@
         <v>1180</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H98" s="14" t="b">
         <v>0</v>
@@ -9273,13 +9276,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>53</v>
@@ -9291,7 +9294,7 @@
         <v>1680</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H99" s="14" t="b">
         <v>0</v>
@@ -9319,13 +9322,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>53</v>
@@ -9337,7 +9340,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H100" s="14" t="b">
         <v>0</v>
@@ -9365,13 +9368,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>53</v>
@@ -9383,7 +9386,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H101" s="14" t="b">
         <v>0</v>
@@ -9411,13 +9414,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>53</v>
@@ -9429,7 +9432,7 @@
         <v>1280</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H102" s="14" t="b">
         <v>0</v>
@@ -9457,13 +9460,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>53</v>
@@ -9475,7 +9478,7 @@
         <v>1080</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H103" s="14" t="b">
         <v>0</v>
@@ -9503,13 +9506,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>53</v>
@@ -9521,7 +9524,7 @@
         <v>1880</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H104" s="14" t="b">
         <v>0</v>
@@ -9549,13 +9552,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>53</v>
@@ -9567,7 +9570,7 @@
         <v>2680</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H105" s="14" t="b">
         <v>0</v>
@@ -9595,13 +9598,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>53</v>
@@ -9613,7 +9616,7 @@
         <v>1380</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H106" s="14" t="b">
         <v>0</v>
@@ -9641,13 +9644,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>53</v>
@@ -9659,7 +9662,7 @@
         <v>1480</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H107" s="14" t="b">
         <v>0</v>
@@ -9687,13 +9690,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>56</v>
@@ -9705,7 +9708,7 @@
         <v>1580</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H108" s="14" t="b">
         <v>0</v>
@@ -9733,13 +9736,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>56</v>
@@ -9751,7 +9754,7 @@
         <v>880</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H109" s="14" t="b">
         <v>0</v>
@@ -9779,13 +9782,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>56</v>
@@ -9797,7 +9800,7 @@
         <v>1380</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H110" s="14" t="b">
         <v>0</v>
@@ -9825,13 +9828,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>56</v>
@@ -9843,7 +9846,7 @@
         <v>1580</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H111" s="14" t="b">
         <v>0</v>
@@ -9871,13 +9874,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>56</v>
@@ -9889,7 +9892,7 @@
         <v>880</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H112" s="14" t="b">
         <v>0</v>
@@ -9917,13 +9920,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>56</v>
@@ -9935,7 +9938,7 @@
         <v>2380</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H113" s="14" t="b">
         <v>0</v>
@@ -9963,13 +9966,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>59</v>
@@ -9981,7 +9984,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H114" s="14" t="b">
         <v>0</v>
@@ -10009,13 +10012,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>59</v>
@@ -10027,7 +10030,7 @@
         <v>780</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H115" s="14" t="b">
         <v>0</v>
@@ -10055,13 +10058,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>59</v>
@@ -10073,7 +10076,7 @@
         <v>780</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H116" s="14" t="b">
         <v>0</v>
@@ -10101,13 +10104,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>59</v>
@@ -10119,7 +10122,7 @@
         <v>880</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H117" s="14" t="b">
         <v>0</v>
@@ -10147,13 +10150,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>59</v>
@@ -10165,7 +10168,7 @@
         <v>1280</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H118" s="14" t="b">
         <v>0</v>
@@ -10193,13 +10196,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>59</v>
@@ -10211,7 +10214,7 @@
         <v>1780</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H119" s="14" t="b">
         <v>0</v>
@@ -10239,13 +10242,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>59</v>
@@ -10257,7 +10260,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H120" s="14" t="b">
         <v>0</v>
@@ -10285,13 +10288,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>59</v>
@@ -10303,7 +10306,7 @@
         <v>1280</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H121" s="14" t="b">
         <v>0</v>
@@ -10331,13 +10334,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>59</v>
@@ -10349,7 +10352,7 @@
         <v>1780</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H122" s="14" t="b">
         <v>0</v>
@@ -10377,13 +10380,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>59</v>
@@ -10395,7 +10398,7 @@
         <v>2480</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H123" s="14" t="b">
         <v>0</v>
@@ -10423,13 +10426,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>59</v>
@@ -10441,7 +10444,7 @@
         <v>1180</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H124" s="14" t="b">
         <v>0</v>
@@ -10469,13 +10472,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>59</v>
@@ -10487,7 +10490,7 @@
         <v>980</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H125" s="14" t="b">
         <v>0</v>
@@ -10515,13 +10518,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>59</v>
@@ -10533,7 +10536,7 @@
         <v>1650</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H126" s="14" t="b">
         <v>0</v>
@@ -10561,13 +10564,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>59</v>
@@ -10579,7 +10582,7 @@
         <v>1100</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H127" s="14" t="b">
         <v>0</v>
@@ -10607,13 +10610,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>59</v>
@@ -10625,7 +10628,7 @@
         <v>980</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H128" s="14" t="b">
         <v>0</v>
@@ -10653,13 +10656,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>59</v>
@@ -10671,7 +10674,7 @@
         <v>1080</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H129" s="14" t="b">
         <v>0</v>
@@ -10699,13 +10702,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>59</v>
@@ -10717,7 +10720,7 @@
         <v>1680</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H130" s="14" t="b">
         <v>0</v>
@@ -10745,13 +10748,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>59</v>
@@ -10763,7 +10766,7 @@
         <v>980</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H131" s="14" t="b">
         <v>0</v>
@@ -10791,13 +10794,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>59</v>
@@ -10809,7 +10812,7 @@
         <v>1080</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H132" s="14" t="b">
         <v>0</v>
@@ -10837,13 +10840,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>59</v>
@@ -10855,7 +10858,7 @@
         <v>1480</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H133" s="14" t="b">
         <v>0</v>
@@ -10883,13 +10886,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>59</v>
@@ -10901,7 +10904,7 @@
         <v>3480</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H134" s="14" t="b">
         <v>0</v>
@@ -10929,13 +10932,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>59</v>
@@ -10947,7 +10950,7 @@
         <v>1280</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H135" s="14" t="b">
         <v>0</v>
@@ -10975,13 +10978,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>59</v>
@@ -10993,7 +10996,7 @@
         <v>1680</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H136" s="14" t="b">
         <v>0</v>
@@ -11021,13 +11024,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>59</v>
@@ -11039,7 +11042,7 @@
         <v>2680</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H137" s="14" t="b">
         <v>0</v>
@@ -11067,13 +11070,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>59</v>
@@ -11085,7 +11088,7 @@
         <v>3680</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H138" s="14" t="b">
         <v>0</v>
@@ -11113,13 +11116,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>59</v>
@@ -11131,7 +11134,7 @@
         <v>1080</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H139" s="14" t="b">
         <v>0</v>
@@ -11159,13 +11162,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>62</v>
@@ -11174,10 +11177,10 @@
         <v>118</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H140" s="14" t="b">
         <v>0</v>
@@ -11205,13 +11208,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>62</v>
@@ -11220,10 +11223,10 @@
         <v>118</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H141" s="14" t="b">
         <v>0</v>
@@ -11251,13 +11254,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C142" s="28" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>62</v>
@@ -11266,10 +11269,10 @@
         <v>118</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H142" s="14" t="b">
         <v>0</v>
@@ -11297,13 +11300,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>62</v>
@@ -11312,10 +11315,10 @@
         <v>118</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H143" s="14" t="b">
         <v>0</v>
@@ -11343,13 +11346,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>62</v>
@@ -11358,10 +11361,10 @@
         <v>118</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H144" s="14" t="b">
         <v>0</v>
@@ -11389,13 +11392,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>65</v>
@@ -11407,7 +11410,7 @@
         <v>880</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H145" s="14" t="b">
         <v>0</v>
@@ -11435,13 +11438,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>65</v>
@@ -11453,7 +11456,7 @@
         <v>1280</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H146" s="14" t="b">
         <v>0</v>
@@ -11481,13 +11484,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>65</v>
@@ -11499,7 +11502,7 @@
         <v>2580</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H147" s="14" t="b">
         <v>0</v>
@@ -11527,13 +11530,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>65</v>
@@ -11545,7 +11548,7 @@
         <v>3680</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H148" s="14" t="b">
         <v>0</v>
@@ -11573,13 +11576,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>65</v>
@@ -11591,7 +11594,7 @@
         <v>3880</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H149" s="14" t="b">
         <v>0</v>
@@ -11619,13 +11622,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>68</v>
@@ -11634,10 +11637,10 @@
         <v>118</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H150" s="14" t="b">
         <v>0</v>
@@ -11665,13 +11668,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>68</v>
@@ -11680,10 +11683,10 @@
         <v>118</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H151" s="14" t="b">
         <v>0</v>
@@ -11711,13 +11714,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>68</v>
@@ -11726,10 +11729,10 @@
         <v>118</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H152" s="14" t="b">
         <v>0</v>
@@ -11757,13 +11760,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>71</v>
@@ -11772,10 +11775,10 @@
         <v>118</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H153" s="14" t="b">
         <v>0</v>
@@ -11803,13 +11806,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>71</v>
@@ -11818,10 +11821,10 @@
         <v>118</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H154" s="14" t="b">
         <v>0</v>
@@ -11849,13 +11852,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>71</v>
@@ -11864,10 +11867,10 @@
         <v>118</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H155" s="14" t="b">
         <v>0</v>
@@ -11895,13 +11898,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>71</v>
@@ -11910,10 +11913,10 @@
         <v>118</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H156" s="14" t="b">
         <v>0</v>
@@ -11941,13 +11944,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>71</v>
@@ -11956,10 +11959,10 @@
         <v>118</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H157" s="14" t="b">
         <v>0</v>
@@ -11987,13 +11990,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>74</v>
@@ -12002,10 +12005,10 @@
         <v>118</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H158" s="14" t="b">
         <v>0</v>
@@ -12036,10 +12039,10 @@
         <v>138</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>74</v>
@@ -12048,10 +12051,10 @@
         <v>118</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H159" s="14" t="b">
         <v>0</v>
@@ -12079,13 +12082,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>74</v>
@@ -12094,10 +12097,10 @@
         <v>118</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H160" s="14" t="b">
         <v>0</v>
@@ -12125,13 +12128,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>74</v>
@@ -12140,10 +12143,10 @@
         <v>118</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H161" s="14" t="b">
         <v>0</v>
@@ -12171,13 +12174,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>80</v>
@@ -12189,7 +12192,7 @@
         <v>162</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H162" s="14" t="b">
         <v>0</v>
@@ -12198,19 +12201,19 @@
         <v>0</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L162" s="7" t="s">
         <v>298</v>
       </c>
       <c r="M162" s="21" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N162" s="22" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O162" s="7" t="s">
         <v>126</v>
@@ -12225,13 +12228,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>80</v>
@@ -12243,7 +12246,7 @@
         <v>162</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H163" s="14" t="b">
         <v>0</v>
@@ -12252,19 +12255,19 @@
         <v>0</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L163" s="7" t="s">
         <v>298</v>
       </c>
       <c r="M163" s="21" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N163" s="22" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O163" s="7" t="s">
         <v>126</v>
@@ -12279,13 +12282,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>84</v>
@@ -12297,7 +12300,7 @@
         <v>254</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H164" s="23" t="b">
         <v>0</v>
@@ -12306,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
@@ -12325,13 +12328,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>84</v>
@@ -12343,7 +12346,7 @@
         <v>268</v>
       </c>
       <c r="G165" s="25" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H165" s="23" t="b">
         <v>0</v>
@@ -12352,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
@@ -12371,13 +12374,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>87</v>
@@ -12389,7 +12392,7 @@
         <v>268</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H166" s="14" t="b">
         <v>0</v>
@@ -12398,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
@@ -12417,13 +12420,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>87</v>
@@ -12435,7 +12438,7 @@
         <v>317</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H167" s="14" t="b">
         <v>0</v>
@@ -12444,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
@@ -12463,13 +12466,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>87</v>
@@ -12481,7 +12484,7 @@
         <v>317</v>
       </c>
       <c r="G168" s="25" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H168" s="23" t="b">
         <v>0</v>
@@ -12490,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
@@ -12512,10 +12515,10 @@
         <v>130</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>87</v>
@@ -12527,7 +12530,7 @@
         <v>226</v>
       </c>
       <c r="G169" s="25" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H169" s="23" t="b">
         <v>0</v>
@@ -12536,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
@@ -12555,13 +12558,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>90</v>
@@ -12573,7 +12576,7 @@
         <v>254</v>
       </c>
       <c r="G170" s="25" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H170" s="23" t="b">
         <v>0</v>
@@ -12582,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
@@ -12601,13 +12604,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>90</v>
@@ -12619,7 +12622,7 @@
         <v>254</v>
       </c>
       <c r="G171" s="25" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H171" s="23" t="b">
         <v>0</v>
@@ -12628,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
@@ -12647,13 +12650,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>90</v>
@@ -12665,7 +12668,7 @@
         <v>254</v>
       </c>
       <c r="G172" s="25" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H172" s="23" t="b">
         <v>0</v>
@@ -12674,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
@@ -12693,13 +12696,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>90</v>
@@ -12711,7 +12714,7 @@
         <v>317</v>
       </c>
       <c r="G173" s="25" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H173" s="23" t="b">
         <v>0</v>
@@ -12720,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="25" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
@@ -12739,13 +12742,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>97</v>
@@ -12766,11 +12769,11 @@
         <v>0</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K174" s="7"/>
       <c r="L174" s="30" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M174" s="21"/>
       <c r="N174" s="22"/>
@@ -12787,13 +12790,13 @@
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>97</v>
@@ -12814,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
@@ -12833,13 +12836,13 @@
     </row>
     <row r="176" customHeight="1" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>97</v>
@@ -12860,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
@@ -12879,13 +12882,13 @@
     </row>
     <row r="177" customHeight="1" spans="1:18">
       <c r="A177" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>97</v>
@@ -12906,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
@@ -12925,13 +12928,13 @@
     </row>
     <row r="178" customHeight="1" spans="1:18">
       <c r="A178" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>97</v>
@@ -12952,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -318,27 +318,57 @@
     <t>1</t>
   </si>
   <si>
+    <t>RT Filet mignon</t>
+  </si>
+  <si>
+    <t>RT招牌菲力牛排</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>168/份</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>images/product/food/牛排.jpg</t>
+  </si>
+  <si>
+    <t>230g+限量</t>
+  </si>
+  <si>
+    <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
+  </si>
+  <si>
+    <t>牛排/玉米/西兰花/手指萝卜/土豆角</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>FALE</t>
+  </si>
+  <si>
     <t>Pan fried Norwegian Salmon</t>
   </si>
   <si>
     <t>香煎挪威三文鱼</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>RMB</t>
-  </si>
-  <si>
     <t>258</t>
   </si>
   <si>
     <t>258/份</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
     <t>images/product/food/香煎三文鱼.jpg</t>
   </si>
   <si>
@@ -351,36 +381,6 @@
     <t>三文鱼排/蘑菇/培根芦笋卷/彩椒/特制蘸酱</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>FALE</t>
-  </si>
-  <si>
-    <t>RT Filet mignon</t>
-  </si>
-  <si>
-    <t>RT招牌菲力牛排</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>168/份</t>
-  </si>
-  <si>
-    <t>images/product/food/牛排.jpg</t>
-  </si>
-  <si>
-    <t>230g+限量</t>
-  </si>
-  <si>
-    <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
-  </si>
-  <si>
-    <t>牛排/玉米/西兰花/手指萝卜/土豆角</t>
-  </si>
-  <si>
     <t>Fried lamb chops</t>
   </si>
   <si>
@@ -624,9 +624,6 @@
     <t>images/product/food/小天使.jpg</t>
   </si>
   <si>
-    <t>可做不辣</t>
-  </si>
-  <si>
     <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
   </si>
   <si>
@@ -2145,7 +2142,7 @@
     <t>格兰多纳.12</t>
   </si>
   <si>
-    <t>161</t>
+    <t>139</t>
   </si>
   <si>
     <t>RT milk tea</t>
@@ -2169,7 +2166,7 @@
     <t>红茶/鲜奶/薰衣草糖浆/奶油</t>
   </si>
   <si>
-    <t>162</t>
+    <t>140</t>
   </si>
   <si>
     <t>Daydream</t>
@@ -2187,7 +2184,7 @@
     <t>红茶/凤梨汁/薰衣草糖浆/柠檬汁</t>
   </si>
   <si>
-    <t>163</t>
+    <t>141</t>
   </si>
   <si>
     <t>Hot milk</t>
@@ -2199,7 +2196,7 @@
     <t>20/Bottle</t>
   </si>
   <si>
-    <t>164</t>
+    <t>142</t>
   </si>
   <si>
     <t>Hot Chocolate</t>
@@ -2211,7 +2208,7 @@
     <t>22/Bottle</t>
   </si>
   <si>
-    <t>165</t>
+    <t>143</t>
   </si>
   <si>
     <t>Americano</t>
@@ -2223,7 +2220,7 @@
     <t>22/Glass</t>
   </si>
   <si>
-    <t>166</t>
+    <t>144</t>
   </si>
   <si>
     <t>Latte</t>
@@ -2235,7 +2232,7 @@
     <t>30/Glass</t>
   </si>
   <si>
-    <t>167</t>
+    <t>145</t>
   </si>
   <si>
     <t>Cappuccino</t>
@@ -2247,6 +2244,9 @@
     <t>30/Bottle</t>
   </si>
   <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>Espresso</t>
   </si>
   <si>
@@ -2256,7 +2256,7 @@
     <t>16/Bottle</t>
   </si>
   <si>
-    <t>169</t>
+    <t>147</t>
   </si>
   <si>
     <t>Soda water</t>
@@ -2265,7 +2265,7 @@
     <t>苏打水</t>
   </si>
   <si>
-    <t>170</t>
+    <t>148</t>
   </si>
   <si>
     <t>Tonic water</t>
@@ -2274,7 +2274,7 @@
     <t>汤力水</t>
   </si>
   <si>
-    <t>171</t>
+    <t>149</t>
   </si>
   <si>
     <t>Coca cola</t>
@@ -2283,7 +2283,7 @@
     <t>可口可乐</t>
   </si>
   <si>
-    <t>172</t>
+    <t>150</t>
   </si>
   <si>
     <t>Red bull energy drink</t>
@@ -2292,7 +2292,7 @@
     <t>红牛碳酸型</t>
   </si>
   <si>
-    <t>173</t>
+    <t>151</t>
   </si>
   <si>
     <t>Opera</t>
@@ -2307,7 +2307,7 @@
     <t>巧克力味,橙子味</t>
   </si>
   <si>
-    <t>174</t>
+    <t>152</t>
   </si>
   <si>
     <t>Valrhono Caramel Chocklate Ban</t>
@@ -2316,7 +2316,7 @@
     <t>法芙娜焦糖巧克力</t>
   </si>
   <si>
-    <t>175</t>
+    <t>153</t>
   </si>
   <si>
     <t>Pumpkin Cheese Cake</t>
@@ -2325,7 +2325,7 @@
     <t>南瓜芝士蛋糕</t>
   </si>
   <si>
-    <t>176</t>
+    <t>154</t>
   </si>
   <si>
     <t>Tarte au fromage framboise</t>
@@ -2334,7 +2334,7 @@
     <t>覆盆子芝士塔</t>
   </si>
   <si>
-    <t>177</t>
+    <t>155</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -3483,8 +3483,8 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A25" sqref="$A21:$XFD25"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4153,8 +4153,8 @@
   <sheetPr/>
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4950,14 +4950,12 @@
       <c r="K15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="19"/>
+      <c r="M15" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="N15" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>99</v>
@@ -4972,13 +4970,13 @@
     </row>
     <row r="16" customHeight="1" spans="1:18">
       <c r="A16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>180</v>
@@ -5002,14 +5000,14 @@
         <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="N16" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>210</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>111</v>
@@ -5024,13 +5022,13 @@
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>180</v>
@@ -5039,10 +5037,10 @@
         <v>103</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="H17" s="14" t="b">
         <v>0</v>
@@ -5056,10 +5054,10 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
       <c r="M17" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>111</v>
@@ -5074,13 +5072,13 @@
     </row>
     <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>192</v>
@@ -5089,10 +5087,10 @@
         <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="H18" s="14" t="b">
         <v>0</v>
@@ -5104,14 +5102,14 @@
         <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="N18" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>111</v>
@@ -5126,13 +5124,13 @@
     </row>
     <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>192</v>
@@ -5156,14 +5154,14 @@
         <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="N19" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>111</v>
@@ -5178,13 +5176,13 @@
     </row>
     <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>18</v>
@@ -5193,10 +5191,10 @@
         <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>236</v>
       </c>
       <c r="H20" s="14" t="b">
         <v>0</v>
@@ -5208,14 +5206,14 @@
         <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="N20" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>111</v>
@@ -5230,13 +5228,13 @@
     </row>
     <row r="21" customHeight="1" spans="1:18">
       <c r="A21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>18</v>
@@ -5245,10 +5243,10 @@
         <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="H21" s="14" t="b">
         <v>0</v>
@@ -5260,14 +5258,14 @@
         <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="N21" s="22" t="s">
         <v>246</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>247</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>111</v>
@@ -5282,13 +5280,13 @@
     </row>
     <row r="22" customHeight="1" spans="1:18">
       <c r="A22" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
@@ -5312,14 +5310,14 @@
         <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>111</v>
@@ -5334,13 +5332,13 @@
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -5349,10 +5347,10 @@
         <v>103</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="H23" s="14" t="b">
         <v>0</v>
@@ -5364,14 +5362,14 @@
         <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>111</v>
@@ -5386,13 +5384,13 @@
     </row>
     <row r="24" customHeight="1" spans="1:18">
       <c r="A24" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>18</v>
@@ -5416,14 +5414,14 @@
         <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>111</v>
@@ -5438,13 +5436,13 @@
     </row>
     <row r="25" customHeight="1" spans="1:18">
       <c r="A25" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
@@ -5468,14 +5466,14 @@
         <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="N25" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>111</v>
@@ -5490,13 +5488,13 @@
     </row>
     <row r="26" customHeight="1" spans="1:18">
       <c r="A26" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
@@ -5508,7 +5506,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H26" s="14" t="b">
         <v>0</v>
@@ -5520,14 +5518,14 @@
         <v>106</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="N26" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>111</v>
@@ -5542,16 +5540,16 @@
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="A27" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>103</v>
@@ -5560,28 +5558,28 @@
         <v>139</v>
       </c>
       <c r="G27" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H27" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="M27" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="N27" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>287</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>111</v>
@@ -5596,16 +5594,16 @@
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="A28" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>103</v>
@@ -5614,28 +5612,28 @@
         <v>139</v>
       </c>
       <c r="G28" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H28" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="K28" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="M28" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="N28" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>111</v>
@@ -5650,16 +5648,16 @@
     </row>
     <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>103</v>
@@ -5668,34 +5666,34 @@
         <v>139</v>
       </c>
       <c r="G29" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H29" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="K29" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="L29" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="M29" s="21" t="s">
+      <c r="N29" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="N29" s="22" t="s">
-        <v>299</v>
-      </c>
       <c r="O29" s="7" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="14" t="s">
         <v>112</v>
@@ -5704,16 +5702,16 @@
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>103</v>
@@ -5722,28 +5720,28 @@
         <v>139</v>
       </c>
       <c r="G30" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H30" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="K30" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="M30" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="L30" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="M30" s="21" t="s">
+      <c r="N30" s="22" t="s">
         <v>304</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>305</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>111</v>
@@ -5758,16 +5756,16 @@
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>103</v>
@@ -5776,28 +5774,28 @@
         <v>139</v>
       </c>
       <c r="G31" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="K31" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L31" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="M31" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="N31" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>312</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>111</v>
@@ -5815,23 +5813,23 @@
         <v>65</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>316</v>
-      </c>
       <c r="H32" s="14" t="b">
         <v>0</v>
       </c>
@@ -5839,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="19"/>
@@ -5861,23 +5859,23 @@
         <v>69</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>320</v>
-      </c>
       <c r="H33" s="14" t="b">
         <v>0</v>
       </c>
@@ -5885,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="19"/>
@@ -5907,23 +5905,23 @@
         <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>324</v>
-      </c>
       <c r="H34" s="14" t="b">
         <v>0</v>
       </c>
@@ -5931,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="19"/>
@@ -5953,23 +5951,23 @@
         <v>75</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>328</v>
-      </c>
       <c r="H35" s="14" t="b">
         <v>0</v>
       </c>
@@ -5977,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="19"/>
@@ -5996,26 +5994,26 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="E36" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>320</v>
-      </c>
       <c r="H36" s="14" t="b">
         <v>0</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="19"/>
@@ -6042,26 +6040,26 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>324</v>
-      </c>
       <c r="H37" s="14" t="b">
         <v>0</v>
       </c>
@@ -6069,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="19"/>
@@ -6088,26 +6086,26 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>340</v>
-      </c>
       <c r="H38" s="14" t="b">
         <v>0</v>
       </c>
@@ -6115,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="19"/>
@@ -6137,23 +6135,23 @@
         <v>147</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>345</v>
-      </c>
       <c r="H39" s="14" t="b">
         <v>0</v>
       </c>
@@ -6161,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="19"/>
@@ -6180,26 +6178,26 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>349</v>
-      </c>
       <c r="H40" s="14" t="b">
         <v>0</v>
       </c>
@@ -6207,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="19"/>
@@ -6226,26 +6224,26 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>354</v>
-      </c>
       <c r="H41" s="14" t="b">
         <v>0</v>
       </c>
@@ -6253,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="19"/>
@@ -6272,26 +6270,26 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>359</v>
-      </c>
       <c r="H42" s="14" t="b">
         <v>0</v>
       </c>
@@ -6299,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="19"/>
@@ -6318,26 +6316,26 @@
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>363</v>
-      </c>
       <c r="H43" s="14" t="b">
         <v>0</v>
       </c>
@@ -6345,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="19"/>
@@ -6364,13 +6362,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>366</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>41</v>
@@ -6382,7 +6380,7 @@
         <v>860</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H44" s="14" t="b">
         <v>0</v>
@@ -6391,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -6410,13 +6408,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>41</v>
@@ -6428,7 +6426,7 @@
         <v>960</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H45" s="14" t="b">
         <v>0</v>
@@ -6437,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -6456,13 +6454,13 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>41</v>
@@ -6474,7 +6472,7 @@
         <v>860</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H46" s="14" t="b">
         <v>0</v>
@@ -6483,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -6502,13 +6500,13 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>41</v>
@@ -6520,7 +6518,7 @@
         <v>1080</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H47" s="14" t="b">
         <v>0</v>
@@ -6529,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -6548,13 +6546,13 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>41</v>
@@ -6566,7 +6564,7 @@
         <v>1180</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H48" s="14" t="b">
         <v>0</v>
@@ -6575,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -6597,10 +6595,10 @@
         <v>139</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>383</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>41</v>
@@ -6612,7 +6610,7 @@
         <v>1080</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H49" s="14" t="b">
         <v>0</v>
@@ -6621,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -6640,13 +6638,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>387</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>41</v>
@@ -6658,7 +6656,7 @@
         <v>1100</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H50" s="14" t="b">
         <v>0</v>
@@ -6667,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -6686,16 +6684,16 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>103</v>
@@ -6704,7 +6702,7 @@
         <v>1100</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H51" s="14" t="b">
         <v>0</v>
@@ -6713,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -6732,13 +6730,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>41</v>
@@ -6750,7 +6748,7 @@
         <v>1100</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H52" s="14" t="b">
         <v>0</v>
@@ -6759,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -6781,10 +6779,10 @@
         <v>187</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>397</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>41</v>
@@ -6796,7 +6794,7 @@
         <v>1180</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H53" s="14" t="b">
         <v>0</v>
@@ -6805,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -6824,13 +6822,13 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>41</v>
@@ -6842,7 +6840,7 @@
         <v>880</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H54" s="14" t="b">
         <v>0</v>
@@ -6851,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
@@ -6870,13 +6868,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>404</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>41</v>
@@ -6888,7 +6886,7 @@
         <v>1280</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H55" s="14" t="b">
         <v>0</v>
@@ -6897,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -6916,16 +6914,16 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="D56" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>103</v>
@@ -6934,7 +6932,7 @@
         <v>880</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H56" s="14" t="b">
         <v>0</v>
@@ -6943,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
@@ -6965,10 +6963,10 @@
         <v>195</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>410</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>411</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>44</v>
@@ -6980,7 +6978,7 @@
         <v>1100</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H57" s="14" t="b">
         <v>0</v>
@@ -6989,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -7008,13 +7006,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>414</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>415</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>44</v>
@@ -7026,7 +7024,7 @@
         <v>2650</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H58" s="14" t="b">
         <v>0</v>
@@ -7035,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -7057,10 +7055,10 @@
         <v>155</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>417</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>418</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>44</v>
@@ -7072,7 +7070,7 @@
         <v>880</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H59" s="14" t="b">
         <v>0</v>
@@ -7081,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -7100,13 +7098,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>422</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>44</v>
@@ -7118,7 +7116,7 @@
         <v>1050</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H60" s="14" t="b">
         <v>0</v>
@@ -7127,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -7146,13 +7144,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>426</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>44</v>
@@ -7164,7 +7162,7 @@
         <v>880</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H61" s="14" t="b">
         <v>0</v>
@@ -7173,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -7192,13 +7190,13 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>44</v>
@@ -7210,7 +7208,7 @@
         <v>1700</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H62" s="14" t="b">
         <v>0</v>
@@ -7219,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -7238,13 +7236,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>434</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>47</v>
@@ -7256,7 +7254,7 @@
         <v>880</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H63" s="14" t="b">
         <v>0</v>
@@ -7265,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -7284,13 +7282,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>437</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>47</v>
@@ -7302,7 +7300,7 @@
         <v>1400</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H64" s="14" t="b">
         <v>0</v>
@@ -7311,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -7330,13 +7328,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="C65" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>441</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>47</v>
@@ -7348,7 +7346,7 @@
         <v>1800</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H65" s="14" t="b">
         <v>0</v>
@@ -7357,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -7376,13 +7374,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B66" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="C66" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>47</v>
@@ -7394,7 +7392,7 @@
         <v>1080</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H66" s="14" t="b">
         <v>0</v>
@@ -7403,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -7422,13 +7420,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B67" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="C67" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>449</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>47</v>
@@ -7440,7 +7438,7 @@
         <v>1550</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H67" s="14" t="b">
         <v>0</v>
@@ -7449,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -7468,13 +7466,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="C68" s="10" t="s">
         <v>452</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>453</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>47</v>
@@ -7486,7 +7484,7 @@
         <v>2050</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H68" s="14" t="b">
         <v>0</v>
@@ -7495,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -7517,10 +7515,10 @@
         <v>131</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>455</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>456</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>47</v>
@@ -7532,7 +7530,7 @@
         <v>2850</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H69" s="14" t="b">
         <v>0</v>
@@ -7541,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -7560,13 +7558,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B70" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="C70" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>47</v>
@@ -7578,7 +7576,7 @@
         <v>900</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H70" s="14" t="b">
         <v>0</v>
@@ -7587,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -7606,13 +7604,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="C71" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>47</v>
@@ -7624,7 +7622,7 @@
         <v>1650</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H71" s="14" t="b">
         <v>0</v>
@@ -7633,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
@@ -7652,13 +7650,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B72" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="C72" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>468</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>47</v>
@@ -7670,7 +7668,7 @@
         <v>2350</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H72" s="14" t="b">
         <v>0</v>
@@ -7679,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
@@ -7698,13 +7696,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B73" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="C73" s="10" t="s">
         <v>471</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>472</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>47</v>
@@ -7716,7 +7714,7 @@
         <v>2180</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H73" s="14" t="b">
         <v>0</v>
@@ -7725,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -7744,13 +7742,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B74" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="C74" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>476</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>47</v>
@@ -7762,7 +7760,7 @@
         <v>4980</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H74" s="14" t="b">
         <v>0</v>
@@ -7771,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -7790,13 +7788,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="C75" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>480</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>47</v>
@@ -7805,11 +7803,11 @@
         <v>103</v>
       </c>
       <c r="F75" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>482</v>
-      </c>
       <c r="H75" s="14" t="b">
         <v>0</v>
       </c>
@@ -7817,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -7836,13 +7834,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B76" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="C76" s="10" t="s">
         <v>484</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>485</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>47</v>
@@ -7854,7 +7852,7 @@
         <v>2080</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H76" s="14" t="b">
         <v>0</v>
@@ -7863,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
@@ -7882,13 +7880,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B77" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="C77" s="10" t="s">
         <v>488</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>489</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>47</v>
@@ -7900,7 +7898,7 @@
         <v>4880</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H77" s="14" t="b">
         <v>0</v>
@@ -7909,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -7928,13 +7926,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="C78" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>47</v>
@@ -7943,11 +7941,11 @@
         <v>103</v>
       </c>
       <c r="F78" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="G78" s="10" t="s">
-        <v>482</v>
-      </c>
       <c r="H78" s="14" t="b">
         <v>0</v>
       </c>
@@ -7955,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
@@ -7974,13 +7972,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B79" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="C79" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>47</v>
@@ -7992,7 +7990,7 @@
         <v>2180</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H79" s="14" t="b">
         <v>0</v>
@@ -8001,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -8020,13 +8018,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B80" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="C80" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>500</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>47</v>
@@ -8035,11 +8033,11 @@
         <v>103</v>
       </c>
       <c r="F80" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="G80" s="10" t="s">
-        <v>482</v>
-      </c>
       <c r="H80" s="14" t="b">
         <v>0</v>
       </c>
@@ -8047,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
@@ -8066,13 +8064,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B81" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="C81" s="10" t="s">
         <v>502</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>503</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>47</v>
@@ -8081,11 +8079,11 @@
         <v>103</v>
       </c>
       <c r="F81" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G81" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="G81" s="10" t="s">
-        <v>482</v>
-      </c>
       <c r="H81" s="14" t="b">
         <v>0</v>
       </c>
@@ -8093,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -8112,13 +8110,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B82" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="C82" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>506</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>47</v>
@@ -8130,7 +8128,7 @@
         <v>2080</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H82" s="14" t="b">
         <v>0</v>
@@ -8139,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
@@ -8158,13 +8156,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B83" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="C83" s="10" t="s">
         <v>508</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>509</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>47</v>
@@ -8173,11 +8171,11 @@
         <v>103</v>
       </c>
       <c r="F83" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="G83" s="10" t="s">
-        <v>482</v>
-      </c>
       <c r="H83" s="14" t="b">
         <v>0</v>
       </c>
@@ -8185,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -8204,16 +8202,16 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="D84" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>103</v>
@@ -8222,7 +8220,7 @@
         <v>1080</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H84" s="14" t="b">
         <v>0</v>
@@ -8231,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -8250,13 +8248,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="C85" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>50</v>
@@ -8268,7 +8266,7 @@
         <v>980</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H85" s="14" t="b">
         <v>0</v>
@@ -8277,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
@@ -8296,13 +8294,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="C86" s="10" t="s">
         <v>520</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>521</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>50</v>
@@ -8314,7 +8312,7 @@
         <v>1180</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H86" s="14" t="b">
         <v>0</v>
@@ -8323,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -8342,13 +8340,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B87" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="C87" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>525</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>50</v>
@@ -8360,7 +8358,7 @@
         <v>1280</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H87" s="14" t="b">
         <v>0</v>
@@ -8369,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -8388,13 +8386,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B88" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="C88" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>529</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>50</v>
@@ -8406,7 +8404,7 @@
         <v>2400</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H88" s="14" t="b">
         <v>0</v>
@@ -8415,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -8434,13 +8432,13 @@
     </row>
     <row r="89" customHeight="1" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>532</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>50</v>
@@ -8452,7 +8450,7 @@
         <v>3880</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H89" s="14" t="b">
         <v>0</v>
@@ -8461,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -8480,13 +8478,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B90" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="C90" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>536</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>50</v>
@@ -8498,7 +8496,7 @@
         <v>980</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H90" s="14" t="b">
         <v>0</v>
@@ -8507,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -8526,13 +8524,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B91" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="C91" s="10" t="s">
         <v>538</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>539</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>50</v>
@@ -8544,7 +8542,7 @@
         <v>1180</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H91" s="14" t="b">
         <v>0</v>
@@ -8553,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -8572,13 +8570,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B92" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="C92" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>542</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>50</v>
@@ -8590,7 +8588,7 @@
         <v>880</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H92" s="14" t="b">
         <v>0</v>
@@ -8599,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -8618,13 +8616,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B93" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="C93" s="10" t="s">
         <v>545</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>546</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>50</v>
@@ -8636,7 +8634,7 @@
         <v>1480</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H93" s="14" t="b">
         <v>0</v>
@@ -8645,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -8664,13 +8662,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B94" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="C94" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>50</v>
@@ -8682,7 +8680,7 @@
         <v>3680</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H94" s="14" t="b">
         <v>0</v>
@@ -8691,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -8710,13 +8708,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B95" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="C95" s="10" t="s">
         <v>553</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>50</v>
@@ -8728,7 +8726,7 @@
         <v>1180</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H95" s="14" t="b">
         <v>0</v>
@@ -8737,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -8756,13 +8754,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B96" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="C96" s="10" t="s">
         <v>556</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>557</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>50</v>
@@ -8774,7 +8772,7 @@
         <v>2380</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H96" s="14" t="b">
         <v>0</v>
@@ -8783,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -8802,13 +8800,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B97" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="C97" s="10" t="s">
         <v>560</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>561</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>53</v>
@@ -8820,7 +8818,7 @@
         <v>1380</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H97" s="14" t="b">
         <v>0</v>
@@ -8829,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -8848,13 +8846,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B98" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="C98" s="10" t="s">
         <v>564</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>565</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>53</v>
@@ -8866,7 +8864,7 @@
         <v>1180</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H98" s="14" t="b">
         <v>0</v>
@@ -8875,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -8894,13 +8892,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B99" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="C99" s="10" t="s">
         <v>567</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>568</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>53</v>
@@ -8912,7 +8910,7 @@
         <v>1680</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H99" s="14" t="b">
         <v>0</v>
@@ -8921,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -8940,13 +8938,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B100" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="C100" s="10" t="s">
         <v>571</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>572</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>53</v>
@@ -8958,7 +8956,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H100" s="14" t="b">
         <v>0</v>
@@ -8967,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
@@ -8986,13 +8984,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B101" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="B101" s="24" t="s">
+      <c r="C101" s="10" t="s">
         <v>574</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>575</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>53</v>
@@ -9004,7 +9002,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H101" s="14" t="b">
         <v>0</v>
@@ -9013,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
@@ -9032,13 +9030,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="C102" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>53</v>
@@ -9050,7 +9048,7 @@
         <v>1280</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H102" s="14" t="b">
         <v>0</v>
@@ -9059,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -9078,13 +9076,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" s="10" t="s">
         <v>581</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>582</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>53</v>
@@ -9096,7 +9094,7 @@
         <v>1080</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H103" s="14" t="b">
         <v>0</v>
@@ -9105,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -9124,13 +9122,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>584</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>585</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>53</v>
@@ -9142,7 +9140,7 @@
         <v>1880</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H104" s="14" t="b">
         <v>0</v>
@@ -9151,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -9170,13 +9168,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>589</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>53</v>
@@ -9188,7 +9186,7 @@
         <v>2680</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H105" s="14" t="b">
         <v>0</v>
@@ -9197,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
@@ -9216,13 +9214,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B106" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="C106" s="10" t="s">
         <v>592</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>593</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>53</v>
@@ -9234,7 +9232,7 @@
         <v>1380</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H106" s="14" t="b">
         <v>0</v>
@@ -9243,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
@@ -9262,13 +9260,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B107" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="C107" s="10" t="s">
         <v>596</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>597</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>53</v>
@@ -9280,7 +9278,7 @@
         <v>1480</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H107" s="14" t="b">
         <v>0</v>
@@ -9289,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
@@ -9308,13 +9306,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B108" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="C108" s="10" t="s">
         <v>600</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>601</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>56</v>
@@ -9326,7 +9324,7 @@
         <v>1580</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H108" s="14" t="b">
         <v>0</v>
@@ -9335,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
@@ -9354,13 +9352,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B109" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="C109" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>56</v>
@@ -9372,7 +9370,7 @@
         <v>880</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H109" s="14" t="b">
         <v>0</v>
@@ -9381,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
@@ -9400,13 +9398,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="C110" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>608</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>56</v>
@@ -9418,7 +9416,7 @@
         <v>1380</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H110" s="14" t="b">
         <v>0</v>
@@ -9427,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -9446,13 +9444,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B111" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="B111" s="24" t="s">
+      <c r="C111" s="10" t="s">
         <v>611</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>612</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>56</v>
@@ -9464,7 +9462,7 @@
         <v>1580</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H111" s="14" t="b">
         <v>0</v>
@@ -9473,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
@@ -9492,13 +9490,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B112" s="24" t="s">
         <v>614</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="C112" s="10" t="s">
         <v>615</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>616</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>56</v>
@@ -9510,7 +9508,7 @@
         <v>880</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H112" s="14" t="b">
         <v>0</v>
@@ -9519,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -9538,13 +9536,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="C113" s="10" t="s">
         <v>618</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>619</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>56</v>
@@ -9556,7 +9554,7 @@
         <v>2380</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H113" s="14" t="b">
         <v>0</v>
@@ -9565,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -9584,13 +9582,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="C114" s="10" t="s">
         <v>621</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>622</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>59</v>
@@ -9602,7 +9600,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H114" s="14" t="b">
         <v>0</v>
@@ -9611,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -9630,13 +9628,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>624</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>625</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>59</v>
@@ -9648,7 +9646,7 @@
         <v>780</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H115" s="14" t="b">
         <v>0</v>
@@ -9657,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -9676,13 +9674,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>628</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>629</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>59</v>
@@ -9694,7 +9692,7 @@
         <v>780</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H116" s="14" t="b">
         <v>0</v>
@@ -9703,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
@@ -9722,13 +9720,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>631</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>632</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>59</v>
@@ -9740,7 +9738,7 @@
         <v>880</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H117" s="14" t="b">
         <v>0</v>
@@ -9749,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
@@ -9768,13 +9766,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="C118" s="10" t="s">
         <v>634</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>635</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>59</v>
@@ -9786,7 +9784,7 @@
         <v>1280</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H118" s="14" t="b">
         <v>0</v>
@@ -9795,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
@@ -9814,13 +9812,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>638</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>59</v>
@@ -9832,7 +9830,7 @@
         <v>1780</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H119" s="14" t="b">
         <v>0</v>
@@ -9841,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -9860,13 +9858,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" s="10" t="s">
         <v>641</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>642</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>59</v>
@@ -9878,7 +9876,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H120" s="14" t="b">
         <v>0</v>
@@ -9887,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
@@ -9906,13 +9904,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>644</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>645</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>59</v>
@@ -9924,7 +9922,7 @@
         <v>1280</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H121" s="14" t="b">
         <v>0</v>
@@ -9933,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
@@ -9952,13 +9950,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" s="10" t="s">
         <v>647</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>648</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>59</v>
@@ -9970,7 +9968,7 @@
         <v>1780</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H122" s="14" t="b">
         <v>0</v>
@@ -9979,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
@@ -9998,13 +9996,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>651</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>652</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>59</v>
@@ -10016,7 +10014,7 @@
         <v>2480</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H123" s="14" t="b">
         <v>0</v>
@@ -10025,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
@@ -10044,13 +10042,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B124" s="24" t="s">
         <v>654</v>
       </c>
-      <c r="B124" s="24" t="s">
+      <c r="C124" s="10" t="s">
         <v>655</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>656</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>59</v>
@@ -10062,7 +10060,7 @@
         <v>1180</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H124" s="14" t="b">
         <v>0</v>
@@ -10071,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
@@ -10090,13 +10088,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B125" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="C125" s="10" t="s">
         <v>658</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>659</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>59</v>
@@ -10108,7 +10106,7 @@
         <v>980</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H125" s="14" t="b">
         <v>0</v>
@@ -10117,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
@@ -10136,13 +10134,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B126" s="24" t="s">
         <v>660</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="C126" s="10" t="s">
         <v>661</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>662</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>59</v>
@@ -10154,7 +10152,7 @@
         <v>1650</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H126" s="14" t="b">
         <v>0</v>
@@ -10163,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
@@ -10182,13 +10180,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B127" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="C127" s="10" t="s">
         <v>665</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>666</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>59</v>
@@ -10200,7 +10198,7 @@
         <v>1100</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H127" s="14" t="b">
         <v>0</v>
@@ -10209,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
@@ -10228,13 +10226,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="B128" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="C128" s="10" t="s">
         <v>669</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>670</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>59</v>
@@ -10246,7 +10244,7 @@
         <v>980</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H128" s="14" t="b">
         <v>0</v>
@@ -10255,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
@@ -10274,13 +10272,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B129" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="C129" s="10" t="s">
         <v>672</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>673</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>59</v>
@@ -10292,7 +10290,7 @@
         <v>1080</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H129" s="14" t="b">
         <v>0</v>
@@ -10301,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
@@ -10320,13 +10318,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B130" s="24" t="s">
         <v>674</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="C130" s="10" t="s">
         <v>675</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>676</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>59</v>
@@ -10338,7 +10336,7 @@
         <v>1680</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H130" s="14" t="b">
         <v>0</v>
@@ -10347,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
@@ -10366,13 +10364,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B131" s="24" t="s">
         <v>678</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="C131" s="10" t="s">
         <v>679</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>680</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>59</v>
@@ -10384,7 +10382,7 @@
         <v>980</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H131" s="14" t="b">
         <v>0</v>
@@ -10393,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
@@ -10412,13 +10410,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B132" s="24" t="s">
         <v>681</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="C132" s="10" t="s">
         <v>682</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>683</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>59</v>
@@ -10430,7 +10428,7 @@
         <v>1080</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H132" s="14" t="b">
         <v>0</v>
@@ -10439,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
@@ -10458,13 +10456,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B133" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="C133" s="10" t="s">
         <v>686</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>687</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>59</v>
@@ -10476,7 +10474,7 @@
         <v>1480</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H133" s="14" t="b">
         <v>0</v>
@@ -10485,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
@@ -10504,13 +10502,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B134" s="24" t="s">
         <v>689</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="C134" s="10" t="s">
         <v>690</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>691</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>59</v>
@@ -10522,7 +10520,7 @@
         <v>3480</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H134" s="14" t="b">
         <v>0</v>
@@ -10531,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
@@ -10550,13 +10548,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B135" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="B135" s="24" t="s">
+      <c r="C135" s="10" t="s">
         <v>694</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>695</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>59</v>
@@ -10568,7 +10566,7 @@
         <v>1280</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H135" s="14" t="b">
         <v>0</v>
@@ -10577,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
@@ -10596,13 +10594,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B136" s="24" t="s">
         <v>696</v>
       </c>
-      <c r="B136" s="24" t="s">
+      <c r="C136" s="10" t="s">
         <v>697</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>698</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>59</v>
@@ -10614,7 +10612,7 @@
         <v>1680</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H136" s="14" t="b">
         <v>0</v>
@@ -10623,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
@@ -10642,13 +10640,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B137" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="C137" s="10" t="s">
         <v>700</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>701</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>59</v>
@@ -10660,7 +10658,7 @@
         <v>2680</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H137" s="14" t="b">
         <v>0</v>
@@ -10669,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
@@ -10688,13 +10686,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B138" s="24" t="s">
         <v>702</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="C138" s="10" t="s">
         <v>703</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>704</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>59</v>
@@ -10706,7 +10704,7 @@
         <v>3680</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H138" s="14" t="b">
         <v>0</v>
@@ -10715,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
@@ -10734,13 +10732,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B139" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="C139" s="10" t="s">
         <v>707</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>708</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>59</v>
@@ -10752,7 +10750,7 @@
         <v>1080</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H139" s="14" t="b">
         <v>0</v>
@@ -10761,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
@@ -10780,13 +10778,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B140" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="B140" s="25" t="s">
+      <c r="C140" s="25" t="s">
         <v>710</v>
-      </c>
-      <c r="C140" s="25" t="s">
-        <v>711</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>65</v>
@@ -10798,28 +10796,28 @@
         <v>147</v>
       </c>
       <c r="G140" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="H140" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="H140" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I140" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="7" t="s">
+      <c r="K140" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="K140" s="7" t="s">
+      <c r="L140" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M140" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="L140" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M140" s="21" t="s">
+      <c r="N140" s="22" t="s">
         <v>715</v>
-      </c>
-      <c r="N140" s="22" t="s">
-        <v>716</v>
       </c>
       <c r="O140" s="7" t="s">
         <v>111</v>
@@ -10834,13 +10832,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B141" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="B141" s="25" t="s">
+      <c r="C141" s="25" t="s">
         <v>718</v>
-      </c>
-      <c r="C141" s="25" t="s">
-        <v>719</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>65</v>
@@ -10852,28 +10850,28 @@
         <v>147</v>
       </c>
       <c r="G141" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="H141" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="H141" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I141" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>713</v>
-      </c>
       <c r="K141" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="L141" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M141" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="L141" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M141" s="21" t="s">
+      <c r="N141" s="22" t="s">
         <v>721</v>
-      </c>
-      <c r="N141" s="22" t="s">
-        <v>722</v>
       </c>
       <c r="O141" s="7" t="s">
         <v>111</v>
@@ -10888,13 +10886,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B142" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="B142" s="25" t="s">
+      <c r="C142" s="25" t="s">
         <v>724</v>
-      </c>
-      <c r="C142" s="25" t="s">
-        <v>725</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>69</v>
@@ -10903,10 +10901,10 @@
         <v>103</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H142" s="23" t="b">
         <v>0</v>
@@ -10915,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
@@ -10934,13 +10932,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B143" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="B143" s="25" t="s">
+      <c r="C143" s="25" t="s">
         <v>728</v>
-      </c>
-      <c r="C143" s="25" t="s">
-        <v>729</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>69</v>
@@ -10949,10 +10947,10 @@
         <v>103</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H143" s="23" t="b">
         <v>0</v>
@@ -10961,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
@@ -10980,13 +10978,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B144" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="B144" s="25" t="s">
+      <c r="C144" s="25" t="s">
         <v>732</v>
-      </c>
-      <c r="C144" s="25" t="s">
-        <v>733</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>72</v>
@@ -10995,10 +10993,10 @@
         <v>103</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H144" s="14" t="b">
         <v>0</v>
@@ -11007,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
@@ -11026,13 +11024,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B145" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="B145" s="25" t="s">
+      <c r="C145" s="25" t="s">
         <v>736</v>
-      </c>
-      <c r="C145" s="25" t="s">
-        <v>737</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>72</v>
@@ -11041,10 +11039,10 @@
         <v>103</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H145" s="14" t="b">
         <v>0</v>
@@ -11053,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
@@ -11072,13 +11070,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="B146" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="B146" s="25" t="s">
+      <c r="C146" s="25" t="s">
         <v>740</v>
-      </c>
-      <c r="C146" s="25" t="s">
-        <v>741</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>72</v>
@@ -11087,10 +11085,10 @@
         <v>103</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H146" s="23" t="b">
         <v>0</v>
@@ -11099,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
@@ -11118,7 +11116,7 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>115</v>
+        <v>742</v>
       </c>
       <c r="B147" s="25" t="s">
         <v>743</v>
@@ -11133,7 +11131,7 @@
         <v>103</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G147" s="25" t="s">
         <v>745</v>
@@ -11145,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
@@ -11179,10 +11177,10 @@
         <v>103</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H148" s="23" t="b">
         <v>0</v>
@@ -11191,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
@@ -11225,10 +11223,10 @@
         <v>103</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H149" s="23" t="b">
         <v>0</v>
@@ -11237,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
@@ -11271,10 +11269,10 @@
         <v>103</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H150" s="23" t="b">
         <v>0</v>
@@ -11283,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
@@ -11317,10 +11315,10 @@
         <v>103</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H151" s="23" t="b">
         <v>0</v>
@@ -11329,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
@@ -11363,10 +11361,10 @@
         <v>103</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G152" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="H152" s="23" t="b">
         <v>0</v>
@@ -11411,10 +11409,10 @@
         <v>103</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G153" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="H153" s="23" t="b">
         <v>0</v>
@@ -11457,10 +11455,10 @@
         <v>103</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G154" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="G154" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="H154" s="23" t="b">
         <v>0</v>
@@ -11503,10 +11501,10 @@
         <v>103</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G155" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="H155" s="23" t="b">
         <v>0</v>
@@ -11549,10 +11547,10 @@
         <v>103</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G156" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="H156" s="23" t="b">
         <v>0</v>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -3484,7 +3484,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D22" sqref="A1:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4153,8 +4153,8 @@
   <sheetPr/>
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A156"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776">
   <si>
     <t>id</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>55/份</t>
+  </si>
+  <si>
+    <t>images/product/food/牛肉汉堡.jpg</t>
   </si>
   <si>
     <t>Beef patty/Cheese slice/Seasonal vegetable</t>
@@ -4153,8 +4156,8 @@
   <sheetPr/>
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+    <sheetView tabSelected="1" topLeftCell="E149" workbookViewId="0">
+      <selection activeCell="K164" sqref="K164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5051,13 +5054,15 @@
       <c r="J17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>111</v>
@@ -5072,13 +5077,13 @@
     </row>
     <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>192</v>
@@ -5087,10 +5092,10 @@
         <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H18" s="14" t="b">
         <v>0</v>
@@ -5102,14 +5107,14 @@
         <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>111</v>
@@ -5124,13 +5129,13 @@
     </row>
     <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>192</v>
@@ -5154,14 +5159,14 @@
         <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>111</v>
@@ -5176,13 +5181,13 @@
     </row>
     <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>18</v>
@@ -5191,10 +5196,10 @@
         <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H20" s="14" t="b">
         <v>0</v>
@@ -5206,14 +5211,14 @@
         <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>111</v>
@@ -5228,13 +5233,13 @@
     </row>
     <row r="21" customHeight="1" spans="1:18">
       <c r="A21" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>18</v>
@@ -5243,10 +5248,10 @@
         <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H21" s="14" t="b">
         <v>0</v>
@@ -5258,14 +5263,14 @@
         <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>111</v>
@@ -5280,13 +5285,13 @@
     </row>
     <row r="22" customHeight="1" spans="1:18">
       <c r="A22" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
@@ -5310,14 +5315,14 @@
         <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>111</v>
@@ -5332,13 +5337,13 @@
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -5347,10 +5352,10 @@
         <v>103</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H23" s="14" t="b">
         <v>0</v>
@@ -5362,14 +5367,14 @@
         <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>111</v>
@@ -5384,13 +5389,13 @@
     </row>
     <row r="24" customHeight="1" spans="1:18">
       <c r="A24" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>18</v>
@@ -5414,14 +5419,14 @@
         <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>111</v>
@@ -5436,13 +5441,13 @@
     </row>
     <row r="25" customHeight="1" spans="1:18">
       <c r="A25" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
@@ -5466,14 +5471,14 @@
         <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>111</v>
@@ -5488,13 +5493,13 @@
     </row>
     <row r="26" customHeight="1" spans="1:18">
       <c r="A26" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
@@ -5506,7 +5511,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H26" s="14" t="b">
         <v>0</v>
@@ -5518,14 +5523,14 @@
         <v>106</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>111</v>
@@ -5540,16 +5545,16 @@
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="A27" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>103</v>
@@ -5558,7 +5563,7 @@
         <v>139</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H27" s="14" t="b">
         <v>0</v>
@@ -5567,19 +5572,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>111</v>
@@ -5594,16 +5599,16 @@
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="A28" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>103</v>
@@ -5612,7 +5617,7 @@
         <v>139</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H28" s="14" t="b">
         <v>0</v>
@@ -5621,19 +5626,19 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>111</v>
@@ -5648,16 +5653,16 @@
     </row>
     <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>103</v>
@@ -5666,7 +5671,7 @@
         <v>139</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H29" s="14" t="b">
         <v>0</v>
@@ -5675,25 +5680,25 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="14" t="s">
         <v>112</v>
@@ -5702,16 +5707,16 @@
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>103</v>
@@ -5720,7 +5725,7 @@
         <v>139</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H30" s="14" t="b">
         <v>0</v>
@@ -5729,19 +5734,19 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>111</v>
@@ -5756,16 +5761,16 @@
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>103</v>
@@ -5774,7 +5779,7 @@
         <v>139</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H31" s="14" t="b">
         <v>0</v>
@@ -5783,19 +5788,19 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>111</v>
@@ -5813,13 +5818,13 @@
         <v>65</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>103</v>
@@ -5828,7 +5833,7 @@
         <v>213</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H32" s="14" t="b">
         <v>0</v>
@@ -5837,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="19"/>
@@ -5859,22 +5864,22 @@
         <v>69</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H33" s="14" t="b">
         <v>0</v>
@@ -5883,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="19"/>
@@ -5905,22 +5910,22 @@
         <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H34" s="14" t="b">
         <v>0</v>
@@ -5929,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="19"/>
@@ -5951,22 +5956,22 @@
         <v>75</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H35" s="14" t="b">
         <v>0</v>
@@ -5975,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="19"/>
@@ -5994,25 +5999,25 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H36" s="14" t="b">
         <v>0</v>
@@ -6021,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="19"/>
@@ -6040,25 +6045,25 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="E37" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H37" s="14" t="b">
         <v>0</v>
@@ -6067,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="19"/>
@@ -6086,25 +6091,25 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H38" s="14" t="b">
         <v>0</v>
@@ -6113,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="19"/>
@@ -6135,22 +6140,22 @@
         <v>147</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H39" s="14" t="b">
         <v>0</v>
@@ -6159,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="19"/>
@@ -6178,16 +6183,16 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>103</v>
@@ -6196,7 +6201,7 @@
         <v>115</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H40" s="14" t="b">
         <v>0</v>
@@ -6205,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="19"/>
@@ -6224,25 +6229,25 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H41" s="14" t="b">
         <v>0</v>
@@ -6251,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="19"/>
@@ -6270,25 +6275,25 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H42" s="14" t="b">
         <v>0</v>
@@ -6297,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="19"/>
@@ -6316,25 +6321,25 @@
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H43" s="14" t="b">
         <v>0</v>
@@ -6343,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="19"/>
@@ -6362,13 +6367,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>41</v>
@@ -6380,7 +6385,7 @@
         <v>860</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H44" s="14" t="b">
         <v>0</v>
@@ -6389,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -6408,13 +6413,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>41</v>
@@ -6426,7 +6431,7 @@
         <v>960</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H45" s="14" t="b">
         <v>0</v>
@@ -6435,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -6454,13 +6459,13 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>41</v>
@@ -6472,7 +6477,7 @@
         <v>860</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H46" s="14" t="b">
         <v>0</v>
@@ -6481,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -6500,13 +6505,13 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>41</v>
@@ -6518,7 +6523,7 @@
         <v>1080</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H47" s="14" t="b">
         <v>0</v>
@@ -6527,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -6546,13 +6551,13 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>41</v>
@@ -6564,7 +6569,7 @@
         <v>1180</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H48" s="14" t="b">
         <v>0</v>
@@ -6573,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -6595,10 +6600,10 @@
         <v>139</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>41</v>
@@ -6610,7 +6615,7 @@
         <v>1080</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H49" s="14" t="b">
         <v>0</v>
@@ -6619,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -6638,13 +6643,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>41</v>
@@ -6656,7 +6661,7 @@
         <v>1100</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H50" s="14" t="b">
         <v>0</v>
@@ -6665,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -6684,16 +6689,16 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>103</v>
@@ -6702,7 +6707,7 @@
         <v>1100</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H51" s="14" t="b">
         <v>0</v>
@@ -6711,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -6730,13 +6735,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>41</v>
@@ -6748,7 +6753,7 @@
         <v>1100</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H52" s="14" t="b">
         <v>0</v>
@@ -6757,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -6779,10 +6784,10 @@
         <v>187</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>41</v>
@@ -6794,7 +6799,7 @@
         <v>1180</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H53" s="14" t="b">
         <v>0</v>
@@ -6803,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -6822,13 +6827,13 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>41</v>
@@ -6840,7 +6845,7 @@
         <v>880</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H54" s="14" t="b">
         <v>0</v>
@@ -6849,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
@@ -6868,13 +6873,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>41</v>
@@ -6886,7 +6891,7 @@
         <v>1280</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H55" s="14" t="b">
         <v>0</v>
@@ -6895,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -6917,13 +6922,13 @@
         <v>213</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>103</v>
@@ -6932,7 +6937,7 @@
         <v>880</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H56" s="14" t="b">
         <v>0</v>
@@ -6941,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
@@ -6963,10 +6968,10 @@
         <v>195</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>44</v>
@@ -6978,7 +6983,7 @@
         <v>1100</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H57" s="14" t="b">
         <v>0</v>
@@ -6987,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -7006,13 +7011,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>44</v>
@@ -7024,7 +7029,7 @@
         <v>2650</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H58" s="14" t="b">
         <v>0</v>
@@ -7033,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -7055,10 +7060,10 @@
         <v>155</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>44</v>
@@ -7070,7 +7075,7 @@
         <v>880</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H59" s="14" t="b">
         <v>0</v>
@@ -7079,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -7098,13 +7103,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>44</v>
@@ -7116,7 +7121,7 @@
         <v>1050</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H60" s="14" t="b">
         <v>0</v>
@@ -7125,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -7144,13 +7149,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>44</v>
@@ -7162,7 +7167,7 @@
         <v>880</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H61" s="14" t="b">
         <v>0</v>
@@ -7171,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -7190,13 +7195,13 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>44</v>
@@ -7208,7 +7213,7 @@
         <v>1700</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H62" s="14" t="b">
         <v>0</v>
@@ -7217,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -7236,13 +7241,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>47</v>
@@ -7254,7 +7259,7 @@
         <v>880</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H63" s="14" t="b">
         <v>0</v>
@@ -7263,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -7282,13 +7287,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>47</v>
@@ -7300,7 +7305,7 @@
         <v>1400</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H64" s="14" t="b">
         <v>0</v>
@@ -7309,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -7328,13 +7333,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>47</v>
@@ -7346,7 +7351,7 @@
         <v>1800</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H65" s="14" t="b">
         <v>0</v>
@@ -7355,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -7374,13 +7379,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>47</v>
@@ -7392,7 +7397,7 @@
         <v>1080</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H66" s="14" t="b">
         <v>0</v>
@@ -7401,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -7420,13 +7425,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>47</v>
@@ -7438,7 +7443,7 @@
         <v>1550</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H67" s="14" t="b">
         <v>0</v>
@@ -7447,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -7466,13 +7471,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>47</v>
@@ -7484,7 +7489,7 @@
         <v>2050</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H68" s="14" t="b">
         <v>0</v>
@@ -7493,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -7515,10 +7520,10 @@
         <v>131</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>47</v>
@@ -7530,7 +7535,7 @@
         <v>2850</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H69" s="14" t="b">
         <v>0</v>
@@ -7539,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -7558,13 +7563,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>47</v>
@@ -7576,7 +7581,7 @@
         <v>900</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H70" s="14" t="b">
         <v>0</v>
@@ -7585,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -7604,13 +7609,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>47</v>
@@ -7622,7 +7627,7 @@
         <v>1650</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H71" s="14" t="b">
         <v>0</v>
@@ -7631,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
@@ -7650,13 +7655,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>47</v>
@@ -7668,7 +7673,7 @@
         <v>2350</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H72" s="14" t="b">
         <v>0</v>
@@ -7677,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
@@ -7696,13 +7701,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>47</v>
@@ -7714,7 +7719,7 @@
         <v>2180</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H73" s="14" t="b">
         <v>0</v>
@@ -7723,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -7742,13 +7747,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>47</v>
@@ -7760,7 +7765,7 @@
         <v>4980</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H74" s="14" t="b">
         <v>0</v>
@@ -7769,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -7788,13 +7793,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>47</v>
@@ -7803,10 +7808,10 @@
         <v>103</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H75" s="14" t="b">
         <v>0</v>
@@ -7815,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -7834,13 +7839,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>47</v>
@@ -7852,7 +7857,7 @@
         <v>2080</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H76" s="14" t="b">
         <v>0</v>
@@ -7861,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
@@ -7880,13 +7885,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>47</v>
@@ -7898,7 +7903,7 @@
         <v>4880</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H77" s="14" t="b">
         <v>0</v>
@@ -7907,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -7926,13 +7931,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>47</v>
@@ -7941,10 +7946,10 @@
         <v>103</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H78" s="14" t="b">
         <v>0</v>
@@ -7953,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
@@ -7972,13 +7977,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>47</v>
@@ -7990,7 +7995,7 @@
         <v>2180</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H79" s="14" t="b">
         <v>0</v>
@@ -7999,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -8018,13 +8023,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>47</v>
@@ -8033,10 +8038,10 @@
         <v>103</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H80" s="14" t="b">
         <v>0</v>
@@ -8045,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
@@ -8064,13 +8069,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>47</v>
@@ -8079,10 +8084,10 @@
         <v>103</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H81" s="14" t="b">
         <v>0</v>
@@ -8091,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -8110,13 +8115,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>47</v>
@@ -8128,7 +8133,7 @@
         <v>2080</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H82" s="14" t="b">
         <v>0</v>
@@ -8137,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
@@ -8156,13 +8161,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>47</v>
@@ -8171,10 +8176,10 @@
         <v>103</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H83" s="14" t="b">
         <v>0</v>
@@ -8183,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -8202,16 +8207,16 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>103</v>
@@ -8220,7 +8225,7 @@
         <v>1080</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H84" s="14" t="b">
         <v>0</v>
@@ -8229,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -8248,13 +8253,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>50</v>
@@ -8266,7 +8271,7 @@
         <v>980</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H85" s="14" t="b">
         <v>0</v>
@@ -8275,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
@@ -8294,13 +8299,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>50</v>
@@ -8312,7 +8317,7 @@
         <v>1180</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H86" s="14" t="b">
         <v>0</v>
@@ -8321,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -8340,13 +8345,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>50</v>
@@ -8358,7 +8363,7 @@
         <v>1280</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H87" s="14" t="b">
         <v>0</v>
@@ -8367,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -8386,13 +8391,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>50</v>
@@ -8404,7 +8409,7 @@
         <v>2400</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H88" s="14" t="b">
         <v>0</v>
@@ -8413,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -8432,13 +8437,13 @@
     </row>
     <row r="89" customHeight="1" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>50</v>
@@ -8450,7 +8455,7 @@
         <v>3880</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H89" s="14" t="b">
         <v>0</v>
@@ -8459,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -8478,13 +8483,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>50</v>
@@ -8496,7 +8501,7 @@
         <v>980</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H90" s="14" t="b">
         <v>0</v>
@@ -8505,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -8524,13 +8529,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>50</v>
@@ -8542,7 +8547,7 @@
         <v>1180</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H91" s="14" t="b">
         <v>0</v>
@@ -8551,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -8570,13 +8575,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>50</v>
@@ -8588,7 +8593,7 @@
         <v>880</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H92" s="14" t="b">
         <v>0</v>
@@ -8597,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -8616,13 +8621,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>50</v>
@@ -8634,7 +8639,7 @@
         <v>1480</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H93" s="14" t="b">
         <v>0</v>
@@ -8643,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -8662,13 +8667,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>50</v>
@@ -8680,7 +8685,7 @@
         <v>3680</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H94" s="14" t="b">
         <v>0</v>
@@ -8689,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -8708,13 +8713,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>50</v>
@@ -8726,7 +8731,7 @@
         <v>1180</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H95" s="14" t="b">
         <v>0</v>
@@ -8735,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -8754,13 +8759,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>50</v>
@@ -8772,7 +8777,7 @@
         <v>2380</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H96" s="14" t="b">
         <v>0</v>
@@ -8781,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -8800,13 +8805,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>53</v>
@@ -8818,7 +8823,7 @@
         <v>1380</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H97" s="14" t="b">
         <v>0</v>
@@ -8827,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -8846,13 +8851,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>53</v>
@@ -8864,7 +8869,7 @@
         <v>1180</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H98" s="14" t="b">
         <v>0</v>
@@ -8873,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -8892,13 +8897,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>53</v>
@@ -8910,7 +8915,7 @@
         <v>1680</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H99" s="14" t="b">
         <v>0</v>
@@ -8919,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -8938,13 +8943,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>53</v>
@@ -8956,7 +8961,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H100" s="14" t="b">
         <v>0</v>
@@ -8965,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
@@ -8984,13 +8989,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>53</v>
@@ -9002,7 +9007,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H101" s="14" t="b">
         <v>0</v>
@@ -9011,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
@@ -9030,13 +9035,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>53</v>
@@ -9048,7 +9053,7 @@
         <v>1280</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H102" s="14" t="b">
         <v>0</v>
@@ -9057,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -9076,13 +9081,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>53</v>
@@ -9094,7 +9099,7 @@
         <v>1080</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H103" s="14" t="b">
         <v>0</v>
@@ -9103,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -9122,13 +9127,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>53</v>
@@ -9140,7 +9145,7 @@
         <v>1880</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H104" s="14" t="b">
         <v>0</v>
@@ -9149,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -9168,13 +9173,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>53</v>
@@ -9186,7 +9191,7 @@
         <v>2680</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H105" s="14" t="b">
         <v>0</v>
@@ -9195,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
@@ -9214,13 +9219,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>53</v>
@@ -9232,7 +9237,7 @@
         <v>1380</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H106" s="14" t="b">
         <v>0</v>
@@ -9241,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
@@ -9260,13 +9265,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>53</v>
@@ -9278,7 +9283,7 @@
         <v>1480</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H107" s="14" t="b">
         <v>0</v>
@@ -9287,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
@@ -9306,13 +9311,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>56</v>
@@ -9324,7 +9329,7 @@
         <v>1580</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H108" s="14" t="b">
         <v>0</v>
@@ -9333,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
@@ -9352,13 +9357,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>56</v>
@@ -9370,7 +9375,7 @@
         <v>880</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H109" s="14" t="b">
         <v>0</v>
@@ -9379,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
@@ -9398,13 +9403,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>56</v>
@@ -9416,7 +9421,7 @@
         <v>1380</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H110" s="14" t="b">
         <v>0</v>
@@ -9425,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -9444,13 +9449,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>56</v>
@@ -9462,7 +9467,7 @@
         <v>1580</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H111" s="14" t="b">
         <v>0</v>
@@ -9471,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
@@ -9490,13 +9495,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>56</v>
@@ -9508,7 +9513,7 @@
         <v>880</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H112" s="14" t="b">
         <v>0</v>
@@ -9517,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -9536,13 +9541,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>56</v>
@@ -9554,7 +9559,7 @@
         <v>2380</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H113" s="14" t="b">
         <v>0</v>
@@ -9563,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -9582,13 +9587,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>59</v>
@@ -9600,7 +9605,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H114" s="14" t="b">
         <v>0</v>
@@ -9609,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -9628,13 +9633,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>59</v>
@@ -9646,7 +9651,7 @@
         <v>780</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H115" s="14" t="b">
         <v>0</v>
@@ -9655,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -9674,13 +9679,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>59</v>
@@ -9692,7 +9697,7 @@
         <v>780</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H116" s="14" t="b">
         <v>0</v>
@@ -9701,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
@@ -9720,13 +9725,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>59</v>
@@ -9738,7 +9743,7 @@
         <v>880</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H117" s="14" t="b">
         <v>0</v>
@@ -9747,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
@@ -9766,13 +9771,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>59</v>
@@ -9784,7 +9789,7 @@
         <v>1280</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H118" s="14" t="b">
         <v>0</v>
@@ -9793,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
@@ -9812,13 +9817,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>59</v>
@@ -9830,7 +9835,7 @@
         <v>1780</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H119" s="14" t="b">
         <v>0</v>
@@ -9839,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -9858,13 +9863,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>59</v>
@@ -9876,7 +9881,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H120" s="14" t="b">
         <v>0</v>
@@ -9885,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
@@ -9904,13 +9909,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>59</v>
@@ -9922,7 +9927,7 @@
         <v>1280</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H121" s="14" t="b">
         <v>0</v>
@@ -9931,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
@@ -9950,13 +9955,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>59</v>
@@ -9968,7 +9973,7 @@
         <v>1780</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H122" s="14" t="b">
         <v>0</v>
@@ -9977,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
@@ -9996,13 +10001,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>59</v>
@@ -10014,7 +10019,7 @@
         <v>2480</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H123" s="14" t="b">
         <v>0</v>
@@ -10023,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
@@ -10042,13 +10047,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>59</v>
@@ -10060,7 +10065,7 @@
         <v>1180</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H124" s="14" t="b">
         <v>0</v>
@@ -10069,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
@@ -10088,13 +10093,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>59</v>
@@ -10106,7 +10111,7 @@
         <v>980</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H125" s="14" t="b">
         <v>0</v>
@@ -10115,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
@@ -10134,13 +10139,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>59</v>
@@ -10152,7 +10157,7 @@
         <v>1650</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H126" s="14" t="b">
         <v>0</v>
@@ -10161,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
@@ -10180,13 +10185,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>59</v>
@@ -10198,7 +10203,7 @@
         <v>1100</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H127" s="14" t="b">
         <v>0</v>
@@ -10207,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
@@ -10226,13 +10231,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>59</v>
@@ -10244,7 +10249,7 @@
         <v>980</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H128" s="14" t="b">
         <v>0</v>
@@ -10253,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
@@ -10272,13 +10277,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>59</v>
@@ -10290,7 +10295,7 @@
         <v>1080</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H129" s="14" t="b">
         <v>0</v>
@@ -10299,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
@@ -10318,13 +10323,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>59</v>
@@ -10336,7 +10341,7 @@
         <v>1680</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H130" s="14" t="b">
         <v>0</v>
@@ -10345,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
@@ -10364,13 +10369,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>59</v>
@@ -10382,7 +10387,7 @@
         <v>980</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H131" s="14" t="b">
         <v>0</v>
@@ -10391,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
@@ -10410,13 +10415,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>59</v>
@@ -10428,7 +10433,7 @@
         <v>1080</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H132" s="14" t="b">
         <v>0</v>
@@ -10437,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
@@ -10456,13 +10461,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>59</v>
@@ -10474,7 +10479,7 @@
         <v>1480</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H133" s="14" t="b">
         <v>0</v>
@@ -10483,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
@@ -10502,13 +10507,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>59</v>
@@ -10520,7 +10525,7 @@
         <v>3480</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H134" s="14" t="b">
         <v>0</v>
@@ -10529,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
@@ -10548,13 +10553,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>59</v>
@@ -10566,7 +10571,7 @@
         <v>1280</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H135" s="14" t="b">
         <v>0</v>
@@ -10575,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
@@ -10594,13 +10599,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>59</v>
@@ -10612,7 +10617,7 @@
         <v>1680</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H136" s="14" t="b">
         <v>0</v>
@@ -10621,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
@@ -10640,13 +10645,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>59</v>
@@ -10658,7 +10663,7 @@
         <v>2680</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H137" s="14" t="b">
         <v>0</v>
@@ -10667,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
@@ -10686,13 +10691,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>59</v>
@@ -10704,7 +10709,7 @@
         <v>3680</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H138" s="14" t="b">
         <v>0</v>
@@ -10713,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
@@ -10732,13 +10737,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>59</v>
@@ -10750,7 +10755,7 @@
         <v>1080</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H139" s="14" t="b">
         <v>0</v>
@@ -10759,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
@@ -10778,13 +10783,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>65</v>
@@ -10796,7 +10801,7 @@
         <v>147</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H140" s="14" t="b">
         <v>0</v>
@@ -10805,19 +10810,19 @@
         <v>0</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M140" s="21" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N140" s="22" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O140" s="7" t="s">
         <v>111</v>
@@ -10832,13 +10837,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>65</v>
@@ -10850,7 +10855,7 @@
         <v>147</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H141" s="14" t="b">
         <v>0</v>
@@ -10859,19 +10864,19 @@
         <v>0</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M141" s="21" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N141" s="22" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O141" s="7" t="s">
         <v>111</v>
@@ -10886,13 +10891,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>69</v>
@@ -10901,10 +10906,10 @@
         <v>103</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H142" s="23" t="b">
         <v>0</v>
@@ -10913,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
@@ -10932,13 +10937,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>69</v>
@@ -10947,10 +10952,10 @@
         <v>103</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H143" s="23" t="b">
         <v>0</v>
@@ -10959,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
@@ -10978,13 +10983,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>72</v>
@@ -10993,10 +10998,10 @@
         <v>103</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H144" s="14" t="b">
         <v>0</v>
@@ -11005,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
@@ -11024,13 +11029,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>72</v>
@@ -11039,10 +11044,10 @@
         <v>103</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H145" s="14" t="b">
         <v>0</v>
@@ -11051,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
@@ -11070,13 +11075,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>72</v>
@@ -11085,10 +11090,10 @@
         <v>103</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H146" s="23" t="b">
         <v>0</v>
@@ -11097,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
@@ -11116,13 +11121,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>72</v>
@@ -11134,7 +11139,7 @@
         <v>210</v>
       </c>
       <c r="G147" s="25" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H147" s="23" t="b">
         <v>0</v>
@@ -11143,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
@@ -11162,13 +11167,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>75</v>
@@ -11177,10 +11182,10 @@
         <v>103</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H148" s="23" t="b">
         <v>0</v>
@@ -11189,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
@@ -11208,13 +11213,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>75</v>
@@ -11223,10 +11228,10 @@
         <v>103</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H149" s="23" t="b">
         <v>0</v>
@@ -11235,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
@@ -11254,13 +11259,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>75</v>
@@ -11269,10 +11274,10 @@
         <v>103</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H150" s="23" t="b">
         <v>0</v>
@@ -11281,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
@@ -11300,13 +11305,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>75</v>
@@ -11315,10 +11320,10 @@
         <v>103</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H151" s="23" t="b">
         <v>0</v>
@@ -11327,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
@@ -11346,13 +11351,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>82</v>
@@ -11361,10 +11366,10 @@
         <v>103</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H152" s="23" t="b">
         <v>0</v>
@@ -11373,11 +11378,11 @@
         <v>0</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K152" s="7"/>
       <c r="L152" s="26" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M152" s="21"/>
       <c r="N152" s="22"/>
@@ -11394,13 +11399,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>82</v>
@@ -11409,10 +11414,10 @@
         <v>103</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H153" s="23" t="b">
         <v>0</v>
@@ -11421,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
@@ -11440,13 +11445,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>82</v>
@@ -11455,10 +11460,10 @@
         <v>103</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H154" s="23" t="b">
         <v>0</v>
@@ -11467,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
@@ -11486,13 +11491,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>82</v>
@@ -11501,10 +11506,10 @@
         <v>103</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H155" s="23" t="b">
         <v>0</v>
@@ -11513,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
@@ -11532,13 +11537,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>82</v>
@@ -11547,10 +11552,10 @@
         <v>103</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H156" s="23" t="b">
         <v>0</v>
@@ -11559,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778">
   <si>
     <t>id</t>
   </si>
@@ -1461,10 +1461,7 @@
     <t>山崎.18</t>
   </si>
   <si>
-    <t>时价</t>
-  </si>
-  <si>
-    <t>时价/Glass+时价/Bottle</t>
+    <t>17800/Bottle</t>
   </si>
   <si>
     <t>75</t>
@@ -1521,6 +1518,9 @@
     <t>响.17</t>
   </si>
   <si>
+    <t>9800/Bottle</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
@@ -1530,6 +1530,9 @@
     <t>响.21</t>
   </si>
   <si>
+    <t>15000/Bottle</t>
+  </si>
+  <si>
     <t>81</t>
   </si>
   <si>
@@ -1546,6 +1549,9 @@
   </si>
   <si>
     <t>余市.15</t>
+  </si>
+  <si>
+    <t>11000/Bottle</t>
   </si>
   <si>
     <t>83</t>
@@ -2352,10 +2358,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2399,7 +2405,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2407,6 +2458,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2414,7 +2495,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2429,93 +2518,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2526,11 +2533,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2551,13 +2557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2575,13 +2587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2593,19 +2611,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2623,31 +2695,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,79 +2731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2836,35 +2842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2895,6 +2872,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2906,6 +2903,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2927,135 +2933,135 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4156,8 +4162,8 @@
   <sheetPr/>
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E149" workbookViewId="0">
-      <selection activeCell="K164" sqref="K164"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -7807,11 +7813,11 @@
       <c r="E75" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="10">
+        <v>17800</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>482</v>
       </c>
       <c r="H75" s="14" t="b">
         <v>0</v>
@@ -7839,13 +7845,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B76" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="C76" s="10" t="s">
         <v>484</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>485</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>47</v>
@@ -7857,7 +7863,7 @@
         <v>2080</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H76" s="14" t="b">
         <v>0</v>
@@ -7885,13 +7891,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B77" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="C77" s="10" t="s">
         <v>488</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>489</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>47</v>
@@ -7903,7 +7909,7 @@
         <v>4880</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H77" s="14" t="b">
         <v>0</v>
@@ -7931,13 +7937,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="C78" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>47</v>
@@ -7945,11 +7951,11 @@
       <c r="E78" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="10">
+        <v>17800</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>482</v>
       </c>
       <c r="H78" s="14" t="b">
         <v>0</v>
@@ -7977,13 +7983,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B79" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="C79" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>47</v>
@@ -7995,7 +8001,7 @@
         <v>2180</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H79" s="14" t="b">
         <v>0</v>
@@ -8023,13 +8029,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B80" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="C80" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>500</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>47</v>
@@ -8037,11 +8043,11 @@
       <c r="E80" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>481</v>
+      <c r="F80" s="10">
+        <v>9800</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="H80" s="14" t="b">
         <v>0</v>
@@ -8083,11 +8089,11 @@
       <c r="E81" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>481</v>
+      <c r="F81" s="10">
+        <v>15000</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="H81" s="14" t="b">
         <v>0</v>
@@ -8115,13 +8121,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>47</v>
@@ -8133,7 +8139,7 @@
         <v>2080</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H82" s="14" t="b">
         <v>0</v>
@@ -8161,13 +8167,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>47</v>
@@ -8175,11 +8181,11 @@
       <c r="E83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F83" s="10" t="s">
-        <v>481</v>
+      <c r="F83" s="10">
+        <v>11000</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="H83" s="14" t="b">
         <v>0</v>
@@ -8207,16 +8213,16 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>103</v>
@@ -8225,7 +8231,7 @@
         <v>1080</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H84" s="14" t="b">
         <v>0</v>
@@ -8253,13 +8259,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>50</v>
@@ -8271,7 +8277,7 @@
         <v>980</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H85" s="14" t="b">
         <v>0</v>
@@ -8299,13 +8305,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>50</v>
@@ -8317,7 +8323,7 @@
         <v>1180</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H86" s="14" t="b">
         <v>0</v>
@@ -8345,13 +8351,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>50</v>
@@ -8363,7 +8369,7 @@
         <v>1280</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H87" s="14" t="b">
         <v>0</v>
@@ -8391,13 +8397,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>50</v>
@@ -8409,7 +8415,7 @@
         <v>2400</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H88" s="14" t="b">
         <v>0</v>
@@ -8440,10 +8446,10 @@
         <v>243</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>50</v>
@@ -8455,7 +8461,7 @@
         <v>3880</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H89" s="14" t="b">
         <v>0</v>
@@ -8483,13 +8489,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>50</v>
@@ -8501,7 +8507,7 @@
         <v>980</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H90" s="14" t="b">
         <v>0</v>
@@ -8529,13 +8535,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>50</v>
@@ -8547,7 +8553,7 @@
         <v>1180</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H91" s="14" t="b">
         <v>0</v>
@@ -8575,13 +8581,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>50</v>
@@ -8593,7 +8599,7 @@
         <v>880</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H92" s="14" t="b">
         <v>0</v>
@@ -8621,13 +8627,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>50</v>
@@ -8639,7 +8645,7 @@
         <v>1480</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H93" s="14" t="b">
         <v>0</v>
@@ -8667,13 +8673,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>50</v>
@@ -8685,7 +8691,7 @@
         <v>3680</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H94" s="14" t="b">
         <v>0</v>
@@ -8713,13 +8719,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>50</v>
@@ -8731,7 +8737,7 @@
         <v>1180</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H95" s="14" t="b">
         <v>0</v>
@@ -8759,13 +8765,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>50</v>
@@ -8777,7 +8783,7 @@
         <v>2380</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H96" s="14" t="b">
         <v>0</v>
@@ -8805,13 +8811,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>53</v>
@@ -8823,7 +8829,7 @@
         <v>1380</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H97" s="14" t="b">
         <v>0</v>
@@ -8851,13 +8857,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>53</v>
@@ -8897,13 +8903,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>53</v>
@@ -8915,7 +8921,7 @@
         <v>1680</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H99" s="14" t="b">
         <v>0</v>
@@ -8943,13 +8949,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>53</v>
@@ -8989,13 +8995,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>53</v>
@@ -9007,7 +9013,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H101" s="14" t="b">
         <v>0</v>
@@ -9035,13 +9041,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>53</v>
@@ -9053,7 +9059,7 @@
         <v>1280</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H102" s="14" t="b">
         <v>0</v>
@@ -9081,13 +9087,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>53</v>
@@ -9127,13 +9133,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>53</v>
@@ -9145,7 +9151,7 @@
         <v>1880</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H104" s="14" t="b">
         <v>0</v>
@@ -9173,13 +9179,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>53</v>
@@ -9191,7 +9197,7 @@
         <v>2680</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H105" s="14" t="b">
         <v>0</v>
@@ -9219,13 +9225,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>53</v>
@@ -9237,7 +9243,7 @@
         <v>1380</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H106" s="14" t="b">
         <v>0</v>
@@ -9265,13 +9271,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>53</v>
@@ -9283,7 +9289,7 @@
         <v>1480</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H107" s="14" t="b">
         <v>0</v>
@@ -9311,13 +9317,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>56</v>
@@ -9329,7 +9335,7 @@
         <v>1580</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H108" s="14" t="b">
         <v>0</v>
@@ -9357,13 +9363,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>56</v>
@@ -9375,7 +9381,7 @@
         <v>880</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H109" s="14" t="b">
         <v>0</v>
@@ -9403,13 +9409,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>56</v>
@@ -9421,7 +9427,7 @@
         <v>1380</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H110" s="14" t="b">
         <v>0</v>
@@ -9449,13 +9455,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>56</v>
@@ -9467,7 +9473,7 @@
         <v>1580</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H111" s="14" t="b">
         <v>0</v>
@@ -9495,13 +9501,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>56</v>
@@ -9513,7 +9519,7 @@
         <v>880</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H112" s="14" t="b">
         <v>0</v>
@@ -9541,13 +9547,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>56</v>
@@ -9559,7 +9565,7 @@
         <v>2380</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H113" s="14" t="b">
         <v>0</v>
@@ -9587,13 +9593,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>59</v>
@@ -9605,7 +9611,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H114" s="14" t="b">
         <v>0</v>
@@ -9633,13 +9639,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>59</v>
@@ -9651,7 +9657,7 @@
         <v>780</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H115" s="14" t="b">
         <v>0</v>
@@ -9679,13 +9685,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>59</v>
@@ -9697,7 +9703,7 @@
         <v>780</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H116" s="14" t="b">
         <v>0</v>
@@ -9725,13 +9731,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>59</v>
@@ -9743,7 +9749,7 @@
         <v>880</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H117" s="14" t="b">
         <v>0</v>
@@ -9771,13 +9777,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>59</v>
@@ -9789,7 +9795,7 @@
         <v>1280</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H118" s="14" t="b">
         <v>0</v>
@@ -9817,13 +9823,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>59</v>
@@ -9835,7 +9841,7 @@
         <v>1780</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H119" s="14" t="b">
         <v>0</v>
@@ -9863,13 +9869,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>59</v>
@@ -9881,7 +9887,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H120" s="14" t="b">
         <v>0</v>
@@ -9909,13 +9915,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>59</v>
@@ -9927,7 +9933,7 @@
         <v>1280</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H121" s="14" t="b">
         <v>0</v>
@@ -9955,13 +9961,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>59</v>
@@ -9973,7 +9979,7 @@
         <v>1780</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H122" s="14" t="b">
         <v>0</v>
@@ -10001,13 +10007,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>59</v>
@@ -10019,7 +10025,7 @@
         <v>2480</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H123" s="14" t="b">
         <v>0</v>
@@ -10047,13 +10053,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>59</v>
@@ -10093,13 +10099,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>59</v>
@@ -10111,7 +10117,7 @@
         <v>980</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H125" s="14" t="b">
         <v>0</v>
@@ -10139,13 +10145,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>59</v>
@@ -10157,7 +10163,7 @@
         <v>1650</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H126" s="14" t="b">
         <v>0</v>
@@ -10185,13 +10191,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>59</v>
@@ -10203,7 +10209,7 @@
         <v>1100</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H127" s="14" t="b">
         <v>0</v>
@@ -10231,13 +10237,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>59</v>
@@ -10249,7 +10255,7 @@
         <v>980</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H128" s="14" t="b">
         <v>0</v>
@@ -10277,13 +10283,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>59</v>
@@ -10323,13 +10329,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>59</v>
@@ -10341,7 +10347,7 @@
         <v>1680</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H130" s="14" t="b">
         <v>0</v>
@@ -10369,13 +10375,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>59</v>
@@ -10387,7 +10393,7 @@
         <v>980</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H131" s="14" t="b">
         <v>0</v>
@@ -10415,13 +10421,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>59</v>
@@ -10433,7 +10439,7 @@
         <v>1080</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H132" s="14" t="b">
         <v>0</v>
@@ -10461,13 +10467,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>59</v>
@@ -10479,7 +10485,7 @@
         <v>1480</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H133" s="14" t="b">
         <v>0</v>
@@ -10507,13 +10513,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>59</v>
@@ -10525,7 +10531,7 @@
         <v>3480</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H134" s="14" t="b">
         <v>0</v>
@@ -10553,13 +10559,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>59</v>
@@ -10571,7 +10577,7 @@
         <v>1280</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H135" s="14" t="b">
         <v>0</v>
@@ -10599,13 +10605,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>59</v>
@@ -10617,7 +10623,7 @@
         <v>1680</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H136" s="14" t="b">
         <v>0</v>
@@ -10645,13 +10651,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>59</v>
@@ -10663,7 +10669,7 @@
         <v>2680</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H137" s="14" t="b">
         <v>0</v>
@@ -10691,13 +10697,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>59</v>
@@ -10709,7 +10715,7 @@
         <v>3680</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H138" s="14" t="b">
         <v>0</v>
@@ -10737,13 +10743,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>59</v>
@@ -10783,13 +10789,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>65</v>
@@ -10801,7 +10807,7 @@
         <v>147</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H140" s="14" t="b">
         <v>0</v>
@@ -10810,19 +10816,19 @@
         <v>0</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L140" s="7" t="s">
         <v>285</v>
       </c>
       <c r="M140" s="21" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="N140" s="22" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="O140" s="7" t="s">
         <v>111</v>
@@ -10837,13 +10843,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>65</v>
@@ -10855,7 +10861,7 @@
         <v>147</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H141" s="14" t="b">
         <v>0</v>
@@ -10864,19 +10870,19 @@
         <v>0</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K141" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="L141" s="7" t="s">
         <v>285</v>
       </c>
       <c r="M141" s="21" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="N141" s="22" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O141" s="7" t="s">
         <v>111</v>
@@ -10891,13 +10897,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>69</v>
@@ -10909,7 +10915,7 @@
         <v>240</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H142" s="23" t="b">
         <v>0</v>
@@ -10918,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
@@ -10937,13 +10943,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>69</v>
@@ -10955,7 +10961,7 @@
         <v>254</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H143" s="23" t="b">
         <v>0</v>
@@ -10964,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
@@ -10983,13 +10989,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>72</v>
@@ -11001,7 +11007,7 @@
         <v>254</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H144" s="14" t="b">
         <v>0</v>
@@ -11010,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
@@ -11029,13 +11035,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>72</v>
@@ -11047,7 +11053,7 @@
         <v>306</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H145" s="14" t="b">
         <v>0</v>
@@ -11056,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
@@ -11075,13 +11081,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>72</v>
@@ -11093,7 +11099,7 @@
         <v>306</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H146" s="23" t="b">
         <v>0</v>
@@ -11102,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
@@ -11121,13 +11127,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>72</v>
@@ -11139,7 +11145,7 @@
         <v>210</v>
       </c>
       <c r="G147" s="25" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H147" s="23" t="b">
         <v>0</v>
@@ -11148,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
@@ -11167,13 +11173,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>75</v>
@@ -11185,7 +11191,7 @@
         <v>240</v>
       </c>
       <c r="G148" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H148" s="23" t="b">
         <v>0</v>
@@ -11194,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
@@ -11213,13 +11219,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>75</v>
@@ -11231,7 +11237,7 @@
         <v>240</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H149" s="23" t="b">
         <v>0</v>
@@ -11240,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
@@ -11259,13 +11265,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>75</v>
@@ -11277,7 +11283,7 @@
         <v>240</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H150" s="23" t="b">
         <v>0</v>
@@ -11286,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
@@ -11305,13 +11311,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>75</v>
@@ -11323,7 +11329,7 @@
         <v>306</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H151" s="23" t="b">
         <v>0</v>
@@ -11332,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
@@ -11351,13 +11357,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>82</v>
@@ -11378,11 +11384,11 @@
         <v>0</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K152" s="7"/>
       <c r="L152" s="26" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M152" s="21"/>
       <c r="N152" s="22"/>
@@ -11399,13 +11405,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>82</v>
@@ -11426,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
@@ -11445,13 +11451,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>82</v>
@@ -11472,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
@@ -11491,13 +11497,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>82</v>
@@ -11518,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
@@ -11537,13 +11543,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>82</v>
@@ -11564,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -4184,8 +4184,8 @@
   <sheetPr/>
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N158" sqref="N158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="7060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784">
   <si>
     <t>id</t>
   </si>
@@ -876,10 +876,10 @@
     <t>Sweet+Sour</t>
   </si>
   <si>
-    <t>Bacardi Rum/Lime juice/Monin strawberry syr</t>
-  </si>
-  <si>
-    <t>红茶/鲜奶/薰衣草糖浆</t>
+    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
+  </si>
+  <si>
+    <t>朗姆/青柠汁/莫林草莓糖浆</t>
   </si>
   <si>
     <t>27</t>
@@ -2304,19 +2304,37 @@
     <t>151</t>
   </si>
   <si>
+    <t>Kiwi Banana Mousse</t>
+  </si>
+  <si>
+    <t>猕猴桃香蕉慕斯</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>White cheese lemon pomelo Mousse</t>
+  </si>
+  <si>
+    <t>白乳酪柠檬柚慕斯</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
     <t>Opera</t>
   </si>
   <si>
     <t>歌剧院</t>
   </si>
   <si>
-    <t>dessert</t>
-  </si>
-  <si>
     <t>巧克力味,橙子味</t>
   </si>
   <si>
-    <t>152</t>
+    <t>154</t>
   </si>
   <si>
     <t>Valrhono Caramel Chocklate Ban</t>
@@ -2325,7 +2343,7 @@
     <t>法芙娜焦糖巧克力</t>
   </si>
   <si>
-    <t>153</t>
+    <t>155</t>
   </si>
   <si>
     <t>Pumpkin Cheese Cake</t>
@@ -2334,7 +2352,7 @@
     <t>南瓜芝士蛋糕</t>
   </si>
   <si>
-    <t>154</t>
+    <t>156</t>
   </si>
   <si>
     <t>Tarte au fromage framboise</t>
@@ -2343,7 +2361,7 @@
     <t>覆盆子芝士塔</t>
   </si>
   <si>
-    <t>155</t>
+    <t>157</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -4160,16 +4178,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.3125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6964285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.9642857142857" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.2232142857143" style="2" customWidth="1"/>
     <col min="4" max="6" width="11.5178571428571" style="1"/>
     <col min="7" max="7" width="19.6964285714286" style="1" customWidth="1"/>
@@ -11377,19 +11395,17 @@
       <c r="G152" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="H152" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" s="23" t="b">
-        <v>0</v>
+      <c r="H152" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>764</v>
       </c>
       <c r="K152" s="7"/>
-      <c r="L152" s="26" t="s">
-        <v>765</v>
-      </c>
+      <c r="L152" s="26"/>
       <c r="M152" s="21"/>
       <c r="N152" s="22"/>
       <c r="O152" s="25" t="s">
@@ -11405,13 +11421,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B153" s="25" t="s">
         <v>766</v>
       </c>
-      <c r="B153" s="25" t="s">
+      <c r="C153" s="25" t="s">
         <v>767</v>
-      </c>
-      <c r="C153" s="25" t="s">
-        <v>768</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>82</v>
@@ -11425,17 +11441,17 @@
       <c r="G153" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="H153" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I153" s="23" t="b">
-        <v>0</v>
+      <c r="H153" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>764</v>
       </c>
       <c r="K153" s="7"/>
-      <c r="L153" s="7"/>
+      <c r="L153" s="26"/>
       <c r="M153" s="21"/>
       <c r="N153" s="22"/>
       <c r="O153" s="25" t="s">
@@ -11451,13 +11467,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B154" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="C154" s="25" t="s">
         <v>770</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>771</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>82</v>
@@ -11481,7 +11497,9 @@
         <v>764</v>
       </c>
       <c r="K154" s="7"/>
-      <c r="L154" s="7"/>
+      <c r="L154" s="26" t="s">
+        <v>771</v>
+      </c>
       <c r="M154" s="21"/>
       <c r="N154" s="22"/>
       <c r="O154" s="25" t="s">
@@ -11528,8 +11546,8 @@
       </c>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
-      <c r="M155" s="22"/>
-      <c r="N155" s="7"/>
+      <c r="M155" s="21"/>
+      <c r="N155" s="22"/>
       <c r="O155" s="25" t="s">
         <v>111</v>
       </c>
@@ -11545,7 +11563,7 @@
       <c r="A156" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="B156" s="25" t="s">
+      <c r="B156" s="26" t="s">
         <v>776</v>
       </c>
       <c r="C156" s="25" t="s">
@@ -11574,8 +11592,8 @@
       </c>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
-      <c r="M156" s="22"/>
-      <c r="N156" s="7"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="22"/>
       <c r="O156" s="25" t="s">
         <v>111</v>
       </c>
@@ -11586,6 +11604,98 @@
         <v>112</v>
       </c>
       <c r="R156" s="21"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:18">
+      <c r="A157" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H157" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="22"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="P157" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q157" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="R157" s="21"/>
+    </row>
+    <row r="158" customHeight="1" spans="1:18">
+      <c r="A158" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H158" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="22"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="P158" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q158" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="R158" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="7060" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781">
   <si>
     <t>id</t>
   </si>
@@ -2353,15 +2353,6 @@
   </si>
   <si>
     <t>156</t>
-  </si>
-  <si>
-    <t>Tarte au fromage framboise</t>
-  </si>
-  <si>
-    <t>覆盆子芝士塔</t>
-  </si>
-  <si>
-    <t>157</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -4178,10 +4169,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R158"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156:A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -11651,52 +11642,6 @@
       </c>
       <c r="R157" s="21"/>
     </row>
-    <row r="158" customHeight="1" spans="1:18">
-      <c r="A158" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="C158" s="25" t="s">
-        <v>783</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="H158" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I158" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="K158" s="7"/>
-      <c r="L158" s="7"/>
-      <c r="M158" s="22"/>
-      <c r="N158" s="7"/>
-      <c r="O158" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="P158" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q158" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="R158" s="21"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B64" r:id="rId1" display="Suntory Whisky Toki Blended Whisky" tooltip="http://www.baidu.com/link?url=ws6cxNIhWmVA1gbrUgFMR62qAFpM_6JATWStakQnEQKhSBNYodQmeb88qGA0m-SOOk13BdAXFLY6N-jzc6ScdW-NuZ_ykdq6VbHmH_8D72tOJJrzR8BygWSxnfNnFjL5"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801">
   <si>
     <t>id</t>
   </si>
@@ -2202,30 +2202,30 @@
     <t>RT奶茶</t>
   </si>
   <si>
+    <t>soft drink</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/RT_milk_tea.png</t>
+  </si>
+  <si>
+    <t>Earl grey tea/Fresh milk/Lavender syrup/Cream</t>
+  </si>
+  <si>
+    <t>红茶/鲜奶/薰衣草糖浆/奶油</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Daydream</t>
+  </si>
+  <si>
+    <t>白日梦</t>
+  </si>
+  <si>
     <t>38/Glass</t>
   </si>
   <si>
-    <t>soft drink</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/RT_milk_tea.png</t>
-  </si>
-  <si>
-    <t>Earl grey tea/Fresh milk/Lavender syrup/Cream</t>
-  </si>
-  <si>
-    <t>红茶/鲜奶/薰衣草糖浆/奶油</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>Daydream</t>
-  </si>
-  <si>
-    <t>白日梦</t>
-  </si>
-  <si>
     <t>images/product/Mocktail/Daydream.png</t>
   </si>
   <si>
@@ -2352,6 +2352,9 @@
     <t>dessert</t>
   </si>
   <si>
+    <t>images/product/Dessert/猕猴桃香蕉慕斯.png</t>
+  </si>
+  <si>
     <t>155</t>
   </si>
   <si>
@@ -2361,40 +2364,61 @@
     <t>白乳酪柠檬柚慕斯</t>
   </si>
   <si>
+    <t>images/product/Dessert/白乳酪柠檬柚慕斯.png</t>
+  </si>
+  <si>
     <t>156</t>
   </si>
   <si>
-    <t>Opera</t>
-  </si>
-  <si>
-    <t>歌剧院</t>
-  </si>
-  <si>
-    <t>巧克力味,橙子味</t>
+    <t>Opera（Chocolate）</t>
+  </si>
+  <si>
+    <t>歌剧院（巧克力）</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/歌剧院巧克力味.png</t>
   </si>
   <si>
     <t>157</t>
   </si>
   <si>
+    <t>Opera（Orange）</t>
+  </si>
+  <si>
+    <t>歌剧院（橙子）</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/歌剧院橙子味.png</t>
+  </si>
+  <si>
     <t>Valrhono Caramel Chocklate Ban</t>
   </si>
   <si>
     <t>法芙娜焦糖巧克力</t>
   </si>
   <si>
+    <t>159</t>
+  </si>
+  <si>
     <t>Pumpkin Cheese Cake</t>
   </si>
   <si>
     <t>南瓜芝士蛋糕</t>
   </si>
   <si>
-    <t>159</t>
+    <t>images/product/Dessert/南瓜芝士蛋糕.png</t>
+  </si>
+  <si>
+    <t>160</t>
   </si>
   <si>
     <t>Match Cake</t>
   </si>
   <si>
     <t>五十铃抹茶蛋糕</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/五十铃抹茶蛋糕.png</t>
   </si>
 </sst>
 </file>
@@ -2403,10 +2427,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2449,10 +2473,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2464,30 +2489,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2501,16 +2511,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2525,16 +2550,52 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2555,43 +2616,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2602,7 +2626,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,13 +2692,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2632,109 +2794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2746,43 +2806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2891,7 +2915,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2907,21 +2970,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2951,169 +2999,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3186,10 +3210,34 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3537,32 +3585,32 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="28"/>
-    <col min="3" max="3" width="29.6071428571429" style="28" customWidth="1"/>
-    <col min="4" max="4" width="57.7321428571429" style="28" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="28" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="29" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="29"/>
-    <col min="8" max="8" width="16.2589285714286" style="28" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="28" customWidth="1"/>
-    <col min="10" max="1025" width="11.5178571428571" style="30"/>
-    <col min="1026" max="16384" width="9" style="30"/>
+    <col min="1" max="2" width="11.5178571428571" style="36"/>
+    <col min="3" max="3" width="29.6071428571429" style="36" customWidth="1"/>
+    <col min="4" max="4" width="57.7321428571429" style="36" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="37" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="37"/>
+    <col min="8" max="8" width="16.2589285714286" style="36" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="36" customWidth="1"/>
+    <col min="10" max="1025" width="11.5178571428571" style="38"/>
+    <col min="1026" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -3571,16 +3619,16 @@
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3600,17 +3648,17 @@
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="34" t="b">
+      <c r="F2" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="34" t="b">
+      <c r="G2" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="36"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="31">
+      <c r="A3" s="39">
         <v>11</v>
       </c>
       <c r="B3" s="15">
@@ -3623,14 +3671,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="34" t="b">
+      <c r="F3" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="34" t="b">
+      <c r="G3" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="15">
@@ -3646,14 +3694,14 @@
         <v>15</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="34" t="b">
+      <c r="F4" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="34" t="b">
+      <c r="G4" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="36"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="15">
@@ -3669,14 +3717,14 @@
         <v>17</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="34" t="b">
+      <c r="F5" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="34" t="b">
+      <c r="G5" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="36"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="15" t="s">
@@ -3692,14 +3740,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="34" t="b">
+      <c r="F6" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="34" t="b">
+      <c r="G6" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="36"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="15">
@@ -3717,14 +3765,14 @@
       <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="34" t="b">
+      <c r="F7" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="34" t="b">
+      <c r="G7" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="36"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="15">
@@ -3740,14 +3788,14 @@
         <v>25</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="34" t="b">
+      <c r="F8" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="34" t="b">
+      <c r="G8" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="36"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="15">
@@ -3763,14 +3811,14 @@
         <v>27</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34" t="b">
+      <c r="F9" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="36"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="15" t="s">
@@ -3786,14 +3834,14 @@
         <v>31</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="34" t="b">
+      <c r="F10" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="36"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="15" t="s">
@@ -3809,14 +3857,14 @@
         <v>34</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="34" t="b">
+      <c r="F11" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="15" t="s">
@@ -3832,14 +3880,14 @@
         <v>37</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="34" t="b">
+      <c r="F12" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="15">
@@ -3855,16 +3903,16 @@
         <v>39</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="34" t="b">
+      <c r="F13" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="42" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="36"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="15" t="s">
@@ -3880,14 +3928,14 @@
         <v>43</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="34" t="b">
+      <c r="F14" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="36"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="15" t="s">
@@ -3903,14 +3951,14 @@
         <v>46</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="34" t="b">
+      <c r="F15" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="36"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="15" t="s">
@@ -3926,14 +3974,14 @@
         <v>49</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="34" t="b">
+      <c r="F16" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="36"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="15" t="s">
@@ -3949,14 +3997,14 @@
         <v>52</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="34" t="b">
+      <c r="F17" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="36"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="15" t="s">
@@ -3972,14 +4020,14 @@
         <v>55</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="34" t="b">
+      <c r="F18" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
       <c r="A19" s="15" t="s">
@@ -3995,14 +4043,14 @@
         <v>58</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="34" t="b">
+      <c r="F19" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
       <c r="A20" s="15" t="s">
@@ -4018,14 +4066,14 @@
         <v>61</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="34" t="b">
+      <c r="F20" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
       <c r="A21" s="15" t="s">
@@ -4041,14 +4089,14 @@
         <v>65</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="34" t="b">
+      <c r="F21" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
       <c r="A22" s="15" t="s">
@@ -4066,14 +4114,14 @@
       <c r="E22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="34" t="b">
+      <c r="F22" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="34" t="b">
+      <c r="G22" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="15" t="s">
@@ -4089,14 +4137,14 @@
         <v>71</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="34" t="b">
+      <c r="F23" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="34" t="b">
+      <c r="G23" s="42" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="15" t="s">
@@ -4112,14 +4160,14 @@
         <v>74</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="34" t="b">
+      <c r="F24" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="15" t="s">
@@ -4128,24 +4176,24 @@
       <c r="B25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="40" t="s">
         <v>77</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="34" t="b">
+      <c r="F25" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="40" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="15">
@@ -4158,14 +4206,14 @@
         <v>80</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="34" t="b">
+      <c r="F26" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="15" t="s">
@@ -4183,37 +4231,37 @@
       <c r="E27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="34" t="b">
+      <c r="F27" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="34" t="b">
+      <c r="G27" s="42" t="b">
         <v>0</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="37"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -4228,10 +4276,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -11010,31 +11058,31 @@
         <v>106</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G143" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H143" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="H143" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="7" t="s">
+      <c r="K143" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="K143" s="7" t="s">
-        <v>730</v>
       </c>
       <c r="L143" s="7" t="s">
         <v>287</v>
       </c>
       <c r="M143" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="N143" s="22" t="s">
         <v>731</v>
-      </c>
-      <c r="N143" s="22" t="s">
-        <v>732</v>
       </c>
       <c r="O143" s="7" t="s">
         <v>114</v>
@@ -11049,13 +11097,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B144" s="25" t="s">
         <v>733</v>
       </c>
-      <c r="B144" s="25" t="s">
+      <c r="C144" s="25" t="s">
         <v>734</v>
-      </c>
-      <c r="C144" s="25" t="s">
-        <v>735</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>69</v>
@@ -11067,16 +11115,16 @@
         <v>150</v>
       </c>
       <c r="G144" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="H144" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="H144" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I144" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="K144" s="7" t="s">
         <v>736</v>
@@ -11130,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
@@ -11142,7 +11190,7 @@
       <c r="P145" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q145" s="27" t="s">
+      <c r="Q145" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R145" s="21"/>
@@ -11176,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
@@ -11188,7 +11236,7 @@
       <c r="P146" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q146" s="27" t="s">
+      <c r="Q146" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R146" s="21"/>
@@ -11222,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
@@ -11234,7 +11282,7 @@
       <c r="P147" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q147" s="27" t="s">
+      <c r="Q147" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R147" s="21"/>
@@ -11268,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
@@ -11280,7 +11328,7 @@
       <c r="P148" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q148" s="27" t="s">
+      <c r="Q148" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R148" s="21"/>
@@ -11314,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
@@ -11326,7 +11374,7 @@
       <c r="P149" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q149" s="27" t="s">
+      <c r="Q149" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R149" s="21"/>
@@ -11360,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
@@ -11372,7 +11420,7 @@
       <c r="P150" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q150" s="27" t="s">
+      <c r="Q150" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R150" s="21"/>
@@ -11406,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
@@ -11418,7 +11466,7 @@
       <c r="P151" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q151" s="27" t="s">
+      <c r="Q151" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R151" s="21"/>
@@ -11452,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
@@ -11464,7 +11512,7 @@
       <c r="P152" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q152" s="27" t="s">
+      <c r="Q152" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R152" s="21"/>
@@ -11498,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
@@ -11510,7 +11558,7 @@
       <c r="P153" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q153" s="27" t="s">
+      <c r="Q153" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R153" s="21"/>
@@ -11544,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
@@ -11556,288 +11604,346 @@
       <c r="P154" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q154" s="27" t="s">
+      <c r="Q154" s="34" t="s">
         <v>115</v>
       </c>
       <c r="R154" s="21"/>
     </row>
-    <row r="155" customHeight="1" spans="1:18">
+    <row r="155" customFormat="1" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="B155" s="25" t="s">
+      <c r="B155" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E155" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F155" s="7" t="s">
+      <c r="E155" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F155" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="G155" s="13" t="s">
+      <c r="G155" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H155" s="12" t="b">
+      <c r="H155" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I155" s="12" t="b">
+      <c r="I155" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J155" s="7" t="s">
+      <c r="J155" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="K155" s="7"/>
-      <c r="L155" s="26"/>
-      <c r="M155" s="21"/>
-      <c r="N155" s="22"/>
-      <c r="O155" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="P155" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q155" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="R155" s="21"/>
-    </row>
-    <row r="156" customHeight="1" spans="1:18">
+      <c r="K155" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="L155" s="28"/>
+      <c r="M155" s="32"/>
+      <c r="N155" s="33"/>
+      <c r="O155" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P155" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q155" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R155" s="32"/>
+    </row>
+    <row r="156" customFormat="1" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="B156" s="25" t="s">
         <v>779</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="B156" s="26" t="s">
         <v>780</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="C156" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="D156" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E156" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F156" s="7" t="s">
+      <c r="E156" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F156" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="G156" s="13" t="s">
+      <c r="G156" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H156" s="12" t="b">
+      <c r="H156" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I156" s="12" t="b">
+      <c r="I156" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J156" s="7" t="s">
+      <c r="J156" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="K156" s="7"/>
-      <c r="L156" s="26"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="22"/>
-      <c r="O156" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="P156" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q156" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="R156" s="21"/>
-    </row>
-    <row r="157" customHeight="1" spans="1:18">
+      <c r="K156" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="L156" s="28"/>
+      <c r="M156" s="32"/>
+      <c r="N156" s="33"/>
+      <c r="O156" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P156" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q156" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R156" s="32"/>
+    </row>
+    <row r="157" customFormat="1" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="B157" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="C157" s="25" t="s">
         <v>783</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="B157" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="D157" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E157" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F157" s="7" t="s">
+      <c r="E157" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F157" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="G157" s="13" t="s">
+      <c r="G157" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H157" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I157" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="7" t="s">
+      <c r="H157" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="K157" s="7"/>
-      <c r="L157" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="M157" s="21"/>
-      <c r="N157" s="22"/>
-      <c r="O157" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="P157" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q157" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="R157" s="21"/>
-    </row>
-    <row r="158" customHeight="1" spans="1:18">
+      <c r="K157" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="L157" s="28"/>
+      <c r="M157" s="32"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P157" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q157" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R157" s="32"/>
+    </row>
+    <row r="158" customFormat="1" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>786</v>
-      </c>
-      <c r="C158" s="25" t="s">
         <v>787</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="B158" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="D158" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E158" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F158" s="7" t="s">
+      <c r="E158" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F158" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="G158" s="13" t="s">
+      <c r="G158" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H158" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I158" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="7" t="s">
+      <c r="H158" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="K158" s="7"/>
-      <c r="L158" s="7"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="22"/>
-      <c r="O158" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="P158" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q158" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="R158" s="21"/>
-    </row>
-    <row r="159" customHeight="1" spans="1:18">
+      <c r="K158" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="L158" s="28"/>
+      <c r="M158" s="32"/>
+      <c r="N158" s="33"/>
+      <c r="O158" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P158" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q158" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R158" s="32"/>
+    </row>
+    <row r="159" customFormat="1" customHeight="1" spans="1:18">
       <c r="A159" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>788</v>
-      </c>
-      <c r="C159" s="25" t="s">
-        <v>789</v>
-      </c>
-      <c r="D159" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="D159" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E159" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F159" s="7" t="s">
+      <c r="E159" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F159" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="G159" s="13" t="s">
+      <c r="G159" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H159" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I159" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="7" t="s">
+      <c r="H159" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="K159" s="7"/>
-      <c r="L159" s="7"/>
-      <c r="M159" s="21"/>
-      <c r="N159" s="22"/>
-      <c r="O159" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="P159" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q159" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="R159" s="21"/>
-    </row>
-    <row r="160" customHeight="1" spans="1:18">
+      <c r="K159" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="L159" s="27"/>
+      <c r="M159" s="32"/>
+      <c r="N159" s="33"/>
+      <c r="O159" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P159" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q159" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R159" s="32"/>
+    </row>
+    <row r="160" customFormat="1" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>791</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="D160" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="D160" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E160" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F160" s="7" t="s">
+      <c r="E160" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F160" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="G160" s="13" t="s">
+      <c r="G160" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H160" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I160" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="7" t="s">
+      <c r="H160" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="K160" s="7"/>
-      <c r="L160" s="7"/>
-      <c r="M160" s="22"/>
-      <c r="N160" s="7"/>
-      <c r="O160" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="P160" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q160" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="R160" s="21"/>
+      <c r="K160" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="L160" s="27"/>
+      <c r="M160" s="32"/>
+      <c r="N160" s="33"/>
+      <c r="O160" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P160" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q160" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R160" s="32"/>
+    </row>
+    <row r="161" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A161" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B161" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>799</v>
+      </c>
+      <c r="D161" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G161" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H161" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="K161" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="L161" s="27"/>
+      <c r="M161" s="33"/>
+      <c r="N161" s="27"/>
+      <c r="O161" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P161" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q161" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="R161" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802">
   <si>
     <t>id</t>
   </si>
@@ -2395,6 +2395,9 @@
   </si>
   <si>
     <t>法芙娜焦糖巧克力</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
   </si>
   <si>
     <t>159</t>
@@ -4278,8 +4281,8 @@
   <sheetPr/>
   <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="H150" workbookViewId="0">
+      <selection activeCell="K159" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -11833,7 +11836,7 @@
         <v>777</v>
       </c>
       <c r="K159" s="27" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="L159" s="27"/>
       <c r="M159" s="32"/>
@@ -11851,13 +11854,13 @@
     </row>
     <row r="160" customFormat="1" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>85</v>
@@ -11881,7 +11884,7 @@
         <v>777</v>
       </c>
       <c r="K160" s="27" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L160" s="27"/>
       <c r="M160" s="32"/>
@@ -11899,13 +11902,13 @@
     </row>
     <row r="161" customFormat="1" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>85</v>
@@ -11929,7 +11932,7 @@
         <v>777</v>
       </c>
       <c r="K161" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L161" s="27"/>
       <c r="M161" s="33"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -351,7 +351,7 @@
     <t>images/product/food/牛排.jpg</t>
   </si>
   <si>
-    <t>230g+限量</t>
+    <t>230g+限量+7分熟</t>
   </si>
   <si>
     <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
@@ -4281,8 +4281,8 @@
   <sheetPr/>
   <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H150" workbookViewId="0">
-      <selection activeCell="K159" sqref="K159"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -372,705 +372,708 @@
     <t>香煎挪威三文鱼</t>
   </si>
   <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>138/份</t>
+  </si>
+  <si>
+    <t>images/product/food/香煎三文鱼.jpg</t>
+  </si>
+  <si>
+    <t>限量</t>
+  </si>
+  <si>
+    <t>Salmon steak/Mushroom/Bacon and asparagus roll/Colored pepper/Special dip sauce</t>
+  </si>
+  <si>
+    <t>三文鱼排/蘑菇/培根芦笋卷/彩椒/特制蘸酱</t>
+  </si>
+  <si>
+    <t>Fried lamb chops</t>
+  </si>
+  <si>
+    <t>RT香煎羊排</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>158/份</t>
+  </si>
+  <si>
+    <t>images/product/food/羊排.png</t>
+  </si>
+  <si>
+    <t>3根+限量</t>
+  </si>
+  <si>
+    <t>Lamb ribs/Corn/broccoli/Finger radish/Potato fillet</t>
+  </si>
+  <si>
+    <t>羊肋骨/玉米/西兰花/手指萝卜/土豆角</t>
+  </si>
+  <si>
+    <t>Hot spicy chicken</t>
+  </si>
+  <si>
+    <t>RT当红辣子鸡</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>68/份</t>
+  </si>
+  <si>
+    <t>images/product/food/辣子鸡.jpg</t>
+  </si>
+  <si>
+    <t>Chicken leg meat / Special spices</t>
+  </si>
+  <si>
+    <t>鸡腿肉/特制香辛料</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Sichuan crispy golden tofu</t>
+  </si>
+  <si>
+    <t>川香脆皮黄金豆腐</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>48/份</t>
+  </si>
+  <si>
+    <t>images/product/food/豆腐.jpg</t>
+  </si>
+  <si>
+    <t>Tofu/Special soup</t>
+  </si>
+  <si>
+    <t>豆腐/特调汤汁</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Cream asparagus mushroom</t>
+  </si>
+  <si>
+    <t>奶油芦笋蘑菇</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>38/份</t>
+  </si>
+  <si>
+    <t>images/product/food/芦笋蘑菇.jpg</t>
+  </si>
+  <si>
+    <t>Asparagus/Mushroom/Cream</t>
+  </si>
+  <si>
+    <t>芦笋/蘑菇/奶油风味</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Liuxin cheese crispy pill</t>
+  </si>
+  <si>
+    <t>流心起司香酥丸</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>58/份</t>
+  </si>
+  <si>
+    <t>images/product/food/流心香酥丸.jpg</t>
+  </si>
+  <si>
+    <t>Egg yolk cheese/Crispy shell</t>
+  </si>
+  <si>
+    <t>流心蛋黄芝士/酥炸外壳</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Signature crispy braised pork</t>
+  </si>
+  <si>
+    <t>招牌香酥红烧肉</t>
+  </si>
+  <si>
+    <t>images/product/food/香酥红烧肉.jpg</t>
+  </si>
+  <si>
+    <t>Streaky pork/Seasonal vegetable salad</t>
+  </si>
+  <si>
+    <t>五花肉/时蔬沙拉</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Stir fried shrimps and okra with Tashi flavor</t>
+  </si>
+  <si>
+    <t>塔香风味虾仁秋葵小炒</t>
+  </si>
+  <si>
+    <t>images/product/food/虾仁秋葵.jpg</t>
+  </si>
+  <si>
+    <t>Shrimp/Okra/Nine story tower</t>
+  </si>
+  <si>
+    <t>虾仁/秋葵/九层塔</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Fried chicken leg with curry sauce</t>
+  </si>
+  <si>
+    <t>香煎鸡腿佐和风咖喱酱汁</t>
+  </si>
+  <si>
+    <t>images/product/food/香煎鸡腿.jpg</t>
+  </si>
+  <si>
+    <t>Chicken leg/Curry sauce/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>鸡腿肉/咖喱酱汁/时蔬</t>
+  </si>
+  <si>
+    <t>Beef fillet rice with black pepper</t>
+  </si>
+  <si>
+    <t>招牌黑椒牛脊肉饭</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>images/product/food/黑椒牛柳.jpg</t>
+  </si>
+  <si>
+    <t>限时优惠</t>
+  </si>
+  <si>
+    <t>Beef fillet /Red and yellow pepper/Black Pepper</t>
+  </si>
+  <si>
+    <t>牛脊肉/红黄彩椒/黑胡椒</t>
+  </si>
+  <si>
+    <t>Cream mushroom bacon hot spring egg pasta</t>
+  </si>
+  <si>
+    <t>奶油蘑菇培根温泉蛋意面</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>52/份</t>
+  </si>
+  <si>
+    <t>images/product/food/温泉蛋意面.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Vegetables</t>
+  </si>
+  <si>
+    <t>意面/火腿/搭配蔬菜</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Little angel spaghetti with cream and ham</t>
+  </si>
+  <si>
+    <t>小恶魔蕃茄海鲜意面</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>56/份</t>
+  </si>
+  <si>
+    <t>images/product/food/小恶魔.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
+  </si>
+  <si>
+    <t>意面/海虹/鱿鱼圈/虾仁</t>
+  </si>
+  <si>
+    <t>小天使奶油火腿意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小天使.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
+  </si>
+  <si>
+    <t>意面/火腿/培根/时蔬</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
+  </si>
+  <si>
+    <t>日式和风烟熏鸡腿肉咖喱饭</t>
+  </si>
+  <si>
+    <t>images/product/food/咖喱炖饭.jpg</t>
+  </si>
+  <si>
+    <t>Smoked chicken/Special curry sauce</t>
+  </si>
+  <si>
+    <t>烟熏鸡肉/特调咖喱酱汁</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Beef cheeseburger</t>
+  </si>
+  <si>
+    <t>牛肉芝士汉堡</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>55/份</t>
+  </si>
+  <si>
+    <t>images/product/food/牛肉汉堡.jpg</t>
+  </si>
+  <si>
+    <t>Beef patty/Cheese slice/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>牛肉饼/芝士片/时蔬</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Caesar Salad smoked chicken breast</t>
+  </si>
+  <si>
+    <t>凯撒沙拉佐烟熏鸡胸肉</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>42/份</t>
+  </si>
+  <si>
+    <t>images/product/food/凯萨沙拉.jpg</t>
+  </si>
+  <si>
+    <t>Smoked chicken breast/Seasonal vegetable salad/Caesar sauce</t>
+  </si>
+  <si>
+    <t>烟熏鸡胸肉/时蔬沙拉/凯撒酱汁</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Yogurt fruit salad</t>
+  </si>
+  <si>
+    <t>酸奶水果沙拉</t>
+  </si>
+  <si>
+    <t>images/product/food/水果沙拉.jpg</t>
+  </si>
+  <si>
+    <t>Yoghurt/Nut/Blueberry/Orange/Kiwi/Strawberry/Pitaya/Sacred fruit/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>酸奶/坚果/蓝莓/橙子/猕猴桃/草莓/火龙果/圣女果/时蔬</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Macaroni in cone</t>
+  </si>
+  <si>
+    <t>蛋筒洋芋泥</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>28/份</t>
+  </si>
+  <si>
+    <t>images/product/food/洋芋泥.jpg</t>
+  </si>
+  <si>
+    <t>Slow boiled mashed potato/Flavor sauce</t>
+  </si>
+  <si>
+    <t>慢煮土豆泥/风味酱汁</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Sausage Platter</t>
+  </si>
+  <si>
+    <t>香肠拼盘</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>88/份</t>
+  </si>
+  <si>
+    <t>images/product/food/香肠拼盘.jpg</t>
+  </si>
+  <si>
+    <t>German sausage /Potato fillet/Seasonal vegetable salad</t>
+  </si>
+  <si>
+    <t>德式香肠/土豆角/时蔬沙拉</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Spare ribs with garlic</t>
+  </si>
+  <si>
+    <t>蒜香排骨</t>
+  </si>
+  <si>
+    <t>images/product/food/蒜香排骨.jpg</t>
+  </si>
+  <si>
+    <t>Pork ribs/Garlic/Special marinade</t>
+  </si>
+  <si>
+    <t>猪肋排/蒜/特制腌料</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Three flavors of sea salt and sweet potato</t>
+  </si>
+  <si>
+    <t>海盐粗薯三味</t>
+  </si>
+  <si>
+    <t>images/product/food/粗薯.jpg</t>
+  </si>
+  <si>
+    <t>Tapioca/Wasabi/Ketchup/Thousand island sauce</t>
+  </si>
+  <si>
+    <t>粗薯/黄芥末/番茄酱/千岛酱</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Crispy chicken</t>
+  </si>
+  <si>
+    <t>香酥麦克鸡块</t>
+  </si>
+  <si>
+    <t>images/product/food/麦克鸡块.jpg</t>
+  </si>
+  <si>
+    <t>Chicken / flour / tomato sauce</t>
+  </si>
+  <si>
+    <t>鸡肉/面粉/蕃茄酱</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Crispy fried cod balls</t>
+  </si>
+  <si>
+    <t>酥炸鳕鱼球</t>
+  </si>
+  <si>
+    <t>images/product/food/鳕鱼球.png</t>
+  </si>
+  <si>
+    <t>COD / flour / tomato sauce</t>
+  </si>
+  <si>
+    <t>鳕鱼/面粉/蕃茄酱</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Crispy fried chicken and rice flower</t>
+  </si>
+  <si>
+    <t>酥炸鸡米花</t>
+  </si>
+  <si>
+    <t>32/份</t>
+  </si>
+  <si>
+    <t>images/product/food/鸡米花.jpg</t>
+  </si>
+  <si>
+    <t>Chicken / flour / spices / ketchup</t>
+  </si>
+  <si>
+    <t>鸡肉/面粉/香料/蕃茄酱</t>
+  </si>
+  <si>
+    <t>Strawberry Mojito</t>
+  </si>
+  <si>
+    <t>草莓莫吉托</t>
+  </si>
+  <si>
+    <t>48/Glass</t>
+  </si>
+  <si>
+    <t>alcoholic drink</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Strawberry_mojito.png</t>
+  </si>
+  <si>
+    <t>Sweet+Sour</t>
+  </si>
+  <si>
+    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
+  </si>
+  <si>
+    <t>朗姆/青柠汁/莫林草莓糖浆</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Espresso martini</t>
+  </si>
+  <si>
+    <t>咖啡马提尼</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Espresso_martini.png</t>
+  </si>
+  <si>
+    <t>Sweet+Sour+Bitter</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
+  </si>
+  <si>
+    <t>Pinky Point</t>
+  </si>
+  <si>
+    <t>粉点</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Pinky_point.png</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Three Passions</t>
+  </si>
+  <si>
+    <t>激情</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Three_passions.png</t>
+  </si>
+  <si>
+    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
+  </si>
+  <si>
+    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Hightball</t>
+  </si>
+  <si>
+    <t>威士忌苏打</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Hightball.png</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Suntory kaku/Soda</t>
+  </si>
+  <si>
+    <t>三得利卡库/苏打水</t>
+  </si>
+  <si>
+    <t>Amon petit amour</t>
+  </si>
+  <si>
+    <t>心上人半干红葡萄酒</t>
+  </si>
+  <si>
+    <t>24+241</t>
+  </si>
+  <si>
+    <t>55/Glass</t>
+  </si>
+  <si>
+    <t>Sontti syrah cabernet vino d’Italia</t>
+  </si>
+  <si>
+    <t>十四行诗赤霞珠西拉干红葡萄酒</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>268/Bottle</t>
+  </si>
+  <si>
+    <t>The black Shiraz</t>
+  </si>
+  <si>
+    <t>伯顿酒庄铁牌西拉红葡萄酒</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>458/Bottle</t>
+  </si>
+  <si>
+    <t>1374 Chateau laulan ducos</t>
+  </si>
+  <si>
+    <t>1374乐朗公爵古堡干红葡萄酒</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>698/Bottle</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Camarero</t>
+  </si>
+  <si>
+    <t>企鹅侍者白葡萄酒</t>
+  </si>
+  <si>
+    <t>24+242</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Vereinigte hospitien riesling kabinett</t>
+  </si>
+  <si>
+    <t>赛琳娜雷司令典藏白葡萄酒</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Chateau lafn sauternes</t>
+  </si>
+  <si>
+    <t>拉枫酒庄贵腐甜白葡萄酒</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>588/Bottle</t>
+  </si>
+  <si>
+    <t>Canti di vigna</t>
+  </si>
+  <si>
+    <t>悦葡布拉凯多甜红起泡葡萄酒</t>
+  </si>
+  <si>
+    <t>24+243</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>45/Glass</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Truffle hunter leda</t>
+  </si>
+  <si>
+    <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
+  </si>
+  <si>
     <t>258</t>
   </si>
   <si>
-    <t>258/份</t>
-  </si>
-  <si>
-    <t>images/product/food/香煎三文鱼.jpg</t>
-  </si>
-  <si>
-    <t>限量</t>
-  </si>
-  <si>
-    <t>Salmon steak/Mushroom/Bacon and asparagus roll/Colored pepper/Special dip sauce</t>
-  </si>
-  <si>
-    <t>三文鱼排/蘑菇/培根芦笋卷/彩椒/特制蘸酱</t>
-  </si>
-  <si>
-    <t>Fried lamb chops</t>
-  </si>
-  <si>
-    <t>RT香煎羊排</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>158/份</t>
-  </si>
-  <si>
-    <t>images/product/food/羊排.png</t>
-  </si>
-  <si>
-    <t>3根+限量</t>
-  </si>
-  <si>
-    <t>Lamb ribs/Corn/broccoli/Finger radish/Potato fillet</t>
-  </si>
-  <si>
-    <t>羊肋骨/玉米/西兰花/手指萝卜/土豆角</t>
-  </si>
-  <si>
-    <t>Hot spicy chicken</t>
-  </si>
-  <si>
-    <t>RT当红辣子鸡</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>68/份</t>
-  </si>
-  <si>
-    <t>images/product/food/辣子鸡.jpg</t>
-  </si>
-  <si>
-    <t>Chicken leg meat / Special spices</t>
-  </si>
-  <si>
-    <t>鸡腿肉/特制香辛料</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Sichuan crispy golden tofu</t>
-  </si>
-  <si>
-    <t>川香脆皮黄金豆腐</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>48/份</t>
-  </si>
-  <si>
-    <t>images/product/food/豆腐.jpg</t>
-  </si>
-  <si>
-    <t>Tofu/Special soup</t>
-  </si>
-  <si>
-    <t>豆腐/特调汤汁</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Cream asparagus mushroom</t>
-  </si>
-  <si>
-    <t>奶油芦笋蘑菇</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>38/份</t>
-  </si>
-  <si>
-    <t>images/product/food/芦笋蘑菇.jpg</t>
-  </si>
-  <si>
-    <t>Asparagus/Mushroom/Cream</t>
-  </si>
-  <si>
-    <t>芦笋/蘑菇/奶油风味</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Liuxin cheese crispy pill</t>
-  </si>
-  <si>
-    <t>流心起司香酥丸</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>58/份</t>
-  </si>
-  <si>
-    <t>images/product/food/流心香酥丸.jpg</t>
-  </si>
-  <si>
-    <t>Egg yolk cheese/Crispy shell</t>
-  </si>
-  <si>
-    <t>流心蛋黄芝士/酥炸外壳</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Signature crispy braised pork</t>
-  </si>
-  <si>
-    <t>招牌香酥红烧肉</t>
-  </si>
-  <si>
-    <t>images/product/food/香酥红烧肉.jpg</t>
-  </si>
-  <si>
-    <t>Streaky pork/Seasonal vegetable salad</t>
-  </si>
-  <si>
-    <t>五花肉/时蔬沙拉</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Stir fried shrimps and okra with Tashi flavor</t>
-  </si>
-  <si>
-    <t>塔香风味虾仁秋葵小炒</t>
-  </si>
-  <si>
-    <t>images/product/food/虾仁秋葵.jpg</t>
-  </si>
-  <si>
-    <t>Shrimp/Okra/Nine story tower</t>
-  </si>
-  <si>
-    <t>虾仁/秋葵/九层塔</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Fried chicken leg with curry sauce</t>
-  </si>
-  <si>
-    <t>香煎鸡腿佐和风咖喱酱汁</t>
-  </si>
-  <si>
-    <t>images/product/food/香煎鸡腿.jpg</t>
-  </si>
-  <si>
-    <t>Chicken leg/Curry sauce/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>鸡腿肉/咖喱酱汁/时蔬</t>
-  </si>
-  <si>
-    <t>Beef fillet rice with black pepper</t>
-  </si>
-  <si>
-    <t>招牌黑椒牛脊肉饭</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>images/product/food/黑椒牛柳.jpg</t>
-  </si>
-  <si>
-    <t>限时优惠</t>
-  </si>
-  <si>
-    <t>Beef fillet /Red and yellow pepper/Black Pepper</t>
-  </si>
-  <si>
-    <t>牛脊肉/红黄彩椒/黑胡椒</t>
-  </si>
-  <si>
-    <t>Cream mushroom bacon hot spring egg pasta</t>
-  </si>
-  <si>
-    <t>奶油蘑菇培根温泉蛋意面</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>52/份</t>
-  </si>
-  <si>
-    <t>images/product/food/温泉蛋意面.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Vegetables</t>
-  </si>
-  <si>
-    <t>意面/火腿/搭配蔬菜</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Little angel spaghetti with cream and ham</t>
-  </si>
-  <si>
-    <t>小恶魔蕃茄海鲜意面</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>56/份</t>
-  </si>
-  <si>
-    <t>images/product/food/小恶魔.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
-  </si>
-  <si>
-    <t>意面/海虹/鱿鱼圈/虾仁</t>
-  </si>
-  <si>
-    <t>小天使奶油火腿意面</t>
-  </si>
-  <si>
-    <t>images/product/food/小天使.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
-  </si>
-  <si>
-    <t>意面/火腿/培根/时蔬</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
-  </si>
-  <si>
-    <t>日式和风烟熏鸡腿肉咖喱饭</t>
-  </si>
-  <si>
-    <t>images/product/food/咖喱炖饭.jpg</t>
-  </si>
-  <si>
-    <t>Smoked chicken/Special curry sauce</t>
-  </si>
-  <si>
-    <t>烟熏鸡肉/特调咖喱酱汁</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Beef cheeseburger</t>
-  </si>
-  <si>
-    <t>牛肉芝士汉堡</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>55/份</t>
-  </si>
-  <si>
-    <t>images/product/food/牛肉汉堡.jpg</t>
-  </si>
-  <si>
-    <t>Beef patty/Cheese slice/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>牛肉饼/芝士片/时蔬</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Caesar Salad smoked chicken breast</t>
-  </si>
-  <si>
-    <t>凯撒沙拉佐烟熏鸡胸肉</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>42/份</t>
-  </si>
-  <si>
-    <t>images/product/food/凯萨沙拉.jpg</t>
-  </si>
-  <si>
-    <t>Smoked chicken breast/Seasonal vegetable salad/Caesar sauce</t>
-  </si>
-  <si>
-    <t>烟熏鸡胸肉/时蔬沙拉/凯撒酱汁</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Yogurt fruit salad</t>
-  </si>
-  <si>
-    <t>酸奶水果沙拉</t>
-  </si>
-  <si>
-    <t>images/product/food/水果沙拉.jpg</t>
-  </si>
-  <si>
-    <t>Yoghurt/Nut/Blueberry/Orange/Kiwi/Strawberry/Pitaya/Sacred fruit/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>酸奶/坚果/蓝莓/橙子/猕猴桃/草莓/火龙果/圣女果/时蔬</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Macaroni in cone</t>
-  </si>
-  <si>
-    <t>蛋筒洋芋泥</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>28/份</t>
-  </si>
-  <si>
-    <t>images/product/food/洋芋泥.jpg</t>
-  </si>
-  <si>
-    <t>Slow boiled mashed potato/Flavor sauce</t>
-  </si>
-  <si>
-    <t>慢煮土豆泥/风味酱汁</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Sausage Platter</t>
-  </si>
-  <si>
-    <t>香肠拼盘</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>88/份</t>
-  </si>
-  <si>
-    <t>images/product/food/香肠拼盘.jpg</t>
-  </si>
-  <si>
-    <t>German sausage /Potato fillet/Seasonal vegetable salad</t>
-  </si>
-  <si>
-    <t>德式香肠/土豆角/时蔬沙拉</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Spare ribs with garlic</t>
-  </si>
-  <si>
-    <t>蒜香排骨</t>
-  </si>
-  <si>
-    <t>images/product/food/蒜香排骨.jpg</t>
-  </si>
-  <si>
-    <t>Pork ribs/Garlic/Special marinade</t>
-  </si>
-  <si>
-    <t>猪肋排/蒜/特制腌料</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Three flavors of sea salt and sweet potato</t>
-  </si>
-  <si>
-    <t>海盐粗薯三味</t>
-  </si>
-  <si>
-    <t>images/product/food/粗薯.jpg</t>
-  </si>
-  <si>
-    <t>Tapioca/Wasabi/Ketchup/Thousand island sauce</t>
-  </si>
-  <si>
-    <t>粗薯/黄芥末/番茄酱/千岛酱</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Crispy chicken</t>
-  </si>
-  <si>
-    <t>香酥麦克鸡块</t>
-  </si>
-  <si>
-    <t>images/product/food/麦克鸡块.jpg</t>
-  </si>
-  <si>
-    <t>Chicken / flour / tomato sauce</t>
-  </si>
-  <si>
-    <t>鸡肉/面粉/蕃茄酱</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Crispy fried cod balls</t>
-  </si>
-  <si>
-    <t>酥炸鳕鱼球</t>
-  </si>
-  <si>
-    <t>images/product/food/鳕鱼球.png</t>
-  </si>
-  <si>
-    <t>COD / flour / tomato sauce</t>
-  </si>
-  <si>
-    <t>鳕鱼/面粉/蕃茄酱</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Crispy fried chicken and rice flower</t>
-  </si>
-  <si>
-    <t>酥炸鸡米花</t>
-  </si>
-  <si>
-    <t>32/份</t>
-  </si>
-  <si>
-    <t>images/product/food/鸡米花.jpg</t>
-  </si>
-  <si>
-    <t>Chicken / flour / spices / ketchup</t>
-  </si>
-  <si>
-    <t>鸡肉/面粉/香料/蕃茄酱</t>
-  </si>
-  <si>
-    <t>Strawberry Mojito</t>
-  </si>
-  <si>
-    <t>草莓莫吉托</t>
-  </si>
-  <si>
-    <t>48/Glass</t>
-  </si>
-  <si>
-    <t>alcoholic drink</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Strawberry_mojito.png</t>
-  </si>
-  <si>
-    <t>Sweet+Sour</t>
-  </si>
-  <si>
-    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
-  </si>
-  <si>
-    <t>朗姆/青柠汁/莫林草莓糖浆</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Espresso martini</t>
-  </si>
-  <si>
-    <t>咖啡马提尼</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Espresso_martini.png</t>
-  </si>
-  <si>
-    <t>Sweet+Sour+Bitter</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
-  </si>
-  <si>
-    <t>Pinky Point</t>
-  </si>
-  <si>
-    <t>粉点</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Pinky_point.png</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Three Passions</t>
-  </si>
-  <si>
-    <t>激情</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Three_passions.png</t>
-  </si>
-  <si>
-    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
-  </si>
-  <si>
-    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Hightball</t>
-  </si>
-  <si>
-    <t>威士忌苏打</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Hightball.png</t>
-  </si>
-  <si>
-    <t>Pure</t>
-  </si>
-  <si>
-    <t>Suntory kaku/Soda</t>
-  </si>
-  <si>
-    <t>三得利卡库/苏打水</t>
-  </si>
-  <si>
-    <t>Amon petit amour</t>
-  </si>
-  <si>
-    <t>心上人半干红葡萄酒</t>
-  </si>
-  <si>
-    <t>24+241</t>
-  </si>
-  <si>
-    <t>55/Glass</t>
-  </si>
-  <si>
-    <t>Sontti syrah cabernet vino d’Italia</t>
-  </si>
-  <si>
-    <t>十四行诗赤霞珠西拉干红葡萄酒</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>268/Bottle</t>
-  </si>
-  <si>
-    <t>The black Shiraz</t>
-  </si>
-  <si>
-    <t>伯顿酒庄铁牌西拉红葡萄酒</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>458/Bottle</t>
-  </si>
-  <si>
-    <t>1374 Chateau laulan ducos</t>
-  </si>
-  <si>
-    <t>1374乐朗公爵古堡干红葡萄酒</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>698/Bottle</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Camarero</t>
-  </si>
-  <si>
-    <t>企鹅侍者白葡萄酒</t>
-  </si>
-  <si>
-    <t>24+242</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Vereinigte hospitien riesling kabinett</t>
-  </si>
-  <si>
-    <t>赛琳娜雷司令典藏白葡萄酒</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Chateau lafn sauternes</t>
-  </si>
-  <si>
-    <t>拉枫酒庄贵腐甜白葡萄酒</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>588/Bottle</t>
-  </si>
-  <si>
-    <t>Canti di vigna</t>
-  </si>
-  <si>
-    <t>悦葡布拉凯多甜红起泡葡萄酒</t>
-  </si>
-  <si>
-    <t>24+243</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>45/Glass</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Truffle hunter leda</t>
-  </si>
-  <si>
-    <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
-  </si>
-  <si>
     <t>258/Bottle</t>
   </si>
   <si>
@@ -2148,9 +2151,6 @@
     <t>230/Glass+3680/Bottle</t>
   </si>
   <si>
-    <t>138</t>
-  </si>
-  <si>
     <t>Glendronach 12Y</t>
   </si>
   <si>
@@ -2202,6 +2202,9 @@
     <t>RT奶茶</t>
   </si>
   <si>
+    <t>38/Glass</t>
+  </si>
+  <si>
     <t>soft drink</t>
   </si>
   <si>
@@ -2221,9 +2224,6 @@
   </si>
   <si>
     <t>白日梦</t>
-  </si>
-  <si>
-    <t>38/Glass</t>
   </si>
   <si>
     <t>images/product/Mocktail/Daydream.png</t>
@@ -2430,10 +2430,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2470,17 +2470,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2489,6 +2488,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2506,6 +2520,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2514,6 +2536,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2522,7 +2568,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2536,9 +2582,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2552,6 +2597,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2560,61 +2612,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2629,7 +2629,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2647,43 +2689,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2701,7 +2719,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,13 +2743,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2731,85 +2797,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2908,24 +2908,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2947,32 +2929,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3002,145 +2963,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3227,12 +3227,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3594,26 +3588,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="36"/>
-    <col min="3" max="3" width="29.6071428571429" style="36" customWidth="1"/>
-    <col min="4" max="4" width="57.7321428571429" style="36" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="36" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="37" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="37"/>
-    <col min="8" max="8" width="16.2589285714286" style="36" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="36" customWidth="1"/>
-    <col min="10" max="1025" width="11.5178571428571" style="38"/>
-    <col min="1026" max="16384" width="9" style="38"/>
+    <col min="1" max="2" width="11.5178571428571" style="34"/>
+    <col min="3" max="3" width="29.6071428571429" style="34" customWidth="1"/>
+    <col min="4" max="4" width="57.7321428571429" style="34" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="34" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="35" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="35"/>
+    <col min="8" max="8" width="16.2589285714286" style="34" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="34" customWidth="1"/>
+    <col min="10" max="1025" width="11.5178571428571" style="36"/>
+    <col min="1026" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -3622,16 +3616,16 @@
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3651,17 +3645,17 @@
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="42" t="b">
+      <c r="F2" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="b">
+      <c r="G2" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="44"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="39">
+      <c r="A3" s="37">
         <v>11</v>
       </c>
       <c r="B3" s="15">
@@ -3674,14 +3668,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="42" t="b">
+      <c r="F3" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="42" t="b">
+      <c r="G3" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="44"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="15">
@@ -3697,14 +3691,14 @@
         <v>15</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="42" t="b">
+      <c r="F4" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="42" t="b">
+      <c r="G4" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="44"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="15">
@@ -3720,14 +3714,14 @@
         <v>17</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="42" t="b">
+      <c r="F5" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="42" t="b">
+      <c r="G5" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="44"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="15" t="s">
@@ -3743,14 +3737,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="42" t="b">
+      <c r="F6" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="42" t="b">
+      <c r="G6" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="44"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="15">
@@ -3768,14 +3762,14 @@
       <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="42" t="b">
+      <c r="F7" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="42" t="b">
+      <c r="G7" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="44"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="15">
@@ -3791,14 +3785,14 @@
         <v>25</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="42" t="b">
+      <c r="F8" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="42" t="b">
+      <c r="G8" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="44"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="15">
@@ -3814,14 +3808,14 @@
         <v>27</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="42" t="b">
+      <c r="F9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="44"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
       <c r="A10" s="15" t="s">
@@ -3837,14 +3831,14 @@
         <v>31</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="42" t="b">
+      <c r="F10" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="44"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="15" t="s">
@@ -3860,14 +3854,14 @@
         <v>34</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="42" t="b">
+      <c r="F11" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="44"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="15" t="s">
@@ -3883,14 +3877,14 @@
         <v>37</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="42" t="b">
+      <c r="F12" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="44"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="15">
@@ -3906,16 +3900,16 @@
         <v>39</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="42" t="b">
+      <c r="F13" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="40" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="44"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="15" t="s">
@@ -3931,14 +3925,14 @@
         <v>43</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="42" t="b">
+      <c r="F14" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="44"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="15" t="s">
@@ -3954,14 +3948,14 @@
         <v>46</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="42" t="b">
+      <c r="F15" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="44"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="15" t="s">
@@ -3977,14 +3971,14 @@
         <v>49</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="42" t="b">
+      <c r="F16" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="44"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="15" t="s">
@@ -4000,14 +3994,14 @@
         <v>52</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="42" t="b">
+      <c r="F17" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="44"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="15" t="s">
@@ -4023,14 +4017,14 @@
         <v>55</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="42" t="b">
+      <c r="F18" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="44"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
       <c r="A19" s="15" t="s">
@@ -4046,14 +4040,14 @@
         <v>58</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="42" t="b">
+      <c r="F19" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="44"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
       <c r="A20" s="15" t="s">
@@ -4069,14 +4063,14 @@
         <v>61</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="42" t="b">
+      <c r="F20" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="44"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
       <c r="A21" s="15" t="s">
@@ -4092,14 +4086,14 @@
         <v>65</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="42" t="b">
+      <c r="F21" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="44"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
       <c r="A22" s="15" t="s">
@@ -4117,14 +4111,14 @@
       <c r="E22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="42" t="b">
+      <c r="F22" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="42" t="b">
+      <c r="G22" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="44"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="15" t="s">
@@ -4140,14 +4134,14 @@
         <v>71</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="42" t="b">
+      <c r="F23" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="42" t="b">
+      <c r="G23" s="40" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="44"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="15" t="s">
@@ -4163,14 +4157,14 @@
         <v>74</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="42" t="b">
+      <c r="F24" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="I24" s="44"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
       <c r="A25" s="15" t="s">
@@ -4179,24 +4173,24 @@
       <c r="B25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="38" t="s">
         <v>77</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="42" t="b">
+      <c r="F25" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="44"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="15">
@@ -4209,14 +4203,14 @@
         <v>80</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="42" t="b">
+      <c r="F26" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="44"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="15" t="s">
@@ -4234,37 +4228,37 @@
       <c r="E27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="42" t="b">
+      <c r="F27" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="42" t="b">
+      <c r="G27" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="44"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42" t="b">
+      <c r="E28" s="39"/>
+      <c r="F28" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="45"/>
+      <c r="G28" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -4281,8 +4275,8 @@
   <sheetPr/>
   <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6323,10 +6317,10 @@
         <v>106</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H40" s="14" t="b">
         <v>0</v>
@@ -6354,13 +6348,13 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>345</v>
@@ -6369,10 +6363,10 @@
         <v>106</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H41" s="14" t="b">
         <v>0</v>
@@ -6400,13 +6394,13 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>345</v>
@@ -6415,10 +6409,10 @@
         <v>106</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H42" s="14" t="b">
         <v>0</v>
@@ -6449,10 +6443,10 @@
         <v>224</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>345</v>
@@ -6461,10 +6455,10 @@
         <v>106</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H43" s="14" t="b">
         <v>0</v>
@@ -6492,13 +6486,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>41</v>
@@ -6510,7 +6504,7 @@
         <v>860</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H44" s="14" t="b">
         <v>0</v>
@@ -6538,13 +6532,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>41</v>
@@ -6556,7 +6550,7 @@
         <v>960</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H45" s="14" t="b">
         <v>0</v>
@@ -6587,10 +6581,10 @@
         <v>346</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>41</v>
@@ -6602,7 +6596,7 @@
         <v>860</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H46" s="14" t="b">
         <v>0</v>
@@ -6630,13 +6624,13 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>41</v>
@@ -6648,7 +6642,7 @@
         <v>1080</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H47" s="14" t="b">
         <v>0</v>
@@ -6676,13 +6670,13 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>41</v>
@@ -6694,7 +6688,7 @@
         <v>1180</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H48" s="14" t="b">
         <v>0</v>
@@ -6725,10 +6719,10 @@
         <v>142</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>41</v>
@@ -6740,7 +6734,7 @@
         <v>1080</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H49" s="14" t="b">
         <v>0</v>
@@ -6768,13 +6762,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>41</v>
@@ -6786,7 +6780,7 @@
         <v>1100</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H50" s="14" t="b">
         <v>0</v>
@@ -6814,16 +6808,16 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>106</v>
@@ -6832,7 +6826,7 @@
         <v>1100</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H51" s="14" t="b">
         <v>0</v>
@@ -6860,13 +6854,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>41</v>
@@ -6878,7 +6872,7 @@
         <v>1100</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H52" s="14" t="b">
         <v>0</v>
@@ -6909,10 +6903,10 @@
         <v>190</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>41</v>
@@ -6924,7 +6918,7 @@
         <v>1180</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H53" s="14" t="b">
         <v>0</v>
@@ -6952,13 +6946,13 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>41</v>
@@ -6970,7 +6964,7 @@
         <v>880</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H54" s="14" t="b">
         <v>0</v>
@@ -6998,13 +6992,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>41</v>
@@ -7016,7 +7010,7 @@
         <v>1280</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H55" s="14" t="b">
         <v>0</v>
@@ -7047,13 +7041,13 @@
         <v>216</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>106</v>
@@ -7062,7 +7056,7 @@
         <v>880</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H56" s="14" t="b">
         <v>0</v>
@@ -7093,10 +7087,10 @@
         <v>198</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>44</v>
@@ -7108,7 +7102,7 @@
         <v>1100</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H57" s="14" t="b">
         <v>0</v>
@@ -7136,13 +7130,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>44</v>
@@ -7154,7 +7148,7 @@
         <v>2650</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H58" s="14" t="b">
         <v>0</v>
@@ -7185,10 +7179,10 @@
         <v>158</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>44</v>
@@ -7200,7 +7194,7 @@
         <v>880</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H59" s="14" t="b">
         <v>0</v>
@@ -7228,13 +7222,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>44</v>
@@ -7246,7 +7240,7 @@
         <v>1050</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H60" s="14" t="b">
         <v>0</v>
@@ -7274,13 +7268,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>44</v>
@@ -7292,7 +7286,7 @@
         <v>880</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H61" s="14" t="b">
         <v>0</v>
@@ -7320,13 +7314,13 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>44</v>
@@ -7338,7 +7332,7 @@
         <v>1700</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H62" s="14" t="b">
         <v>0</v>
@@ -7366,13 +7360,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>47</v>
@@ -7384,7 +7378,7 @@
         <v>880</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H63" s="14" t="b">
         <v>0</v>
@@ -7412,13 +7406,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>47</v>
@@ -7430,7 +7424,7 @@
         <v>1400</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H64" s="14" t="b">
         <v>0</v>
@@ -7458,13 +7452,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>47</v>
@@ -7476,7 +7470,7 @@
         <v>1800</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H65" s="14" t="b">
         <v>0</v>
@@ -7504,13 +7498,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>47</v>
@@ -7522,7 +7516,7 @@
         <v>1080</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H66" s="14" t="b">
         <v>0</v>
@@ -7550,13 +7544,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>47</v>
@@ -7568,7 +7562,7 @@
         <v>1550</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H67" s="14" t="b">
         <v>0</v>
@@ -7596,13 +7590,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>47</v>
@@ -7614,7 +7608,7 @@
         <v>2050</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H68" s="14" t="b">
         <v>0</v>
@@ -7645,10 +7639,10 @@
         <v>134</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>47</v>
@@ -7660,7 +7654,7 @@
         <v>2850</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H69" s="14" t="b">
         <v>0</v>
@@ -7688,13 +7682,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>47</v>
@@ -7706,7 +7700,7 @@
         <v>900</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H70" s="14" t="b">
         <v>0</v>
@@ -7734,13 +7728,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>47</v>
@@ -7752,7 +7746,7 @@
         <v>1650</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H71" s="14" t="b">
         <v>0</v>
@@ -7780,13 +7774,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>47</v>
@@ -7798,7 +7792,7 @@
         <v>2350</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H72" s="14" t="b">
         <v>0</v>
@@ -7826,13 +7820,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>47</v>
@@ -7844,7 +7838,7 @@
         <v>2180</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H73" s="14" t="b">
         <v>0</v>
@@ -7872,13 +7866,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>47</v>
@@ -7890,7 +7884,7 @@
         <v>4980</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H74" s="14" t="b">
         <v>0</v>
@@ -7918,13 +7912,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>47</v>
@@ -7936,7 +7930,7 @@
         <v>17800</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H75" s="14" t="b">
         <v>0</v>
@@ -7964,13 +7958,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>47</v>
@@ -7982,7 +7976,7 @@
         <v>2080</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H76" s="14" t="b">
         <v>0</v>
@@ -8010,13 +8004,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>47</v>
@@ -8028,7 +8022,7 @@
         <v>4880</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H77" s="14" t="b">
         <v>0</v>
@@ -8056,13 +8050,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>47</v>
@@ -8074,7 +8068,7 @@
         <v>17800</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H78" s="14" t="b">
         <v>0</v>
@@ -8102,13 +8096,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>47</v>
@@ -8120,7 +8114,7 @@
         <v>2180</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H79" s="14" t="b">
         <v>0</v>
@@ -8148,13 +8142,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>47</v>
@@ -8166,7 +8160,7 @@
         <v>9800</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H80" s="14" t="b">
         <v>0</v>
@@ -8194,13 +8188,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>47</v>
@@ -8212,7 +8206,7 @@
         <v>15000</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H81" s="14" t="b">
         <v>0</v>
@@ -8240,13 +8234,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>47</v>
@@ -8258,7 +8252,7 @@
         <v>2080</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H82" s="14" t="b">
         <v>0</v>
@@ -8286,13 +8280,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>47</v>
@@ -8304,7 +8298,7 @@
         <v>11000</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H83" s="14" t="b">
         <v>0</v>
@@ -8332,16 +8326,16 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>106</v>
@@ -8350,7 +8344,7 @@
         <v>1080</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H84" s="14" t="b">
         <v>0</v>
@@ -8378,13 +8372,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>50</v>
@@ -8396,7 +8390,7 @@
         <v>980</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H85" s="14" t="b">
         <v>0</v>
@@ -8424,13 +8418,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>50</v>
@@ -8442,7 +8436,7 @@
         <v>1180</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H86" s="14" t="b">
         <v>0</v>
@@ -8470,13 +8464,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>50</v>
@@ -8488,7 +8482,7 @@
         <v>1280</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H87" s="14" t="b">
         <v>0</v>
@@ -8516,13 +8510,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>50</v>
@@ -8534,7 +8528,7 @@
         <v>2400</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H88" s="14" t="b">
         <v>0</v>
@@ -8565,10 +8559,10 @@
         <v>246</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>50</v>
@@ -8580,7 +8574,7 @@
         <v>3880</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H89" s="14" t="b">
         <v>0</v>
@@ -8608,13 +8602,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>50</v>
@@ -8626,7 +8620,7 @@
         <v>980</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H90" s="14" t="b">
         <v>0</v>
@@ -8654,13 +8648,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>50</v>
@@ -8672,7 +8666,7 @@
         <v>1180</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H91" s="14" t="b">
         <v>0</v>
@@ -8700,13 +8694,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>50</v>
@@ -8718,7 +8712,7 @@
         <v>880</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H92" s="14" t="b">
         <v>0</v>
@@ -8746,13 +8740,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>50</v>
@@ -8764,7 +8758,7 @@
         <v>1480</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H93" s="14" t="b">
         <v>0</v>
@@ -8792,13 +8786,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>50</v>
@@ -8810,7 +8804,7 @@
         <v>3680</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H94" s="14" t="b">
         <v>0</v>
@@ -8838,13 +8832,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>50</v>
@@ -8856,7 +8850,7 @@
         <v>1180</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H95" s="14" t="b">
         <v>0</v>
@@ -8884,13 +8878,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>50</v>
@@ -8902,7 +8896,7 @@
         <v>2380</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H96" s="14" t="b">
         <v>0</v>
@@ -8930,13 +8924,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>53</v>
@@ -8948,7 +8942,7 @@
         <v>1380</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H97" s="14" t="b">
         <v>0</v>
@@ -8976,13 +8970,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>53</v>
@@ -8994,7 +8988,7 @@
         <v>1180</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H98" s="14" t="b">
         <v>0</v>
@@ -9022,13 +9016,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>53</v>
@@ -9040,7 +9034,7 @@
         <v>1680</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H99" s="14" t="b">
         <v>0</v>
@@ -9068,13 +9062,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>53</v>
@@ -9086,7 +9080,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H100" s="14" t="b">
         <v>0</v>
@@ -9114,13 +9108,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>53</v>
@@ -9132,7 +9126,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H101" s="14" t="b">
         <v>0</v>
@@ -9160,13 +9154,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>53</v>
@@ -9178,7 +9172,7 @@
         <v>1280</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H102" s="14" t="b">
         <v>0</v>
@@ -9206,13 +9200,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>53</v>
@@ -9224,7 +9218,7 @@
         <v>1080</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H103" s="14" t="b">
         <v>0</v>
@@ -9252,13 +9246,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>53</v>
@@ -9270,7 +9264,7 @@
         <v>1880</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H104" s="14" t="b">
         <v>0</v>
@@ -9298,13 +9292,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>53</v>
@@ -9316,7 +9310,7 @@
         <v>2680</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H105" s="14" t="b">
         <v>0</v>
@@ -9344,13 +9338,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>53</v>
@@ -9362,7 +9356,7 @@
         <v>1380</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H106" s="14" t="b">
         <v>0</v>
@@ -9390,13 +9384,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>53</v>
@@ -9408,7 +9402,7 @@
         <v>1480</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H107" s="14" t="b">
         <v>0</v>
@@ -9436,13 +9430,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>56</v>
@@ -9454,7 +9448,7 @@
         <v>1580</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H108" s="14" t="b">
         <v>0</v>
@@ -9482,13 +9476,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>56</v>
@@ -9500,7 +9494,7 @@
         <v>880</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H109" s="14" t="b">
         <v>0</v>
@@ -9528,13 +9522,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>56</v>
@@ -9546,7 +9540,7 @@
         <v>1380</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H110" s="14" t="b">
         <v>0</v>
@@ -9574,13 +9568,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>56</v>
@@ -9592,7 +9586,7 @@
         <v>1580</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H111" s="14" t="b">
         <v>0</v>
@@ -9620,13 +9614,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>56</v>
@@ -9638,7 +9632,7 @@
         <v>880</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H112" s="14" t="b">
         <v>0</v>
@@ -9666,13 +9660,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>56</v>
@@ -9684,7 +9678,7 @@
         <v>2380</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H113" s="14" t="b">
         <v>0</v>
@@ -9712,13 +9706,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>59</v>
@@ -9730,7 +9724,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H114" s="14" t="b">
         <v>0</v>
@@ -9758,13 +9752,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>59</v>
@@ -9776,7 +9770,7 @@
         <v>780</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H115" s="14" t="b">
         <v>0</v>
@@ -9804,13 +9798,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>59</v>
@@ -9822,7 +9816,7 @@
         <v>780</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H116" s="14" t="b">
         <v>0</v>
@@ -9850,13 +9844,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>59</v>
@@ -9868,7 +9862,7 @@
         <v>880</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H117" s="14" t="b">
         <v>0</v>
@@ -9896,13 +9890,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>59</v>
@@ -9914,7 +9908,7 @@
         <v>1280</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H118" s="14" t="b">
         <v>0</v>
@@ -9942,13 +9936,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>59</v>
@@ -9960,7 +9954,7 @@
         <v>1780</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H119" s="14" t="b">
         <v>0</v>
@@ -9988,13 +9982,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>59</v>
@@ -10006,7 +10000,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H120" s="14" t="b">
         <v>0</v>
@@ -10034,13 +10028,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>59</v>
@@ -10052,7 +10046,7 @@
         <v>1280</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H121" s="14" t="b">
         <v>0</v>
@@ -10080,13 +10074,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>59</v>
@@ -10098,7 +10092,7 @@
         <v>1780</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H122" s="14" t="b">
         <v>0</v>
@@ -10126,13 +10120,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>59</v>
@@ -10144,7 +10138,7 @@
         <v>2480</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H123" s="14" t="b">
         <v>0</v>
@@ -10172,13 +10166,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>59</v>
@@ -10190,7 +10184,7 @@
         <v>1180</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H124" s="14" t="b">
         <v>0</v>
@@ -10218,13 +10212,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>59</v>
@@ -10236,7 +10230,7 @@
         <v>980</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H125" s="14" t="b">
         <v>0</v>
@@ -10264,13 +10258,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>59</v>
@@ -10282,7 +10276,7 @@
         <v>1650</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H126" s="14" t="b">
         <v>0</v>
@@ -10310,13 +10304,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>59</v>
@@ -10328,7 +10322,7 @@
         <v>1100</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H127" s="14" t="b">
         <v>0</v>
@@ -10356,13 +10350,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>59</v>
@@ -10374,7 +10368,7 @@
         <v>980</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H128" s="14" t="b">
         <v>0</v>
@@ -10402,13 +10396,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>59</v>
@@ -10420,7 +10414,7 @@
         <v>1080</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H129" s="14" t="b">
         <v>0</v>
@@ -10448,13 +10442,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>59</v>
@@ -10466,7 +10460,7 @@
         <v>1680</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H130" s="14" t="b">
         <v>0</v>
@@ -10494,13 +10488,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>59</v>
@@ -10512,7 +10506,7 @@
         <v>980</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H131" s="14" t="b">
         <v>0</v>
@@ -10540,13 +10534,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>59</v>
@@ -10558,7 +10552,7 @@
         <v>1080</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H132" s="14" t="b">
         <v>0</v>
@@ -10586,13 +10580,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>59</v>
@@ -10604,7 +10598,7 @@
         <v>1480</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H133" s="14" t="b">
         <v>0</v>
@@ -10632,13 +10626,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>59</v>
@@ -10650,7 +10644,7 @@
         <v>3480</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H134" s="14" t="b">
         <v>0</v>
@@ -10678,13 +10672,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>59</v>
@@ -10696,7 +10690,7 @@
         <v>1280</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H135" s="14" t="b">
         <v>0</v>
@@ -10724,13 +10718,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>59</v>
@@ -10742,7 +10736,7 @@
         <v>1680</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H136" s="14" t="b">
         <v>0</v>
@@ -10770,13 +10764,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>59</v>
@@ -10788,7 +10782,7 @@
         <v>2680</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H137" s="14" t="b">
         <v>0</v>
@@ -10816,13 +10810,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>59</v>
@@ -10834,7 +10828,7 @@
         <v>3680</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H138" s="14" t="b">
         <v>0</v>
@@ -10862,7 +10856,7 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>710</v>
+        <v>118</v>
       </c>
       <c r="B139" s="24" t="s">
         <v>711</v>
@@ -10880,7 +10874,7 @@
         <v>1080</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H139" s="14" t="b">
         <v>0</v>
@@ -11061,10 +11055,10 @@
         <v>106</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>284</v>
+        <v>728</v>
       </c>
       <c r="H143" s="14" t="b">
         <v>0</v>
@@ -11073,19 +11067,19 @@
         <v>0</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L143" s="7" t="s">
         <v>287</v>
       </c>
       <c r="M143" s="21" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N143" s="22" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O143" s="7" t="s">
         <v>114</v>
@@ -11100,13 +11094,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>69</v>
@@ -11118,7 +11112,7 @@
         <v>150</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="H144" s="14" t="b">
         <v>0</v>
@@ -11127,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K144" s="7" t="s">
         <v>736</v>
@@ -11181,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
@@ -11193,7 +11187,7 @@
       <c r="P145" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q145" s="34" t="s">
+      <c r="Q145" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R145" s="21"/>
@@ -11227,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
@@ -11239,7 +11233,7 @@
       <c r="P146" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q146" s="34" t="s">
+      <c r="Q146" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R146" s="21"/>
@@ -11273,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
@@ -11285,7 +11279,7 @@
       <c r="P147" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q147" s="34" t="s">
+      <c r="Q147" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R147" s="21"/>
@@ -11319,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
@@ -11331,7 +11325,7 @@
       <c r="P148" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q148" s="34" t="s">
+      <c r="Q148" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R148" s="21"/>
@@ -11365,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
@@ -11377,7 +11371,7 @@
       <c r="P149" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q149" s="34" t="s">
+      <c r="Q149" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R149" s="21"/>
@@ -11411,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
@@ -11423,7 +11417,7 @@
       <c r="P150" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q150" s="34" t="s">
+      <c r="Q150" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R150" s="21"/>
@@ -11457,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
@@ -11469,7 +11463,7 @@
       <c r="P151" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q151" s="34" t="s">
+      <c r="Q151" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R151" s="21"/>
@@ -11503,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
@@ -11515,7 +11509,7 @@
       <c r="P152" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q152" s="34" t="s">
+      <c r="Q152" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R152" s="21"/>
@@ -11549,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
@@ -11561,7 +11555,7 @@
       <c r="P153" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q153" s="34" t="s">
+      <c r="Q153" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R153" s="21"/>
@@ -11595,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
@@ -11607,7 +11601,7 @@
       <c r="P154" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q154" s="34" t="s">
+      <c r="Q154" s="32" t="s">
         <v>115</v>
       </c>
       <c r="R154" s="21"/>
@@ -11647,18 +11641,18 @@
         <v>778</v>
       </c>
       <c r="L155" s="28"/>
-      <c r="M155" s="32"/>
-      <c r="N155" s="33"/>
+      <c r="M155" s="27"/>
+      <c r="N155" s="31"/>
       <c r="O155" s="26" t="s">
         <v>114</v>
       </c>
       <c r="P155" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="Q155" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="R155" s="32"/>
+      <c r="Q155" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R155" s="27"/>
     </row>
     <row r="156" customFormat="1" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
@@ -11695,18 +11689,18 @@
         <v>782</v>
       </c>
       <c r="L156" s="28"/>
-      <c r="M156" s="32"/>
-      <c r="N156" s="33"/>
+      <c r="M156" s="27"/>
+      <c r="N156" s="31"/>
       <c r="O156" s="26" t="s">
         <v>114</v>
       </c>
       <c r="P156" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="Q156" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="R156" s="32"/>
+      <c r="Q156" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R156" s="27"/>
     </row>
     <row r="157" customFormat="1" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
@@ -11743,18 +11737,18 @@
         <v>786</v>
       </c>
       <c r="L157" s="28"/>
-      <c r="M157" s="32"/>
-      <c r="N157" s="33"/>
+      <c r="M157" s="27"/>
+      <c r="N157" s="31"/>
       <c r="O157" s="26" t="s">
         <v>114</v>
       </c>
       <c r="P157" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="Q157" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="R157" s="32"/>
+      <c r="Q157" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R157" s="27"/>
     </row>
     <row r="158" customFormat="1" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
@@ -11778,10 +11772,10 @@
       <c r="G158" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H158" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I158" s="31" t="b">
+      <c r="H158" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" s="30" t="b">
         <v>0</v>
       </c>
       <c r="J158" s="27" t="s">
@@ -11791,18 +11785,18 @@
         <v>790</v>
       </c>
       <c r="L158" s="28"/>
-      <c r="M158" s="32"/>
-      <c r="N158" s="33"/>
+      <c r="M158" s="27"/>
+      <c r="N158" s="31"/>
       <c r="O158" s="26" t="s">
         <v>114</v>
       </c>
       <c r="P158" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="Q158" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="R158" s="32"/>
+      <c r="Q158" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R158" s="27"/>
     </row>
     <row r="159" customFormat="1" customHeight="1" spans="1:18">
       <c r="A159" s="4" t="s">
@@ -11826,10 +11820,10 @@
       <c r="G159" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H159" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I159" s="31" t="b">
+      <c r="H159" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" s="30" t="b">
         <v>0</v>
       </c>
       <c r="J159" s="27" t="s">
@@ -11839,18 +11833,18 @@
         <v>793</v>
       </c>
       <c r="L159" s="27"/>
-      <c r="M159" s="32"/>
-      <c r="N159" s="33"/>
+      <c r="M159" s="27"/>
+      <c r="N159" s="31"/>
       <c r="O159" s="26" t="s">
         <v>114</v>
       </c>
       <c r="P159" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="Q159" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="R159" s="32"/>
+      <c r="Q159" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R159" s="27"/>
     </row>
     <row r="160" customFormat="1" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
@@ -11874,10 +11868,10 @@
       <c r="G160" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H160" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I160" s="31" t="b">
+      <c r="H160" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" s="30" t="b">
         <v>0</v>
       </c>
       <c r="J160" s="27" t="s">
@@ -11887,18 +11881,18 @@
         <v>797</v>
       </c>
       <c r="L160" s="27"/>
-      <c r="M160" s="32"/>
-      <c r="N160" s="33"/>
+      <c r="M160" s="27"/>
+      <c r="N160" s="31"/>
       <c r="O160" s="26" t="s">
         <v>114</v>
       </c>
       <c r="P160" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="Q160" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="R160" s="32"/>
+      <c r="Q160" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R160" s="27"/>
     </row>
     <row r="161" customFormat="1" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
@@ -11922,10 +11916,10 @@
       <c r="G161" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="H161" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" s="31" t="b">
+      <c r="H161" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" s="30" t="b">
         <v>0</v>
       </c>
       <c r="J161" s="27" t="s">
@@ -11935,7 +11929,7 @@
         <v>801</v>
       </c>
       <c r="L161" s="27"/>
-      <c r="M161" s="33"/>
+      <c r="M161" s="31"/>
       <c r="N161" s="27"/>
       <c r="O161" s="26" t="s">
         <v>114</v>
@@ -11943,10 +11937,10 @@
       <c r="P161" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="Q161" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="R161" s="32"/>
+      <c r="Q161" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R161" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802">
   <si>
     <t>id</t>
   </si>
@@ -423,6 +423,9 @@
     <t>images/product/food/辣子鸡.jpg</t>
   </si>
   <si>
+    <t>辣</t>
+  </si>
+  <si>
     <t>Chicken leg meat / Special spices</t>
   </si>
   <si>
@@ -582,631 +585,631 @@
     <t>奶油蘑菇培根温泉蛋意面</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>55/份</t>
+  </si>
+  <si>
+    <t>images/product/food/温泉蛋意面.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Vegetables</t>
+  </si>
+  <si>
+    <t>意面/火腿/搭配蔬菜</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Little angel spaghetti with cream and ham</t>
+  </si>
+  <si>
+    <t>小恶魔蕃茄海鲜意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小恶魔.jpg</t>
+  </si>
+  <si>
+    <t>微辣</t>
+  </si>
+  <si>
+    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
+  </si>
+  <si>
+    <t>意面/海虹/鱿鱼圈/虾仁</t>
+  </si>
+  <si>
+    <t>小天使奶油火腿意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小天使.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
+  </si>
+  <si>
+    <t>意面/火腿/培根/时蔬</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
+  </si>
+  <si>
+    <t>日式和风烟熏鸡腿肉咖喱饭</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>56/份</t>
+  </si>
+  <si>
+    <t>images/product/food/咖喱炖饭.jpg</t>
+  </si>
+  <si>
+    <t>Smoked chicken/Special curry sauce</t>
+  </si>
+  <si>
+    <t>烟熏鸡肉/特调咖喱酱汁</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Beef cheeseburger</t>
+  </si>
+  <si>
+    <t>牛肉芝士汉堡</t>
+  </si>
+  <si>
+    <t>images/product/food/牛肉汉堡.jpg</t>
+  </si>
+  <si>
+    <t>Beef patty/Cheese slice/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>牛肉饼/芝士片/时蔬</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Caesar Salad smoked chicken breast</t>
+  </si>
+  <si>
+    <t>凯撒沙拉佐烟熏鸡胸肉</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>42/份</t>
+  </si>
+  <si>
+    <t>images/product/food/凯萨沙拉.jpg</t>
+  </si>
+  <si>
+    <t>Smoked chicken breast/Seasonal vegetable salad/Caesar sauce</t>
+  </si>
+  <si>
+    <t>烟熏鸡胸肉/时蔬沙拉/凯撒酱汁</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Yogurt fruit salad</t>
+  </si>
+  <si>
+    <t>酸奶水果沙拉</t>
+  </si>
+  <si>
+    <t>images/product/food/水果沙拉.jpg</t>
+  </si>
+  <si>
+    <t>Yoghurt/Nut/Blueberry/Orange/Kiwi/Strawberry/Pitaya/Sacred fruit/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>酸奶/坚果/蓝莓/橙子/猕猴桃/草莓/火龙果/圣女果/时蔬</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Macaroni in cone</t>
+  </si>
+  <si>
+    <t>蛋筒洋芋泥</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>28/份</t>
+  </si>
+  <si>
+    <t>images/product/food/洋芋泥.jpg</t>
+  </si>
+  <si>
+    <t>Slow boiled mashed potato/Flavor sauce</t>
+  </si>
+  <si>
+    <t>慢煮土豆泥/风味酱汁</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Sausage Platter</t>
+  </si>
+  <si>
+    <t>香肠拼盘</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>88/份</t>
+  </si>
+  <si>
+    <t>images/product/food/香肠拼盘.jpg</t>
+  </si>
+  <si>
+    <t>German sausage /Potato fillet/Seasonal vegetable salad</t>
+  </si>
+  <si>
+    <t>德式香肠/土豆角/时蔬沙拉</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Spare ribs with garlic</t>
+  </si>
+  <si>
+    <t>蒜香排骨</t>
+  </si>
+  <si>
+    <t>images/product/food/蒜香排骨.jpg</t>
+  </si>
+  <si>
+    <t>Pork ribs/Garlic/Special marinade</t>
+  </si>
+  <si>
+    <t>猪肋排/蒜/特制腌料</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Three flavors of sea salt and sweet potato</t>
+  </si>
+  <si>
+    <t>海盐粗薯三味</t>
+  </si>
+  <si>
+    <t>images/product/food/粗薯.jpg</t>
+  </si>
+  <si>
+    <t>Tapioca/Wasabi/Ketchup/Thousand island sauce</t>
+  </si>
+  <si>
+    <t>粗薯/黄芥末/番茄酱/千岛酱</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Crispy chicken</t>
+  </si>
+  <si>
+    <t>香酥麦克鸡块</t>
+  </si>
+  <si>
+    <t>images/product/food/麦克鸡块.jpg</t>
+  </si>
+  <si>
+    <t>Chicken / flour / tomato sauce</t>
+  </si>
+  <si>
+    <t>鸡肉/面粉/蕃茄酱</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Crispy fried cod balls</t>
+  </si>
+  <si>
+    <t>酥炸鳕鱼球</t>
+  </si>
+  <si>
+    <t>images/product/food/鳕鱼球.png</t>
+  </si>
+  <si>
+    <t>COD / flour / tomato sauce</t>
+  </si>
+  <si>
+    <t>鳕鱼/面粉/蕃茄酱</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Crispy fried chicken and rice flower</t>
+  </si>
+  <si>
+    <t>酥炸鸡米花</t>
+  </si>
+  <si>
+    <t>32/份</t>
+  </si>
+  <si>
+    <t>images/product/food/鸡米花.jpg</t>
+  </si>
+  <si>
+    <t>Chicken / flour / spices / ketchup</t>
+  </si>
+  <si>
+    <t>鸡肉/面粉/香料/蕃茄酱</t>
+  </si>
+  <si>
+    <t>Strawberry Mojito</t>
+  </si>
+  <si>
+    <t>草莓莫吉托</t>
+  </si>
+  <si>
+    <t>48/Glass</t>
+  </si>
+  <si>
+    <t>alcoholic drink</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Strawberry_mojito.png</t>
+  </si>
+  <si>
+    <t>Sweet+Sour</t>
+  </si>
+  <si>
+    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
+  </si>
+  <si>
+    <t>朗姆/青柠汁/莫林草莓糖浆</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Espresso martini</t>
+  </si>
+  <si>
+    <t>咖啡马提尼</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Espresso_martini.png</t>
+  </si>
+  <si>
+    <t>Sweet+Sour+Bitter</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
+  </si>
+  <si>
+    <t>Pinky Point</t>
+  </si>
+  <si>
+    <t>粉点</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Pinky_point.png</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Three Passions</t>
+  </si>
+  <si>
+    <t>激情</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Three_passions.png</t>
+  </si>
+  <si>
+    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
+  </si>
+  <si>
+    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Hightball</t>
+  </si>
+  <si>
+    <t>威士忌苏打</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Hightball.png</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Suntory kaku/Soda</t>
+  </si>
+  <si>
+    <t>三得利卡库/苏打水</t>
+  </si>
+  <si>
+    <t>Amon petit amour</t>
+  </si>
+  <si>
+    <t>心上人半干红葡萄酒</t>
+  </si>
+  <si>
+    <t>24+241</t>
+  </si>
+  <si>
+    <t>55/Glass</t>
+  </si>
+  <si>
+    <t>Sontti syrah cabernet vino d’Italia</t>
+  </si>
+  <si>
+    <t>十四行诗赤霞珠西拉干红葡萄酒</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>268/Bottle</t>
+  </si>
+  <si>
+    <t>The black Shiraz</t>
+  </si>
+  <si>
+    <t>伯顿酒庄铁牌西拉红葡萄酒</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>458/Bottle</t>
+  </si>
+  <si>
+    <t>1374 Chateau laulan ducos</t>
+  </si>
+  <si>
+    <t>1374乐朗公爵古堡干红葡萄酒</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>698/Bottle</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Camarero</t>
+  </si>
+  <si>
+    <t>企鹅侍者白葡萄酒</t>
+  </si>
+  <si>
+    <t>24+242</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Vereinigte hospitien riesling kabinett</t>
+  </si>
+  <si>
+    <t>赛琳娜雷司令典藏白葡萄酒</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Chateau lafn sauternes</t>
+  </si>
+  <si>
+    <t>拉枫酒庄贵腐甜白葡萄酒</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>588/Bottle</t>
+  </si>
+  <si>
+    <t>Canti di vigna</t>
+  </si>
+  <si>
+    <t>悦葡布拉凯多甜红起泡葡萄酒</t>
+  </si>
+  <si>
+    <t>24+243</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>45/Glass</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Truffle hunter leda</t>
+  </si>
+  <si>
+    <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>258/Bottle</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Perrier-Jouet</t>
+  </si>
+  <si>
+    <t>巴黎之花香槟</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>1180/Bottle</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armand de brignac ace of spades gold brut </t>
+  </si>
+  <si>
+    <t>黑桃A.黄金</t>
+  </si>
+  <si>
+    <t>5680</t>
+  </si>
+  <si>
+    <t>5680/Bottle</t>
+  </si>
+  <si>
+    <t>Armand de brignac ace of spades brut rose</t>
+  </si>
+  <si>
+    <t>黑桃A.粉金</t>
+  </si>
+  <si>
+    <t>6480</t>
+  </si>
+  <si>
+    <t>6480/Bottle</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Jack daniels</t>
+  </si>
+  <si>
+    <t>杰克丹尼</t>
+  </si>
+  <si>
+    <t>70/Glass+860/Bottle</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Maker's mark bourbon whisky</t>
+  </si>
+  <si>
+    <t>美格波本</t>
+  </si>
+  <si>
+    <t>85/Glass+960/Bottle</t>
+  </si>
+  <si>
+    <t>Four Roses</t>
+  </si>
+  <si>
+    <t>四玫瑰</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Buffalo trace</t>
+  </si>
+  <si>
+    <t>水牛足迹</t>
+  </si>
+  <si>
+    <t>80/Glass+1080/Bottle</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Rittenhouse Straight Rye Whiskey</t>
+  </si>
+  <si>
+    <t>瑞顿黑麦</t>
+  </si>
+  <si>
+    <t>90/Glass+1180/Bottle</t>
+  </si>
+  <si>
+    <t>Blanton's reserve Whiskey</t>
+  </si>
+  <si>
+    <t>波兰顿单桶（绿标）</t>
+  </si>
+  <si>
+    <t>1080/Bottle</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Blanton's The Original Single Barrel Kentucky Straight Bourbon Whiskey</t>
+  </si>
+  <si>
+    <t>波兰顿单桶（黄标）</t>
+  </si>
+  <si>
+    <t>1100/Bottle</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Eagle Rare Single Barrel 10Y</t>
+  </si>
+  <si>
+    <t>鹰牌稀有10年</t>
+  </si>
+  <si>
+    <t>25+251</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Elijah Craig</t>
+  </si>
+  <si>
+    <t>爱利加小批量</t>
+  </si>
+  <si>
     <t>52</t>
-  </si>
-  <si>
-    <t>52/份</t>
-  </si>
-  <si>
-    <t>images/product/food/温泉蛋意面.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Vegetables</t>
-  </si>
-  <si>
-    <t>意面/火腿/搭配蔬菜</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Little angel spaghetti with cream and ham</t>
-  </si>
-  <si>
-    <t>小恶魔蕃茄海鲜意面</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>56/份</t>
-  </si>
-  <si>
-    <t>images/product/food/小恶魔.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
-  </si>
-  <si>
-    <t>意面/海虹/鱿鱼圈/虾仁</t>
-  </si>
-  <si>
-    <t>小天使奶油火腿意面</t>
-  </si>
-  <si>
-    <t>images/product/food/小天使.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
-  </si>
-  <si>
-    <t>意面/火腿/培根/时蔬</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
-  </si>
-  <si>
-    <t>日式和风烟熏鸡腿肉咖喱饭</t>
-  </si>
-  <si>
-    <t>images/product/food/咖喱炖饭.jpg</t>
-  </si>
-  <si>
-    <t>Smoked chicken/Special curry sauce</t>
-  </si>
-  <si>
-    <t>烟熏鸡肉/特调咖喱酱汁</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Beef cheeseburger</t>
-  </si>
-  <si>
-    <t>牛肉芝士汉堡</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>55/份</t>
-  </si>
-  <si>
-    <t>images/product/food/牛肉汉堡.jpg</t>
-  </si>
-  <si>
-    <t>Beef patty/Cheese slice/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>牛肉饼/芝士片/时蔬</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Caesar Salad smoked chicken breast</t>
-  </si>
-  <si>
-    <t>凯撒沙拉佐烟熏鸡胸肉</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>42/份</t>
-  </si>
-  <si>
-    <t>images/product/food/凯萨沙拉.jpg</t>
-  </si>
-  <si>
-    <t>Smoked chicken breast/Seasonal vegetable salad/Caesar sauce</t>
-  </si>
-  <si>
-    <t>烟熏鸡胸肉/时蔬沙拉/凯撒酱汁</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Yogurt fruit salad</t>
-  </si>
-  <si>
-    <t>酸奶水果沙拉</t>
-  </si>
-  <si>
-    <t>images/product/food/水果沙拉.jpg</t>
-  </si>
-  <si>
-    <t>Yoghurt/Nut/Blueberry/Orange/Kiwi/Strawberry/Pitaya/Sacred fruit/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>酸奶/坚果/蓝莓/橙子/猕猴桃/草莓/火龙果/圣女果/时蔬</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Macaroni in cone</t>
-  </si>
-  <si>
-    <t>蛋筒洋芋泥</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>28/份</t>
-  </si>
-  <si>
-    <t>images/product/food/洋芋泥.jpg</t>
-  </si>
-  <si>
-    <t>Slow boiled mashed potato/Flavor sauce</t>
-  </si>
-  <si>
-    <t>慢煮土豆泥/风味酱汁</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Sausage Platter</t>
-  </si>
-  <si>
-    <t>香肠拼盘</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>88/份</t>
-  </si>
-  <si>
-    <t>images/product/food/香肠拼盘.jpg</t>
-  </si>
-  <si>
-    <t>German sausage /Potato fillet/Seasonal vegetable salad</t>
-  </si>
-  <si>
-    <t>德式香肠/土豆角/时蔬沙拉</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Spare ribs with garlic</t>
-  </si>
-  <si>
-    <t>蒜香排骨</t>
-  </si>
-  <si>
-    <t>images/product/food/蒜香排骨.jpg</t>
-  </si>
-  <si>
-    <t>Pork ribs/Garlic/Special marinade</t>
-  </si>
-  <si>
-    <t>猪肋排/蒜/特制腌料</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Three flavors of sea salt and sweet potato</t>
-  </si>
-  <si>
-    <t>海盐粗薯三味</t>
-  </si>
-  <si>
-    <t>images/product/food/粗薯.jpg</t>
-  </si>
-  <si>
-    <t>Tapioca/Wasabi/Ketchup/Thousand island sauce</t>
-  </si>
-  <si>
-    <t>粗薯/黄芥末/番茄酱/千岛酱</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Crispy chicken</t>
-  </si>
-  <si>
-    <t>香酥麦克鸡块</t>
-  </si>
-  <si>
-    <t>images/product/food/麦克鸡块.jpg</t>
-  </si>
-  <si>
-    <t>Chicken / flour / tomato sauce</t>
-  </si>
-  <si>
-    <t>鸡肉/面粉/蕃茄酱</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Crispy fried cod balls</t>
-  </si>
-  <si>
-    <t>酥炸鳕鱼球</t>
-  </si>
-  <si>
-    <t>images/product/food/鳕鱼球.png</t>
-  </si>
-  <si>
-    <t>COD / flour / tomato sauce</t>
-  </si>
-  <si>
-    <t>鳕鱼/面粉/蕃茄酱</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Crispy fried chicken and rice flower</t>
-  </si>
-  <si>
-    <t>酥炸鸡米花</t>
-  </si>
-  <si>
-    <t>32/份</t>
-  </si>
-  <si>
-    <t>images/product/food/鸡米花.jpg</t>
-  </si>
-  <si>
-    <t>Chicken / flour / spices / ketchup</t>
-  </si>
-  <si>
-    <t>鸡肉/面粉/香料/蕃茄酱</t>
-  </si>
-  <si>
-    <t>Strawberry Mojito</t>
-  </si>
-  <si>
-    <t>草莓莫吉托</t>
-  </si>
-  <si>
-    <t>48/Glass</t>
-  </si>
-  <si>
-    <t>alcoholic drink</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Strawberry_mojito.png</t>
-  </si>
-  <si>
-    <t>Sweet+Sour</t>
-  </si>
-  <si>
-    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
-  </si>
-  <si>
-    <t>朗姆/青柠汁/莫林草莓糖浆</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Espresso martini</t>
-  </si>
-  <si>
-    <t>咖啡马提尼</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Espresso_martini.png</t>
-  </si>
-  <si>
-    <t>Sweet+Sour+Bitter</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
-  </si>
-  <si>
-    <t>Pinky Point</t>
-  </si>
-  <si>
-    <t>粉点</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Pinky_point.png</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Three Passions</t>
-  </si>
-  <si>
-    <t>激情</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Three_passions.png</t>
-  </si>
-  <si>
-    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
-  </si>
-  <si>
-    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Hightball</t>
-  </si>
-  <si>
-    <t>威士忌苏打</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Hightball.png</t>
-  </si>
-  <si>
-    <t>Pure</t>
-  </si>
-  <si>
-    <t>Suntory kaku/Soda</t>
-  </si>
-  <si>
-    <t>三得利卡库/苏打水</t>
-  </si>
-  <si>
-    <t>Amon petit amour</t>
-  </si>
-  <si>
-    <t>心上人半干红葡萄酒</t>
-  </si>
-  <si>
-    <t>24+241</t>
-  </si>
-  <si>
-    <t>55/Glass</t>
-  </si>
-  <si>
-    <t>Sontti syrah cabernet vino d’Italia</t>
-  </si>
-  <si>
-    <t>十四行诗赤霞珠西拉干红葡萄酒</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>268/Bottle</t>
-  </si>
-  <si>
-    <t>The black Shiraz</t>
-  </si>
-  <si>
-    <t>伯顿酒庄铁牌西拉红葡萄酒</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>458/Bottle</t>
-  </si>
-  <si>
-    <t>1374 Chateau laulan ducos</t>
-  </si>
-  <si>
-    <t>1374乐朗公爵古堡干红葡萄酒</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>698/Bottle</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Camarero</t>
-  </si>
-  <si>
-    <t>企鹅侍者白葡萄酒</t>
-  </si>
-  <si>
-    <t>24+242</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Vereinigte hospitien riesling kabinett</t>
-  </si>
-  <si>
-    <t>赛琳娜雷司令典藏白葡萄酒</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Chateau lafn sauternes</t>
-  </si>
-  <si>
-    <t>拉枫酒庄贵腐甜白葡萄酒</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>588/Bottle</t>
-  </si>
-  <si>
-    <t>Canti di vigna</t>
-  </si>
-  <si>
-    <t>悦葡布拉凯多甜红起泡葡萄酒</t>
-  </si>
-  <si>
-    <t>24+243</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>45/Glass</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Truffle hunter leda</t>
-  </si>
-  <si>
-    <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>258/Bottle</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Perrier-Jouet</t>
-  </si>
-  <si>
-    <t>巴黎之花香槟</t>
-  </si>
-  <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>1180/Bottle</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armand de brignac ace of spades gold brut </t>
-  </si>
-  <si>
-    <t>黑桃A.黄金</t>
-  </si>
-  <si>
-    <t>5680</t>
-  </si>
-  <si>
-    <t>5680/Bottle</t>
-  </si>
-  <si>
-    <t>Armand de brignac ace of spades brut rose</t>
-  </si>
-  <si>
-    <t>黑桃A.粉金</t>
-  </si>
-  <si>
-    <t>6480</t>
-  </si>
-  <si>
-    <t>6480/Bottle</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Jack daniels</t>
-  </si>
-  <si>
-    <t>杰克丹尼</t>
-  </si>
-  <si>
-    <t>70/Glass+860/Bottle</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Maker's mark bourbon whisky</t>
-  </si>
-  <si>
-    <t>美格波本</t>
-  </si>
-  <si>
-    <t>85/Glass+960/Bottle</t>
-  </si>
-  <si>
-    <t>Four Roses</t>
-  </si>
-  <si>
-    <t>四玫瑰</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Buffalo trace</t>
-  </si>
-  <si>
-    <t>水牛足迹</t>
-  </si>
-  <si>
-    <t>80/Glass+1080/Bottle</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Rittenhouse Straight Rye Whiskey</t>
-  </si>
-  <si>
-    <t>瑞顿黑麦</t>
-  </si>
-  <si>
-    <t>90/Glass+1180/Bottle</t>
-  </si>
-  <si>
-    <t>Blanton's reserve Whiskey</t>
-  </si>
-  <si>
-    <t>波兰顿单桶（绿标）</t>
-  </si>
-  <si>
-    <t>1080/Bottle</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Blanton's The Original Single Barrel Kentucky Straight Bourbon Whiskey</t>
-  </si>
-  <si>
-    <t>波兰顿单桶（黄标）</t>
-  </si>
-  <si>
-    <t>1100/Bottle</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Eagle Rare Single Barrel 10Y</t>
-  </si>
-  <si>
-    <t>鹰牌稀有10年</t>
-  </si>
-  <si>
-    <t>25+251</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Elijah Craig</t>
-  </si>
-  <si>
-    <t>爱利加小批量</t>
   </si>
   <si>
     <t>Woodford Reserve Distiller's Select</t>
@@ -2427,10 +2430,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2473,10 +2476,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2488,30 +2492,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2527,14 +2517,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2543,9 +2533,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2565,45 +2570,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2612,6 +2579,42 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2632,7 +2635,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2644,25 +2665,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2674,13 +2695,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2698,37 +2773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2740,67 +2803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,7 +2909,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2926,15 +2988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2949,191 +3002,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4272,8 +4275,8 @@
   <sheetPr/>
   <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4547,12 +4550,14 @@
       <c r="K5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="M5" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>29</v>
@@ -4567,13 +4572,13 @@
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>105</v>
@@ -4582,10 +4587,10 @@
         <v>106</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H6" s="12" t="b">
         <v>0</v>
@@ -4597,14 +4602,14 @@
         <v>109</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>63</v>
@@ -4619,13 +4624,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>105</v>
@@ -4634,10 +4639,10 @@
         <v>106</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H7" s="12" t="b">
         <v>0</v>
@@ -4649,14 +4654,14 @@
         <v>109</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>114</v>
@@ -4671,13 +4676,13 @@
     </row>
     <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>105</v>
@@ -4686,10 +4691,10 @@
         <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H8" s="12" t="b">
         <v>0</v>
@@ -4701,14 +4706,14 @@
         <v>109</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>114</v>
@@ -4723,13 +4728,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>105</v>
@@ -4738,10 +4743,10 @@
         <v>106</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H9" s="12" t="b">
         <v>0</v>
@@ -4753,14 +4758,14 @@
         <v>109</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>114</v>
@@ -4775,13 +4780,13 @@
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>105</v>
@@ -4790,10 +4795,10 @@
         <v>106</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H10" s="12" t="b">
         <v>0</v>
@@ -4805,14 +4810,14 @@
         <v>109</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>114</v>
@@ -4827,13 +4832,13 @@
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>105</v>
@@ -4842,10 +4847,10 @@
         <v>106</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H11" s="12" t="b">
         <v>0</v>
@@ -4857,14 +4862,14 @@
         <v>109</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>114</v>
@@ -4882,22 +4887,22 @@
         <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>106</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H12" s="12" t="b">
         <v>1</v>
@@ -4909,16 +4914,16 @@
         <v>109</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>114</v>
@@ -4933,25 +4938,25 @@
     </row>
     <row r="13" customHeight="1" spans="1:18">
       <c r="A13" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H13" s="14" t="b">
         <v>0</v>
@@ -4963,14 +4968,14 @@
         <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>114</v>
@@ -4985,25 +4990,25 @@
     </row>
     <row r="14" customHeight="1" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="H14" s="14" t="b">
         <v>0</v>
@@ -5015,9 +5020,11 @@
         <v>109</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="L14" s="19"/>
       <c r="M14" s="21" t="s">
         <v>199</v>
       </c>
@@ -5040,22 +5047,22 @@
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>201</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H15" s="14" t="b">
         <v>0</v>
@@ -5069,7 +5076,9 @@
       <c r="K15" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="M15" s="21" t="s">
         <v>203</v>
       </c>
@@ -5098,16 +5107,16 @@
         <v>207</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H16" s="14" t="b">
         <v>0</v>
@@ -5119,14 +5128,14 @@
         <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>114</v>
@@ -5141,25 +5150,25 @@
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="H17" s="14" t="b">
         <v>0</v>
@@ -5202,7 +5211,7 @@
         <v>221</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>106</v>
@@ -5254,16 +5263,16 @@
         <v>229</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="H19" s="14" t="b">
         <v>0</v>
@@ -5416,10 +5425,10 @@
         <v>106</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H22" s="14" t="b">
         <v>0</v>
@@ -5520,10 +5529,10 @@
         <v>106</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" s="14" t="b">
         <v>0</v>
@@ -5572,10 +5581,10 @@
         <v>106</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H25" s="14" t="b">
         <v>0</v>
@@ -5676,7 +5685,7 @@
         <v>106</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>282</v>
@@ -5706,7 +5715,7 @@
         <v>114</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="14" t="s">
         <v>115</v>
@@ -5730,7 +5739,7 @@
         <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>282</v>
@@ -5760,7 +5769,7 @@
         <v>114</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28" s="14" t="s">
         <v>115</v>
@@ -5784,7 +5793,7 @@
         <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>282</v>
@@ -5838,7 +5847,7 @@
         <v>106</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>282</v>
@@ -5868,7 +5877,7 @@
         <v>114</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="14" t="s">
         <v>115</v>
@@ -5892,7 +5901,7 @@
         <v>106</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>282</v>
@@ -5922,7 +5931,7 @@
         <v>114</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="14" t="s">
         <v>115</v>
@@ -5946,7 +5955,7 @@
         <v>106</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>316</v>
@@ -5968,7 +5977,7 @@
         <v>114</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32" s="23" t="s">
         <v>115</v>
@@ -6253,7 +6262,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:18">
       <c r="A39" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>341</v>
@@ -6713,7 +6722,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>383</v>
@@ -6897,13 +6906,13 @@
     </row>
     <row r="53" customHeight="1" spans="1:18">
       <c r="A53" s="4" t="s">
-        <v>188</v>
+        <v>397</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>41</v>
@@ -6943,13 +6952,13 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>41</v>
@@ -6961,7 +6970,7 @@
         <v>880</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H54" s="14" t="b">
         <v>0</v>
@@ -6989,13 +6998,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>41</v>
@@ -7007,7 +7016,7 @@
         <v>1280</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H55" s="14" t="b">
         <v>0</v>
@@ -7035,16 +7044,16 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="4" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>106</v>
@@ -7053,7 +7062,7 @@
         <v>880</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H56" s="14" t="b">
         <v>0</v>
@@ -7081,13 +7090,13 @@
     </row>
     <row r="57" customHeight="1" spans="1:18">
       <c r="A57" s="4" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>44</v>
@@ -7099,7 +7108,7 @@
         <v>1100</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H57" s="14" t="b">
         <v>0</v>
@@ -7127,13 +7136,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>44</v>
@@ -7145,7 +7154,7 @@
         <v>2650</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H58" s="14" t="b">
         <v>0</v>
@@ -7173,13 +7182,13 @@
     </row>
     <row r="59" customHeight="1" spans="1:18">
       <c r="A59" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>44</v>
@@ -7191,7 +7200,7 @@
         <v>880</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H59" s="14" t="b">
         <v>0</v>
@@ -7219,13 +7228,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>44</v>
@@ -7237,7 +7246,7 @@
         <v>1050</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H60" s="14" t="b">
         <v>0</v>
@@ -7265,13 +7274,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>44</v>
@@ -7283,7 +7292,7 @@
         <v>880</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H61" s="14" t="b">
         <v>0</v>
@@ -7311,13 +7320,13 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>44</v>
@@ -7329,7 +7338,7 @@
         <v>1700</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H62" s="14" t="b">
         <v>0</v>
@@ -7357,13 +7366,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>47</v>
@@ -7375,7 +7384,7 @@
         <v>880</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H63" s="14" t="b">
         <v>0</v>
@@ -7403,13 +7412,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>47</v>
@@ -7421,7 +7430,7 @@
         <v>1400</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H64" s="14" t="b">
         <v>0</v>
@@ -7449,13 +7458,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>47</v>
@@ -7467,7 +7476,7 @@
         <v>1800</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H65" s="14" t="b">
         <v>0</v>
@@ -7495,13 +7504,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>47</v>
@@ -7513,7 +7522,7 @@
         <v>1080</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H66" s="14" t="b">
         <v>0</v>
@@ -7541,13 +7550,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>47</v>
@@ -7559,7 +7568,7 @@
         <v>1550</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H67" s="14" t="b">
         <v>0</v>
@@ -7587,13 +7596,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>47</v>
@@ -7605,7 +7614,7 @@
         <v>2050</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H68" s="14" t="b">
         <v>0</v>
@@ -7636,10 +7645,10 @@
         <v>132</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>47</v>
@@ -7651,7 +7660,7 @@
         <v>2850</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H69" s="14" t="b">
         <v>0</v>
@@ -7679,13 +7688,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>47</v>
@@ -7697,7 +7706,7 @@
         <v>900</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H70" s="14" t="b">
         <v>0</v>
@@ -7725,13 +7734,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>47</v>
@@ -7743,7 +7752,7 @@
         <v>1650</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H71" s="14" t="b">
         <v>0</v>
@@ -7771,13 +7780,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>47</v>
@@ -7789,7 +7798,7 @@
         <v>2350</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H72" s="14" t="b">
         <v>0</v>
@@ -7817,13 +7826,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>47</v>
@@ -7835,7 +7844,7 @@
         <v>2180</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H73" s="14" t="b">
         <v>0</v>
@@ -7863,13 +7872,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>47</v>
@@ -7881,7 +7890,7 @@
         <v>4980</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H74" s="14" t="b">
         <v>0</v>
@@ -7909,13 +7918,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>47</v>
@@ -7927,7 +7936,7 @@
         <v>17800</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H75" s="14" t="b">
         <v>0</v>
@@ -7955,13 +7964,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>47</v>
@@ -7973,7 +7982,7 @@
         <v>2080</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H76" s="14" t="b">
         <v>0</v>
@@ -8001,13 +8010,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>47</v>
@@ -8019,7 +8028,7 @@
         <v>4880</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H77" s="14" t="b">
         <v>0</v>
@@ -8047,13 +8056,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>47</v>
@@ -8065,7 +8074,7 @@
         <v>17800</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H78" s="14" t="b">
         <v>0</v>
@@ -8093,13 +8102,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>47</v>
@@ -8111,7 +8120,7 @@
         <v>2180</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H79" s="14" t="b">
         <v>0</v>
@@ -8139,13 +8148,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>47</v>
@@ -8157,7 +8166,7 @@
         <v>9800</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H80" s="14" t="b">
         <v>0</v>
@@ -8185,13 +8194,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>47</v>
@@ -8203,7 +8212,7 @@
         <v>15000</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H81" s="14" t="b">
         <v>0</v>
@@ -8231,13 +8240,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>47</v>
@@ -8249,7 +8258,7 @@
         <v>2080</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H82" s="14" t="b">
         <v>0</v>
@@ -8277,13 +8286,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>47</v>
@@ -8295,7 +8304,7 @@
         <v>11000</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H83" s="14" t="b">
         <v>0</v>
@@ -8323,16 +8332,16 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>106</v>
@@ -8341,7 +8350,7 @@
         <v>1080</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H84" s="14" t="b">
         <v>0</v>
@@ -8369,13 +8378,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>50</v>
@@ -8387,7 +8396,7 @@
         <v>980</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H85" s="14" t="b">
         <v>0</v>
@@ -8415,13 +8424,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>50</v>
@@ -8433,7 +8442,7 @@
         <v>1180</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H86" s="14" t="b">
         <v>0</v>
@@ -8461,13 +8470,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>50</v>
@@ -8479,7 +8488,7 @@
         <v>1280</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H87" s="14" t="b">
         <v>0</v>
@@ -8507,13 +8516,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>50</v>
@@ -8525,7 +8534,7 @@
         <v>2400</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H88" s="14" t="b">
         <v>0</v>
@@ -8556,10 +8565,10 @@
         <v>244</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>50</v>
@@ -8571,7 +8580,7 @@
         <v>3880</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H89" s="14" t="b">
         <v>0</v>
@@ -8599,13 +8608,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>50</v>
@@ -8617,7 +8626,7 @@
         <v>980</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H90" s="14" t="b">
         <v>0</v>
@@ -8645,13 +8654,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>50</v>
@@ -8663,7 +8672,7 @@
         <v>1180</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H91" s="14" t="b">
         <v>0</v>
@@ -8691,13 +8700,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>50</v>
@@ -8709,7 +8718,7 @@
         <v>880</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H92" s="14" t="b">
         <v>0</v>
@@ -8737,13 +8746,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>50</v>
@@ -8755,7 +8764,7 @@
         <v>1480</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H93" s="14" t="b">
         <v>0</v>
@@ -8783,13 +8792,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>50</v>
@@ -8801,7 +8810,7 @@
         <v>3680</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H94" s="14" t="b">
         <v>0</v>
@@ -8829,13 +8838,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>50</v>
@@ -8847,7 +8856,7 @@
         <v>1180</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H95" s="14" t="b">
         <v>0</v>
@@ -8875,13 +8884,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>50</v>
@@ -8893,7 +8902,7 @@
         <v>2380</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H96" s="14" t="b">
         <v>0</v>
@@ -8921,13 +8930,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>53</v>
@@ -8939,7 +8948,7 @@
         <v>1380</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H97" s="14" t="b">
         <v>0</v>
@@ -8967,13 +8976,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>53</v>
@@ -9013,13 +9022,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>53</v>
@@ -9031,7 +9040,7 @@
         <v>1680</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H99" s="14" t="b">
         <v>0</v>
@@ -9059,13 +9068,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>53</v>
@@ -9077,7 +9086,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H100" s="14" t="b">
         <v>0</v>
@@ -9105,13 +9114,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>53</v>
@@ -9123,7 +9132,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H101" s="14" t="b">
         <v>0</v>
@@ -9151,13 +9160,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>53</v>
@@ -9169,7 +9178,7 @@
         <v>1280</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H102" s="14" t="b">
         <v>0</v>
@@ -9197,13 +9206,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>53</v>
@@ -9215,7 +9224,7 @@
         <v>1080</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H103" s="14" t="b">
         <v>0</v>
@@ -9243,13 +9252,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>53</v>
@@ -9261,7 +9270,7 @@
         <v>1880</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H104" s="14" t="b">
         <v>0</v>
@@ -9289,13 +9298,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>53</v>
@@ -9307,7 +9316,7 @@
         <v>2680</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H105" s="14" t="b">
         <v>0</v>
@@ -9335,13 +9344,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>53</v>
@@ -9353,7 +9362,7 @@
         <v>1380</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H106" s="14" t="b">
         <v>0</v>
@@ -9381,13 +9390,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>53</v>
@@ -9399,7 +9408,7 @@
         <v>1480</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H107" s="14" t="b">
         <v>0</v>
@@ -9427,13 +9436,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>56</v>
@@ -9445,7 +9454,7 @@
         <v>1580</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H108" s="14" t="b">
         <v>0</v>
@@ -9473,13 +9482,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>56</v>
@@ -9491,7 +9500,7 @@
         <v>880</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H109" s="14" t="b">
         <v>0</v>
@@ -9519,13 +9528,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>56</v>
@@ -9537,7 +9546,7 @@
         <v>1380</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H110" s="14" t="b">
         <v>0</v>
@@ -9565,13 +9574,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>56</v>
@@ -9583,7 +9592,7 @@
         <v>1580</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H111" s="14" t="b">
         <v>0</v>
@@ -9611,13 +9620,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>56</v>
@@ -9629,7 +9638,7 @@
         <v>880</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H112" s="14" t="b">
         <v>0</v>
@@ -9657,13 +9666,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>56</v>
@@ -9675,7 +9684,7 @@
         <v>2380</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H113" s="14" t="b">
         <v>0</v>
@@ -9703,13 +9712,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>59</v>
@@ -9721,7 +9730,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H114" s="14" t="b">
         <v>0</v>
@@ -9749,13 +9758,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>59</v>
@@ -9767,7 +9776,7 @@
         <v>780</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H115" s="14" t="b">
         <v>0</v>
@@ -9795,13 +9804,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>59</v>
@@ -9813,7 +9822,7 @@
         <v>780</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H116" s="14" t="b">
         <v>0</v>
@@ -9841,13 +9850,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>59</v>
@@ -9859,7 +9868,7 @@
         <v>880</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H117" s="14" t="b">
         <v>0</v>
@@ -9887,13 +9896,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>59</v>
@@ -9905,7 +9914,7 @@
         <v>1280</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H118" s="14" t="b">
         <v>0</v>
@@ -9933,13 +9942,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>59</v>
@@ -9951,7 +9960,7 @@
         <v>1780</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H119" s="14" t="b">
         <v>0</v>
@@ -9979,13 +9988,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>59</v>
@@ -9997,7 +10006,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H120" s="14" t="b">
         <v>0</v>
@@ -10025,13 +10034,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>59</v>
@@ -10043,7 +10052,7 @@
         <v>1280</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H121" s="14" t="b">
         <v>0</v>
@@ -10071,13 +10080,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>59</v>
@@ -10089,7 +10098,7 @@
         <v>1780</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H122" s="14" t="b">
         <v>0</v>
@@ -10117,13 +10126,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>59</v>
@@ -10135,7 +10144,7 @@
         <v>2480</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H123" s="14" t="b">
         <v>0</v>
@@ -10163,13 +10172,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>59</v>
@@ -10209,13 +10218,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>59</v>
@@ -10227,7 +10236,7 @@
         <v>980</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H125" s="14" t="b">
         <v>0</v>
@@ -10255,13 +10264,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>59</v>
@@ -10273,7 +10282,7 @@
         <v>1650</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H126" s="14" t="b">
         <v>0</v>
@@ -10301,13 +10310,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>59</v>
@@ -10319,7 +10328,7 @@
         <v>1100</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H127" s="14" t="b">
         <v>0</v>
@@ -10347,13 +10356,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>59</v>
@@ -10365,7 +10374,7 @@
         <v>980</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H128" s="14" t="b">
         <v>0</v>
@@ -10393,13 +10402,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>59</v>
@@ -10411,7 +10420,7 @@
         <v>1080</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H129" s="14" t="b">
         <v>0</v>
@@ -10439,13 +10448,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>59</v>
@@ -10457,7 +10466,7 @@
         <v>1680</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H130" s="14" t="b">
         <v>0</v>
@@ -10485,13 +10494,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>59</v>
@@ -10503,7 +10512,7 @@
         <v>980</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H131" s="14" t="b">
         <v>0</v>
@@ -10531,13 +10540,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>59</v>
@@ -10549,7 +10558,7 @@
         <v>1080</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H132" s="14" t="b">
         <v>0</v>
@@ -10577,13 +10586,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>59</v>
@@ -10595,7 +10604,7 @@
         <v>1480</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H133" s="14" t="b">
         <v>0</v>
@@ -10623,13 +10632,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>59</v>
@@ -10641,7 +10650,7 @@
         <v>3480</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H134" s="14" t="b">
         <v>0</v>
@@ -10669,13 +10678,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>59</v>
@@ -10687,7 +10696,7 @@
         <v>1280</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H135" s="14" t="b">
         <v>0</v>
@@ -10715,13 +10724,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>59</v>
@@ -10733,7 +10742,7 @@
         <v>1680</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H136" s="14" t="b">
         <v>0</v>
@@ -10761,13 +10770,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>59</v>
@@ -10779,7 +10788,7 @@
         <v>2680</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H137" s="14" t="b">
         <v>0</v>
@@ -10807,13 +10816,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>59</v>
@@ -10825,7 +10834,7 @@
         <v>3680</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H138" s="14" t="b">
         <v>0</v>
@@ -10853,13 +10862,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>59</v>
@@ -10871,7 +10880,7 @@
         <v>1080</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H139" s="14" t="b">
         <v>0</v>
@@ -10899,13 +10908,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D140" s="25" t="s">
         <v>62</v>
@@ -10917,7 +10926,7 @@
         <v>28</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H140" s="14" t="b">
         <v>0</v>
@@ -10945,13 +10954,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D141" s="25" t="s">
         <v>62</v>
@@ -10963,7 +10972,7 @@
         <v>35</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H141" s="14" t="b">
         <v>0</v>
@@ -10991,13 +11000,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D142" s="25" t="s">
         <v>62</v>
@@ -11009,7 +11018,7 @@
         <v>30</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H142" s="14" t="b">
         <v>0</v>
@@ -11037,13 +11046,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>69</v>
@@ -11052,10 +11061,10 @@
         <v>106</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H143" s="14" t="b">
         <v>0</v>
@@ -11064,19 +11073,19 @@
         <v>0</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L143" s="7" t="s">
         <v>285</v>
       </c>
       <c r="M143" s="21" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N143" s="22" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O143" s="7" t="s">
         <v>114</v>
@@ -11091,13 +11100,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>69</v>
@@ -11106,10 +11115,10 @@
         <v>106</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H144" s="14" t="b">
         <v>0</v>
@@ -11118,19 +11127,19 @@
         <v>0</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L144" s="7" t="s">
         <v>285</v>
       </c>
       <c r="M144" s="21" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N144" s="22" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O144" s="7" t="s">
         <v>114</v>
@@ -11145,13 +11154,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>72</v>
@@ -11163,7 +11172,7 @@
         <v>241</v>
       </c>
       <c r="G145" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H145" s="23" t="b">
         <v>0</v>
@@ -11172,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
@@ -11191,13 +11200,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>72</v>
@@ -11209,7 +11218,7 @@
         <v>255</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H146" s="23" t="b">
         <v>0</v>
@@ -11218,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
@@ -11237,13 +11246,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>75</v>
@@ -11255,7 +11264,7 @@
         <v>255</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H147" s="14" t="b">
         <v>0</v>
@@ -11264,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
@@ -11283,13 +11292,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>75</v>
@@ -11301,7 +11310,7 @@
         <v>306</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H148" s="14" t="b">
         <v>0</v>
@@ -11310,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
@@ -11329,13 +11338,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>75</v>
@@ -11347,7 +11356,7 @@
         <v>306</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H149" s="23" t="b">
         <v>0</v>
@@ -11356,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
@@ -11375,13 +11384,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>75</v>
@@ -11390,10 +11399,10 @@
         <v>106</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H150" s="23" t="b">
         <v>0</v>
@@ -11402,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
@@ -11421,13 +11430,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>78</v>
@@ -11439,7 +11448,7 @@
         <v>241</v>
       </c>
       <c r="G151" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H151" s="23" t="b">
         <v>0</v>
@@ -11448,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
@@ -11467,13 +11476,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>78</v>
@@ -11485,7 +11494,7 @@
         <v>241</v>
       </c>
       <c r="G152" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H152" s="23" t="b">
         <v>0</v>
@@ -11494,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
@@ -11513,13 +11522,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>78</v>
@@ -11531,7 +11540,7 @@
         <v>241</v>
       </c>
       <c r="G153" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H153" s="23" t="b">
         <v>0</v>
@@ -11540,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
@@ -11559,13 +11568,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>78</v>
@@ -11577,7 +11586,7 @@
         <v>306</v>
       </c>
       <c r="G154" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H154" s="23" t="b">
         <v>0</v>
@@ -11586,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
@@ -11605,13 +11614,13 @@
     </row>
     <row r="155" customFormat="1" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>85</v>
@@ -11632,10 +11641,10 @@
         <v>1</v>
       </c>
       <c r="J155" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K155" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L155" s="28"/>
       <c r="M155" s="27"/>
@@ -11653,13 +11662,13 @@
     </row>
     <row r="156" customFormat="1" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>85</v>
@@ -11680,10 +11689,10 @@
         <v>1</v>
       </c>
       <c r="J156" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K156" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L156" s="28"/>
       <c r="M156" s="27"/>
@@ -11701,13 +11710,13 @@
     </row>
     <row r="157" customFormat="1" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>85</v>
@@ -11728,10 +11737,10 @@
         <v>1</v>
       </c>
       <c r="J157" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K157" s="27" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L157" s="28"/>
       <c r="M157" s="27"/>
@@ -11749,13 +11758,13 @@
     </row>
     <row r="158" customFormat="1" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>85</v>
@@ -11776,10 +11785,10 @@
         <v>0</v>
       </c>
       <c r="J158" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K158" s="27" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="L158" s="28"/>
       <c r="M158" s="27"/>
@@ -11800,10 +11809,10 @@
         <v>118</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>85</v>
@@ -11824,10 +11833,10 @@
         <v>0</v>
       </c>
       <c r="J159" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K159" s="27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L159" s="27"/>
       <c r="M159" s="27"/>
@@ -11845,13 +11854,13 @@
     </row>
     <row r="160" customFormat="1" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>85</v>
@@ -11872,10 +11881,10 @@
         <v>0</v>
       </c>
       <c r="J160" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K160" s="27" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L160" s="27"/>
       <c r="M160" s="27"/>
@@ -11893,13 +11902,13 @@
     </row>
     <row r="161" customFormat="1" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>85</v>
@@ -11920,10 +11929,10 @@
         <v>0</v>
       </c>
       <c r="J161" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K161" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L161" s="27"/>
       <c r="M161" s="31"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -2423,11 +2423,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2464,13 +2464,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2485,16 +2478,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2507,8 +2515,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2524,22 +2585,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2547,7 +2593,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2560,59 +2613,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2623,7 +2623,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2635,43 +2755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2683,25 +2773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,97 +2797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2899,6 +2899,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2910,9 +2964,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2932,21 +2988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2955,182 +2996,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4250,7 +4250,7 @@
   <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="A1:R162"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6193,7 +6193,7 @@
         <v>330</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>105</v>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -3558,8 +3558,8 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4228,8 +4228,8 @@
   <sheetPr/>
   <dimension ref="A1:R162"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A162"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B162" sqref="A1:R162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -1665,13 +1665,13 @@
     <t>RT Filet mignon</t>
   </si>
   <si>
-    <t>RT招牌菲力牛排</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>168/份</t>
+    <t>ROOTINN极鲜菲力牛排</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>228/份</t>
   </si>
   <si>
     <t>food</t>
@@ -1722,7 +1722,7 @@
     <t>Fried lamb chops</t>
   </si>
   <si>
-    <t>RT香煎羊排</t>
+    <t>ROOTINN香煎羊排</t>
   </si>
   <si>
     <t>images/product/food/羊排.png</t>
@@ -1743,7 +1743,7 @@
     <t>Hot spicy chicken</t>
   </si>
   <si>
-    <t>RT当红辣子鸡</t>
+    <t>ROOTINN当红辣子鸡</t>
   </si>
   <si>
     <t>68/份</t>
@@ -2157,7 +2157,7 @@
     <t>RT milk tea</t>
   </si>
   <si>
-    <t>RT奶茶</t>
+    <t>ROOTINN奶茶</t>
   </si>
   <si>
     <t>38/Glass</t>
@@ -2402,11 +2402,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2443,31 +2443,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2487,44 +2472,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2532,9 +2479,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2548,6 +2501,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2556,9 +2549,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2579,17 +2578,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2608,7 +2608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2620,13 +2626,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2638,25 +2668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2668,73 +2680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2752,37 +2704,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2878,17 +2878,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2898,21 +2892,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2941,16 +2920,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2967,149 +2946,170 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4228,8 +4228,8 @@
   <sheetPr/>
   <dimension ref="A1:R162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B162" sqref="A1:R162"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -1662,7 +1662,7 @@
     <t>117</t>
   </si>
   <si>
-    <t>RT Filet mignon</t>
+    <t>ROOTINN Fresh filet mignon</t>
   </si>
   <si>
     <t>ROOTINN极鲜菲力牛排</t>
@@ -1719,7 +1719,7 @@
     <t>119</t>
   </si>
   <si>
-    <t>Fried lamb chops</t>
+    <t>ROOTINN Fried lamb chops</t>
   </si>
   <si>
     <t>ROOTINN香煎羊排</t>
@@ -1740,7 +1740,7 @@
     <t>120</t>
   </si>
   <si>
-    <t>Hot spicy chicken</t>
+    <t>ROOTINN Hot spicy chicken</t>
   </si>
   <si>
     <t>ROOTINN当红辣子鸡</t>
@@ -2154,7 +2154,7 @@
     <t>141</t>
   </si>
   <si>
-    <t>RT milk tea</t>
+    <t>ROOTINN Milk tea</t>
   </si>
   <si>
     <t>ROOTINN奶茶</t>
@@ -3559,7 +3559,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4228,8 +4228,8 @@
   <sheetPr/>
   <dimension ref="A1:R162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817">
   <si>
     <t>id</t>
   </si>
@@ -357,7 +357,7 @@
     <t>48</t>
   </si>
   <si>
-    <t>48/Glass</t>
+    <t>48/杯</t>
   </si>
   <si>
     <t>alcoholic drink</t>
@@ -468,7 +468,7 @@
     <t>55</t>
   </si>
   <si>
-    <t>55/Glass</t>
+    <t>55/杯</t>
   </si>
   <si>
     <t>7</t>
@@ -483,7 +483,7 @@
     <t>268</t>
   </si>
   <si>
-    <t>268/Bottle</t>
+    <t>268/瓶</t>
   </si>
   <si>
     <t>8</t>
@@ -498,7 +498,7 @@
     <t>458</t>
   </si>
   <si>
-    <t>458/Bottle</t>
+    <t>458/瓶</t>
   </si>
   <si>
     <t>9</t>
@@ -513,7 +513,7 @@
     <t>698</t>
   </si>
   <si>
-    <t>698/Bottle</t>
+    <t>698/瓶</t>
   </si>
   <si>
     <t>Camarero</t>
@@ -537,7 +537,7 @@
     <t>588</t>
   </si>
   <si>
-    <t>588/Bottle</t>
+    <t>588/瓶</t>
   </si>
   <si>
     <t>Meravigliose</t>
@@ -549,7 +549,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>50/Glass</t>
+    <t>50/杯</t>
   </si>
   <si>
     <t>Truffle hunter leda</t>
@@ -561,7 +561,7 @@
     <t>258</t>
   </si>
   <si>
-    <t>258/Bottle</t>
+    <t>258/瓶</t>
   </si>
   <si>
     <t>Perrier-Jouet</t>
@@ -573,7 +573,7 @@
     <t>1180</t>
   </si>
   <si>
-    <t>1180/Bottle</t>
+    <t>1180/瓶</t>
   </si>
   <si>
     <t xml:space="preserve">Armand de brignac ace of spades gold brut </t>
@@ -585,7 +585,7 @@
     <t>5680</t>
   </si>
   <si>
-    <t>5680/Bottle</t>
+    <t>5680/瓶</t>
   </si>
   <si>
     <t>17</t>
@@ -600,7 +600,7 @@
     <t>6480</t>
   </si>
   <si>
-    <t>6480/Bottle</t>
+    <t>6480/瓶</t>
   </si>
   <si>
     <t>18</t>
@@ -612,7 +612,7 @@
     <t>杰克丹尼</t>
   </si>
   <si>
-    <t>70/Glass+860/Bottle</t>
+    <t>70/杯+860/瓶</t>
   </si>
   <si>
     <t>19</t>
@@ -624,7 +624,7 @@
     <t>美格波本</t>
   </si>
   <si>
-    <t>85/Glass+960/Bottle</t>
+    <t>85/杯+960/瓶</t>
   </si>
   <si>
     <t>Four Roses</t>
@@ -639,7 +639,7 @@
     <t>水牛足迹</t>
   </si>
   <si>
-    <t>80/Glass+1080/Bottle</t>
+    <t>80/杯+1080/瓶</t>
   </si>
   <si>
     <t>Rittenhouse Straight Rye Whiskey</t>
@@ -648,7 +648,7 @@
     <t>瑞顿黑麦</t>
   </si>
   <si>
-    <t>90/Glass+1180/Bottle</t>
+    <t>90/杯+1180/瓶</t>
   </si>
   <si>
     <t>Blanton's reserve Whiskey</t>
@@ -657,7 +657,7 @@
     <t>波兰顿单桶（绿标）</t>
   </si>
   <si>
-    <t>1080/Bottle</t>
+    <t>1080/瓶</t>
   </si>
   <si>
     <t>Blanton's The Original Single Barrel Kentucky Straight Bourbon Whiskey</t>
@@ -666,7 +666,7 @@
     <t>波兰顿单桶（黄标）</t>
   </si>
   <si>
-    <t>1100/Bottle</t>
+    <t>1100/瓶</t>
   </si>
   <si>
     <t>Eagle Rare Single Barrel 10Y</t>
@@ -705,7 +705,7 @@
     <t>诺不溪9年</t>
   </si>
   <si>
-    <t>880/Bottle</t>
+    <t>880/瓶</t>
   </si>
   <si>
     <t>29</t>
@@ -717,7 +717,7 @@
     <t>诺恩小溪肯塔基</t>
   </si>
   <si>
-    <t>1280/Bottle</t>
+    <t>1280/瓶</t>
   </si>
   <si>
     <t>30</t>
@@ -732,7 +732,7 @@
     <t>15+152</t>
   </si>
   <si>
-    <t>85/Glass+880/Bottle</t>
+    <t>85/杯+880/瓶</t>
   </si>
   <si>
     <t>Johnnie Walker Gold Label</t>
@@ -741,7 +741,7 @@
     <t>金方</t>
   </si>
   <si>
-    <t>90/Glass+1100/Bottle</t>
+    <t>90/杯+1100/瓶</t>
   </si>
   <si>
     <t>Johnnie Walker Blue Label</t>
@@ -750,7 +750,7 @@
     <t>蓝方</t>
   </si>
   <si>
-    <t>2650/Bottle</t>
+    <t>2650/瓶</t>
   </si>
   <si>
     <t>Ballantine`s 12Y</t>
@@ -759,7 +759,7 @@
     <t>百龄坛12年</t>
   </si>
   <si>
-    <t>50/Glass+880/Bottle</t>
+    <t>50/杯+880/瓶</t>
   </si>
   <si>
     <t>Ballantine`s 15Y</t>
@@ -768,7 +768,7 @@
     <t>百龄坛15年</t>
   </si>
   <si>
-    <t>65/Glass+1050/Bottle</t>
+    <t>65/杯+1050/瓶</t>
   </si>
   <si>
     <t>35</t>
@@ -780,7 +780,7 @@
     <t>芝华士12年</t>
   </si>
   <si>
-    <t>80/Glass+880/Bottle</t>
+    <t>80/杯+880/瓶</t>
   </si>
   <si>
     <t>36</t>
@@ -792,7 +792,7 @@
     <t>芝华士18年</t>
   </si>
   <si>
-    <t>110/Glass+1700/Bottle</t>
+    <t>110/杯+1700/瓶</t>
   </si>
   <si>
     <t>37</t>
@@ -813,7 +813,7 @@
     <t>三得利.季</t>
   </si>
   <si>
-    <t>100/Glass+1400/Bottle</t>
+    <t>100/杯+1400/瓶</t>
   </si>
   <si>
     <t>39</t>
@@ -825,7 +825,7 @@
     <t>一甲武士</t>
   </si>
   <si>
-    <t>120/Glass+1800/Bottle</t>
+    <t>120/杯+1800/瓶</t>
   </si>
   <si>
     <t>40</t>
@@ -837,7 +837,7 @@
     <t>富士山麓.樽熟50度</t>
   </si>
   <si>
-    <t>90/Glass+1080/Bottle</t>
+    <t>90/杯+1080/瓶</t>
   </si>
   <si>
     <t>41</t>
@@ -849,7 +849,7 @@
     <t>竹鹤（纯麦）</t>
   </si>
   <si>
-    <t>120/Glass+1550/Bottle</t>
+    <t>120/杯+1550/瓶</t>
   </si>
   <si>
     <t>42</t>
@@ -861,7 +861,7 @@
     <t>仓吉8年</t>
   </si>
   <si>
-    <t>120/Glass+2050/Bottle</t>
+    <t>120/杯+2050/瓶</t>
   </si>
   <si>
     <t>43</t>
@@ -873,7 +873,7 @@
     <t>仓吉12年</t>
   </si>
   <si>
-    <t>180/Glass+2850/Bottle</t>
+    <t>180/杯+2850/瓶</t>
   </si>
   <si>
     <t>44</t>
@@ -885,7 +885,7 @@
     <t>岩井.黑牌</t>
   </si>
   <si>
-    <t>90/Glass+900/Bottle</t>
+    <t>90/杯+900/瓶</t>
   </si>
   <si>
     <t>45</t>
@@ -897,7 +897,7 @@
     <t>知多</t>
   </si>
   <si>
-    <t>100/Glass+1650/Bottle</t>
+    <t>100/杯+1650/瓶</t>
   </si>
   <si>
     <t>46</t>
@@ -909,7 +909,7 @@
     <t>宫城峡</t>
   </si>
   <si>
-    <t>140/Glass+2350/Bottle</t>
+    <t>140/杯+2350/瓶</t>
   </si>
   <si>
     <t>47</t>
@@ -921,7 +921,7 @@
     <t>山崎.1923</t>
   </si>
   <si>
-    <t>120/Glass+2180/Bottle</t>
+    <t>120/杯+2180/瓶</t>
   </si>
   <si>
     <t> Yamazaki 12Y</t>
@@ -930,7 +930,7 @@
     <t>山崎.12</t>
   </si>
   <si>
-    <t>240/Glass+4980/Bottle</t>
+    <t>240/杯+4980/瓶</t>
   </si>
   <si>
     <t>49</t>
@@ -942,7 +942,7 @@
     <t>山崎.18</t>
   </si>
   <si>
-    <t>17800/Bottle</t>
+    <t>17800/瓶</t>
   </si>
   <si>
     <t>Hakushu 1973</t>
@@ -951,7 +951,7 @@
     <t>白州.1973</t>
   </si>
   <si>
-    <t>100/Glass+2080/Bottle</t>
+    <t>100/杯+2080/瓶</t>
   </si>
   <si>
     <t>51</t>
@@ -963,7 +963,7 @@
     <t>白州.12</t>
   </si>
   <si>
-    <t>240/Glass+4880/Bottle</t>
+    <t>240/杯+4880/瓶</t>
   </si>
   <si>
     <t>52</t>
@@ -984,7 +984,7 @@
     <t>响.和风雅韵</t>
   </si>
   <si>
-    <t>110/Glass+2180/Bottle</t>
+    <t>110/杯+2180/瓶</t>
   </si>
   <si>
     <t>54</t>
@@ -996,7 +996,7 @@
     <t>响.17</t>
   </si>
   <si>
-    <t>9800/Bottle</t>
+    <t>9800/瓶</t>
   </si>
   <si>
     <t>Hibiki 21Y</t>
@@ -1005,7 +1005,7 @@
     <t>响.21</t>
   </si>
   <si>
-    <t>15000/Bottle</t>
+    <t>15000/瓶</t>
   </si>
   <si>
     <t>56</t>
@@ -1026,7 +1026,7 @@
     <t>余市.15</t>
   </si>
   <si>
-    <t>11000/Bottle</t>
+    <t>11000/瓶</t>
   </si>
   <si>
     <t>58</t>
@@ -1041,7 +1041,7 @@
     <t>15+154</t>
   </si>
   <si>
-    <t>105/Glass+1080/Bottle</t>
+    <t>105/杯+1080/瓶</t>
   </si>
   <si>
     <t>59</t>
@@ -1053,7 +1053,7 @@
     <t>格兰杰.10</t>
   </si>
   <si>
-    <t>90/Glass+980/Bottle</t>
+    <t>90/杯+980/瓶</t>
   </si>
   <si>
     <t>60</t>
@@ -1065,7 +1065,7 @@
     <t>格兰杰.12（雪莉桶）</t>
   </si>
   <si>
-    <t>100/Glass+1180/Bottle</t>
+    <t>100/杯+1180/瓶</t>
   </si>
   <si>
     <t>61</t>
@@ -1077,7 +1077,7 @@
     <t>达摩.12</t>
   </si>
   <si>
-    <t>90/Glass+1280/Bottle</t>
+    <t>90/杯+1280/瓶</t>
   </si>
   <si>
     <t>62</t>
@@ -1089,7 +1089,7 @@
     <t>达摩.15</t>
   </si>
   <si>
-    <t>210/Glass+2400/Bottle</t>
+    <t>210/杯+2400/瓶</t>
   </si>
   <si>
     <t>63</t>
@@ -1101,7 +1101,7 @@
     <t>达摩.18</t>
   </si>
   <si>
-    <t>225/Glass+3880/Bottle</t>
+    <t>225/杯+3880/瓶</t>
   </si>
   <si>
     <t>64</t>
@@ -1131,7 +1131,7 @@
     <t>艾柏迪.12</t>
   </si>
   <si>
-    <t>90/Glass+880/Bottle</t>
+    <t>90/杯+880/瓶</t>
   </si>
   <si>
     <t>67</t>
@@ -1143,7 +1143,7 @@
     <t>艾柏迪.16</t>
   </si>
   <si>
-    <t>120/Glass+1480/Bottle</t>
+    <t>120/杯+1480/瓶</t>
   </si>
   <si>
     <t>68</t>
@@ -1155,7 +1155,7 @@
     <t>艾柏迪.21</t>
   </si>
   <si>
-    <t>200/Glass+3680/Bottle</t>
+    <t>200/杯+3680/瓶</t>
   </si>
   <si>
     <t>69</t>
@@ -1176,7 +1176,7 @@
     <t>福特尼.17</t>
   </si>
   <si>
-    <t>180/Glass+2380/Bottle</t>
+    <t>180/杯+2380/瓶</t>
   </si>
   <si>
     <t>71</t>
@@ -1188,7 +1188,7 @@
     <t>乐加维林.16</t>
   </si>
   <si>
-    <t>90/Glass+1380/Bottle</t>
+    <t>90/杯+1380/瓶</t>
   </si>
   <si>
     <t>72</t>
@@ -1209,7 +1209,7 @@
     <t>阿贝.乌干达</t>
   </si>
   <si>
-    <t>110/Glass+1680/Bottle</t>
+    <t>110/杯+1680/瓶</t>
   </si>
   <si>
     <t>74</t>
@@ -1239,7 +1239,7 @@
     <t>拉弗格.四分之一桶</t>
   </si>
   <si>
-    <t>100/Glass+1280/Bottle</t>
+    <t>100/杯+1280/瓶</t>
   </si>
   <si>
     <t>77</t>
@@ -1260,7 +1260,7 @@
     <t>波摩.15</t>
   </si>
   <si>
-    <t>110/Glass+1880/Bottle</t>
+    <t>110/杯+1880/瓶</t>
   </si>
   <si>
     <t>79</t>
@@ -1272,7 +1272,7 @@
     <t>波摩.18</t>
   </si>
   <si>
-    <t>150/Glass+2680/Bottle</t>
+    <t>150/杯+2680/瓶</t>
   </si>
   <si>
     <t>80</t>
@@ -1284,7 +1284,7 @@
     <t>布赫拉迪.经典</t>
   </si>
   <si>
-    <t>100/Glass+1380/Bottle</t>
+    <t>100/杯+1380/瓶</t>
   </si>
   <si>
     <t>81</t>
@@ -1296,7 +1296,7 @@
     <t>布赫拉迪.波夏10</t>
   </si>
   <si>
-    <t>100/Glass+1480/Bottle</t>
+    <t>100/杯+1480/瓶</t>
   </si>
   <si>
     <t>82</t>
@@ -1308,7 +1308,7 @@
     <t>云顶.10</t>
   </si>
   <si>
-    <t>100/Glass+1580/Bottle</t>
+    <t>100/杯+1580/瓶</t>
   </si>
   <si>
     <t>83</t>
@@ -1329,7 +1329,7 @@
     <t>朱拉.16</t>
   </si>
   <si>
-    <t>110/Glass+1380/Bottle</t>
+    <t>110/杯+1380/瓶</t>
   </si>
   <si>
     <t>85</t>
@@ -1341,7 +1341,7 @@
     <t>朱拉.预言</t>
   </si>
   <si>
-    <t>140/Glass+1580/Bottle</t>
+    <t>140/杯+1580/瓶</t>
   </si>
   <si>
     <t>86</t>
@@ -1380,7 +1380,7 @@
     <t>泰斯卡.风暴</t>
   </si>
   <si>
-    <t>90/Glass+780/Bottle</t>
+    <t>90/杯+780/瓶</t>
   </si>
   <si>
     <t>90</t>
@@ -1419,7 +1419,7 @@
     <t>麦卡伦.12雪莉桶</t>
   </si>
   <si>
-    <t>160/Glass+1780/Bottle</t>
+    <t>160/杯+1780/瓶</t>
   </si>
   <si>
     <t>94</t>
@@ -1449,7 +1449,7 @@
     <t>诗贝.12</t>
   </si>
   <si>
-    <t>130/Glass+1780/Bottle</t>
+    <t>130/杯+1780/瓶</t>
   </si>
   <si>
     <t>97</t>
@@ -1461,7 +1461,7 @@
     <t>诗贝.15</t>
   </si>
   <si>
-    <t>180/Glass+2480/Bottle</t>
+    <t>180/杯+2480/瓶</t>
   </si>
   <si>
     <t>98</t>
@@ -1491,7 +1491,7 @@
     <t>格兰花格.15</t>
   </si>
   <si>
-    <t>140/Glass+1650/Bottle</t>
+    <t>140/杯+1650/瓶</t>
   </si>
   <si>
     <t>101</t>
@@ -1503,7 +1503,7 @@
     <t>格兰花格.105</t>
   </si>
   <si>
-    <t>100/Glass+1100/Bottle</t>
+    <t>100/杯+1100/瓶</t>
   </si>
   <si>
     <t>102</t>
@@ -1533,7 +1533,7 @@
     <t>格兰威特.15</t>
   </si>
   <si>
-    <t>100/Glass+1680/Bottle</t>
+    <t>100/杯+1680/瓶</t>
   </si>
   <si>
     <t>105</t>
@@ -1554,7 +1554,7 @@
     <t>格兰菲迪.15</t>
   </si>
   <si>
-    <t>100/Glass+1080/Bottle</t>
+    <t>100/杯+1080/瓶</t>
   </si>
   <si>
     <t>107</t>
@@ -1566,7 +1566,7 @@
     <t>格兰菲迪.18</t>
   </si>
   <si>
-    <t>110/Glass+1480/Bottle</t>
+    <t>110/杯+1480/瓶</t>
   </si>
   <si>
     <t>108</t>
@@ -1578,7 +1578,7 @@
     <t>格兰菲迪.21</t>
   </si>
   <si>
-    <t>200/Glass+3480/Bottle</t>
+    <t>200/杯+3480/瓶</t>
   </si>
   <si>
     <t>109</t>
@@ -1617,7 +1617,7 @@
     <t>百富.21</t>
   </si>
   <si>
-    <t>230/Glass+3680/Bottle</t>
+    <t>230/杯+3680/瓶</t>
   </si>
   <si>
     <t>113</t>
@@ -1638,7 +1638,7 @@
     <t>朝日生啤</t>
   </si>
   <si>
-    <t>28/Bottle</t>
+    <t>28/瓶</t>
   </si>
   <si>
     <t>115</t>
@@ -1650,7 +1650,7 @@
     <t>1664玫瑰</t>
   </si>
   <si>
-    <t>35/Bottle</t>
+    <t>35/瓶</t>
   </si>
   <si>
     <t>116</t>
@@ -1662,7 +1662,7 @@
     <t>德国教士黑啤</t>
   </si>
   <si>
-    <t>30/Bottle</t>
+    <t>30/瓶</t>
   </si>
   <si>
     <t>117</t>
@@ -2229,7 +2229,7 @@
     <t>ROOTINN奶茶</t>
   </si>
   <si>
-    <t>38/Glass</t>
+    <t>38/杯</t>
   </si>
   <si>
     <t>soft drink</t>
@@ -2307,7 +2307,7 @@
     <t>热牛奶</t>
   </si>
   <si>
-    <t>20/Bottle</t>
+    <t>20/杯</t>
   </si>
   <si>
     <t>149</t>
@@ -2319,7 +2319,7 @@
     <t>热可可</t>
   </si>
   <si>
-    <t>22/Bottle</t>
+    <t>22/杯</t>
   </si>
   <si>
     <t>150</t>
@@ -2331,16 +2331,13 @@
     <t>美式</t>
   </si>
   <si>
-    <t>22/Glass</t>
-  </si>
-  <si>
     <t>Latte</t>
   </si>
   <si>
     <t>拿铁</t>
   </si>
   <si>
-    <t>30/Glass</t>
+    <t>30/杯</t>
   </si>
   <si>
     <t>Cappuccino</t>
@@ -2355,7 +2352,7 @@
     <t>意式浓缩</t>
   </si>
   <si>
-    <t>16/Bottle</t>
+    <t>16/杯</t>
   </si>
   <si>
     <t>Soda water</t>
@@ -2364,6 +2361,9 @@
     <t>苏打水</t>
   </si>
   <si>
+    <t>20/听</t>
+  </si>
+  <si>
     <t>Tonic water</t>
   </si>
   <si>
@@ -2380,6 +2380,9 @@
   </si>
   <si>
     <t>红牛碳酸型</t>
+  </si>
+  <si>
+    <t>30/听</t>
   </si>
   <si>
     <t>Kiwi Banana Mousse</t>
@@ -4335,8 +4338,8 @@
   <sheetPr/>
   <dimension ref="A1:AB165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:A165"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -11562,7 +11565,7 @@
         <v>61</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H151" s="15" t="b">
         <v>0</v>
@@ -11593,10 +11596,10 @@
         <v>30</v>
       </c>
       <c r="B152" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="C152" s="28" t="s">
         <v>772</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>773</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>82</v>
@@ -11608,7 +11611,7 @@
         <v>234</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H152" s="15" t="b">
         <v>0</v>
@@ -11639,10 +11642,10 @@
         <v>33</v>
       </c>
       <c r="B153" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="C153" s="28" t="s">
         <v>775</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>776</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>82</v>
@@ -11654,7 +11657,7 @@
         <v>234</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>548</v>
+        <v>773</v>
       </c>
       <c r="H153" s="23" t="b">
         <v>0</v>
@@ -11685,10 +11688,10 @@
         <v>36</v>
       </c>
       <c r="B154" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="C154" s="28" t="s">
         <v>777</v>
-      </c>
-      <c r="C154" s="28" t="s">
-        <v>778</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>82</v>
@@ -11700,7 +11703,7 @@
         <v>52</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H154" s="23" t="b">
         <v>0</v>
@@ -11731,10 +11734,10 @@
         <v>39</v>
       </c>
       <c r="B155" s="28" t="s">
+        <v>779</v>
+      </c>
+      <c r="C155" s="28" t="s">
         <v>780</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>781</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>85</v>
@@ -11746,7 +11749,7 @@
         <v>133</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>548</v>
+        <v>781</v>
       </c>
       <c r="H155" s="23" t="b">
         <v>0</v>
@@ -11792,7 +11795,7 @@
         <v>133</v>
       </c>
       <c r="G156" s="28" t="s">
-        <v>548</v>
+        <v>781</v>
       </c>
       <c r="H156" s="23" t="b">
         <v>0</v>
@@ -11838,7 +11841,7 @@
         <v>133</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>548</v>
+        <v>781</v>
       </c>
       <c r="H157" s="23" t="b">
         <v>0</v>
@@ -11884,7 +11887,7 @@
         <v>234</v>
       </c>
       <c r="G158" s="28" t="s">
-        <v>548</v>
+        <v>788</v>
       </c>
       <c r="H158" s="23" t="b">
         <v>0</v>
@@ -11915,10 +11918,10 @@
         <v>562</v>
       </c>
       <c r="B159" s="24" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>92</v>
@@ -11939,10 +11942,10 @@
         <v>1</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L159" s="34"/>
       <c r="M159" s="8"/>
@@ -11960,13 +11963,13 @@
     </row>
     <row r="160" customFormat="1" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B160" s="24" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>92</v>
@@ -11987,10 +11990,10 @@
         <v>1</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L160" s="34"/>
       <c r="M160" s="8"/>
@@ -12008,13 +12011,13 @@
     </row>
     <row r="161" customFormat="1" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>92</v>
@@ -12035,10 +12038,10 @@
         <v>1</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L161" s="34"/>
       <c r="M161" s="8"/>
@@ -12056,13 +12059,13 @@
     </row>
     <row r="162" customFormat="1" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>92</v>
@@ -12083,10 +12086,10 @@
         <v>0</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L162" s="34"/>
       <c r="M162" s="8"/>
@@ -12104,13 +12107,13 @@
     </row>
     <row r="163" customFormat="1" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B163" s="24" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>92</v>
@@ -12131,10 +12134,10 @@
         <v>0</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
@@ -12152,13 +12155,13 @@
     </row>
     <row r="164" customFormat="1" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>92</v>
@@ -12179,10 +12182,10 @@
         <v>0</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
@@ -12200,13 +12203,13 @@
     </row>
     <row r="165" customFormat="1" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>92</v>
@@ -12227,10 +12230,10 @@
         <v>0</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="L165" s="8"/>
       <c r="M165" s="37"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -714,6 +714,90 @@
     <t>19</t>
   </si>
   <si>
+    <t>Strawberry Mojito</t>
+  </si>
+  <si>
+    <t>草莓莫吉托</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>78/杯</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Strawberry_mojito.png</t>
+  </si>
+  <si>
+    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
+  </si>
+  <si>
+    <t>朗姆/青柠汁/莫林草莓糖浆</t>
+  </si>
+  <si>
+    <t>Espresso martini</t>
+  </si>
+  <si>
+    <t>咖啡马提尼</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Espresso_martini.png</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
+  </si>
+  <si>
+    <t>Pinky Point</t>
+  </si>
+  <si>
+    <t>粉点</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Pinky_point.png</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
+  </si>
+  <si>
+    <t>Three Passions</t>
+  </si>
+  <si>
+    <t>激情</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Three_passions.png</t>
+  </si>
+  <si>
+    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
+  </si>
+  <si>
+    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
+  </si>
+  <si>
+    <t>Hightball</t>
+  </si>
+  <si>
+    <t>威士忌苏打</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Hightball.png</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Suntory kaku/Soda</t>
+  </si>
+  <si>
+    <t>三得利卡库/苏打水</t>
+  </si>
+  <si>
     <t>Martini</t>
   </si>
   <si>
@@ -747,24 +831,24 @@
     <t>金酒/味美思/金巴利</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>Gin&amp;Tonic</t>
   </si>
   <si>
     <t>金汤力</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>78/杯</t>
-  </si>
-  <si>
     <t>Gin/Tonic water</t>
   </si>
   <si>
     <t>金酒/汤力水</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>Singapore sling</t>
   </si>
   <si>
@@ -777,6 +861,9 @@
     <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>Gimlet</t>
   </si>
   <si>
@@ -789,15 +876,15 @@
     <t>金酒/青柠汁</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>Vesper</t>
   </si>
   <si>
     <t>薄暮</t>
   </si>
   <si>
-    <t>Pure</t>
-  </si>
-  <si>
     <t>Gin/Vodka/Lillrt blanc</t>
   </si>
   <si>
@@ -816,9 +903,6 @@
     <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>Mojito</t>
   </si>
   <si>
@@ -837,9 +921,6 @@
     <t>朗姆酒/青柠汁/苏打水</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Daiquiri</t>
   </si>
   <si>
@@ -852,9 +933,6 @@
     <t>朗姆酒/青柠汁</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>Zombie</t>
   </si>
   <si>
@@ -876,9 +954,6 @@
     <t>50</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Old fashioned</t>
   </si>
   <si>
@@ -903,6 +978,9 @@
     <t>美格威士忌/柠檬汁/安歌苦酒</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>God father</t>
   </si>
   <si>
@@ -915,6 +993,9 @@
     <t>泰斯卡10年/黑方/帝萨诺利口酒</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>Cosmopolitan</t>
   </si>
   <si>
@@ -927,6 +1008,9 @@
     <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>Long island ice tea</t>
   </si>
   <si>
@@ -939,6 +1023,9 @@
     <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>Moscow mule</t>
   </si>
   <si>
@@ -966,7 +1053,7 @@
     <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
   </si>
   <si>
-    <t>36</t>
+    <t>41</t>
   </si>
   <si>
     <t>Jack rose</t>
@@ -981,7 +1068,7 @@
     <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
   </si>
   <si>
-    <t>37</t>
+    <t>42</t>
   </si>
   <si>
     <t>Side car</t>
@@ -994,93 +1081,6 @@
   </si>
   <si>
     <t>白兰地/君度/柠檬汁</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Strawberry Mojito</t>
-  </si>
-  <si>
-    <t>草莓莫吉托</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Strawberry_mojito.png</t>
-  </si>
-  <si>
-    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
-  </si>
-  <si>
-    <t>朗姆/青柠汁/莫林草莓糖浆</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Espresso martini</t>
-  </si>
-  <si>
-    <t>咖啡马提尼</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Espresso_martini.png</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
-  </si>
-  <si>
-    <t>Pinky Point</t>
-  </si>
-  <si>
-    <t>粉点</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Pinky_point.png</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Three Passions</t>
-  </si>
-  <si>
-    <t>激情</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Three_passions.png</t>
-  </si>
-  <si>
-    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
-  </si>
-  <si>
-    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Hightball</t>
-  </si>
-  <si>
-    <t>威士忌苏打</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Hightball.png</t>
-  </si>
-  <si>
-    <t>Suntory kaku/Soda</t>
-  </si>
-  <si>
-    <t>三得利卡库/苏打水</t>
   </si>
   <si>
     <t>43</t>
@@ -4583,7 +4583,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C27" sqref="A1:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5322,8 +5322,8 @@
   <sheetPr/>
   <dimension ref="A1:AB220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6366,263 +6366,273 @@
       </c>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="20" customFormat="1" customHeight="1" spans="1:18">
       <c r="A20" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="13" t="s">
         <v>233</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>234</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="H20" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="N20" s="28" t="s">
+      <c r="L20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q20" s="19" t="s">
+      <c r="N20" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q20" s="21" t="s">
         <v>167</v>
       </c>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="21" customFormat="1" customHeight="1" spans="1:18">
       <c r="A21" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>239</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>129</v>
+      <c r="E21" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="M21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="L21" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q21" s="19" t="b">
-        <v>1</v>
+      <c r="N21" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="22" customFormat="1" customHeight="1" spans="1:18">
       <c r="A22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>244</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>245</v>
+      <c r="E22" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="G22" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="H22" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="L22" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22" s="19" t="b">
-        <v>1</v>
+      <c r="O22" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="23" customFormat="1" customHeight="1" spans="1:18">
       <c r="A23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="13" t="s">
         <v>250</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>129</v>
+      <c r="E23" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="M23" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="N23" s="28" t="s">
+      <c r="L23" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="O23" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="19" t="b">
-        <v>1</v>
+      <c r="N23" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="24" customFormat="1" customHeight="1" spans="1:18">
       <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>254</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>245</v>
+      <c r="E24" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="N24" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="O24" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q24" s="19" t="b">
-        <v>1</v>
+      <c r="L24" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="R24" s="7"/>
     </row>
@@ -6631,10 +6641,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>20</v>
@@ -6643,10 +6653,10 @@
         <v>117</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="H25" s="19" t="b">
         <v>0</v>
@@ -6659,19 +6669,19 @@
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="11" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N25" s="28" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O25" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="P25" s="12">
-        <v>35</v>
+      <c r="P25" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="Q25" s="19" t="s">
         <v>167</v>
@@ -6683,10 +6693,10 @@
         <v>126</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>20</v>
@@ -6695,10 +6705,10 @@
         <v>117</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="H26" s="19" t="b">
         <v>0</v>
@@ -6711,19 +6721,19 @@
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="11" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O26" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="19" t="b">
         <v>1</v>
@@ -6732,13 +6742,13 @@
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A27" s="8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>20</v>
@@ -6747,10 +6757,10 @@
         <v>117</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="H27" s="19" t="b">
         <v>0</v>
@@ -6763,13 +6773,13 @@
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="11" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>125</v>
@@ -6784,13 +6794,13 @@
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A28" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>20</v>
@@ -6799,10 +6809,10 @@
         <v>117</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="H28" s="19" t="b">
         <v>0</v>
@@ -6818,10 +6828,10 @@
         <v>138</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>125</v>
@@ -6836,13 +6846,13 @@
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A29" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>20</v>
@@ -6851,10 +6861,10 @@
         <v>117</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="H29" s="19" t="b">
         <v>0</v>
@@ -6870,16 +6880,16 @@
         <v>193</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O29" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="19" t="b">
         <v>1</v>
@@ -6919,7 +6929,7 @@
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="11" t="s">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>289</v>
@@ -6930,11 +6940,11 @@
       <c r="O30" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="P30" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q30" s="19" t="b">
-        <v>1</v>
+      <c r="P30" s="12">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="R30" s="7"/>
     </row>
@@ -6955,10 +6965,10 @@
         <v>117</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="H31" s="19" t="b">
         <v>0</v>
@@ -6971,7 +6981,7 @@
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="11" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>293</v>
@@ -7007,10 +7017,10 @@
         <v>117</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="H32" s="19" t="b">
         <v>0</v>
@@ -7023,19 +7033,19 @@
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="11" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O32" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="Q32" s="19" t="b">
         <v>1</v>
@@ -7047,10 +7057,10 @@
         <v>82</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>20</v>
@@ -7078,19 +7088,19 @@
         <v>138</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O33" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>167</v>
+        <v>126</v>
+      </c>
+      <c r="Q33" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="R33" s="7"/>
     </row>
@@ -7099,10 +7109,10 @@
         <v>85</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>20</v>
@@ -7111,10 +7121,10 @@
         <v>117</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>129</v>
+        <v>307</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>119</v>
+        <v>308</v>
       </c>
       <c r="H34" s="19" t="b">
         <v>0</v>
@@ -7127,19 +7137,19 @@
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="11" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O34" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c r="Q34" s="19" t="b">
         <v>1</v>
@@ -7151,10 +7161,10 @@
         <v>88</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>20</v>
@@ -7163,10 +7173,10 @@
         <v>117</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="H35" s="19" t="b">
         <v>0</v>
@@ -7179,19 +7189,19 @@
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="11" t="s">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O35" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="Q35" s="19" t="b">
         <v>1</v>
@@ -7203,10 +7213,10 @@
         <v>91</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>20</v>
@@ -7231,19 +7241,19 @@
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="11" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O36" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="Q36" s="19" t="b">
         <v>1</v>
@@ -7252,13 +7262,13 @@
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A37" s="8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>20</v>
@@ -7267,7 +7277,7 @@
         <v>117</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>119</v>
@@ -7283,13 +7293,13 @@
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N37" s="28" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O37" s="12" t="s">
         <v>125</v>
@@ -7297,20 +7307,20 @@
       <c r="P37" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="Q37" s="19" t="s">
-        <v>167</v>
+      <c r="Q37" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="R37" s="7"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A38" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>20</v>
@@ -7319,10 +7329,10 @@
         <v>117</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="H38" s="19" t="b">
         <v>0</v>
@@ -7338,288 +7348,278 @@
         <v>138</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O38" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="Q38" s="19" t="s">
         <v>167</v>
       </c>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" customFormat="1" customHeight="1" spans="1:18">
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A39" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>332</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>245</v>
+      <c r="E39" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H39" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="L39" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="M39" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="N39" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P39" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q39" s="21" t="s">
-        <v>167</v>
+      <c r="M39" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q39" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" customFormat="1" customHeight="1" spans="1:18">
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>245</v>
+      <c r="E40" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H40" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="L40" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="M40" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="N40" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="O40" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P40" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q40" s="21" t="s">
-        <v>167</v>
+        <v>263</v>
+      </c>
+      <c r="H40" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" customFormat="1" customHeight="1" spans="1:18">
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A41" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>339</v>
+      <c r="B41" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>245</v>
+      <c r="E41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H41" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="L41" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="M41" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="N41" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="O41" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P41" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q41" s="21" t="s">
-        <v>167</v>
+        <v>119</v>
+      </c>
+      <c r="H41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q41" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" customFormat="1" customHeight="1" spans="1:18">
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C42" s="13" t="s">
         <v>345</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>245</v>
+      <c r="E42" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H42" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="L42" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="M42" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="N42" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="O42" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P42" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q42" s="21" t="s">
+      <c r="N42" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q42" s="19" t="s">
         <v>167</v>
       </c>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" customFormat="1" customHeight="1" spans="1:18">
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B43" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>351</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>352</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>245</v>
+      <c r="E43" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H43" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K43" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="L43" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="M43" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="H43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="N43" s="30" t="s">
+      <c r="N43" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="O43" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P43" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q43" s="21" t="s">
+      <c r="O43" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q43" s="19" t="s">
         <v>167</v>
       </c>
       <c r="R43" s="7"/>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="51" customFormat="1" customHeight="1" spans="1:18">
       <c r="A51" s="8" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>382</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A71" s="8" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>458</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="79" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A79" s="8" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>486</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A81" s="8" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>493</v>
@@ -9788,7 +9788,7 @@
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A91" s="8" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>531</v>
@@ -14535,7 +14535,7 @@
         <v>117</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G192" s="7" t="s">
         <v>933</v>
@@ -14859,7 +14859,7 @@
         <v>117</v>
       </c>
       <c r="F198" s="46" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G198" s="46" t="s">
         <v>973</v>
@@ -15189,7 +15189,7 @@
         <v>117</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G204" s="12" t="s">
         <v>1013</v>
@@ -15347,7 +15347,7 @@
         <v>117</v>
       </c>
       <c r="F207" s="20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G207" s="12" t="s">
         <v>1033</v>
@@ -15503,7 +15503,7 @@
         <v>117</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G210" s="7" t="s">
         <v>1013</v>
@@ -15555,7 +15555,7 @@
         <v>117</v>
       </c>
       <c r="F211" s="46" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G211" s="7" t="s">
         <v>933</v>
@@ -15607,7 +15607,7 @@
         <v>117</v>
       </c>
       <c r="F212" s="46" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G212" s="7" t="s">
         <v>933</v>
@@ -15711,7 +15711,7 @@
         <v>117</v>
       </c>
       <c r="F214" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>1013</v>
@@ -15759,7 +15759,7 @@
         <v>117</v>
       </c>
       <c r="F215" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>1013</v>
@@ -15807,7 +15807,7 @@
         <v>117</v>
       </c>
       <c r="F216" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>1013</v>
@@ -15855,7 +15855,7 @@
         <v>117</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>1013</v>
@@ -15903,7 +15903,7 @@
         <v>117</v>
       </c>
       <c r="F218" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>1013</v>
@@ -15951,7 +15951,7 @@
         <v>117</v>
       </c>
       <c r="F219" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>1013</v>
@@ -15999,7 +15999,7 @@
         <v>117</v>
       </c>
       <c r="F220" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>1013</v>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -4583,7 +4583,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C27" sqref="A1:I30"/>
+      <selection activeCell="C28" sqref="A1:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5322,8 +5322,8 @@
   <sheetPr/>
   <dimension ref="A1:AB220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6377,7 +6377,7 @@
         <v>233</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>117</v>
@@ -6431,7 +6431,7 @@
         <v>240</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>117</v>
@@ -6485,7 +6485,7 @@
         <v>245</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>117</v>
@@ -6539,7 +6539,7 @@
         <v>250</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>117</v>
@@ -6593,7 +6593,7 @@
         <v>255</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>117</v>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109">
   <si>
     <t>id</t>
   </si>
@@ -399,7 +399,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>Tell you a secre</t>
+    <t>Tell you a secret</t>
   </si>
   <si>
     <t>告诉你个秘密</t>
@@ -780,6 +780,294 @@
     <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
   </si>
   <si>
+    <t>Martini</t>
+  </si>
+  <si>
+    <t>马提尼</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80/杯</t>
+  </si>
+  <si>
+    <t>Gin/Dolin dry</t>
+  </si>
+  <si>
+    <t>金酒/杜林干</t>
+  </si>
+  <si>
+    <t>Negroni</t>
+  </si>
+  <si>
+    <t>尼格罗尼</t>
+  </si>
+  <si>
+    <t>Sweet+Bitter+Spicy</t>
+  </si>
+  <si>
+    <t>Gin/Vermoth/Campari</t>
+  </si>
+  <si>
+    <t>金酒/味美思/金巴利</t>
+  </si>
+  <si>
+    <t>Gin&amp;Tonic</t>
+  </si>
+  <si>
+    <t>金汤力</t>
+  </si>
+  <si>
+    <t>Gin/Tonic water</t>
+  </si>
+  <si>
+    <t>金酒/汤力水</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Singapore sling</t>
+  </si>
+  <si>
+    <t>新加坡司令</t>
+  </si>
+  <si>
+    <t>Gin/Cointreau/Gienadine syrup /Cherry liqueur/D.O.M /Pineapple juice/Angoutura bitter/Lemon juice</t>
+  </si>
+  <si>
+    <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Gimlet</t>
+  </si>
+  <si>
+    <t>琴姆勒</t>
+  </si>
+  <si>
+    <t>Gin/Lime juice</t>
+  </si>
+  <si>
+    <t>金酒/青柠汁</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Vesper</t>
+  </si>
+  <si>
+    <t>薄暮</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Gin/Vodka/Lillrt blanc</t>
+  </si>
+  <si>
+    <t>金酒/伏特加/利莱白</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Clover club</t>
+  </si>
+  <si>
+    <t>三叶草俱乐部</t>
+  </si>
+  <si>
+    <t>Gin/Lemon juice/Raspberry Syrup/Vermouth/Egg white</t>
+  </si>
+  <si>
+    <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
+  </si>
+  <si>
+    <t>Mojito</t>
+  </si>
+  <si>
+    <t>莫吉托</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70/杯</t>
+  </si>
+  <si>
+    <t>Rum/Lime juice/Soda</t>
+  </si>
+  <si>
+    <t>朗姆酒/青柠汁/苏打水</t>
+  </si>
+  <si>
+    <t>Daiquiri</t>
+  </si>
+  <si>
+    <t>戴其力</t>
+  </si>
+  <si>
+    <t>Rum/Limejuice</t>
+  </si>
+  <si>
+    <t>朗姆酒/青柠汁</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>90/杯</t>
+  </si>
+  <si>
+    <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
+  </si>
+  <si>
+    <t>百加得白朗姆/百加得金朗姆/古贝塔151/柠檬汁/安歌苦酒</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Old fashioned</t>
+  </si>
+  <si>
+    <t>古典</t>
+  </si>
+  <si>
+    <t>Maker’s mark  Whiskey/Rittenhouse rye /Angostura bitters/Orange bitters</t>
+  </si>
+  <si>
+    <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
+  </si>
+  <si>
+    <t>Whiskey sour</t>
+  </si>
+  <si>
+    <t>威士忌酸</t>
+  </si>
+  <si>
+    <t>Maker’s mark  Whiskey/lemon juice/Angostura bitters</t>
+  </si>
+  <si>
+    <t>美格威士忌/柠檬汁/安歌苦酒</t>
+  </si>
+  <si>
+    <t>God father</t>
+  </si>
+  <si>
+    <t>教父</t>
+  </si>
+  <si>
+    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
+  </si>
+  <si>
+    <t>泰斯卡10年/黑方/帝萨诺利口酒</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Cosmopolitan</t>
+  </si>
+  <si>
+    <t>大都会</t>
+  </si>
+  <si>
+    <t>Vodka/Cointreau/Cranberry juice/Lemon juice</t>
+  </si>
+  <si>
+    <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Long island ice tea</t>
+  </si>
+  <si>
+    <t>长岛冰茶</t>
+  </si>
+  <si>
+    <t>Vodka/White Rum/Gin/Tequila/Cointreau/Lemon juice/Cola</t>
+  </si>
+  <si>
+    <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Moscow mule</t>
+  </si>
+  <si>
+    <t>莫斯科骡子</t>
+  </si>
+  <si>
+    <t>Sweet+Sour+Spicy</t>
+  </si>
+  <si>
+    <t>Stolichnaya Vodka/Fresh ginger juice/Lime juice/Ginger ale</t>
+  </si>
+  <si>
+    <t>红牌伏特加/新鲜姜汁/青柠汁/姜啤</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Rosite</t>
+  </si>
+  <si>
+    <t>萝西塔</t>
+  </si>
+  <si>
+    <t>Olmeca silver Tequila/Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
+  </si>
+  <si>
+    <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
+  </si>
+  <si>
+    <t>Jack rose</t>
+  </si>
+  <si>
+    <t>杰克玫瑰</t>
+  </si>
+  <si>
+    <t>Calvados/Lemon juice/Molin grenadine syrup/Angostura bitters</t>
+  </si>
+  <si>
+    <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Side car</t>
+  </si>
+  <si>
+    <t>边车</t>
+  </si>
+  <si>
+    <t>Brandy/Cointreau/lemon juice</t>
+  </si>
+  <si>
+    <t>白兰地/君度/柠檬汁</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>Hightball</t>
   </si>
   <si>
@@ -789,300 +1077,12 @@
     <t>images/product/cocktail/Hightball.png</t>
   </si>
   <si>
-    <t>Pure</t>
-  </si>
-  <si>
     <t>Suntory kaku/Soda</t>
   </si>
   <si>
     <t>三得利卡库/苏打水</t>
   </si>
   <si>
-    <t>Martini</t>
-  </si>
-  <si>
-    <t>马提尼</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>80/杯</t>
-  </si>
-  <si>
-    <t>Gin/Dolin dry</t>
-  </si>
-  <si>
-    <t>金酒/杜林干</t>
-  </si>
-  <si>
-    <t>Negroni</t>
-  </si>
-  <si>
-    <t>尼格罗尼</t>
-  </si>
-  <si>
-    <t>Sweet+Bitter+Spicy</t>
-  </si>
-  <si>
-    <t>Gin/Vermoth/Campari</t>
-  </si>
-  <si>
-    <t>金酒/味美思/金巴利</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Gin&amp;Tonic</t>
-  </si>
-  <si>
-    <t>金汤力</t>
-  </si>
-  <si>
-    <t>Gin/Tonic water</t>
-  </si>
-  <si>
-    <t>金酒/汤力水</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Singapore sling</t>
-  </si>
-  <si>
-    <t>新加坡司令</t>
-  </si>
-  <si>
-    <t>Gin/Cointreau/Gienadine syrup /Cherry liqueur/D.O.M /Pineapple juice/Angoutura bitter/Lemon juice</t>
-  </si>
-  <si>
-    <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Gimlet</t>
-  </si>
-  <si>
-    <t>琴姆勒</t>
-  </si>
-  <si>
-    <t>Gin/Lime juice</t>
-  </si>
-  <si>
-    <t>金酒/青柠汁</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Vesper</t>
-  </si>
-  <si>
-    <t>薄暮</t>
-  </si>
-  <si>
-    <t>Gin/Vodka/Lillrt blanc</t>
-  </si>
-  <si>
-    <t>金酒/伏特加/利莱白</t>
-  </si>
-  <si>
-    <t>Clover club</t>
-  </si>
-  <si>
-    <t>三叶草俱乐部</t>
-  </si>
-  <si>
-    <t>Gin/Lemon juice/Raspberry Syrup/Vermouth/Egg white</t>
-  </si>
-  <si>
-    <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
-  </si>
-  <si>
-    <t>Mojito</t>
-  </si>
-  <si>
-    <t>莫吉托</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>70/杯</t>
-  </si>
-  <si>
-    <t>Rum/Lime juice/Soda</t>
-  </si>
-  <si>
-    <t>朗姆酒/青柠汁/苏打水</t>
-  </si>
-  <si>
-    <t>Daiquiri</t>
-  </si>
-  <si>
-    <t>戴其力</t>
-  </si>
-  <si>
-    <t>Rum/Limejuice</t>
-  </si>
-  <si>
-    <t>朗姆酒/青柠汁</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>90/杯</t>
-  </si>
-  <si>
-    <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
-  </si>
-  <si>
-    <t>百加得白朗姆/百加得金朗姆/古贝塔151/柠檬汁/安歌苦酒</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Old fashioned</t>
-  </si>
-  <si>
-    <t>古典</t>
-  </si>
-  <si>
-    <t>Maker’s mark  Whiskey/Rittenhouse rye /Angostura bitters/Orange bitters</t>
-  </si>
-  <si>
-    <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
-  </si>
-  <si>
-    <t>Whiskey sour</t>
-  </si>
-  <si>
-    <t>威士忌酸</t>
-  </si>
-  <si>
-    <t>Maker’s mark  Whiskey/lemon juice/Angostura bitters</t>
-  </si>
-  <si>
-    <t>美格威士忌/柠檬汁/安歌苦酒</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>God father</t>
-  </si>
-  <si>
-    <t>教父</t>
-  </si>
-  <si>
-    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
-  </si>
-  <si>
-    <t>泰斯卡10年/黑方/帝萨诺利口酒</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Cosmopolitan</t>
-  </si>
-  <si>
-    <t>大都会</t>
-  </si>
-  <si>
-    <t>Vodka/Cointreau/Cranberry juice/Lemon juice</t>
-  </si>
-  <si>
-    <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Long island ice tea</t>
-  </si>
-  <si>
-    <t>长岛冰茶</t>
-  </si>
-  <si>
-    <t>Vodka/White Rum/Gin/Tequila/Cointreau/Lemon juice/Cola</t>
-  </si>
-  <si>
-    <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Moscow mule</t>
-  </si>
-  <si>
-    <t>莫斯科骡子</t>
-  </si>
-  <si>
-    <t>Sweet+Sour+Spicy</t>
-  </si>
-  <si>
-    <t>Stolichnaya Vodka/Fresh ginger juice/Lime juice/Ginger ale</t>
-  </si>
-  <si>
-    <t>红牌伏特加/新鲜姜汁/青柠汁/姜啤</t>
-  </si>
-  <si>
-    <t>Rosite</t>
-  </si>
-  <si>
-    <t>萝西塔</t>
-  </si>
-  <si>
-    <t>Olmeca silver Tequila/Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
-  </si>
-  <si>
-    <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Jack rose</t>
-  </si>
-  <si>
-    <t>杰克玫瑰</t>
-  </si>
-  <si>
-    <t>Calvados/Lemon juice/Molin grenadine syrup/Angostura bitters</t>
-  </si>
-  <si>
-    <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Side car</t>
-  </si>
-  <si>
-    <t>边车</t>
-  </si>
-  <si>
-    <t>Brandy/Cointreau/lemon juice</t>
-  </si>
-  <si>
-    <t>白兰地/君度/柠檬汁</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
@@ -2973,6 +2973,24 @@
     <t>199</t>
   </si>
   <si>
+    <t>Sauteed Beef Fillet with Black Pepper pasta</t>
+  </si>
+  <si>
+    <t>黑椒牛柳意面</t>
+  </si>
+  <si>
+    <t>images/product/food/黑椒牛柳意面.jpg</t>
+  </si>
+  <si>
+    <t>Beef fillet / sweet pepper / onion / Mushroom slice / special black pepper sauce / pasta</t>
+  </si>
+  <si>
+    <t>牛柳/甜椒/洋葱/蘑菇片/秘制黑椒汁/意面</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>Cream mushroom bacon hot spring egg pasta</t>
   </si>
   <si>
@@ -2991,7 +3009,7 @@
     <t>意面/火腿/搭配蔬菜</t>
   </si>
   <si>
-    <t>200</t>
+    <t>201</t>
   </si>
   <si>
     <t>Little angel spaghetti with cream and ham</t>
@@ -3012,7 +3030,7 @@
     <t>意面/海虹/鱿鱼圈/虾仁</t>
   </si>
   <si>
-    <t>201</t>
+    <t>202</t>
   </si>
   <si>
     <t>小天使奶油火腿意面</t>
@@ -3027,7 +3045,7 @@
     <t>意面/火腿/培根/时蔬</t>
   </si>
   <si>
-    <t>202</t>
+    <t>203</t>
   </si>
   <si>
     <t>Japanese style and wind smoked chicken leg meat curry rice</t>
@@ -3048,7 +3066,7 @@
     <t>烟熏鸡肉/特调咖喱酱汁</t>
   </si>
   <si>
-    <t>203</t>
+    <t>204</t>
   </si>
   <si>
     <t>Caesar Salad smoked chicken breast</t>
@@ -3069,7 +3087,7 @@
     <t>烟熏鸡胸肉/时蔬沙拉/凯撒酱汁</t>
   </si>
   <si>
-    <t>204</t>
+    <t>205</t>
   </si>
   <si>
     <t>Yogurt fruit salad</t>
@@ -3087,7 +3105,7 @@
     <t>酸奶/坚果/蓝莓/橙子/猕猴桃/草莓/火龙果/圣女果/时蔬</t>
   </si>
   <si>
-    <t>205</t>
+    <t>206</t>
   </si>
   <si>
     <t>Roasted chicken wings</t>
@@ -3108,7 +3126,7 @@
     <t>鸡翅中/秘制酱料</t>
   </si>
   <si>
-    <t>206</t>
+    <t>207</t>
   </si>
   <si>
     <t>Macaroni in cone</t>
@@ -3129,7 +3147,7 @@
     <t>慢煮土豆泥/风味酱汁</t>
   </si>
   <si>
-    <t>207</t>
+    <t>208</t>
   </si>
   <si>
     <t>Sausage Platter</t>
@@ -3147,7 +3165,7 @@
     <t>德式香肠/土豆角/时蔬沙拉</t>
   </si>
   <si>
-    <t>208</t>
+    <t>209</t>
   </si>
   <si>
     <t>Spare ribs with garlic</t>
@@ -3165,7 +3183,7 @@
     <t>猪肋排/蒜/特制腌料</t>
   </si>
   <si>
-    <t>209</t>
+    <t>210</t>
   </si>
   <si>
     <t>Three flavors of sea salt and sweet potato</t>
@@ -3183,7 +3201,7 @@
     <t>粗薯/黄芥末/番茄酱/千岛酱</t>
   </si>
   <si>
-    <t>210</t>
+    <t>211</t>
   </si>
   <si>
     <t>Crispy chicken</t>
@@ -3201,7 +3219,7 @@
     <t>鸡肉/面粉/蕃茄酱</t>
   </si>
   <si>
-    <t>211</t>
+    <t>212</t>
   </si>
   <si>
     <t>Crispy fried cod balls</t>
@@ -3219,7 +3237,7 @@
     <t>鳕鱼/面粉/蕃茄酱</t>
   </si>
   <si>
-    <t>212</t>
+    <t>213</t>
   </si>
   <si>
     <t>Crispy fried chicken and rice flower</t>
@@ -3240,7 +3258,7 @@
     <t>鸡肉/面粉/香料/蕃茄酱</t>
   </si>
   <si>
-    <t>213</t>
+    <t>214</t>
   </si>
   <si>
     <t>Kiwi Banana Mousse</t>
@@ -3255,7 +3273,7 @@
     <t>images/product/Dessert/猕猴桃香蕉慕斯.png</t>
   </si>
   <si>
-    <t>214</t>
+    <t>215</t>
   </si>
   <si>
     <t>White cheese lemon pomelo Mousse</t>
@@ -3267,7 +3285,7 @@
     <t>images/product/Dessert/白乳酪柠檬柚慕斯.png</t>
   </si>
   <si>
-    <t>215</t>
+    <t>216</t>
   </si>
   <si>
     <t>Opera（Chocolate）</t>
@@ -3279,7 +3297,7 @@
     <t>images/product/Dessert/歌剧院巧克力味.png</t>
   </si>
   <si>
-    <t>216</t>
+    <t>217</t>
   </si>
   <si>
     <t>Opera（Orange）</t>
@@ -3291,7 +3309,7 @@
     <t>images/product/Dessert/歌剧院橙子味.png</t>
   </si>
   <si>
-    <t>217</t>
+    <t>218</t>
   </si>
   <si>
     <t>Valrhono Caramel Chocklate Ban</t>
@@ -3303,7 +3321,7 @@
     <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
   </si>
   <si>
-    <t>218</t>
+    <t>219</t>
   </si>
   <si>
     <t>Pumpkin Cheese Cake</t>
@@ -3315,7 +3333,7 @@
     <t>images/product/Dessert/南瓜芝士蛋糕.png</t>
   </si>
   <si>
-    <t>219</t>
+    <t>220</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -4223,6 +4241,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4240,9 +4261,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4588,16 +4606,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="55"/>
-    <col min="3" max="3" width="29.6071428571429" style="55" customWidth="1"/>
-    <col min="4" max="4" width="57.7321428571429" style="55" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="55" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="56" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="56"/>
-    <col min="8" max="8" width="16.2589285714286" style="55" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="55" customWidth="1"/>
-    <col min="10" max="1025" width="11.5178571428571" style="54"/>
-    <col min="1026" max="16384" width="9" style="54"/>
+    <col min="1" max="2" width="11.5178571428571" style="56"/>
+    <col min="3" max="3" width="29.6071428571429" style="56" customWidth="1"/>
+    <col min="4" max="4" width="57.7321428571429" style="56" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="56" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="57" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="57"/>
+    <col min="8" max="8" width="16.2589285714286" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="56" customWidth="1"/>
+    <col min="10" max="1025" width="11.5178571428571" style="55"/>
+    <col min="1026" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -4616,10 +4634,10 @@
       <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="46" t="s">
@@ -4630,19 +4648,19 @@
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="58">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="59" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="63" t="b">
@@ -4651,8 +4669,8 @@
       <c r="G2" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="8" t="s">
@@ -4724,261 +4742,261 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="58">
         <v>2</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="58">
         <v>3</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="58">
         <v>3</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="57"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="58">
         <v>3</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G12" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G13" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G14" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G16" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-    </row>
-    <row r="17" s="54" customFormat="1" customHeight="1" spans="1:10">
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+    </row>
+    <row r="17" s="55" customFormat="1" customHeight="1" spans="1:10">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
@@ -5003,19 +5021,19 @@
       <c r="J17" s="67"/>
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="58">
         <v>1</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="59" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="63" t="b">
@@ -5024,54 +5042,54 @@
       <c r="G18" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="58">
         <v>2</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="63" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="63" t="b">
         <v>0</v>
       </c>
       <c r="G20" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
       <c r="A21" s="46" t="s">
@@ -5080,24 +5098,24 @@
       <c r="B21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="60" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="46"/>
-      <c r="F21" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="62" t="b">
+      <c r="F21" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="53" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="66"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="60" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="46">
@@ -5110,10 +5128,10 @@
         <v>75</v>
       </c>
       <c r="E22" s="46"/>
-      <c r="F22" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="62" t="b">
+      <c r="F22" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="53" t="b">
         <v>0</v>
       </c>
       <c r="H22" s="46"/>
@@ -5126,19 +5144,19 @@
       <c r="B23" s="46">
         <v>1</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="58" t="s">
         <v>77</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="62" t="b">
+      <c r="F23" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="62" t="b">
+      <c r="G23" s="53" t="b">
         <v>0</v>
       </c>
       <c r="H23" s="46"/>
@@ -5158,37 +5176,37 @@
         <v>81</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="62" t="b">
+      <c r="F24" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="62" t="b">
+      <c r="G24" s="53" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="46"/>
       <c r="I24" s="66"/>
     </row>
     <row r="25" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="63" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
       <c r="A26" s="46" t="s">
@@ -5204,10 +5222,10 @@
         <v>87</v>
       </c>
       <c r="E26" s="46"/>
-      <c r="F26" s="62" t="b">
+      <c r="F26" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="62" t="b">
+      <c r="G26" s="53" t="b">
         <v>0</v>
       </c>
       <c r="H26" s="46"/>
@@ -5227,10 +5245,10 @@
         <v>90</v>
       </c>
       <c r="E27" s="46"/>
-      <c r="F27" s="62" t="b">
+      <c r="F27" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="62" t="b">
+      <c r="G27" s="53" t="b">
         <v>0</v>
       </c>
       <c r="H27" s="46"/>
@@ -5250,10 +5268,10 @@
         <v>93</v>
       </c>
       <c r="E28" s="46"/>
-      <c r="F28" s="62" t="b">
+      <c r="F28" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="62" t="b">
+      <c r="G28" s="53" t="b">
         <v>0</v>
       </c>
       <c r="H28" s="46"/>
@@ -5275,36 +5293,36 @@
       <c r="E29" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="62" t="b">
+      <c r="F29" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="62" t="b">
+      <c r="G29" s="53" t="b">
         <v>0</v>
       </c>
       <c r="H29" s="46"/>
       <c r="I29" s="66"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62" t="b">
+      <c r="E30" s="62"/>
+      <c r="F30" s="53" t="b">
         <v>1</v>
       </c>
       <c r="G30" s="65" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="61"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="68"/>
     </row>
   </sheetData>
@@ -5320,10 +5338,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AB220"/>
+  <dimension ref="A1:AB221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6582,56 +6600,54 @@
       </c>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" customFormat="1" customHeight="1" spans="1:18">
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>255</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>234</v>
+        <v>20</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="H24" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="L24" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="H24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="N24" s="30" t="s">
+      <c r="N24" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="O24" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="21" t="s">
+      <c r="O24" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q24" s="19" t="s">
         <v>167</v>
       </c>
       <c r="R24" s="7"/>
@@ -6653,10 +6669,10 @@
         <v>117</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="H25" s="19" t="b">
         <v>0</v>
@@ -6669,22 +6685,22 @@
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="11" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="M25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N25" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="N25" s="28" t="s">
-        <v>265</v>
-      </c>
       <c r="O25" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>167</v>
+        <v>225</v>
+      </c>
+      <c r="Q25" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="R25" s="7"/>
     </row>
@@ -6693,10 +6709,10 @@
         <v>126</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>20</v>
@@ -6705,10 +6721,10 @@
         <v>117</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="H26" s="19" t="b">
         <v>0</v>
@@ -6721,19 +6737,19 @@
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="N26" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>270</v>
-      </c>
       <c r="O26" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="Q26" s="19" t="b">
         <v>1</v>
@@ -6742,13 +6758,13 @@
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A27" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>20</v>
@@ -6757,10 +6773,10 @@
         <v>117</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="H27" s="19" t="b">
         <v>0</v>
@@ -6773,19 +6789,19 @@
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="11" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="19" t="b">
         <v>1</v>
@@ -6794,13 +6810,13 @@
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A28" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>20</v>
@@ -6809,10 +6825,10 @@
         <v>117</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="H28" s="19" t="b">
         <v>0</v>
@@ -6825,13 +6841,13 @@
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="11" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>125</v>
@@ -6846,13 +6862,13 @@
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A29" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>20</v>
@@ -6861,10 +6877,10 @@
         <v>117</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="H29" s="19" t="b">
         <v>0</v>
@@ -6877,34 +6893,34 @@
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="11" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="M29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="N29" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="N29" s="28" t="s">
-        <v>285</v>
-      </c>
       <c r="O29" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q29" s="19" t="b">
-        <v>1</v>
+      <c r="P29" s="12">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="R29" s="7"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A30" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>20</v>
@@ -6913,10 +6929,10 @@
         <v>117</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="H30" s="19" t="b">
         <v>0</v>
@@ -6929,22 +6945,22 @@
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="11" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="M30" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="N30" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="N30" s="28" t="s">
-        <v>290</v>
-      </c>
       <c r="O30" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="P30" s="12">
-        <v>35</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>167</v>
+      <c r="P30" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="R30" s="7"/>
     </row>
@@ -6953,10 +6969,10 @@
         <v>225</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>20</v>
@@ -6965,10 +6981,10 @@
         <v>117</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="H31" s="19" t="b">
         <v>0</v>
@@ -6984,16 +7000,16 @@
         <v>138</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O31" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="19" t="b">
         <v>1</v>
@@ -7005,10 +7021,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>20</v>
@@ -7017,10 +7033,10 @@
         <v>117</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="H32" s="19" t="b">
         <v>0</v>
@@ -7036,16 +7052,16 @@
         <v>138</v>
       </c>
       <c r="M32" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="N32" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="N32" s="28" t="s">
-        <v>300</v>
-      </c>
       <c r="O32" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="19" t="b">
         <v>1</v>
@@ -7057,10 +7073,10 @@
         <v>82</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>20</v>
@@ -7069,10 +7085,10 @@
         <v>117</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="H33" s="19" t="b">
         <v>0</v>
@@ -7085,19 +7101,19 @@
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="11" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N33" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O33" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="Q33" s="19" t="b">
         <v>1</v>
@@ -7109,10 +7125,10 @@
         <v>85</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>20</v>
@@ -7121,10 +7137,10 @@
         <v>117</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="H34" s="19" t="b">
         <v>0</v>
@@ -7137,7 +7153,7 @@
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="11" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>309</v>
@@ -7149,7 +7165,7 @@
         <v>125</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="Q34" s="19" t="b">
         <v>1</v>
@@ -7161,10 +7177,10 @@
         <v>88</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>20</v>
@@ -7189,19 +7205,19 @@
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="11" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="N35" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="N35" s="28" t="s">
-        <v>315</v>
-      </c>
       <c r="O35" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="Q35" s="19" t="b">
         <v>1</v>
@@ -7213,10 +7229,10 @@
         <v>91</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>317</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>20</v>
@@ -7241,19 +7257,19 @@
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="11" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="M36" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="N36" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="N36" s="28" t="s">
-        <v>319</v>
-      </c>
       <c r="O36" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q36" s="19" t="b">
         <v>1</v>
@@ -7262,13 +7278,13 @@
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A37" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>322</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>20</v>
@@ -7277,10 +7293,10 @@
         <v>117</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="H37" s="19" t="b">
         <v>0</v>
@@ -7293,34 +7309,34 @@
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="11" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="M37" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="N37" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="N37" s="28" t="s">
-        <v>324</v>
-      </c>
       <c r="O37" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q37" s="19" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="R37" s="7"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A38" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>20</v>
@@ -7329,10 +7345,10 @@
         <v>117</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="H38" s="19" t="b">
         <v>0</v>
@@ -7348,31 +7364,31 @@
         <v>138</v>
       </c>
       <c r="M38" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="N38" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="N38" s="28" t="s">
-        <v>329</v>
-      </c>
       <c r="O38" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q38" s="19" t="s">
-        <v>167</v>
+        <v>126</v>
+      </c>
+      <c r="Q38" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="R38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A39" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>20</v>
@@ -7381,10 +7397,10 @@
         <v>117</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="H39" s="19" t="b">
         <v>0</v>
@@ -7397,7 +7413,7 @@
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="11" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>333</v>
@@ -7409,7 +7425,7 @@
         <v>125</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="19" t="b">
         <v>1</v>
@@ -7433,10 +7449,10 @@
         <v>117</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="H40" s="19" t="b">
         <v>0</v>
@@ -7449,19 +7465,19 @@
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="N40" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="N40" s="28" t="s">
-        <v>340</v>
-      </c>
       <c r="O40" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="Q40" s="19" t="b">
         <v>1</v>
@@ -7473,10 +7489,10 @@
         <v>212</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>20</v>
@@ -7485,7 +7501,7 @@
         <v>117</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>119</v>
@@ -7501,34 +7517,34 @@
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="11" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="M41" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="N41" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="N41" s="28" t="s">
-        <v>344</v>
-      </c>
       <c r="O41" s="12" t="s">
         <v>125</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q41" s="19" t="b">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="R41" s="7"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A42" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>20</v>
@@ -7537,10 +7553,10 @@
         <v>117</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>118</v>
+        <v>302</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="H42" s="19" t="b">
         <v>0</v>
@@ -7556,70 +7572,72 @@
         <v>138</v>
       </c>
       <c r="M42" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="N42" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="N42" s="28" t="s">
+      <c r="O42" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q42" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A43" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="O42" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q42" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="R42" s="7"/>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A43" s="8" t="s">
+      <c r="B43" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="C43" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>352</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>307</v>
+      <c r="E43" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="H43" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="M43" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="M43" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="N43" s="28" t="s">
+      <c r="N43" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="O43" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q43" s="19" t="s">
+      <c r="O43" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q43" s="21" t="s">
         <v>167</v>
       </c>
       <c r="R43" s="7"/>
@@ -7948,7 +7966,7 @@
     </row>
     <row r="51" customFormat="1" customHeight="1" spans="1:18">
       <c r="A51" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>382</v>
@@ -8868,7 +8886,7 @@
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A71" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>458</v>
@@ -9328,7 +9346,7 @@
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A81" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>493</v>
@@ -9788,7 +9806,7 @@
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A91" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>531</v>
@@ -14535,7 +14553,7 @@
         <v>117</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G192" s="7" t="s">
         <v>933</v>
@@ -14960,67 +14978,79 @@
       </c>
       <c r="R199" s="17"/>
     </row>
-    <row r="200" customHeight="1" spans="1:18">
+    <row r="200" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A200" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="B200" s="13" t="s">
+      <c r="B200" s="46" t="s">
         <v>985</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C200" s="46" t="s">
         <v>986</v>
       </c>
-      <c r="D200" s="20" t="s">
+      <c r="D200" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E200" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F200" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="G200" s="12" t="s">
+      <c r="E200" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F200" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="G200" s="46" t="s">
+        <v>918</v>
+      </c>
+      <c r="H200" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I200" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="K200" s="46" t="s">
         <v>987</v>
       </c>
-      <c r="H200" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I200" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="K200" s="20" t="s">
+      <c r="L200" s="45" t="s">
+        <v>967</v>
+      </c>
+      <c r="M200" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="L200" s="26"/>
-      <c r="M200" s="29" t="s">
+      <c r="N200" s="46" t="s">
         <v>989</v>
       </c>
-      <c r="N200" s="30" t="s">
-        <v>990</v>
-      </c>
-      <c r="O200" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P200" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q200" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="R200" s="20"/>
+      <c r="O200" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P200" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q200" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R200" s="53"/>
+      <c r="S200" s="52"/>
+      <c r="T200" s="52"/>
+      <c r="U200" s="52"/>
+      <c r="V200" s="52"/>
+      <c r="W200" s="52"/>
+      <c r="X200" s="52"/>
+      <c r="Y200" s="52"/>
+      <c r="Z200" s="52"/>
+      <c r="AA200" s="52"/>
+      <c r="AB200" s="52"/>
     </row>
     <row r="201" customHeight="1" spans="1:18">
       <c r="A201" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="B201" s="13" t="s">
         <v>991</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="C201" s="13" t="s">
         <v>992</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>993</v>
       </c>
       <c r="D201" s="20" t="s">
         <v>85</v>
@@ -15029,16 +15059,16 @@
         <v>117</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>918</v>
+        <v>993</v>
       </c>
       <c r="H201" s="21" t="b">
         <v>0</v>
       </c>
       <c r="I201" s="21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" s="20" t="s">
         <v>895</v>
@@ -15046,17 +15076,15 @@
       <c r="K201" s="20" t="s">
         <v>994</v>
       </c>
-      <c r="L201" s="26" t="s">
+      <c r="L201" s="26"/>
+      <c r="M201" s="29" t="s">
         <v>995</v>
       </c>
-      <c r="M201" s="29" t="s">
+      <c r="N201" s="30" t="s">
         <v>996</v>
       </c>
-      <c r="N201" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="O201" s="20">
-        <v>1</v>
+      <c r="O201" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="P201" s="20" t="s">
         <v>125</v>
@@ -15068,10 +15096,10 @@
     </row>
     <row r="202" customHeight="1" spans="1:18">
       <c r="A202" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="B202" s="13" t="s">
         <v>998</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>992</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>999</v>
@@ -15083,10 +15111,10 @@
         <v>117</v>
       </c>
       <c r="F202" s="20" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="H202" s="21" t="b">
         <v>0</v>
@@ -15101,16 +15129,16 @@
         <v>1000</v>
       </c>
       <c r="L202" s="26" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="M202" s="29" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N202" s="30" t="s">
-        <v>1002</v>
-      </c>
-      <c r="O202" s="20" t="s">
-        <v>9</v>
+        <v>1003</v>
+      </c>
+      <c r="O202" s="20">
+        <v>1</v>
       </c>
       <c r="P202" s="20" t="s">
         <v>125</v>
@@ -15122,10 +15150,10 @@
     </row>
     <row r="203" customHeight="1" spans="1:18">
       <c r="A203" s="8" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>1005</v>
@@ -15137,32 +15165,34 @@
         <v>117</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>1006</v>
+        <v>940</v>
       </c>
       <c r="H203" s="21" t="b">
         <v>0</v>
       </c>
       <c r="I203" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" s="20" t="s">
         <v>895</v>
       </c>
       <c r="K203" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L203" s="26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M203" s="29" t="s">
         <v>1007</v>
       </c>
-      <c r="L203" s="26"/>
-      <c r="M203" s="29" t="s">
+      <c r="N203" s="30" t="s">
         <v>1008</v>
       </c>
-      <c r="N203" s="30" t="s">
-        <v>1009</v>
-      </c>
       <c r="O203" s="20" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="P203" s="20" t="s">
         <v>125</v>
@@ -15174,25 +15204,25 @@
     </row>
     <row r="204" customHeight="1" spans="1:18">
       <c r="A204" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B204" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="B204" s="13" t="s">
+      <c r="C204" s="13" t="s">
         <v>1011</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="D204" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E204" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F204" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="G204" s="12" t="s">
         <v>1012</v>
-      </c>
-      <c r="D204" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E204" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F204" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="G204" s="12" t="s">
-        <v>1013</v>
       </c>
       <c r="H204" s="21" t="b">
         <v>0</v>
@@ -15204,14 +15234,14 @@
         <v>895</v>
       </c>
       <c r="K204" s="20" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L204" s="26"/>
       <c r="M204" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N204" s="30" t="s">
         <v>1015</v>
-      </c>
-      <c r="N204" s="30" t="s">
-        <v>1016</v>
       </c>
       <c r="O204" s="20" t="s">
         <v>125</v>
@@ -15226,13 +15256,13 @@
     </row>
     <row r="205" customHeight="1" spans="1:18">
       <c r="A205" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B205" s="13" t="s">
         <v>1017</v>
       </c>
-      <c r="B205" s="13" t="s">
+      <c r="C205" s="13" t="s">
         <v>1018</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>1019</v>
       </c>
       <c r="D205" s="20" t="s">
         <v>88</v>
@@ -15241,10 +15271,10 @@
         <v>117</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>450</v>
+        <v>349</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>918</v>
+        <v>1019</v>
       </c>
       <c r="H205" s="21" t="b">
         <v>0</v>
@@ -15276,121 +15306,121 @@
       </c>
       <c r="R205" s="20"/>
     </row>
-    <row r="206" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="206" customHeight="1" spans="1:18">
       <c r="A206" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="13" t="s">
         <v>1024</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C206" s="13" t="s">
         <v>1025</v>
       </c>
-      <c r="D206" s="12" t="s">
+      <c r="D206" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E206" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F206" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="G206" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="H206" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="K206" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L206" s="26"/>
+      <c r="M206" s="29" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N206" s="30" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O206" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P206" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q206" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="R206" s="20"/>
+    </row>
+    <row r="207" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A207" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D207" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E206" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F206" s="12" t="s">
+      <c r="E207" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F207" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="G206" s="12" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H206" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I206" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="12" t="s">
+      <c r="G207" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H207" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="12" t="s">
         <v>895</v>
       </c>
-      <c r="K206" s="12" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L206" s="45" t="s">
+      <c r="K207" s="12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L207" s="45" t="s">
         <v>967</v>
       </c>
-      <c r="M206" s="7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N206" s="28" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O206" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P206" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q206" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="R206" s="46"/>
-    </row>
-    <row r="207" customHeight="1" spans="1:18">
-      <c r="A207" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E207" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F207" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="G207" s="12" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H207" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I207" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="K207" s="20" t="s">
+      <c r="M207" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="L207" s="26"/>
-      <c r="M207" s="29" t="s">
+      <c r="N207" s="28" t="s">
         <v>1035</v>
       </c>
-      <c r="N207" s="30" t="s">
-        <v>1036</v>
-      </c>
-      <c r="O207" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P207" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q207" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="R207" s="7"/>
+      <c r="O207" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P207" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q207" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="R207" s="46"/>
     </row>
     <row r="208" customHeight="1" spans="1:18">
       <c r="A208" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B208" s="13" t="s">
         <v>1037</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="C208" s="13" t="s">
         <v>1038</v>
-      </c>
-      <c r="C208" s="13" t="s">
-        <v>1039</v>
       </c>
       <c r="D208" s="20" t="s">
         <v>91</v>
@@ -15399,10 +15429,10 @@
         <v>117</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>965</v>
+        <v>1039</v>
       </c>
       <c r="H208" s="21" t="b">
         <v>0</v>
@@ -15438,23 +15468,23 @@
       <c r="A209" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="B209" s="41" t="s">
+      <c r="B209" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="C209" s="41" t="s">
+      <c r="C209" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="20" t="s">
         <v>91</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F209" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>940</v>
+      <c r="F209" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>965</v>
       </c>
       <c r="H209" s="21" t="b">
         <v>0</v>
@@ -15468,11 +15498,11 @@
       <c r="K209" s="20" t="s">
         <v>1046</v>
       </c>
-      <c r="L209" s="41"/>
-      <c r="M209" s="7" t="s">
+      <c r="L209" s="26"/>
+      <c r="M209" s="29" t="s">
         <v>1047</v>
       </c>
-      <c r="N209" s="7" t="s">
+      <c r="N209" s="30" t="s">
         <v>1048</v>
       </c>
       <c r="O209" s="20" t="s">
@@ -15503,10 +15533,10 @@
         <v>117</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>1013</v>
+        <v>940</v>
       </c>
       <c r="H210" s="21" t="b">
         <v>0</v>
@@ -15542,23 +15572,23 @@
       <c r="A211" s="8" t="s">
         <v>1055</v>
       </c>
-      <c r="B211" s="45" t="s">
+      <c r="B211" s="41" t="s">
         <v>1056</v>
       </c>
-      <c r="C211" s="45" t="s">
+      <c r="C211" s="41" t="s">
         <v>1057</v>
       </c>
-      <c r="D211" s="20" t="s">
+      <c r="D211" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E211" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F211" s="46" t="s">
-        <v>330</v>
+      <c r="F211" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>933</v>
+        <v>1019</v>
       </c>
       <c r="H211" s="21" t="b">
         <v>0</v>
@@ -15572,11 +15602,11 @@
       <c r="K211" s="20" t="s">
         <v>1058</v>
       </c>
-      <c r="L211" s="45"/>
+      <c r="L211" s="41"/>
       <c r="M211" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="N211" s="46" t="s">
+      <c r="N211" s="7" t="s">
         <v>1060</v>
       </c>
       <c r="O211" s="20" t="s">
@@ -15607,7 +15637,7 @@
         <v>117</v>
       </c>
       <c r="F212" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G212" s="7" t="s">
         <v>933</v>
@@ -15652,17 +15682,17 @@
       <c r="C213" s="45" t="s">
         <v>1069</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="20" t="s">
         <v>91</v>
       </c>
       <c r="E213" s="20" t="s">
         <v>117</v>
       </c>
       <c r="F213" s="46" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>1070</v>
+        <v>933</v>
       </c>
       <c r="H213" s="21" t="b">
         <v>0</v>
@@ -15674,83 +15704,87 @@
         <v>895</v>
       </c>
       <c r="K213" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="L213" s="45"/>
       <c r="M213" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N213" s="46" t="s">
         <v>1072</v>
       </c>
-      <c r="N213" s="46" t="s">
+      <c r="O213" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P213" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q213" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="R213" s="7"/>
+    </row>
+    <row r="214" customHeight="1" spans="1:18">
+      <c r="A214" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="O213" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="P213" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q213" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="R213" s="7"/>
-    </row>
-    <row r="214" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A214" s="8" t="s">
+      <c r="B214" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="B214" s="47" t="s">
+      <c r="C214" s="45" t="s">
         <v>1075</v>
       </c>
-      <c r="C214" s="47" t="s">
+      <c r="D214" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E214" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F214" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G214" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="D214" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E214" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F214" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="G214" s="8" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H214" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I214" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="15" t="s">
+      <c r="H214" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I214" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="K214" s="20" t="s">
         <v>1077</v>
       </c>
-      <c r="K214" s="15" t="s">
+      <c r="L214" s="45"/>
+      <c r="M214" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="L214" s="48"/>
-      <c r="M214" s="15"/>
-      <c r="N214" s="51"/>
-      <c r="O214" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="P214" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q214" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="R214" s="15"/>
+      <c r="N214" s="46" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O214" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P214" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q214" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="R214" s="7"/>
     </row>
     <row r="215" customFormat="1" customHeight="1" spans="1:18">
       <c r="A215" s="8" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B215" s="47" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C215" s="47" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D215" s="15" t="s">
         <v>98</v>
@@ -15759,10 +15793,10 @@
         <v>117</v>
       </c>
       <c r="F215" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="H215" s="18" t="b">
         <v>1</v>
@@ -15771,10 +15805,10 @@
         <v>1</v>
       </c>
       <c r="J215" s="15" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="K215" s="15" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="L215" s="48"/>
       <c r="M215" s="15"/>
@@ -15785,20 +15819,20 @@
       <c r="P215" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="Q215" s="53" t="s">
+      <c r="Q215" s="54" t="s">
         <v>167</v>
       </c>
       <c r="R215" s="15"/>
     </row>
     <row r="216" customFormat="1" customHeight="1" spans="1:18">
       <c r="A216" s="8" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B216" s="47" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C216" s="47" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D216" s="15" t="s">
         <v>98</v>
@@ -15807,10 +15841,10 @@
         <v>117</v>
       </c>
       <c r="F216" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="H216" s="18" t="b">
         <v>1</v>
@@ -15819,10 +15853,10 @@
         <v>1</v>
       </c>
       <c r="J216" s="15" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="K216" s="15" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="L216" s="48"/>
       <c r="M216" s="15"/>
@@ -15833,20 +15867,20 @@
       <c r="P216" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="Q216" s="53" t="s">
+      <c r="Q216" s="54" t="s">
         <v>167</v>
       </c>
       <c r="R216" s="15"/>
     </row>
     <row r="217" customFormat="1" customHeight="1" spans="1:18">
       <c r="A217" s="8" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B217" s="47" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C217" s="47" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D217" s="15" t="s">
         <v>98</v>
@@ -15855,22 +15889,22 @@
         <v>117</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="H217" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="15" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="K217" s="15" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="L217" s="48"/>
       <c r="M217" s="15"/>
@@ -15881,20 +15915,20 @@
       <c r="P217" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="Q217" s="53" t="s">
+      <c r="Q217" s="54" t="s">
         <v>167</v>
       </c>
       <c r="R217" s="15"/>
     </row>
     <row r="218" customFormat="1" customHeight="1" spans="1:18">
       <c r="A218" s="8" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B218" s="47" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C218" s="47" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D218" s="15" t="s">
         <v>98</v>
@@ -15903,10 +15937,10 @@
         <v>117</v>
       </c>
       <c r="F218" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="H218" s="18" t="b">
         <v>0</v>
@@ -15915,12 +15949,12 @@
         <v>0</v>
       </c>
       <c r="J218" s="15" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="K218" s="15" t="s">
-        <v>1094</v>
-      </c>
-      <c r="L218" s="15"/>
+        <v>1096</v>
+      </c>
+      <c r="L218" s="48"/>
       <c r="M218" s="15"/>
       <c r="N218" s="51"/>
       <c r="O218" s="47" t="s">
@@ -15929,20 +15963,20 @@
       <c r="P218" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="Q218" s="53" t="s">
+      <c r="Q218" s="54" t="s">
         <v>167</v>
       </c>
       <c r="R218" s="15"/>
     </row>
     <row r="219" customFormat="1" customHeight="1" spans="1:18">
       <c r="A219" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B219" s="48" t="s">
-        <v>1096</v>
+        <v>1097</v>
+      </c>
+      <c r="B219" s="47" t="s">
+        <v>1098</v>
       </c>
       <c r="C219" s="47" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D219" s="15" t="s">
         <v>98</v>
@@ -15951,10 +15985,10 @@
         <v>117</v>
       </c>
       <c r="F219" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="H219" s="18" t="b">
         <v>0</v>
@@ -15963,10 +15997,10 @@
         <v>0</v>
       </c>
       <c r="J219" s="15" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="K219" s="15" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="L219" s="15"/>
       <c r="M219" s="15"/>
@@ -15977,20 +16011,20 @@
       <c r="P219" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="Q219" s="53" t="s">
+      <c r="Q219" s="54" t="s">
         <v>167</v>
       </c>
       <c r="R219" s="15"/>
     </row>
     <row r="220" customFormat="1" customHeight="1" spans="1:18">
       <c r="A220" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B220" s="49" t="s">
-        <v>1100</v>
+        <v>1101</v>
+      </c>
+      <c r="B220" s="48" t="s">
+        <v>1102</v>
       </c>
       <c r="C220" s="47" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D220" s="15" t="s">
         <v>98</v>
@@ -15999,10 +16033,10 @@
         <v>117</v>
       </c>
       <c r="F220" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="H220" s="18" t="b">
         <v>0</v>
@@ -16011,24 +16045,72 @@
         <v>0</v>
       </c>
       <c r="J220" s="15" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="K220" s="15" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="L220" s="15"/>
-      <c r="M220" s="51"/>
-      <c r="N220" s="15"/>
+      <c r="M220" s="15"/>
+      <c r="N220" s="51"/>
       <c r="O220" s="47" t="s">
         <v>125</v>
       </c>
       <c r="P220" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="Q220" s="53" t="s">
+      <c r="Q220" s="54" t="s">
         <v>167</v>
       </c>
       <c r="R220" s="15"/>
+    </row>
+    <row r="221" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A221" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B221" s="49" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C221" s="47" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D221" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E221" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F221" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H221" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I221" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="15" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K221" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L221" s="15"/>
+      <c r="M221" s="51"/>
+      <c r="N221" s="15"/>
+      <c r="O221" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="P221" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q221" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="R221" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -399,10 +399,10 @@
     <t>25</t>
   </si>
   <si>
-    <t>Tell you a secret</t>
-  </si>
-  <si>
-    <t>告诉你个秘密</t>
+    <t>Soulmate</t>
+  </si>
+  <si>
+    <t>灵魂伴侣</t>
   </si>
   <si>
     <t>88</t>
@@ -5340,8 +5340,8 @@
   <sheetPr/>
   <dimension ref="A1:AB221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979">
   <si>
     <t>id</t>
   </si>
@@ -2412,10 +2412,10 @@
     <t>166</t>
   </si>
   <si>
-    <t xml:space="preserve">Smell a woman </t>
-  </si>
-  <si>
-    <t>闻香识女人</t>
+    <t>Miss molly</t>
+  </si>
+  <si>
+    <t>茉莉小姐</t>
   </si>
   <si>
     <t>56/杯</t>
@@ -2424,87 +2424,72 @@
     <t>soft drink</t>
   </si>
   <si>
-    <t>images/product/Mocktail/Smell_a_woman.png</t>
-  </si>
-  <si>
-    <t>White Peach Oolong tea/Pineapple Juice/Lemon juice/Agave syrup</t>
-  </si>
-  <si>
-    <t>白桃乌龙茶/凤梨汁/柠檬汁/龙舌兰糖浆</t>
+    <t>images/product/Mocktail/Miss_molly.png</t>
+  </si>
+  <si>
+    <t>Jasmine tea/Fresh guava juice/lemon juice</t>
+  </si>
+  <si>
+    <t>茉莉花茶/新鲜芭乐汁/柠檬汁</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
-    <t>Miss molly</t>
-  </si>
-  <si>
-    <t>茉莉小姐</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Miss_molly.png</t>
-  </si>
-  <si>
-    <t>Jasmine tea/Fresh guava juice/lemon juice</t>
-  </si>
-  <si>
-    <t>茉莉花茶/新鲜芭乐汁/柠檬汁</t>
+    <t>Flipped</t>
+  </si>
+  <si>
+    <t>怦然心动</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Flipped.png</t>
+  </si>
+  <si>
+    <t>Orange juice/Lemon juice/Passion fruit syrup/Fresh passion fruit</t>
+  </si>
+  <si>
+    <t>橙汁/柠檬汁/百香果糖浆/新鲜百香果</t>
   </si>
   <si>
     <t>168</t>
   </si>
   <si>
-    <t>Flipped</t>
-  </si>
-  <si>
-    <t>怦然心动</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Flipped.png</t>
-  </si>
-  <si>
-    <t>Orange juice/Lemon juice/Passion fruit syrup/Fresh passion fruit</t>
-  </si>
-  <si>
-    <t>橙汁/柠檬汁/百香果糖浆/新鲜百香果</t>
+    <t>Plant Paradise</t>
+  </si>
+  <si>
+    <t>植物乐园</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Plant_Paradise.png</t>
+  </si>
+  <si>
+    <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
+  </si>
+  <si>
+    <t>可尔必思/椰汁/椰奶/苏打</t>
   </si>
   <si>
     <t>169</t>
   </si>
   <si>
-    <t>Plant Paradise</t>
-  </si>
-  <si>
-    <t>植物乐园</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Plant_Paradise.png</t>
-  </si>
-  <si>
-    <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
-  </si>
-  <si>
-    <t>可尔必思/椰汁/椰奶/苏打</t>
+    <t>Ugly duckling</t>
+  </si>
+  <si>
+    <t>丑小鸭</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Ugly_duckling.png</t>
+  </si>
+  <si>
+    <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
+  </si>
+  <si>
+    <t>荔枝果泥/柠檬汁/苹果汁/椰汁/红石榴糖浆</t>
   </si>
   <si>
     <t>170</t>
   </si>
   <si>
-    <t>Ugly duckling</t>
-  </si>
-  <si>
-    <t>丑小鸭</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Ugly_duckling.png</t>
-  </si>
-  <si>
-    <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
-  </si>
-  <si>
-    <t>荔枝果泥/柠檬汁/苹果汁/椰汁/红石榴糖浆</t>
-  </si>
-  <si>
     <t>ROOTINN Milk tea</t>
   </si>
   <si>
@@ -2574,406 +2559,391 @@
     <t>卡布奇诺</t>
   </si>
   <si>
+    <t>Espresso</t>
+  </si>
+  <si>
+    <t>意式浓缩</t>
+  </si>
+  <si>
+    <t>16/杯</t>
+  </si>
+  <si>
     <t>178</t>
   </si>
   <si>
-    <t>Espresso</t>
-  </si>
-  <si>
-    <t>意式浓缩</t>
-  </si>
-  <si>
-    <t>16/杯</t>
+    <t>Soda water</t>
+  </si>
+  <si>
+    <t>苏打水</t>
+  </si>
+  <si>
+    <t>20/听</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
-    <t>Soda water</t>
-  </si>
-  <si>
-    <t>苏打水</t>
-  </si>
-  <si>
-    <t>20/听</t>
+    <t>Tonic water</t>
+  </si>
+  <si>
+    <t>汤力水</t>
   </si>
   <si>
     <t>180</t>
   </si>
   <si>
-    <t>Tonic water</t>
-  </si>
-  <si>
-    <t>汤力水</t>
+    <t>Coca cola</t>
+  </si>
+  <si>
+    <t>可口可乐</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>Coca cola</t>
-  </si>
-  <si>
-    <t>可口可乐</t>
+    <t>Red bull energy drink</t>
+  </si>
+  <si>
+    <t>红牛碳酸型</t>
+  </si>
+  <si>
+    <t>30/听</t>
   </si>
   <si>
     <t>182</t>
   </si>
   <si>
-    <t>Red bull energy drink</t>
-  </si>
-  <si>
-    <t>红牛碳酸型</t>
-  </si>
-  <si>
-    <t>30/听</t>
+    <t>芝士肉酱薯条</t>
+  </si>
+  <si>
+    <t>42/份</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>images/product/food/芝士肉酱薯条.png</t>
+  </si>
+  <si>
+    <t>粗薯/番茄酱</t>
   </si>
   <si>
     <t>183</t>
   </si>
   <si>
-    <t>芝士肉酱薯条</t>
-  </si>
-  <si>
-    <t>42/份</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>images/product/food/芝士肉酱薯条.png</t>
-  </si>
-  <si>
-    <t>粗薯/番茄酱</t>
+    <t>酥炸鳕鱼球</t>
+  </si>
+  <si>
+    <t>38/份</t>
+  </si>
+  <si>
+    <t>images/product/food/酥炸鳕鱼球.png</t>
+  </si>
+  <si>
+    <t>COD / flour / tomato sauce</t>
   </si>
   <si>
     <t>184</t>
   </si>
   <si>
-    <t>酥炸鳕鱼球</t>
-  </si>
-  <si>
-    <t>38/份</t>
-  </si>
-  <si>
-    <t>images/product/food/酥炸鳕鱼球.png</t>
-  </si>
-  <si>
-    <t>COD / flour / tomato sauce</t>
+    <t>秘制烤鸡翅</t>
+  </si>
+  <si>
+    <t>46/份</t>
+  </si>
+  <si>
+    <t>images/product/food/秘制烤鸡翅.png</t>
+  </si>
+  <si>
+    <t>鸡翅中/秘制酱料</t>
   </si>
   <si>
     <t>185</t>
   </si>
   <si>
-    <t>秘制烤鸡翅</t>
-  </si>
-  <si>
-    <t>46/份</t>
-  </si>
-  <si>
-    <t>images/product/food/秘制烤鸡翅.png</t>
-  </si>
-  <si>
-    <t>鸡翅中/秘制酱料</t>
+    <t>蒜香排骨</t>
+  </si>
+  <si>
+    <t>58/份</t>
+  </si>
+  <si>
+    <t>images/product/food/蒜香排骨.png</t>
+  </si>
+  <si>
+    <t>猪肋排/蒜/特制腌料</t>
   </si>
   <si>
     <t>186</t>
   </si>
   <si>
-    <t>蒜香排骨</t>
-  </si>
-  <si>
-    <t>58/份</t>
-  </si>
-  <si>
-    <t>images/product/food/蒜香排骨.png</t>
-  </si>
-  <si>
-    <t>猪肋排/蒜/特制腌料</t>
+    <t>主厨沙拉</t>
+  </si>
+  <si>
+    <t>68/份</t>
+  </si>
+  <si>
+    <t>images/product/food/主厨沙拉.png</t>
+  </si>
+  <si>
+    <t>牛油果/黄桃/鸡腿肉</t>
   </si>
   <si>
     <t>187</t>
   </si>
   <si>
-    <t>酥炸芝士豆泥鸡肉</t>
-  </si>
-  <si>
-    <t>68/份</t>
-  </si>
-  <si>
-    <t>images/product/food/酥炸芝士豆泥鸡肉.png</t>
-  </si>
-  <si>
-    <t>鸡肉/芝士/土豆泥</t>
+    <t>酸奶水果沙拉</t>
+  </si>
+  <si>
+    <t>images/product/food/酸奶水果沙拉.png</t>
+  </si>
+  <si>
+    <t>香蕉/火龙果/猕猴桃/芒果/燕麦酸奶</t>
   </si>
   <si>
     <t>188</t>
   </si>
   <si>
-    <t>主厨沙拉</t>
-  </si>
-  <si>
-    <t>images/product/food/主厨沙拉.png</t>
-  </si>
-  <si>
-    <t>牛油果/黄桃/鸡腿肉</t>
+    <t>牛油果面包香肠早午套餐</t>
+  </si>
+  <si>
+    <t>88/份</t>
+  </si>
+  <si>
+    <t>images/product/food/牛油果面包香肠早午套餐.png</t>
+  </si>
+  <si>
+    <t>牛油果/甜面包/流心蛋/芝士/德式香肠/蔬菜沙拉</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>酸奶水果沙拉</t>
-  </si>
-  <si>
-    <t>images/product/food/酸奶水果沙拉.png</t>
-  </si>
-  <si>
-    <t>香蕉/火龙果/猕猴桃/芒果/燕麦酸奶</t>
+    <t>牛排吐司烤蔬菜早午套餐</t>
+  </si>
+  <si>
+    <t>158/份</t>
+  </si>
+  <si>
+    <t>images/product/food/牛排吐司烤蔬菜造物套餐.png</t>
+  </si>
+  <si>
+    <t>美国甄选级牛肉/全麦吐司/果酱/酸奶杯/烤蔬菜</t>
   </si>
   <si>
     <t>190</t>
   </si>
   <si>
-    <t>牛油果面包香肠早午套餐</t>
-  </si>
-  <si>
-    <t>88/份</t>
-  </si>
-  <si>
-    <t>images/product/food/牛油果面包香肠早午套餐.png</t>
-  </si>
-  <si>
-    <t>牛油果/甜面包/流心蛋/芝士/德式香肠/蔬菜沙拉</t>
+    <t>黑椒牛柳饭</t>
+  </si>
+  <si>
+    <t>images/product/food/黑椒牛柳饭.png</t>
+  </si>
+  <si>
+    <t>牛脊肉/红黄彩椒/黑胡椒</t>
   </si>
   <si>
     <t>191</t>
   </si>
   <si>
-    <t>牛排吐司烤蔬菜早午套餐</t>
-  </si>
-  <si>
-    <t>158/份</t>
-  </si>
-  <si>
-    <t>images/product/food/牛排吐司烤蔬菜造物套餐.png</t>
-  </si>
-  <si>
-    <t>美国甄选级牛肉/全麦吐司/果酱/酸奶杯/烤蔬菜</t>
+    <t>奶油蘑菇温泉蛋意面</t>
+  </si>
+  <si>
+    <t>55/份</t>
+  </si>
+  <si>
+    <t>images/product/food/奶油蘑菇温泉蛋意面.png</t>
+  </si>
+  <si>
+    <t>鸡腿肉/咖喱酱汁/时蔬</t>
   </si>
   <si>
     <t>192</t>
   </si>
   <si>
-    <t>黑椒牛柳饭</t>
-  </si>
-  <si>
-    <t>images/product/food/黑椒牛柳饭.png</t>
-  </si>
-  <si>
-    <t>虾仁/秋葵/九层塔</t>
+    <t>小天使火腿意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小天使火腿意面.png</t>
+  </si>
+  <si>
+    <t>意面/火腿/搭配蔬菜</t>
   </si>
   <si>
     <t>193</t>
   </si>
   <si>
-    <t>奶油蘑菇温泉蛋意面</t>
-  </si>
-  <si>
-    <t>55/份</t>
-  </si>
-  <si>
-    <t>images/product/food/奶油蘑菇温泉蛋意面.png</t>
-  </si>
-  <si>
-    <t>鸡腿肉/咖喱酱汁/时蔬</t>
+    <t>小恶魔海鲜意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小恶魔海鲜意面.png</t>
+  </si>
+  <si>
+    <t>阿根廷红虾/白蛤/秘制酱汁/意面</t>
   </si>
   <si>
     <t>194</t>
   </si>
   <si>
-    <t>小天使火腿意面</t>
-  </si>
-  <si>
-    <t>images/product/food/小天使火腿意面.png</t>
-  </si>
-  <si>
-    <t>牛脊肉/鲜蘑菇/洋葱/大蒜</t>
+    <t>黑椒牛柳意面</t>
+  </si>
+  <si>
+    <t>images/product/food/黑椒牛柳意面.png</t>
+  </si>
+  <si>
+    <t>牛柳/甜椒/洋葱/秘制黑椒酱/意面</t>
   </si>
   <si>
     <t>195</t>
   </si>
   <si>
-    <t>小恶魔海鲜意面</t>
-  </si>
-  <si>
-    <t>images/product/food/小恶魔海鲜意面.png</t>
-  </si>
-  <si>
-    <t>鸡腿肉/甜椒/洋葱</t>
+    <t>香肠肉酱意面</t>
+  </si>
+  <si>
+    <t>images/product/food/香肠肉酱意面.png</t>
+  </si>
+  <si>
+    <t>微辣</t>
+  </si>
+  <si>
+    <t>德式辣香肠/秘制酱汁/意面</t>
   </si>
   <si>
     <t>196</t>
   </si>
   <si>
-    <t>黑椒牛柳意面</t>
-  </si>
-  <si>
-    <t>images/product/food/黑椒牛柳意面.png</t>
-  </si>
-  <si>
-    <t>牛脊肉/红黄彩椒/黑胡椒</t>
+    <t>萨拉米披萨</t>
+  </si>
+  <si>
+    <t>images/product/food/萨拉米披萨.png</t>
+  </si>
+  <si>
+    <t>萨拉米肠/芝士/圣女果/黑橄榄/自制茄汁/罗勒</t>
   </si>
   <si>
     <t>197</t>
   </si>
   <si>
-    <t>香肠肉酱意面</t>
-  </si>
-  <si>
-    <t>images/product/food/香肠肉酱意面.png</t>
-  </si>
-  <si>
-    <t>微辣</t>
-  </si>
-  <si>
-    <t>德式辣香肠/秘制酱汁/意面</t>
+    <t>疆域风味羊肉披萨</t>
+  </si>
+  <si>
+    <t>images/product/food/疆域风味羊肉披萨.png</t>
+  </si>
+  <si>
+    <t>新鲜羊肉/芝士/甜椒圈/自制茄汁/罗勒</t>
   </si>
   <si>
     <t>198</t>
   </si>
   <si>
-    <t>萨拉米披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/萨拉米披萨.png</t>
-  </si>
-  <si>
-    <t>萨拉米肠/芝士/圣女果/黑橄榄/自制茄汁/罗勒</t>
+    <t>和风鳕鱼披萨</t>
+  </si>
+  <si>
+    <t>images/product/food/和风鳕鱼披萨.png</t>
+  </si>
+  <si>
+    <t>鳕鱼球/芝士/墨鱼花/和风烧汁</t>
   </si>
   <si>
     <t>199</t>
   </si>
   <si>
-    <t>疆域风味羊肉披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/疆域风味羊肉披萨.png</t>
-  </si>
-  <si>
-    <t>新鲜羊肉/芝士/甜椒圈/自制茄汁/罗勒</t>
+    <t>牛肉总汇披萨</t>
+  </si>
+  <si>
+    <t>images/product/food/牛肉总汇披萨.png</t>
+  </si>
+  <si>
+    <t>新鲜牛肉/洋葱/甜椒圈/自制茄汁/罗勒</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>和风鳕鱼披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/和风鳕鱼披萨.png</t>
-  </si>
-  <si>
-    <t>鳕鱼球/芝士/墨鱼花/和风烧汁</t>
+    <t>青蒜五花肉披萨</t>
+  </si>
+  <si>
+    <t>images/product/food/青蒜五花肉披萨.png</t>
+  </si>
+  <si>
+    <t>青蒜/五花肉/芝士/自制茄汁</t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
-    <t>牛肉总汇披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/牛肉总汇披萨.png</t>
-  </si>
-  <si>
-    <t>新鲜牛肉/洋葱/甜椒圈/自制茄汁/罗勒</t>
+    <t>Kiwi Banana Mousse</t>
+  </si>
+  <si>
+    <t>猕猴桃香蕉慕斯</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/猕猴桃香蕉慕斯.png</t>
   </si>
   <si>
     <t>202</t>
   </si>
   <si>
-    <t>青蒜五花肉披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/青蒜五花肉披萨.png</t>
-  </si>
-  <si>
-    <t>青蒜/五花肉/芝士/自制茄汁</t>
+    <t>White cheese lemon pomelo Mousse</t>
+  </si>
+  <si>
+    <t>白乳酪柠檬柚慕斯</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/白乳酪柠檬柚慕斯.png</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t>Kiwi Banana Mousse</t>
-  </si>
-  <si>
-    <t>猕猴桃香蕉慕斯</t>
-  </si>
-  <si>
-    <t>dessert</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/猕猴桃香蕉慕斯.png</t>
+    <t>Opera（Chocolate）</t>
+  </si>
+  <si>
+    <t>歌剧院（巧克力）</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/歌剧院巧克力味.png</t>
   </si>
   <si>
     <t>204</t>
   </si>
   <si>
-    <t>White cheese lemon pomelo Mousse</t>
-  </si>
-  <si>
-    <t>白乳酪柠檬柚慕斯</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/白乳酪柠檬柚慕斯.png</t>
+    <t>Opera（Orange）</t>
+  </si>
+  <si>
+    <t>歌剧院（橙子）</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/歌剧院橙子味.png</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>Opera（Chocolate）</t>
-  </si>
-  <si>
-    <t>歌剧院（巧克力）</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/歌剧院巧克力味.png</t>
+    <t>Valrhono Caramel Chocklate Ban</t>
+  </si>
+  <si>
+    <t>法芙娜焦糖巧克力</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
   </si>
   <si>
     <t>206</t>
   </si>
   <si>
-    <t>Opera（Orange）</t>
-  </si>
-  <si>
-    <t>歌剧院（橙子）</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/歌剧院橙子味.png</t>
+    <t>Pumpkin Cheese Cake</t>
+  </si>
+  <si>
+    <t>南瓜芝士蛋糕</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/南瓜芝士蛋糕.png</t>
   </si>
   <si>
     <t>207</t>
-  </si>
-  <si>
-    <t>Valrhono Caramel Chocklate Ban</t>
-  </si>
-  <si>
-    <t>法芙娜焦糖巧克力</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Pumpkin Cheese Cake</t>
-  </si>
-  <si>
-    <t>南瓜芝士蛋糕</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/南瓜芝士蛋糕.png</t>
-  </si>
-  <si>
-    <t>209</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -3054,16 +3024,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="苹方-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="苹方-简"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3720,7 +3690,7 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3755,7 +3725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3847,12 +3817,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3865,26 +3829,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3898,8 +3859,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4274,71 +4238,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="56"/>
-    <col min="3" max="3" width="29.6071428571429" style="56" customWidth="1"/>
-    <col min="4" max="4" width="57.7321428571429" style="56" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="56" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="57" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="57"/>
-    <col min="8" max="8" width="16.2589285714286" style="56" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="56" customWidth="1"/>
-    <col min="10" max="1025" width="11.5178571428571" style="55"/>
-    <col min="1026" max="16384" width="9" style="55"/>
+    <col min="1" max="2" width="11.5178571428571" style="54"/>
+    <col min="3" max="3" width="29.6071428571429" style="54" customWidth="1"/>
+    <col min="4" max="4" width="57.7321428571429" style="54" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="54" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="55" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="55"/>
+    <col min="8" max="8" width="16.2589285714286" style="54" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="54" customWidth="1"/>
+    <col min="10" max="1025" width="11.5178571428571" style="53"/>
+    <col min="1026" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="56">
         <v>1</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="65" t="b">
+      <c r="F2" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="G2" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="8" t="s">
@@ -4354,10 +4318,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="66" t="b">
+      <c r="F3" s="64" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="66" t="b">
+      <c r="G3" s="64" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="8"/>
@@ -4377,10 +4341,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="66" t="b">
+      <c r="F4" s="64" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="66" t="b">
+      <c r="G4" s="64" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="8"/>
@@ -4400,271 +4364,271 @@
         <v>22</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="66" t="b">
+      <c r="F5" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="64" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="56">
         <v>2</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="65" t="b">
+      <c r="E9" s="56"/>
+      <c r="F9" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="58"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="56">
         <v>3</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="56">
         <v>3</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="56">
         <v>3</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-    </row>
-    <row r="17" s="55" customFormat="1" customHeight="1" spans="1:10">
+      <c r="E16" s="56"/>
+      <c r="F16" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" s="53" customFormat="1" customHeight="1" spans="1:10">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
@@ -4678,320 +4642,320 @@
         <v>60</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="66" t="b">
+      <c r="F17" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="64" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="69"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="56">
         <v>1</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="65" t="b">
+      <c r="F18" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="G18" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="56">
         <v>2</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="65" t="b">
+      <c r="E19" s="56"/>
+      <c r="F19" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="G19" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="68"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="39">
         <v>2</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="68"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="39">
         <v>1</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="53" t="b">
+      <c r="F23" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="68"/>
+      <c r="G23" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="39">
         <v>2</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="53" t="b">
+      <c r="E24" s="39"/>
+      <c r="F24" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="68"/>
+      <c r="G24" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="65" t="b">
+      <c r="E25" s="56"/>
+      <c r="F25" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="G25" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="39">
         <v>2</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="53" t="b">
+      <c r="E26" s="39"/>
+      <c r="F26" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="68"/>
+      <c r="G26" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="39">
         <v>2</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="53" t="b">
+      <c r="E27" s="39"/>
+      <c r="F27" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="68"/>
+      <c r="G27" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="39">
         <v>2</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="53" t="b">
+      <c r="E28" s="39"/>
+      <c r="F28" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="68"/>
+      <c r="G28" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="39">
         <v>1</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="53" t="b">
+      <c r="F29" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="68"/>
+      <c r="G29" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="66"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="53" t="b">
+      <c r="E30" s="62"/>
+      <c r="F30" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="70"/>
+      <c r="G30" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="62"/>
+      <c r="I30" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -5006,10 +4970,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AB210"/>
+  <dimension ref="A1:AB208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -12780,7 +12744,7 @@
       <c r="F163" s="32">
         <v>28</v>
       </c>
-      <c r="G163" s="34" t="s">
+      <c r="G163" s="39" t="s">
         <v>782</v>
       </c>
       <c r="H163" s="19" t="b">
@@ -12792,10 +12756,10 @@
       <c r="J163" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K163" s="34"/>
-      <c r="L163" s="34"/>
+      <c r="K163" s="39"/>
+      <c r="L163" s="39"/>
       <c r="M163" s="7"/>
-      <c r="N163" s="44"/>
+      <c r="N163" s="42"/>
       <c r="O163" s="12" t="s">
         <v>124</v>
       </c>
@@ -12826,7 +12790,7 @@
       <c r="F164" s="32">
         <v>28</v>
       </c>
-      <c r="G164" s="34" t="s">
+      <c r="G164" s="39" t="s">
         <v>782</v>
       </c>
       <c r="H164" s="19" t="b">
@@ -12838,10 +12802,10 @@
       <c r="J164" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K164" s="34"/>
-      <c r="L164" s="34"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="39"/>
       <c r="M164" s="7"/>
-      <c r="N164" s="44"/>
+      <c r="N164" s="42"/>
       <c r="O164" s="12" t="s">
         <v>124</v>
       </c>
@@ -12949,13 +12913,13 @@
       <c r="A167" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="B167" s="33" t="s">
+      <c r="B167" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="C167" s="33" t="s">
+      <c r="C167" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E167" s="12" t="s">
@@ -12967,10 +12931,10 @@
       <c r="G167" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="H167" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I167" s="18" t="b">
+      <c r="H167" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" s="19" t="b">
         <v>0</v>
       </c>
       <c r="J167" s="12" t="s">
@@ -12979,25 +12943,31 @@
       <c r="K167" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="L167" s="33"/>
+      <c r="L167" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="M167" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="N167" s="34" t="s">
+      <c r="N167" s="25" t="s">
         <v>804</v>
       </c>
       <c r="O167" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P167" s="12"/>
-      <c r="Q167" s="19"/>
+      <c r="P167" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q167" s="19" t="b">
+        <v>1</v>
+      </c>
       <c r="R167" s="7"/>
     </row>
     <row r="168" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A168" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="33" t="s">
         <v>806</v>
       </c>
       <c r="C168" s="12" t="s">
@@ -13051,7 +13021,7 @@
       <c r="A169" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="B169" s="35" t="s">
+      <c r="B169" s="12" t="s">
         <v>812</v>
       </c>
       <c r="C169" s="12" t="s">
@@ -13150,79 +13120,79 @@
       <c r="P170" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="Q170" s="19" t="b">
-        <v>1</v>
+      <c r="Q170" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="R170" s="7"/>
     </row>
-    <row r="171" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="171" customFormat="1" customHeight="1" spans="1:18">
       <c r="A171" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="34" t="s">
         <v>824</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="34" t="s">
         <v>825</v>
       </c>
-      <c r="D171" s="12" t="s">
+      <c r="D171" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E171" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F171" s="12" t="s">
+      <c r="E171" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F171" s="20" t="s">
         <v>396</v>
       </c>
       <c r="G171" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="H171" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="12" t="s">
+      <c r="H171" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="K171" s="12" t="s">
+      <c r="K171" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="L171" s="12" t="s">
+      <c r="L171" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="M171" s="7" t="s">
+      <c r="M171" s="26" t="s">
         <v>827</v>
       </c>
-      <c r="N171" s="25" t="s">
+      <c r="N171" s="27" t="s">
         <v>828</v>
       </c>
-      <c r="O171" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="P171" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q171" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="R171" s="7"/>
+      <c r="O171" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P171" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q171" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R171" s="26"/>
     </row>
     <row r="172" customFormat="1" customHeight="1" spans="1:18">
       <c r="A172" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B172" s="36" t="s">
+      <c r="B172" s="34" t="s">
         <v>829</v>
       </c>
-      <c r="C172" s="36" t="s">
+      <c r="C172" s="34" t="s">
         <v>830</v>
       </c>
       <c r="D172" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E172" s="36" t="s">
+      <c r="E172" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F172" s="20" t="s">
@@ -13263,69 +13233,61 @@
       </c>
       <c r="R172" s="26"/>
     </row>
-    <row r="173" customFormat="1" customHeight="1" spans="1:18">
+    <row r="173" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A173" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B173" s="36" t="s">
+      <c r="B173" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="C173" s="36" t="s">
+      <c r="C173" s="12" t="s">
         <v>835</v>
       </c>
-      <c r="D173" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E173" s="36" t="s">
+      <c r="D173" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E173" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="G173" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="H173" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I173" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G173" s="34" t="s">
+        <v>836</v>
+      </c>
+      <c r="H173" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="K173" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="L173" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="M173" s="26" t="s">
-        <v>837</v>
-      </c>
-      <c r="N173" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="O173" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="P173" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q173" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="R173" s="26"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="25"/>
+      <c r="O173" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P173" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q173" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="R173" s="7"/>
     </row>
     <row r="174" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A174" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>67</v>
@@ -13334,10 +13296,10 @@
         <v>116</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G174" s="36" t="s">
-        <v>841</v>
+        <v>67</v>
+      </c>
+      <c r="G174" s="34" t="s">
+        <v>839</v>
       </c>
       <c r="H174" s="19" t="b">
         <v>0</v>
@@ -13363,70 +13325,70 @@
       </c>
       <c r="R174" s="7"/>
     </row>
-    <row r="175" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B175" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>843</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E175" s="12" t="s">
+      <c r="B175" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E175" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F175" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G175" s="36" t="s">
-        <v>844</v>
-      </c>
-      <c r="H175" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I175" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="12" t="s">
+      <c r="G175" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="H175" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="7"/>
-      <c r="N175" s="25"/>
-      <c r="O175" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="P175" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q175" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="R175" s="7"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="26"/>
+      <c r="N175" s="27"/>
+      <c r="O175" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P175" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q175" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="R175" s="26"/>
     </row>
     <row r="176" customHeight="1" spans="1:18">
       <c r="A176" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B176" s="36" t="s">
-        <v>845</v>
-      </c>
-      <c r="C176" s="36" t="s">
-        <v>846</v>
+      <c r="B176" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="C176" s="34" t="s">
+        <v>843</v>
       </c>
       <c r="D176" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E176" s="36" t="s">
+      <c r="E176" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="G176" s="12" t="s">
         <v>844</v>
@@ -13444,13 +13406,13 @@
       <c r="L176" s="20"/>
       <c r="M176" s="26"/>
       <c r="N176" s="27"/>
-      <c r="O176" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P176" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q176" s="46" t="s">
+      <c r="O176" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P176" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q176" s="43" t="s">
         <v>195</v>
       </c>
       <c r="R176" s="26"/>
@@ -13459,44 +13421,44 @@
       <c r="A177" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B177" s="36" t="s">
-        <v>847</v>
-      </c>
-      <c r="C177" s="36" t="s">
-        <v>848</v>
+      <c r="B177" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="C177" s="34" t="s">
+        <v>846</v>
       </c>
       <c r="D177" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E177" s="36" t="s">
+      <c r="E177" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F177" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="G177" s="12" t="s">
-        <v>849</v>
-      </c>
-      <c r="H177" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I177" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="20" t="s">
+      <c r="G177" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="H177" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="34" t="s">
         <v>801</v>
       </c>
       <c r="K177" s="20"/>
       <c r="L177" s="20"/>
       <c r="M177" s="26"/>
       <c r="N177" s="27"/>
-      <c r="O177" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P177" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q177" s="46" t="s">
+      <c r="O177" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P177" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q177" s="43" t="s">
         <v>195</v>
       </c>
       <c r="R177" s="26"/>
@@ -13505,22 +13467,22 @@
       <c r="A178" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B178" s="36" t="s">
-        <v>850</v>
-      </c>
-      <c r="C178" s="36" t="s">
-        <v>851</v>
+      <c r="B178" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="C178" s="34" t="s">
+        <v>848</v>
       </c>
       <c r="D178" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E178" s="36" t="s">
+      <c r="E178" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F178" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="G178" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G178" s="34" t="s">
         <v>849</v>
       </c>
       <c r="H178" s="19" t="b">
@@ -13529,91 +13491,91 @@
       <c r="I178" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="J178" s="36" t="s">
+      <c r="J178" s="34" t="s">
         <v>801</v>
       </c>
       <c r="K178" s="20"/>
       <c r="L178" s="20"/>
       <c r="M178" s="26"/>
       <c r="N178" s="27"/>
-      <c r="O178" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P178" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q178" s="46" t="s">
+      <c r="O178" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P178" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q178" s="43" t="s">
         <v>195</v>
       </c>
       <c r="R178" s="26"/>
     </row>
     <row r="179" customHeight="1" spans="1:18">
       <c r="A179" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="B179" s="34" t="s">
+        <v>851</v>
+      </c>
+      <c r="C179" s="34" t="s">
         <v>852</v>
       </c>
-      <c r="B179" s="36" t="s">
+      <c r="D179" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E179" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F179" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G179" s="34" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="36" t="s">
-        <v>854</v>
-      </c>
-      <c r="D179" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E179" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F179" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G179" s="36" t="s">
-        <v>855</v>
-      </c>
       <c r="H179" s="19" t="b">
         <v>0</v>
       </c>
       <c r="I179" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="J179" s="36" t="s">
+      <c r="J179" s="34" t="s">
         <v>801</v>
       </c>
       <c r="K179" s="20"/>
       <c r="L179" s="20"/>
       <c r="M179" s="26"/>
       <c r="N179" s="27"/>
-      <c r="O179" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P179" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q179" s="46" t="s">
+      <c r="O179" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P179" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q179" s="43" t="s">
         <v>195</v>
       </c>
       <c r="R179" s="26"/>
     </row>
     <row r="180" customHeight="1" spans="1:18">
       <c r="A180" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="B180" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="C180" s="34" t="s">
         <v>856</v>
-      </c>
-      <c r="B180" s="36" t="s">
-        <v>857</v>
-      </c>
-      <c r="C180" s="36" t="s">
-        <v>858</v>
       </c>
       <c r="D180" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E180" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F180" s="36" t="s">
+      <c r="E180" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F180" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G180" s="36" t="s">
-        <v>859</v>
+      <c r="G180" s="34" t="s">
+        <v>853</v>
       </c>
       <c r="H180" s="19" t="b">
         <v>0</v>
@@ -13621,45 +13583,45 @@
       <c r="I180" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="J180" s="36" t="s">
+      <c r="J180" s="34" t="s">
         <v>801</v>
       </c>
       <c r="K180" s="20"/>
       <c r="L180" s="20"/>
       <c r="M180" s="26"/>
       <c r="N180" s="27"/>
-      <c r="O180" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P180" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q180" s="46" t="s">
+      <c r="O180" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P180" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q180" s="43" t="s">
         <v>195</v>
       </c>
       <c r="R180" s="26"/>
     </row>
     <row r="181" customHeight="1" spans="1:18">
       <c r="A181" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="B181" s="36" t="s">
-        <v>861</v>
-      </c>
-      <c r="C181" s="36" t="s">
-        <v>862</v>
+        <v>857</v>
+      </c>
+      <c r="B181" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>859</v>
       </c>
       <c r="D181" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E181" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F181" s="36" t="s">
+      <c r="E181" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F181" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G181" s="36" t="s">
-        <v>859</v>
+      <c r="G181" s="34" t="s">
+        <v>853</v>
       </c>
       <c r="H181" s="19" t="b">
         <v>0</v>
@@ -13667,45 +13629,45 @@
       <c r="I181" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="J181" s="36" t="s">
+      <c r="J181" s="34" t="s">
         <v>801</v>
       </c>
       <c r="K181" s="20"/>
       <c r="L181" s="20"/>
       <c r="M181" s="26"/>
       <c r="N181" s="27"/>
-      <c r="O181" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P181" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q181" s="46" t="s">
+      <c r="O181" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P181" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q181" s="43" t="s">
         <v>195</v>
       </c>
       <c r="R181" s="26"/>
     </row>
     <row r="182" customHeight="1" spans="1:18">
       <c r="A182" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="B182" s="36" t="s">
-        <v>864</v>
-      </c>
-      <c r="C182" s="36" t="s">
-        <v>865</v>
+        <v>860</v>
+      </c>
+      <c r="B182" s="34" t="s">
+        <v>861</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>862</v>
       </c>
       <c r="D182" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E182" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F182" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="G182" s="36" t="s">
-        <v>859</v>
+      <c r="E182" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F182" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G182" s="34" t="s">
+        <v>863</v>
       </c>
       <c r="H182" s="19" t="b">
         <v>0</v>
@@ -13713,76 +13675,78 @@
       <c r="I182" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="J182" s="36" t="s">
+      <c r="J182" s="34" t="s">
         <v>801</v>
       </c>
       <c r="K182" s="20"/>
       <c r="L182" s="20"/>
       <c r="M182" s="26"/>
       <c r="N182" s="27"/>
-      <c r="O182" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P182" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q182" s="46" t="s">
+      <c r="O182" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P182" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q182" s="43" t="s">
         <v>195</v>
       </c>
       <c r="R182" s="26"/>
     </row>
     <row r="183" customHeight="1" spans="1:18">
       <c r="A183" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="B183" s="35"/>
+      <c r="C183" s="36" t="s">
+        <v>865</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F183" s="40">
+        <v>42</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="B183" s="36" t="s">
+      <c r="H183" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="C183" s="36" t="s">
+      <c r="K183" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="D183" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E183" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F183" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="G183" s="36" t="s">
+      <c r="L183" s="35"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="H183" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I183" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="36" t="s">
-        <v>801</v>
-      </c>
-      <c r="K183" s="20"/>
-      <c r="L183" s="20"/>
-      <c r="M183" s="26"/>
-      <c r="N183" s="27"/>
-      <c r="O183" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P183" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q183" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="R183" s="26"/>
+      <c r="O183" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P183" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q183" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="R183" s="7"/>
     </row>
     <row r="184" customHeight="1" spans="1:18">
       <c r="A184" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="B184" s="37"/>
-      <c r="C184" s="38" t="s">
+      <c r="B184" s="35"/>
+      <c r="C184" s="36" t="s">
         <v>871</v>
       </c>
       <c r="D184" s="7" t="s">
@@ -13791,8 +13755,8 @@
       <c r="E184" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F184" s="43">
-        <v>42</v>
+      <c r="F184" s="40">
+        <v>38</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>872</v>
@@ -13804,15 +13768,15 @@
         <v>0</v>
       </c>
       <c r="J184" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K184" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="K184" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="L184" s="37"/>
+      <c r="L184" s="35"/>
       <c r="M184" s="7"/>
       <c r="N184" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O184" s="7" t="s">
         <v>124</v>
@@ -13827,11 +13791,11 @@
     </row>
     <row r="185" customHeight="1" spans="1:18">
       <c r="A185" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="B185" s="35"/>
+      <c r="C185" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="B185" s="37"/>
-      <c r="C185" s="38" t="s">
-        <v>877</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>79</v>
@@ -13839,28 +13803,28 @@
       <c r="E185" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F185" s="43">
-        <v>38</v>
+      <c r="F185" s="40">
+        <v>46</v>
       </c>
       <c r="G185" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="H185" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K185" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="H185" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I185" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K185" s="7" t="s">
+      <c r="L185" s="35"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="25" t="s">
         <v>879</v>
-      </c>
-      <c r="L185" s="37"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="7" t="s">
-        <v>880</v>
       </c>
       <c r="O185" s="7" t="s">
         <v>124</v>
@@ -13875,11 +13839,11 @@
     </row>
     <row r="186" customHeight="1" spans="1:18">
       <c r="A186" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="B186" s="35"/>
+      <c r="C186" s="36" t="s">
         <v>881</v>
-      </c>
-      <c r="B186" s="37"/>
-      <c r="C186" s="38" t="s">
-        <v>882</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>79</v>
@@ -13887,107 +13851,107 @@
       <c r="E186" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F186" s="43">
-        <v>46</v>
+      <c r="F186" s="40">
+        <v>58</v>
       </c>
       <c r="G186" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="H186" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K186" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="H186" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I186" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K186" s="7" t="s">
+      <c r="L186" s="35"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="L186" s="37"/>
-      <c r="M186" s="7"/>
-      <c r="N186" s="25" t="s">
+      <c r="O186" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P186" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q186" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="R186" s="7"/>
+    </row>
+    <row r="187" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A187" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="O186" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P186" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q186" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R186" s="7"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:18">
-      <c r="A187" s="8" t="s">
+      <c r="B187" s="11"/>
+      <c r="C187" s="37" t="s">
         <v>886</v>
       </c>
-      <c r="B187" s="37"/>
-      <c r="C187" s="38" t="s">
+      <c r="D187" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F187" s="37">
+        <v>68</v>
+      </c>
+      <c r="G187" s="12" t="s">
         <v>887</v>
       </c>
-      <c r="D187" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F187" s="43">
-        <v>58</v>
-      </c>
-      <c r="G187" s="7" t="s">
+      <c r="H187" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I187" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="K187" s="12" t="s">
         <v>888</v>
       </c>
-      <c r="H187" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I187" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K187" s="7" t="s">
+      <c r="L187" s="41"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="37" t="s">
         <v>889</v>
       </c>
-      <c r="L187" s="37"/>
-      <c r="M187" s="7"/>
-      <c r="N187" s="7" t="s">
+      <c r="O187" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P187" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q187" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="R187" s="39"/>
+    </row>
+    <row r="188" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A188" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="O187" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P187" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q187" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R187" s="7"/>
-    </row>
-    <row r="188" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A188" s="8" t="s">
+      <c r="B188" s="11"/>
+      <c r="C188" s="37" t="s">
         <v>891</v>
       </c>
-      <c r="B188" s="39"/>
-      <c r="C188" s="38" t="s">
-        <v>892</v>
-      </c>
-      <c r="D188" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F188" s="43">
+      <c r="D188" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F188" s="37">
         <v>68</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="H188" s="18" t="b">
         <v>1</v>
@@ -13995,120 +13959,120 @@
       <c r="I188" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="J188" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K188" s="40" t="s">
+      <c r="J188" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="K188" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="L188" s="11"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="37" t="s">
+        <v>893</v>
+      </c>
+      <c r="O188" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P188" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q188" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="R188" s="7"/>
+    </row>
+    <row r="189" customHeight="1" spans="1:18">
+      <c r="A189" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="L188" s="39"/>
-      <c r="M188" s="7"/>
-      <c r="N188" s="45" t="s">
+      <c r="B189" s="35"/>
+      <c r="C189" s="38" t="s">
         <v>895</v>
       </c>
-      <c r="O188" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P188" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q188" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R188" s="40"/>
-    </row>
-    <row r="189" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A189" s="8" t="s">
+      <c r="D189" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F189" s="38">
+        <v>88</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>896</v>
-      </c>
-      <c r="B189" s="11"/>
-      <c r="C189" s="41" t="s">
-        <v>897</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E189" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F189" s="41">
-        <v>68</v>
-      </c>
-      <c r="G189" s="12" t="s">
-        <v>893</v>
       </c>
       <c r="H189" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="I189" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="K189" s="12" t="s">
+      <c r="I189" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K189" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="L189" s="35"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="38" t="s">
         <v>898</v>
       </c>
-      <c r="L189" s="33"/>
-      <c r="M189" s="7"/>
-      <c r="N189" s="41" t="s">
+      <c r="O189" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P189" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q189" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="R189" s="7"/>
+    </row>
+    <row r="190" customHeight="1" spans="1:18">
+      <c r="A190" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="O189" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="P189" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q189" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="R189" s="34"/>
-    </row>
-    <row r="190" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A190" s="8" t="s">
+      <c r="B190" s="35"/>
+      <c r="C190" s="38" t="s">
         <v>900</v>
       </c>
-      <c r="B190" s="11"/>
-      <c r="C190" s="41" t="s">
+      <c r="D190" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F190" s="38">
+        <v>158</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>901</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F190" s="41">
-        <v>68</v>
-      </c>
-      <c r="G190" s="12" t="s">
-        <v>893</v>
       </c>
       <c r="H190" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="I190" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="K190" s="12" t="s">
+      <c r="I190" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K190" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="L190" s="11"/>
+      <c r="L190" s="35"/>
       <c r="M190" s="7"/>
-      <c r="N190" s="41" t="s">
+      <c r="N190" s="38" t="s">
         <v>903</v>
       </c>
-      <c r="O190" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="P190" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q190" s="19" t="s">
+      <c r="O190" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P190" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q190" s="17" t="s">
         <v>195</v>
       </c>
       <c r="R190" s="7"/>
@@ -14117,38 +14081,38 @@
       <c r="A191" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="B191" s="37"/>
-      <c r="C191" s="42" t="s">
+      <c r="B191" s="35"/>
+      <c r="C191" s="38" t="s">
         <v>905</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F191" s="42">
-        <v>88</v>
+      <c r="F191" s="38">
+        <v>58</v>
       </c>
       <c r="G191" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="H191" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J191" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K191" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="H191" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I191" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K191" s="7" t="s">
+      <c r="L191" s="35"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7" t="s">
         <v>907</v>
-      </c>
-      <c r="L191" s="37"/>
-      <c r="M191" s="7"/>
-      <c r="N191" s="42" t="s">
-        <v>908</v>
       </c>
       <c r="O191" s="7" t="s">
         <v>124</v>
@@ -14163,185 +14127,205 @@
     </row>
     <row r="192" customHeight="1" spans="1:18">
       <c r="A192" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="B192" s="35"/>
+      <c r="C192" s="38" t="s">
         <v>909</v>
       </c>
-      <c r="B192" s="37"/>
-      <c r="C192" s="42" t="s">
+      <c r="D192" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F192" s="38">
+        <v>55</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="D192" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F192" s="42">
-        <v>158</v>
-      </c>
-      <c r="G192" s="7" t="s">
+      <c r="H192" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K192" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="H192" s="18" t="b">
+      <c r="L192" s="35"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="23" t="s">
+        <v>912</v>
+      </c>
+      <c r="O192" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P192" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q192" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="R192" s="7"/>
+    </row>
+    <row r="193" s="1" customFormat="1" customHeight="1" spans="1:28">
+      <c r="A193" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="38" t="s">
+        <v>914</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F193" s="38">
+        <v>58</v>
+      </c>
+      <c r="G193" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="H193" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K193" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="L193" s="41"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="O193" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P193" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q193" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="R193" s="39"/>
+      <c r="S193" s="50"/>
+      <c r="T193" s="50"/>
+      <c r="U193" s="50"/>
+      <c r="V193" s="50"/>
+      <c r="W193" s="50"/>
+      <c r="X193" s="50"/>
+      <c r="Y193" s="50"/>
+      <c r="Z193" s="50"/>
+      <c r="AA193" s="50"/>
+      <c r="AB193" s="50"/>
+    </row>
+    <row r="194" s="1" customFormat="1" customHeight="1" spans="1:28">
+      <c r="A194" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="B194" s="41"/>
+      <c r="C194" s="38" t="s">
+        <v>918</v>
+      </c>
+      <c r="D194" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F194" s="38">
+        <v>68</v>
+      </c>
+      <c r="G194" s="39" t="s">
+        <v>887</v>
+      </c>
+      <c r="H194" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K194" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="L194" s="41"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="48" t="s">
+        <v>920</v>
+      </c>
+      <c r="O194" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P194" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q194" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="R194" s="39"/>
+      <c r="S194" s="50"/>
+      <c r="T194" s="50"/>
+      <c r="U194" s="50"/>
+      <c r="V194" s="50"/>
+      <c r="W194" s="50"/>
+      <c r="X194" s="50"/>
+      <c r="Y194" s="50"/>
+      <c r="Z194" s="50"/>
+      <c r="AA194" s="50"/>
+      <c r="AB194" s="50"/>
+    </row>
+    <row r="195" customHeight="1" spans="1:18">
+      <c r="A195" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="B195" s="7"/>
+      <c r="C195" s="38" t="s">
+        <v>922</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F195" s="38">
+        <v>68</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="H195" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="I192" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J192" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K192" s="7" t="s">
-        <v>912</v>
-      </c>
-      <c r="L192" s="37"/>
-      <c r="M192" s="7"/>
-      <c r="N192" s="42" t="s">
-        <v>913</v>
-      </c>
-      <c r="O192" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P192" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q192" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R192" s="7"/>
-    </row>
-    <row r="193" customHeight="1" spans="1:18">
-      <c r="A193" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="B193" s="37"/>
-      <c r="C193" s="42" t="s">
-        <v>915</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F193" s="42">
-        <v>58</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="H193" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I193" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K193" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="L193" s="37"/>
-      <c r="M193" s="7"/>
-      <c r="N193" s="23" t="s">
-        <v>917</v>
-      </c>
-      <c r="O193" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P193" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q193" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R193" s="7"/>
-    </row>
-    <row r="194" customHeight="1" spans="1:18">
-      <c r="A194" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="B194" s="37"/>
-      <c r="C194" s="42" t="s">
-        <v>919</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F194" s="42">
-        <v>55</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>920</v>
-      </c>
-      <c r="H194" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I194" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K194" s="7" t="s">
-        <v>921</v>
-      </c>
-      <c r="L194" s="37"/>
-      <c r="M194" s="7"/>
-      <c r="N194" s="23" t="s">
-        <v>922</v>
-      </c>
-      <c r="O194" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P194" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q194" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R194" s="7"/>
-    </row>
-    <row r="195" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A195" s="8" t="s">
+      <c r="I195" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K195" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="B195" s="7"/>
-      <c r="C195" s="42" t="s">
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="48" t="s">
         <v>924</v>
       </c>
-      <c r="D195" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F195" s="42">
-        <v>58</v>
-      </c>
-      <c r="G195" s="34" t="s">
-        <v>888</v>
-      </c>
-      <c r="H195" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I195" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K195" s="7" t="s">
-        <v>925</v>
-      </c>
-      <c r="L195" s="33"/>
-      <c r="M195" s="7"/>
-      <c r="N195" s="44" t="s">
-        <v>926</v>
-      </c>
       <c r="O195" s="7" t="s">
         <v>124</v>
       </c>
@@ -14351,55 +14335,47 @@
       <c r="Q195" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="R195" s="34"/>
-      <c r="S195" s="52"/>
-      <c r="T195" s="52"/>
-      <c r="U195" s="52"/>
-      <c r="V195" s="52"/>
-      <c r="W195" s="52"/>
-      <c r="X195" s="52"/>
-      <c r="Y195" s="52"/>
-      <c r="Z195" s="52"/>
-      <c r="AA195" s="52"/>
-      <c r="AB195" s="52"/>
+      <c r="R195" s="17"/>
     </row>
     <row r="196" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A196" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="B196" s="39"/>
+      <c r="C196" s="44" t="s">
+        <v>926</v>
+      </c>
+      <c r="D196" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F196" s="38">
+        <v>58</v>
+      </c>
+      <c r="G196" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="H196" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I196" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="K196" s="39" t="s">
         <v>927</v>
       </c>
-      <c r="B196" s="33"/>
-      <c r="C196" s="42" t="s">
+      <c r="L196" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="D196" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F196" s="42">
-        <v>68</v>
-      </c>
-      <c r="G196" s="34" t="s">
-        <v>893</v>
-      </c>
-      <c r="H196" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I196" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K196" s="7" t="s">
+      <c r="M196" s="7"/>
+      <c r="N196" s="48" t="s">
         <v>929</v>
       </c>
-      <c r="L196" s="33"/>
-      <c r="M196" s="7"/>
-      <c r="N196" s="44" t="s">
-        <v>930</v>
-      </c>
       <c r="O196" s="7" t="s">
         <v>124</v>
       </c>
@@ -14409,133 +14385,121 @@
       <c r="Q196" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="R196" s="34"/>
-      <c r="S196" s="52"/>
-      <c r="T196" s="52"/>
-      <c r="U196" s="52"/>
-      <c r="V196" s="52"/>
-      <c r="W196" s="52"/>
-      <c r="X196" s="52"/>
-      <c r="Y196" s="52"/>
-      <c r="Z196" s="52"/>
-      <c r="AA196" s="52"/>
-      <c r="AB196" s="52"/>
+      <c r="R196" s="51"/>
+      <c r="S196" s="50"/>
+      <c r="T196" s="50"/>
+      <c r="U196" s="50"/>
+      <c r="V196" s="50"/>
+      <c r="W196" s="50"/>
+      <c r="X196" s="50"/>
+      <c r="Y196" s="50"/>
+      <c r="Z196" s="50"/>
+      <c r="AA196" s="50"/>
+      <c r="AB196" s="50"/>
     </row>
     <row r="197" customHeight="1" spans="1:18">
       <c r="A197" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="B197" s="13"/>
+      <c r="C197" s="38" t="s">
         <v>931</v>
       </c>
-      <c r="B197" s="7"/>
-      <c r="C197" s="42" t="s">
-        <v>932</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F197" s="42">
-        <v>68</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>893</v>
+      <c r="D197" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E197" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F197" s="38">
+        <v>58</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>882</v>
       </c>
       <c r="H197" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="I197" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K197" s="12" t="s">
+      <c r="I197" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="K197" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="L197" s="24"/>
+      <c r="M197" s="26"/>
+      <c r="N197" s="38" t="s">
         <v>933</v>
       </c>
-      <c r="L197" s="7"/>
-      <c r="M197" s="7"/>
-      <c r="N197" s="7" t="s">
+      <c r="O197" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P197" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q197" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="R197" s="20"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:18">
+      <c r="A198" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="O197" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P197" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q197" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R197" s="17"/>
-    </row>
-    <row r="198" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A198" s="8" t="s">
+      <c r="B198" s="13"/>
+      <c r="C198" s="38" t="s">
         <v>935</v>
       </c>
-      <c r="B198" s="34"/>
-      <c r="C198" s="47" t="s">
-        <v>936</v>
-      </c>
-      <c r="D198" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F198" s="42">
+      <c r="D198" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E198" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F198" s="38">
         <v>58</v>
       </c>
-      <c r="G198" s="34" t="s">
-        <v>888</v>
+      <c r="G198" s="12" t="s">
+        <v>882</v>
       </c>
       <c r="H198" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="I198" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="K198" s="34" t="s">
+      <c r="I198" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="K198" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="L198" s="24"/>
+      <c r="M198" s="26"/>
+      <c r="N198" s="38" t="s">
         <v>937</v>
       </c>
-      <c r="L198" s="11" t="s">
-        <v>938</v>
-      </c>
-      <c r="M198" s="7"/>
-      <c r="N198" s="41" t="s">
-        <v>939</v>
-      </c>
       <c r="O198" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P198" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q198" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="R198" s="53"/>
-      <c r="S198" s="52"/>
-      <c r="T198" s="52"/>
-      <c r="U198" s="52"/>
-      <c r="V198" s="52"/>
-      <c r="W198" s="52"/>
-      <c r="X198" s="52"/>
-      <c r="Y198" s="52"/>
-      <c r="Z198" s="52"/>
-      <c r="AA198" s="52"/>
-      <c r="AB198" s="52"/>
+      <c r="P198" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q198" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="R198" s="20"/>
     </row>
     <row r="199" customHeight="1" spans="1:18">
       <c r="A199" s="8" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B199" s="13"/>
-      <c r="C199" s="42" t="s">
-        <v>941</v>
+      <c r="C199" s="38" t="s">
+        <v>939</v>
       </c>
       <c r="D199" s="20" t="s">
         <v>90</v>
@@ -14543,11 +14507,11 @@
       <c r="E199" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F199" s="42">
-        <v>58</v>
+      <c r="F199" s="38">
+        <v>68</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H199" s="17" t="b">
         <v>1</v>
@@ -14556,17 +14520,17 @@
         <v>0</v>
       </c>
       <c r="J199" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="K199" s="20" t="s">
-        <v>942</v>
+        <v>867</v>
+      </c>
+      <c r="K199" s="12" t="s">
+        <v>940</v>
       </c>
       <c r="L199" s="24"/>
       <c r="M199" s="26"/>
-      <c r="N199" s="42" t="s">
-        <v>943</v>
-      </c>
-      <c r="O199" s="20" t="s">
+      <c r="N199" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="O199" s="7" t="s">
         <v>124</v>
       </c>
       <c r="P199" s="20" t="s">
@@ -14579,11 +14543,11 @@
     </row>
     <row r="200" customHeight="1" spans="1:18">
       <c r="A200" s="8" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B200" s="13"/>
-      <c r="C200" s="42" t="s">
-        <v>945</v>
+      <c r="C200" s="38" t="s">
+        <v>943</v>
       </c>
       <c r="D200" s="20" t="s">
         <v>90</v>
@@ -14591,11 +14555,11 @@
       <c r="E200" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F200" s="42">
+      <c r="F200" s="38">
         <v>58</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="H200" s="18" t="b">
         <v>1</v>
@@ -14604,15 +14568,15 @@
         <v>0</v>
       </c>
       <c r="J200" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="K200" s="20" t="s">
-        <v>946</v>
+        <v>867</v>
+      </c>
+      <c r="K200" s="12" t="s">
+        <v>944</v>
       </c>
       <c r="L200" s="24"/>
       <c r="M200" s="26"/>
-      <c r="N200" s="42" t="s">
-        <v>947</v>
+      <c r="N200" s="38" t="s">
+        <v>945</v>
       </c>
       <c r="O200" s="7" t="s">
         <v>124</v>
@@ -14627,11 +14591,11 @@
     </row>
     <row r="201" customHeight="1" spans="1:18">
       <c r="A201" s="8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B201" s="13"/>
-      <c r="C201" s="42" t="s">
-        <v>949</v>
+      <c r="C201" s="38" t="s">
+        <v>947</v>
       </c>
       <c r="D201" s="20" t="s">
         <v>90</v>
@@ -14639,157 +14603,157 @@
       <c r="E201" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F201" s="42">
-        <v>68</v>
+      <c r="F201" s="38">
+        <v>58</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>893</v>
-      </c>
-      <c r="H201" s="17" t="b">
+        <v>882</v>
+      </c>
+      <c r="H201" s="18" t="b">
         <v>1</v>
       </c>
       <c r="I201" s="21" t="b">
         <v>0</v>
       </c>
       <c r="J201" s="20" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="K201" s="12" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="L201" s="24"/>
       <c r="M201" s="26"/>
-      <c r="N201" s="42" t="s">
+      <c r="N201" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="O201" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P201" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q201" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="R201" s="20"/>
+    </row>
+    <row r="202" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A202" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="B202" s="45" t="s">
         <v>951</v>
       </c>
-      <c r="O201" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P201" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q201" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="R201" s="20"/>
-    </row>
-    <row r="202" customHeight="1" spans="1:18">
-      <c r="A202" s="8" t="s">
+      <c r="C202" s="45" t="s">
         <v>952</v>
       </c>
-      <c r="B202" s="13"/>
-      <c r="C202" s="42" t="s">
-        <v>953</v>
-      </c>
-      <c r="D202" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E202" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F202" s="42">
-        <v>58</v>
-      </c>
-      <c r="G202" s="12" t="s">
-        <v>888</v>
+      <c r="D202" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E202" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F202" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>866</v>
       </c>
       <c r="H202" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="I202" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="K202" s="12" t="s">
+      <c r="I202" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="K202" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="L202" s="24"/>
-      <c r="M202" s="26"/>
-      <c r="N202" s="42" t="s">
+      <c r="L202" s="46"/>
+      <c r="M202" s="15"/>
+      <c r="N202" s="49"/>
+      <c r="O202" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P202" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q202" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="R202" s="15"/>
+    </row>
+    <row r="203" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A203" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="O202" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P202" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q202" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="R202" s="20"/>
-    </row>
-    <row r="203" customHeight="1" spans="1:18">
-      <c r="A203" s="8" t="s">
+      <c r="B203" s="45" t="s">
         <v>956</v>
       </c>
-      <c r="B203" s="13"/>
-      <c r="C203" s="42" t="s">
+      <c r="C203" s="45" t="s">
         <v>957</v>
       </c>
-      <c r="D203" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E203" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F203" s="42">
-        <v>58</v>
-      </c>
-      <c r="G203" s="12" t="s">
-        <v>888</v>
+      <c r="D203" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E203" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>866</v>
       </c>
       <c r="H203" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="I203" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="K203" s="12" t="s">
+      <c r="I203" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="K203" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="L203" s="24"/>
-      <c r="M203" s="26"/>
-      <c r="N203" s="42" t="s">
-        <v>959</v>
-      </c>
-      <c r="O203" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P203" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q203" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="R203" s="20"/>
+      <c r="L203" s="46"/>
+      <c r="M203" s="15"/>
+      <c r="N203" s="49"/>
+      <c r="O203" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P203" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q203" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="R203" s="15"/>
     </row>
     <row r="204" customFormat="1" customHeight="1" spans="1:18">
       <c r="A204" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="B204" s="45" t="s">
         <v>960</v>
       </c>
-      <c r="B204" s="48" t="s">
+      <c r="C204" s="45" t="s">
         <v>961</v>
-      </c>
-      <c r="C204" s="48" t="s">
-        <v>962</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E204" s="48" t="s">
+      <c r="E204" s="45" t="s">
         <v>116</v>
       </c>
       <c r="F204" s="15" t="s">
         <v>343</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="H204" s="18" t="b">
         <v>1</v>
@@ -14798,142 +14762,142 @@
         <v>1</v>
       </c>
       <c r="J204" s="15" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="K204" s="15" t="s">
-        <v>964</v>
-      </c>
-      <c r="L204" s="49"/>
+        <v>962</v>
+      </c>
+      <c r="L204" s="46"/>
       <c r="M204" s="15"/>
-      <c r="N204" s="51"/>
-      <c r="O204" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P204" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q204" s="54" t="s">
+      <c r="N204" s="49"/>
+      <c r="O204" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P204" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q204" s="52" t="s">
         <v>195</v>
       </c>
       <c r="R204" s="15"/>
     </row>
     <row r="205" customFormat="1" customHeight="1" spans="1:18">
       <c r="A205" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="B205" s="45" t="s">
+        <v>964</v>
+      </c>
+      <c r="C205" s="45" t="s">
         <v>965</v>
-      </c>
-      <c r="B205" s="48" t="s">
-        <v>966</v>
-      </c>
-      <c r="C205" s="48" t="s">
-        <v>967</v>
       </c>
       <c r="D205" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E205" s="48" t="s">
+      <c r="E205" s="45" t="s">
         <v>116</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>343</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="H205" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" s="15" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="K205" s="15" t="s">
-        <v>968</v>
-      </c>
-      <c r="L205" s="49"/>
+        <v>966</v>
+      </c>
+      <c r="L205" s="46"/>
       <c r="M205" s="15"/>
-      <c r="N205" s="51"/>
-      <c r="O205" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P205" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q205" s="54" t="s">
+      <c r="N205" s="49"/>
+      <c r="O205" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P205" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q205" s="52" t="s">
         <v>195</v>
       </c>
       <c r="R205" s="15"/>
     </row>
     <row r="206" customFormat="1" customHeight="1" spans="1:18">
       <c r="A206" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="B206" s="45" t="s">
+        <v>968</v>
+      </c>
+      <c r="C206" s="45" t="s">
         <v>969</v>
-      </c>
-      <c r="B206" s="48" t="s">
-        <v>970</v>
-      </c>
-      <c r="C206" s="48" t="s">
-        <v>971</v>
       </c>
       <c r="D206" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E206" s="48" t="s">
+      <c r="E206" s="45" t="s">
         <v>116</v>
       </c>
       <c r="F206" s="15" t="s">
         <v>343</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="H206" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" s="15" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="K206" s="15" t="s">
-        <v>972</v>
-      </c>
-      <c r="L206" s="49"/>
+        <v>970</v>
+      </c>
+      <c r="L206" s="15"/>
       <c r="M206" s="15"/>
-      <c r="N206" s="51"/>
-      <c r="O206" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P206" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q206" s="54" t="s">
+      <c r="N206" s="49"/>
+      <c r="O206" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P206" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q206" s="52" t="s">
         <v>195</v>
       </c>
       <c r="R206" s="15"/>
     </row>
     <row r="207" customFormat="1" customHeight="1" spans="1:18">
       <c r="A207" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="B207" s="46" t="s">
+        <v>972</v>
+      </c>
+      <c r="C207" s="45" t="s">
         <v>973</v>
-      </c>
-      <c r="B207" s="48" t="s">
-        <v>974</v>
-      </c>
-      <c r="C207" s="48" t="s">
-        <v>975</v>
       </c>
       <c r="D207" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E207" s="48" t="s">
+      <c r="E207" s="45" t="s">
         <v>116</v>
       </c>
       <c r="F207" s="15" t="s">
         <v>343</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="H207" s="18" t="b">
         <v>0</v>
@@ -14942,46 +14906,46 @@
         <v>0</v>
       </c>
       <c r="J207" s="15" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="K207" s="15" t="s">
-        <v>976</v>
-      </c>
-      <c r="L207" s="49"/>
+        <v>974</v>
+      </c>
+      <c r="L207" s="15"/>
       <c r="M207" s="15"/>
-      <c r="N207" s="51"/>
-      <c r="O207" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P207" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q207" s="54" t="s">
+      <c r="N207" s="49"/>
+      <c r="O207" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P207" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q207" s="52" t="s">
         <v>195</v>
       </c>
       <c r="R207" s="15"/>
     </row>
     <row r="208" customFormat="1" customHeight="1" spans="1:18">
       <c r="A208" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="B208" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="C208" s="45" t="s">
         <v>977</v>
-      </c>
-      <c r="B208" s="48" t="s">
-        <v>978</v>
-      </c>
-      <c r="C208" s="48" t="s">
-        <v>979</v>
       </c>
       <c r="D208" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E208" s="48" t="s">
+      <c r="E208" s="45" t="s">
         <v>116</v>
       </c>
       <c r="F208" s="15" t="s">
         <v>343</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="H208" s="18" t="b">
         <v>0</v>
@@ -14990,120 +14954,24 @@
         <v>0</v>
       </c>
       <c r="J208" s="15" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="K208" s="15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="L208" s="15"/>
-      <c r="M208" s="15"/>
-      <c r="N208" s="51"/>
-      <c r="O208" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P208" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q208" s="54" t="s">
+      <c r="M208" s="49"/>
+      <c r="N208" s="15"/>
+      <c r="O208" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P208" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q208" s="52" t="s">
         <v>195</v>
       </c>
       <c r="R208" s="15"/>
-    </row>
-    <row r="209" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A209" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="B209" s="49" t="s">
-        <v>982</v>
-      </c>
-      <c r="C209" s="48" t="s">
-        <v>983</v>
-      </c>
-      <c r="D209" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E209" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F209" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G209" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="H209" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I209" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J209" s="15" t="s">
-        <v>963</v>
-      </c>
-      <c r="K209" s="15" t="s">
-        <v>984</v>
-      </c>
-      <c r="L209" s="15"/>
-      <c r="M209" s="15"/>
-      <c r="N209" s="51"/>
-      <c r="O209" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P209" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q209" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="R209" s="15"/>
-    </row>
-    <row r="210" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A210" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="B210" s="50" t="s">
-        <v>986</v>
-      </c>
-      <c r="C210" s="48" t="s">
-        <v>987</v>
-      </c>
-      <c r="D210" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E210" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F210" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G210" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="H210" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I210" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="15" t="s">
-        <v>963</v>
-      </c>
-      <c r="K210" s="15" t="s">
-        <v>988</v>
-      </c>
-      <c r="L210" s="15"/>
-      <c r="M210" s="51"/>
-      <c r="N210" s="15"/>
-      <c r="O210" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P210" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q210" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="R210" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_lunch.xlsx
+++ b/data/menu_lunch.xlsx
@@ -4972,8 +4972,8 @@
   <sheetPr/>
   <dimension ref="A1:AB208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:A208"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
